--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BBA32B-7E86-465F-8FC4-E49B15119D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF056CC7-A9A6-4732-A01C-B6403754FC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="4040" windowWidth="21700" windowHeight="10250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>pred_len</t>
   </si>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>Bi-LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,12 +322,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -606,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -627,12 +625,15 @@
     <col min="11" max="11" width="8.6640625" style="3"/>
     <col min="12" max="14" width="8.6640625" style="1"/>
     <col min="15" max="15" width="8.6640625" style="2"/>
-    <col min="16" max="16" width="8.6640625" style="26"/>
+    <col min="16" max="16" width="8.6640625" style="1"/>
     <col min="17" max="17" width="8.6640625" style="3"/>
-    <col min="18" max="16384" width="8.6640625" style="1"/>
+    <col min="18" max="18" width="8.6640625" style="2"/>
+    <col min="19" max="19" width="8.6640625" style="1"/>
+    <col min="20" max="20" width="8.6640625" style="3"/>
+    <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
@@ -656,10 +657,15 @@
       <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="24"/>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -708,8 +714,17 @@
       <c r="Q2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -755,14 +770,23 @@
       <c r="O3" s="2">
         <v>0.163824021816253</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="1">
         <v>4.4865254312753601E-2</v>
       </c>
       <c r="Q3" s="3">
         <v>0.211814194917678</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="2">
+        <v>0.16376949846744501</v>
+      </c>
+      <c r="S3" s="1">
+        <v>4.39804159104824E-2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.20971508324146201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>48</v>
       </c>
@@ -805,14 +829,23 @@
       <c r="O4" s="2">
         <v>0.15892267227172799</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="1">
         <v>4.3297417461872101E-2</v>
       </c>
       <c r="Q4" s="3">
         <v>0.20808032155036901</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="2">
+        <v>0.15985773503780301</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4.2661797255277599E-2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.20654731988906799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>96</v>
       </c>
@@ -855,14 +888,23 @@
       <c r="O5" s="2">
         <v>0.151401281356811</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="1">
         <v>4.0427424013614599E-2</v>
       </c>
       <c r="Q5" s="3">
         <v>0.201065719127655</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="2">
+        <v>0.153957739472389</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4.0712758898734998E-2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.201774030923843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -914,8 +956,17 @@
       <c r="Q6" s="11">
         <v>0.20964699983596799</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="15">
+        <v>0.16619838774204199</v>
+      </c>
+      <c r="S6" s="10">
+        <v>4.4709768146276398E-2</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0.21144685149192799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>48</v>
       </c>
@@ -958,14 +1009,23 @@
       <c r="O7" s="2">
         <v>0.157863289117813</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="1">
         <v>4.2571835219860001E-2</v>
       </c>
       <c r="Q7" s="3">
         <v>0.206329435110092</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="2">
+        <v>0.16095720231533001</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4.2570840567350297E-2</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.20632702112197801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <v>96</v>
       </c>
@@ -1014,8 +1074,17 @@
       <c r="Q8" s="17">
         <v>0.20197594165801999</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="21">
+        <v>0.15383370220661099</v>
+      </c>
+      <c r="S8" s="16">
+        <v>4.0202669799327802E-2</v>
+      </c>
+      <c r="T8" s="17">
+        <v>0.200506031513214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1061,14 +1130,23 @@
       <c r="O9" s="2">
         <v>0.16513808071613301</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="1">
         <v>4.4891852885484598E-2</v>
       </c>
       <c r="Q9" s="3">
         <v>0.21187697350978801</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="2">
+        <v>0.168903052806854</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4.57280687987804E-2</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.21384122967720001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>48</v>
       </c>
@@ -1111,14 +1189,23 @@
       <c r="O10" s="2">
         <v>0.158912077546119</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="1">
         <v>4.2616147547960198E-2</v>
       </c>
       <c r="Q10" s="3">
         <v>0.206436783075332</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="2">
+        <v>0.16071681678295099</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4.2665764689445398E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.206556931138038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>96</v>
       </c>
@@ -1161,14 +1248,23 @@
       <c r="O11" s="2">
         <v>0.15312035381793901</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="1">
         <v>4.0647096931934301E-2</v>
       </c>
       <c r="Q11" s="3">
         <v>0.20161125063896099</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="2">
+        <v>0.153701081871986</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4.00826260447502E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.200206458568573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -1220,8 +1316,17 @@
       <c r="Q12" s="11">
         <v>8.7468996644019997E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="15">
+        <v>4.90371137857437E-2</v>
+      </c>
+      <c r="S12" s="10">
+        <v>7.5658359564840698E-3</v>
+      </c>
+      <c r="T12" s="11">
+        <v>8.6981810629367801E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>48</v>
       </c>
@@ -1264,14 +1369,23 @@
       <c r="O13" s="2">
         <v>4.5987743884325E-2</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="1">
         <v>7.3866262100636898E-3</v>
       </c>
       <c r="Q13" s="3">
         <v>8.5945487022399902E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="2">
+        <v>4.7287322580814299E-2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>7.38787557929754E-3</v>
+      </c>
+      <c r="T13" s="3">
+        <v>8.5952751338481903E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <v>96</v>
       </c>
@@ -1320,8 +1434,17 @@
       <c r="Q14" s="17">
         <v>8.3812937140464699E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="21">
+        <v>4.57446053624153E-2</v>
+      </c>
+      <c r="S14" s="16">
+        <v>7.1201869286596697E-3</v>
+      </c>
+      <c r="T14" s="17">
+        <v>8.4381200373172704E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +1496,17 @@
       <c r="Q15" s="11">
         <v>8.8091656565666199E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="15">
+        <v>4.9452017992734902E-2</v>
+      </c>
+      <c r="S15" s="10">
+        <v>7.7620293013751498E-3</v>
+      </c>
+      <c r="T15" s="11">
+        <v>8.8102377951145103E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>48</v>
       </c>
@@ -1417,14 +1549,23 @@
       <c r="O16" s="2">
         <v>4.7425031661987298E-2</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="1">
         <v>7.5800567865371704E-3</v>
       </c>
       <c r="Q16" s="3">
         <v>8.7063521146774195E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="2">
+        <v>4.8135336488485302E-2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>7.7000716701149897E-3</v>
+      </c>
+      <c r="T16" s="3">
+        <v>8.7750054895877797E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <v>96</v>
       </c>
@@ -1473,8 +1614,17 @@
       <c r="Q17" s="17">
         <v>8.6345486342906896E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="21">
+        <v>4.6273984014987897E-2</v>
+      </c>
+      <c r="S17" s="16">
+        <v>7.4034263379871802E-3</v>
+      </c>
+      <c r="T17" s="17">
+        <v>8.6043164134025504E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1520,14 +1670,23 @@
       <c r="O18" s="2">
         <v>4.9195680767297703E-2</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="1">
         <v>7.8065479174256299E-3</v>
       </c>
       <c r="Q18" s="3">
         <v>8.8354669511318207E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="2">
+        <v>4.9252975732087999E-2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>7.7243843115866097E-3</v>
+      </c>
+      <c r="T18" s="3">
+        <v>8.7888479232788003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>48</v>
       </c>
@@ -1570,14 +1729,23 @@
       <c r="O19" s="2">
         <v>4.6525280922651201E-2</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="1">
         <v>7.4986526742577501E-3</v>
       </c>
       <c r="Q19" s="3">
         <v>8.6594760417938205E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="2">
+        <v>4.7143250703811597E-2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>7.4215270578861202E-3</v>
+      </c>
+      <c r="T19" s="3">
+        <v>8.6148284375667503E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>96</v>
       </c>
@@ -1620,15 +1788,25 @@
       <c r="O20" s="2">
         <v>4.5925471931695903E-2</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="1">
         <v>7.4203237891197196E-3</v>
       </c>
       <c r="Q20" s="3">
         <v>8.6141303181648199E-2</v>
       </c>
+      <c r="R20" s="2">
+        <v>4.5890841633081401E-2</v>
+      </c>
+      <c r="S20" s="1">
+        <v>7.3257205076515597E-3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>8.55904221534729E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF056CC7-A9A6-4732-A01C-B6403754FC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E66A0E7-BAF2-4642-B686-027C322DBC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-150" yWindow="5500" windowWidth="25810" windowHeight="8530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>pred_len</t>
   </si>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_168</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,9 +608,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
@@ -1804,6 +1808,105 @@
         <v>8.55904221534729E-2</v>
       </c>
     </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.6250062733888598E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>5.4900307441130205E-4</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.34308149665594E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.9246743991970999E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8.0495985457673604E-4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2.8371814638376201E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3.0981000512838301E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.89365062396973E-3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4.35160957276821E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1.7871698364615399E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>6.4205413218587604E-4</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2.5338787585496899E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2.2252824157476401E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.0910090059041901E-3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.3030424267053597E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3.6837778985500301E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.3147999309003301E-3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4.8112366348504999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>96</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.0298028364777499E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8.1362412311136701E-4</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.85240970551967E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.5904456153512001E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.4699215535074401E-3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.8339555263519197E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3.9149027317762299E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2.5933887809514999E-3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5.0925325602293001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="R1:T1"/>

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E66A0E7-BAF2-4642-B686-027C322DBC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A4CF02-7998-4E3A-92EE-AB6EBADB1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="5500" windowWidth="25810" windowHeight="8530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="190" yWindow="4560" windowWidth="25600" windowHeight="6920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>pred_len</t>
   </si>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>load_168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_96</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1808,102 +1812,201 @@
         <v>8.55904221534729E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1.8019666895270299E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>6.1920157168060498E-4</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2.4883762001991199E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2.0719474181532801E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8.8842952391132702E-4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2.98065356910228E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2.7454975992441101E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.3994163600727901E-3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3.7408772855997002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>48</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2.1260784938931399E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>8.1665714969858495E-4</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.8577214106917301E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.4438584223389601E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.21174147352576E-3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3.4810077399015399E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3.0486978590488399E-2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.5935684787109401E-3</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3.9919525384902899E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>96</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2.2915853187441802E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>9.53608483541756E-4</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3.0880551785230598E-2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.77378354221582E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.55908847227692E-3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3.9485294371843303E-2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3.3969853073358501E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.9975043833255698E-3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>4.4693447649478898E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C27" s="7">
         <v>1.6250062733888598E-2</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D27" s="8">
         <v>5.4900307441130205E-4</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E27" s="9">
         <v>2.34308149665594E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F27" s="2">
         <v>1.9246743991970999E-2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G27" s="1">
         <v>8.0495985457673604E-4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H27" s="3">
         <v>2.8371814638376201E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I27" s="2">
         <v>3.0981000512838301E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J27" s="1">
         <v>1.89365062396973E-3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K27" s="3">
         <v>4.35160957276821E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
         <v>48</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C28" s="7">
         <v>1.7871698364615399E-2</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D28" s="8">
         <v>6.4205413218587604E-4</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E28" s="9">
         <v>2.5338787585496899E-2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F28" s="2">
         <v>2.2252824157476401E-2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G28" s="1">
         <v>1.0910090059041901E-3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H28" s="3">
         <v>3.3030424267053597E-2</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I28" s="2">
         <v>3.6837778985500301E-2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J28" s="1">
         <v>2.3147999309003301E-3</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K28" s="3">
         <v>4.8112366348504999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
         <v>96</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C29" s="7">
         <v>2.0298028364777499E-2</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D29" s="8">
         <v>8.1362412311136701E-4</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E29" s="9">
         <v>2.85240970551967E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F29" s="2">
         <v>2.5904456153512001E-2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G29" s="1">
         <v>1.4699215535074401E-3</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H29" s="3">
         <v>3.8339555263519197E-2</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I29" s="2">
         <v>3.9149027317762299E-2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J29" s="1">
         <v>2.5933887809514999E-3</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K29" s="3">
         <v>5.0925325602293001E-2</v>
       </c>
     </row>

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A4CF02-7998-4E3A-92EE-AB6EBADB1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC232C6-B330-4039-BA34-7C5C743DFAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="190" yWindow="4560" windowWidth="25600" windowHeight="6920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="6240" windowWidth="25600" windowHeight="7210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>pred_len</t>
   </si>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>load_96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1812,6 +1816,105 @@
         <v>8.55904221534729E-2</v>
       </c>
     </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.8416857346892301E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>6.4510153606534004E-4</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.5398848578333799E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.11142171174287E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9.4132317462936E-4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.0680989846587101E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2.3338882252573901E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9.8802149295806798E-4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3.1432807445526102E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2.3212268948554899E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>9.6889137057587504E-4</v>
+      </c>
+      <c r="E22" s="9">
+        <v>3.1127020716667099E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2.5058504194021201E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.3069738633930601E-3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.6152094602584797E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2.81117670238018E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.3360022567212499E-3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3.65513637661933E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>96</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.6290317997336301E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1.2118930462747799E-3</v>
+      </c>
+      <c r="E23" s="9">
+        <v>3.4812252968549701E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3.0459787696599901E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.8887546611949799E-3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4.3459806591272299E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3.1587589532136903E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.68255530297756E-3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4.1018962860107401E-2</v>
+      </c>
+    </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC232C6-B330-4039-BA34-7C5C743DFAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17321C43-296E-414B-8FD2-6FDFC92CF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="6240" windowWidth="25600" windowHeight="7210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="1460" windowWidth="25600" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>pred_len</t>
   </si>
@@ -101,12 +101,16 @@
     <t>load_24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>solar_168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +127,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -262,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +346,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -616,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1276,246 +1291,66 @@
         <v>0.200206458568573</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11">
-        <v>24</v>
-      </c>
-      <c r="C12" s="15">
-        <v>3.7347428500652299E-2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>6.1462405137717698E-3</v>
-      </c>
-      <c r="E12" s="14">
-        <v>7.8397959470748901E-2</v>
-      </c>
-      <c r="F12" s="15">
-        <v>4.4458683580160099E-2</v>
-      </c>
-      <c r="G12" s="10">
-        <v>7.7513619326054998E-3</v>
-      </c>
-      <c r="H12" s="11">
-        <v>8.8041819632053306E-2</v>
-      </c>
-      <c r="I12" s="12">
-        <v>3.68955098092556E-2</v>
-      </c>
-      <c r="J12" s="10">
-        <v>6.1781909316778096E-3</v>
-      </c>
-      <c r="K12" s="11">
-        <v>7.8601472079753806E-2</v>
-      </c>
-      <c r="L12" s="10">
-        <v>5.18201999366283E-2</v>
-      </c>
-      <c r="M12" s="10">
-        <v>8.1555917859077402E-3</v>
-      </c>
-      <c r="N12" s="10">
-        <v>9.0308316051959894E-2</v>
-      </c>
-      <c r="O12" s="15">
-        <v>4.7947742044925599E-2</v>
-      </c>
-      <c r="P12" s="10">
-        <v>7.6508256606757597E-3</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>8.7468996644019997E-2</v>
-      </c>
-      <c r="R12" s="15">
-        <v>4.90371137857437E-2</v>
-      </c>
-      <c r="S12" s="10">
-        <v>7.5658359564840698E-3</v>
-      </c>
-      <c r="T12" s="11">
-        <v>8.6981810629367801E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3.8360789418220499E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>6.1233453452587102E-3</v>
-      </c>
-      <c r="E13" s="9">
-        <v>7.8251808881759602E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4.6694740653037997E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7.8838635236024805E-3</v>
-      </c>
-      <c r="H13" s="3">
-        <v>8.8791124522686005E-2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3.7596881389617899E-2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>6.4240023493766698E-3</v>
-      </c>
-      <c r="K13" s="3">
-        <v>8.0149874091148293E-2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>5.1356635987758602E-2</v>
-      </c>
-      <c r="M13" s="1">
-        <v>8.0977994948625495E-3</v>
-      </c>
-      <c r="N13" s="1">
-        <v>8.9987777173519107E-2</v>
-      </c>
-      <c r="O13" s="2">
-        <v>4.5987743884325E-2</v>
-      </c>
-      <c r="P13" s="1">
-        <v>7.3866262100636898E-3</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>8.5945487022399902E-2</v>
-      </c>
-      <c r="R13" s="2">
-        <v>4.7287322580814299E-2</v>
-      </c>
-      <c r="S13" s="1">
-        <v>7.38787557929754E-3</v>
-      </c>
-      <c r="T13" s="3">
-        <v>8.5952751338481903E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
-        <v>96</v>
-      </c>
-      <c r="C14" s="21">
-        <v>3.8529902696609497E-2</v>
-      </c>
-      <c r="D14" s="19">
-        <v>6.0955644585192204E-3</v>
-      </c>
-      <c r="E14" s="20">
-        <v>7.8074097633361803E-2</v>
-      </c>
-      <c r="F14" s="21">
-        <v>4.9092873930931001E-2</v>
-      </c>
-      <c r="G14" s="16">
-        <v>8.2127749919891305E-3</v>
-      </c>
-      <c r="H14" s="17">
-        <v>9.0624362230300903E-2</v>
-      </c>
-      <c r="I14" s="18">
-        <v>3.8448102772235801E-2</v>
-      </c>
-      <c r="J14" s="16">
-        <v>6.6068046726286403E-3</v>
-      </c>
-      <c r="K14" s="17">
-        <v>8.1282250583171803E-2</v>
-      </c>
-      <c r="L14" s="16">
-        <v>5.0785269588231999E-2</v>
-      </c>
-      <c r="M14" s="16">
-        <v>8.0195972695946693E-3</v>
-      </c>
-      <c r="N14" s="16">
-        <v>8.9552201330661704E-2</v>
-      </c>
-      <c r="O14" s="21">
-        <v>4.4125515967607498E-2</v>
-      </c>
-      <c r="P14" s="16">
-        <v>7.0246085524559004E-3</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>8.3812937140464699E-2</v>
-      </c>
-      <c r="R14" s="21">
-        <v>4.57446053624153E-2</v>
-      </c>
-      <c r="S14" s="16">
-        <v>7.1201869286596697E-3</v>
-      </c>
-      <c r="T14" s="17">
-        <v>8.4381200373172704E-2</v>
-      </c>
-    </row>
     <row r="15" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="11">
         <v>24</v>
       </c>
       <c r="C15" s="15">
-        <v>3.8187548518180799E-2</v>
+        <v>3.7347428500652299E-2</v>
       </c>
       <c r="D15" s="13">
-        <v>6.1322455294430204E-3</v>
+        <v>6.1462405137717698E-3</v>
       </c>
       <c r="E15" s="14">
-        <v>7.8308656811714103E-2</v>
+        <v>7.8397959470748901E-2</v>
       </c>
       <c r="F15" s="15">
-        <v>4.2492784559726701E-2</v>
+        <v>4.4458683580160099E-2</v>
       </c>
       <c r="G15" s="10">
-        <v>6.8082213401794399E-3</v>
+        <v>7.7513619326054998E-3</v>
       </c>
       <c r="H15" s="11">
-        <v>8.2511946558952304E-2</v>
+        <v>8.8041819632053306E-2</v>
       </c>
       <c r="I15" s="12">
-        <v>3.7510160356759997E-2</v>
+        <v>3.68955098092556E-2</v>
       </c>
       <c r="J15" s="10">
-        <v>6.46507740020751E-3</v>
+        <v>6.1781909316778096E-3</v>
       </c>
       <c r="K15" s="11">
-        <v>8.0405704677104894E-2</v>
+        <v>7.8601472079753806E-2</v>
       </c>
       <c r="L15" s="10">
-        <v>5.1643028855323701E-2</v>
+        <v>5.18201999366283E-2</v>
       </c>
       <c r="M15" s="10">
-        <v>8.1372568383812904E-3</v>
+        <v>8.1555917859077402E-3</v>
       </c>
       <c r="N15" s="10">
-        <v>9.0206742286682101E-2</v>
+        <v>9.0308316051959894E-2</v>
       </c>
       <c r="O15" s="15">
-        <v>4.9438372254371601E-2</v>
+        <v>4.7947742044925599E-2</v>
       </c>
       <c r="P15" s="10">
-        <v>7.7601405791938296E-3</v>
+        <v>7.6508256606757597E-3</v>
       </c>
       <c r="Q15" s="11">
-        <v>8.8091656565666199E-2</v>
+        <v>8.7468996644019997E-2</v>
       </c>
       <c r="R15" s="15">
-        <v>4.9452017992734902E-2</v>
+        <v>4.90371137857437E-2</v>
       </c>
       <c r="S15" s="10">
-        <v>7.7620293013751498E-3</v>
+        <v>7.5658359564840698E-3</v>
       </c>
       <c r="T15" s="11">
-        <v>8.8102377951145103E-2</v>
+        <v>8.6981810629367801E-2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1523,179 +1358,179 @@
         <v>48</v>
       </c>
       <c r="C16" s="2">
-        <v>3.9353840053081499E-2</v>
+        <v>3.8360789418220499E-2</v>
       </c>
       <c r="D16" s="8">
-        <v>6.1575532890856197E-3</v>
+        <v>6.1233453452587102E-3</v>
       </c>
       <c r="E16" s="9">
-        <v>7.8470081090927096E-2</v>
+        <v>7.8251808881759602E-2</v>
       </c>
       <c r="F16" s="2">
-        <v>4.4396448880434002E-2</v>
+        <v>4.6694740653037997E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>7.1852221153676501E-3</v>
+        <v>7.8838635236024805E-3</v>
       </c>
       <c r="H16" s="3">
-        <v>8.4765687584877E-2</v>
+        <v>8.8791124522686005E-2</v>
       </c>
       <c r="I16" s="7">
-        <v>3.8291092962026499E-2</v>
+        <v>3.7596881389617899E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>6.6923238337039904E-3</v>
+        <v>6.4240023493766698E-3</v>
       </c>
       <c r="K16" s="3">
-        <v>8.1806622445583302E-2</v>
+        <v>8.0149874091148293E-2</v>
       </c>
       <c r="L16" s="1">
-        <v>5.0998926162719699E-2</v>
+        <v>5.1356635987758602E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>8.0503951758146199E-3</v>
+        <v>8.0977994948625495E-3</v>
       </c>
       <c r="N16" s="1">
-        <v>8.9723996818065602E-2</v>
+        <v>8.9987777173519107E-2</v>
       </c>
       <c r="O16" s="2">
-        <v>4.7425031661987298E-2</v>
+        <v>4.5987743884325E-2</v>
       </c>
       <c r="P16" s="1">
-        <v>7.5800567865371704E-3</v>
+        <v>7.3866262100636898E-3</v>
       </c>
       <c r="Q16" s="3">
-        <v>8.7063521146774195E-2</v>
+        <v>8.5945487022399902E-2</v>
       </c>
       <c r="R16" s="2">
-        <v>4.8135336488485302E-2</v>
+        <v>4.7287322580814299E-2</v>
       </c>
       <c r="S16" s="1">
-        <v>7.7000716701149897E-3</v>
+        <v>7.38787557929754E-3</v>
       </c>
       <c r="T16" s="3">
-        <v>8.7750054895877797E-2</v>
+        <v>8.5952751338481903E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <v>96</v>
       </c>
-      <c r="C17" s="18">
-        <v>3.94344069063663E-2</v>
+      <c r="C17" s="21">
+        <v>3.8529902696609497E-2</v>
       </c>
       <c r="D17" s="19">
-        <v>6.1644776724278901E-3</v>
+        <v>6.0955644585192204E-3</v>
       </c>
       <c r="E17" s="20">
-        <v>7.8514188528060899E-2</v>
+        <v>7.8074097633361803E-2</v>
       </c>
       <c r="F17" s="21">
-        <v>4.6247314661741201E-2</v>
+        <v>4.9092873930931001E-2</v>
       </c>
       <c r="G17" s="16">
-        <v>7.4398065917193803E-3</v>
+        <v>8.2127749919891305E-3</v>
       </c>
       <c r="H17" s="17">
-        <v>8.6254313588142395E-2</v>
-      </c>
-      <c r="I17" s="21">
-        <v>3.9509188383817603E-2</v>
+        <v>9.0624362230300903E-2</v>
+      </c>
+      <c r="I17" s="18">
+        <v>3.8448102772235801E-2</v>
       </c>
       <c r="J17" s="16">
-        <v>7.0123644545674298E-3</v>
+        <v>6.6068046726286403E-3</v>
       </c>
       <c r="K17" s="17">
-        <v>8.3739861845970098E-2</v>
+        <v>8.1282250583171803E-2</v>
       </c>
       <c r="L17" s="16">
-        <v>5.06439954042434E-2</v>
+        <v>5.0785269588231999E-2</v>
       </c>
       <c r="M17" s="16">
-        <v>7.9884631559252704E-3</v>
+        <v>8.0195972695946693E-3</v>
       </c>
       <c r="N17" s="16">
-        <v>8.9378200471401201E-2</v>
+        <v>8.9552201330661704E-2</v>
       </c>
       <c r="O17" s="21">
-        <v>4.55546006560325E-2</v>
+        <v>4.4125515967607498E-2</v>
       </c>
       <c r="P17" s="16">
-        <v>7.4555436149239497E-3</v>
+        <v>7.0246085524559004E-3</v>
       </c>
       <c r="Q17" s="17">
-        <v>8.6345486342906896E-2</v>
+        <v>8.3812937140464699E-2</v>
       </c>
       <c r="R17" s="21">
-        <v>4.6273984014987897E-2</v>
+        <v>4.57446053624153E-2</v>
       </c>
       <c r="S17" s="16">
-        <v>7.4034263379871802E-3</v>
+        <v>7.1201869286596697E-3</v>
       </c>
       <c r="T17" s="17">
-        <v>8.6043164134025504E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3">
+        <v>8.4381200373172704E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11">
         <v>24</v>
       </c>
-      <c r="C18" s="7">
-        <v>3.85042950510978E-2</v>
-      </c>
-      <c r="D18" s="8">
-        <v>6.3458806835114904E-3</v>
-      </c>
-      <c r="E18" s="9">
-        <v>7.9661034047603593E-2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4.2442336678504902E-2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>6.8028019741177498E-3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>8.2479096949100494E-2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>3.9801962673664003E-2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>6.87693152576684E-3</v>
-      </c>
-      <c r="K18" s="3">
-        <v>8.2927264273166601E-2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>5.2170556038617998E-2</v>
-      </c>
-      <c r="M18" s="1">
-        <v>8.1855570897459897E-3</v>
-      </c>
-      <c r="N18" s="1">
-        <v>9.04740691184997E-2</v>
-      </c>
-      <c r="O18" s="2">
-        <v>4.9195680767297703E-2</v>
-      </c>
-      <c r="P18" s="1">
-        <v>7.8065479174256299E-3</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>8.8354669511318207E-2</v>
-      </c>
-      <c r="R18" s="2">
-        <v>4.9252975732087999E-2</v>
-      </c>
-      <c r="S18" s="1">
-        <v>7.7243843115866097E-3</v>
-      </c>
-      <c r="T18" s="3">
-        <v>8.7888479232788003E-2</v>
+      <c r="C18" s="15">
+        <v>3.8187548518180799E-2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>6.1322455294430204E-3</v>
+      </c>
+      <c r="E18" s="14">
+        <v>7.8308656811714103E-2</v>
+      </c>
+      <c r="F18" s="15">
+        <v>4.2492784559726701E-2</v>
+      </c>
+      <c r="G18" s="10">
+        <v>6.8082213401794399E-3</v>
+      </c>
+      <c r="H18" s="11">
+        <v>8.2511946558952304E-2</v>
+      </c>
+      <c r="I18" s="12">
+        <v>3.7510160356759997E-2</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6.46507740020751E-3</v>
+      </c>
+      <c r="K18" s="11">
+        <v>8.0405704677104894E-2</v>
+      </c>
+      <c r="L18" s="10">
+        <v>5.1643028855323701E-2</v>
+      </c>
+      <c r="M18" s="10">
+        <v>8.1372568383812904E-3</v>
+      </c>
+      <c r="N18" s="10">
+        <v>9.0206742286682101E-2</v>
+      </c>
+      <c r="O18" s="15">
+        <v>4.9438372254371601E-2</v>
+      </c>
+      <c r="P18" s="10">
+        <v>7.7601405791938296E-3</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>8.8091656565666199E-2</v>
+      </c>
+      <c r="R18" s="15">
+        <v>4.9452017992734902E-2</v>
+      </c>
+      <c r="S18" s="10">
+        <v>7.7620293013751498E-3</v>
+      </c>
+      <c r="T18" s="11">
+        <v>8.8102377951145103E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -1703,184 +1538,238 @@
         <v>48</v>
       </c>
       <c r="C19" s="2">
-        <v>3.9179753512143999E-2</v>
+        <v>3.9353840053081499E-2</v>
       </c>
       <c r="D19" s="8">
-        <v>6.1110127717256503E-3</v>
+        <v>6.1575532890856197E-3</v>
       </c>
       <c r="E19" s="9">
-        <v>7.8172966837882996E-2</v>
+        <v>7.8470081090927096E-2</v>
       </c>
       <c r="F19" s="2">
-        <v>4.3873600661754601E-2</v>
+        <v>4.4396448880434002E-2</v>
       </c>
       <c r="G19" s="1">
-        <v>6.9068404845893296E-3</v>
+        <v>7.1852221153676501E-3</v>
       </c>
       <c r="H19" s="3">
-        <v>8.3107404410838998E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3.8689862936735098E-2</v>
+        <v>8.4765687584877E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3.8291092962026499E-2</v>
       </c>
       <c r="J19" s="1">
-        <v>6.6957203671336096E-3</v>
+        <v>6.6923238337039904E-3</v>
       </c>
       <c r="K19" s="3">
-        <v>8.1827379763126304E-2</v>
+        <v>8.1806622445583302E-2</v>
       </c>
       <c r="L19" s="1">
-        <v>5.0971109420061098E-2</v>
+        <v>5.0998926162719699E-2</v>
       </c>
       <c r="M19" s="1">
-        <v>8.0313272774219496E-3</v>
+        <v>8.0503951758146199E-3</v>
       </c>
       <c r="N19" s="1">
-        <v>8.9617669582366902E-2</v>
+        <v>8.9723996818065602E-2</v>
       </c>
       <c r="O19" s="2">
-        <v>4.6525280922651201E-2</v>
+        <v>4.7425031661987298E-2</v>
       </c>
       <c r="P19" s="1">
-        <v>7.4986526742577501E-3</v>
+        <v>7.5800567865371704E-3</v>
       </c>
       <c r="Q19" s="3">
-        <v>8.6594760417938205E-2</v>
+        <v>8.7063521146774195E-2</v>
       </c>
       <c r="R19" s="2">
-        <v>4.7143250703811597E-2</v>
+        <v>4.8135336488485302E-2</v>
       </c>
       <c r="S19" s="1">
-        <v>7.4215270578861202E-3</v>
+        <v>7.7000716701149897E-3</v>
       </c>
       <c r="T19" s="3">
-        <v>8.6148284375667503E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+        <v>8.7750054895877797E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17">
         <v>96</v>
       </c>
-      <c r="C20" s="7">
-        <v>3.9633352309465401E-2</v>
-      </c>
-      <c r="D20" s="8">
-        <v>6.0280994512140699E-3</v>
-      </c>
-      <c r="E20" s="9">
-        <v>7.7640838921070099E-2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4.5343682169914197E-2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>7.3205428197979901E-3</v>
-      </c>
-      <c r="H20" s="3">
-        <v>8.5560172796249306E-2</v>
-      </c>
-      <c r="I20" s="2">
-        <v>4.0182903409004198E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>7.27424398064613E-3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>8.5289180278778007E-2</v>
-      </c>
-      <c r="L20" s="1">
-        <v>5.0425298511981902E-2</v>
-      </c>
-      <c r="M20" s="1">
-        <v>7.9505397006869299E-3</v>
-      </c>
-      <c r="N20" s="1">
-        <v>8.9165799319744096E-2</v>
-      </c>
-      <c r="O20" s="2">
-        <v>4.5925471931695903E-2</v>
-      </c>
-      <c r="P20" s="1">
-        <v>7.4203237891197196E-3</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>8.6141303181648199E-2</v>
-      </c>
-      <c r="R20" s="2">
-        <v>4.5890841633081401E-2</v>
-      </c>
-      <c r="S20" s="1">
-        <v>7.3257205076515597E-3</v>
-      </c>
-      <c r="T20" s="3">
-        <v>8.55904221534729E-2</v>
+      <c r="C20" s="18">
+        <v>3.94344069063663E-2</v>
+      </c>
+      <c r="D20" s="19">
+        <v>6.1644776724278901E-3</v>
+      </c>
+      <c r="E20" s="20">
+        <v>7.8514188528060899E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <v>4.6247314661741201E-2</v>
+      </c>
+      <c r="G20" s="16">
+        <v>7.4398065917193803E-3</v>
+      </c>
+      <c r="H20" s="17">
+        <v>8.6254313588142395E-2</v>
+      </c>
+      <c r="I20" s="21">
+        <v>3.9509188383817603E-2</v>
+      </c>
+      <c r="J20" s="16">
+        <v>7.0123644545674298E-3</v>
+      </c>
+      <c r="K20" s="17">
+        <v>8.3739861845970098E-2</v>
+      </c>
+      <c r="L20" s="16">
+        <v>5.06439954042434E-2</v>
+      </c>
+      <c r="M20" s="16">
+        <v>7.9884631559252704E-3</v>
+      </c>
+      <c r="N20" s="16">
+        <v>8.9378200471401201E-2</v>
+      </c>
+      <c r="O20" s="21">
+        <v>4.55546006560325E-2</v>
+      </c>
+      <c r="P20" s="16">
+        <v>7.4555436149239497E-3</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>8.6345486342906896E-2</v>
+      </c>
+      <c r="R20" s="21">
+        <v>4.6273984014987897E-2</v>
+      </c>
+      <c r="S20" s="16">
+        <v>7.4034263379871802E-3</v>
+      </c>
+      <c r="T20" s="17">
+        <v>8.6043164134025504E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3">
         <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>1.8416857346892301E-2</v>
+        <v>3.85042950510978E-2</v>
       </c>
       <c r="D21" s="8">
-        <v>6.4510153606534004E-4</v>
+        <v>6.3458806835114904E-3</v>
       </c>
       <c r="E21" s="9">
-        <v>2.5398848578333799E-2</v>
+        <v>7.9661034047603593E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>2.11142171174287E-2</v>
+        <v>4.2442336678504902E-2</v>
       </c>
       <c r="G21" s="1">
-        <v>9.4132317462936E-4</v>
+        <v>6.8028019741177498E-3</v>
       </c>
       <c r="H21" s="3">
-        <v>3.0680989846587101E-2</v>
+        <v>8.2479096949100494E-2</v>
       </c>
       <c r="I21" s="2">
-        <v>2.3338882252573901E-2</v>
+        <v>3.9801962673664003E-2</v>
       </c>
       <c r="J21" s="1">
-        <v>9.8802149295806798E-4</v>
+        <v>6.87693152576684E-3</v>
       </c>
       <c r="K21" s="3">
-        <v>3.1432807445526102E-2</v>
+        <v>8.2927264273166601E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5.2170556038617998E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>8.1855570897459897E-3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>9.04740691184997E-2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>4.9195680767297703E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>7.8065479174256299E-3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>8.8354669511318207E-2</v>
+      </c>
+      <c r="R21" s="2">
+        <v>4.9252975732087999E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>7.7243843115866097E-3</v>
+      </c>
+      <c r="T21" s="3">
+        <v>8.7888479232788003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>48</v>
       </c>
-      <c r="C22" s="7">
-        <v>2.3212268948554899E-2</v>
+      <c r="C22" s="2">
+        <v>3.9179753512143999E-2</v>
       </c>
       <c r="D22" s="8">
-        <v>9.6889137057587504E-4</v>
+        <v>6.1110127717256503E-3</v>
       </c>
       <c r="E22" s="9">
-        <v>3.1127020716667099E-2</v>
+        <v>7.8172966837882996E-2</v>
       </c>
       <c r="F22" s="2">
-        <v>2.5058504194021201E-2</v>
+        <v>4.3873600661754601E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>1.3069738633930601E-3</v>
+        <v>6.9068404845893296E-3</v>
       </c>
       <c r="H22" s="3">
-        <v>3.6152094602584797E-2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2.81117670238018E-2</v>
+        <v>8.3107404410838998E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3.8689862936735098E-2</v>
       </c>
       <c r="J22" s="1">
-        <v>1.3360022567212499E-3</v>
+        <v>6.6957203671336096E-3</v>
       </c>
       <c r="K22" s="3">
-        <v>3.65513637661933E-2</v>
+        <v>8.1827379763126304E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>5.0971109420061098E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>8.0313272774219496E-3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>8.9617669582366902E-2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>4.6525280922651201E-2</v>
+      </c>
+      <c r="P22" s="1">
+        <v>7.4986526742577501E-3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>8.6594760417938205E-2</v>
+      </c>
+      <c r="R22" s="2">
+        <v>4.7143250703811597E-2</v>
+      </c>
+      <c r="S22" s="1">
+        <v>7.4215270578861202E-3</v>
+      </c>
+      <c r="T22" s="3">
+        <v>8.6148284375667503E-2</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -1888,66 +1777,93 @@
         <v>96</v>
       </c>
       <c r="C23" s="7">
-        <v>2.6290317997336301E-2</v>
+        <v>3.9633352309465401E-2</v>
       </c>
       <c r="D23" s="8">
-        <v>1.2118930462747799E-3</v>
+        <v>6.0280994512140699E-3</v>
       </c>
       <c r="E23" s="9">
-        <v>3.4812252968549701E-2</v>
+        <v>7.7640838921070099E-2</v>
       </c>
       <c r="F23" s="2">
-        <v>3.0459787696599901E-2</v>
+        <v>4.5343682169914197E-2</v>
       </c>
       <c r="G23" s="1">
-        <v>1.8887546611949799E-3</v>
+        <v>7.3205428197979901E-3</v>
       </c>
       <c r="H23" s="3">
-        <v>4.3459806591272299E-2</v>
+        <v>8.5560172796249306E-2</v>
       </c>
       <c r="I23" s="2">
-        <v>3.1587589532136903E-2</v>
+        <v>4.0182903409004198E-2</v>
       </c>
       <c r="J23" s="1">
-        <v>1.68255530297756E-3</v>
+        <v>7.27424398064613E-3</v>
       </c>
       <c r="K23" s="3">
-        <v>4.1018962860107401E-2</v>
+        <v>8.5289180278778007E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>5.0425298511981902E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>7.9505397006869299E-3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>8.9165799319744096E-2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>4.5925471931695903E-2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>7.4203237891197196E-3</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>8.6141303181648199E-2</v>
+      </c>
+      <c r="R23" s="2">
+        <v>4.5890841633081401E-2</v>
+      </c>
+      <c r="S23" s="1">
+        <v>7.3257205076515597E-3</v>
+      </c>
+      <c r="T23" s="3">
+        <v>8.55904221534729E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
         <v>24</v>
       </c>
       <c r="C24" s="7">
-        <v>1.8019666895270299E-2</v>
+        <v>3.8539212197065298E-2</v>
       </c>
       <c r="D24" s="8">
-        <v>6.1920157168060498E-4</v>
+        <v>5.9217507950961503E-3</v>
       </c>
       <c r="E24" s="9">
-        <v>2.4883762001991199E-2</v>
+        <v>7.69529119133949E-2</v>
       </c>
       <c r="F24" s="2">
-        <v>2.0719474181532801E-2</v>
+        <v>4.1554320603609002E-2</v>
       </c>
       <c r="G24" s="1">
-        <v>8.8842952391132702E-4</v>
+        <v>6.6463216207921496E-3</v>
       </c>
       <c r="H24" s="3">
-        <v>2.98065356910228E-2</v>
+        <v>8.1524975597858401E-2</v>
       </c>
       <c r="I24" s="2">
-        <v>2.7454975992441101E-2</v>
+        <v>4.0074173361062997E-2</v>
       </c>
       <c r="J24" s="1">
-        <v>1.3994163600727901E-3</v>
+        <v>6.7737619392573799E-3</v>
       </c>
       <c r="K24" s="3">
-        <v>3.7408772855997002E-2</v>
+        <v>8.23028683662414E-2</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -1955,98 +1871,98 @@
         <v>48</v>
       </c>
       <c r="C25" s="7">
-        <v>2.1260784938931399E-2</v>
+        <v>3.9741411805152803E-2</v>
       </c>
       <c r="D25" s="8">
-        <v>8.1665714969858495E-4</v>
+        <v>6.0138301923870997E-3</v>
       </c>
       <c r="E25" s="9">
-        <v>2.8577214106917301E-2</v>
+        <v>7.7548891305923406E-2</v>
       </c>
       <c r="F25" s="2">
-        <v>2.4438584223389601E-2</v>
+        <v>4.24987412989139E-2</v>
       </c>
       <c r="G25" s="1">
-        <v>1.21174147352576E-3</v>
+        <v>6.7748315632343197E-3</v>
       </c>
       <c r="H25" s="3">
-        <v>3.4810077399015399E-2</v>
+        <v>8.2309365272521903E-2</v>
       </c>
       <c r="I25" s="2">
-        <v>3.0486978590488399E-2</v>
+        <v>4.0847703814506503E-2</v>
       </c>
       <c r="J25" s="1">
-        <v>1.5935684787109401E-3</v>
+        <v>7.2374762967228803E-3</v>
       </c>
       <c r="K25" s="3">
-        <v>3.9919525384902899E-2</v>
+        <v>8.50733593106269E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>96</v>
       </c>
-      <c r="C26" s="7">
-        <v>2.2915853187441802E-2</v>
+      <c r="C26" s="25">
+        <v>4.0421377867460202E-2</v>
       </c>
       <c r="D26" s="8">
-        <v>9.53608483541756E-4</v>
+        <v>6.0362918302416801E-3</v>
       </c>
       <c r="E26" s="9">
-        <v>3.0880551785230598E-2</v>
+        <v>7.7693574130535098E-2</v>
       </c>
       <c r="F26" s="2">
-        <v>2.77378354221582E-2</v>
+        <v>4.4652700424194301E-2</v>
       </c>
       <c r="G26" s="1">
-        <v>1.55908847227692E-3</v>
+        <v>7.1868333034217297E-3</v>
       </c>
       <c r="H26" s="3">
-        <v>3.9485294371843303E-2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3.3969853073358501E-2</v>
+        <v>8.4775194525718606E-2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3.9737433195114101E-2</v>
       </c>
       <c r="J26" s="1">
-        <v>1.9975043833255698E-3</v>
+        <v>6.8243094719946298E-3</v>
       </c>
       <c r="K26" s="3">
-        <v>4.4693447649478898E-2</v>
+        <v>8.2609377801418304E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3">
         <v>24</v>
       </c>
       <c r="C27" s="7">
-        <v>1.6250062733888598E-2</v>
+        <v>1.8416857346892301E-2</v>
       </c>
       <c r="D27" s="8">
-        <v>5.4900307441130205E-4</v>
+        <v>6.4510153606534004E-4</v>
       </c>
       <c r="E27" s="9">
-        <v>2.34308149665594E-2</v>
+        <v>2.5398848578333799E-2</v>
       </c>
       <c r="F27" s="2">
-        <v>1.9246743991970999E-2</v>
+        <v>2.11142171174287E-2</v>
       </c>
       <c r="G27" s="1">
-        <v>8.0495985457673604E-4</v>
+        <v>9.4132317462936E-4</v>
       </c>
       <c r="H27" s="3">
-        <v>2.8371814638376201E-2</v>
+        <v>3.0680989846587101E-2</v>
       </c>
       <c r="I27" s="2">
-        <v>3.0981000512838301E-2</v>
+        <v>2.3338882252573901E-2</v>
       </c>
       <c r="J27" s="1">
-        <v>1.89365062396973E-3</v>
+        <v>9.8802149295806798E-4</v>
       </c>
       <c r="K27" s="3">
-        <v>4.35160957276821E-2</v>
+        <v>3.1432807445526102E-2</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -2054,31 +1970,31 @@
         <v>48</v>
       </c>
       <c r="C28" s="7">
-        <v>1.7871698364615399E-2</v>
+        <v>2.3212268948554899E-2</v>
       </c>
       <c r="D28" s="8">
-        <v>6.4205413218587604E-4</v>
+        <v>9.6889137057587504E-4</v>
       </c>
       <c r="E28" s="9">
-        <v>2.5338787585496899E-2</v>
+        <v>3.1127020716667099E-2</v>
       </c>
       <c r="F28" s="2">
-        <v>2.2252824157476401E-2</v>
+        <v>2.5058504194021201E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>1.0910090059041901E-3</v>
+        <v>1.3069738633930601E-3</v>
       </c>
       <c r="H28" s="3">
-        <v>3.3030424267053597E-2</v>
+        <v>3.6152094602584797E-2</v>
       </c>
       <c r="I28" s="2">
-        <v>3.6837778985500301E-2</v>
+        <v>2.81117670238018E-2</v>
       </c>
       <c r="J28" s="1">
-        <v>2.3147999309003301E-3</v>
+        <v>1.3360022567212499E-3</v>
       </c>
       <c r="K28" s="3">
-        <v>4.8112366348504999E-2</v>
+        <v>3.65513637661933E-2</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2086,30 +2002,228 @@
         <v>96</v>
       </c>
       <c r="C29" s="7">
+        <v>2.6290317997336301E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1.2118930462747799E-3</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3.4812252968549701E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3.0459787696599901E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.8887546611949799E-3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4.3459806591272299E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3.1587589532136903E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.68255530297756E-3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>4.1018962860107401E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3">
+        <v>24</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1.8019666895270299E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>6.1920157168060498E-4</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2.4883762001991199E-2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.0719474181532801E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8.8842952391132702E-4</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2.98065356910228E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2.7454975992441101E-2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.3994163600727901E-3</v>
+      </c>
+      <c r="K30" s="3">
+        <v>3.7408772855997002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>48</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2.1260784938931399E-2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>8.1665714969858495E-4</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2.8577214106917301E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.4438584223389601E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.21174147352576E-3</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3.4810077399015399E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.0486978590488399E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.5935684787109401E-3</v>
+      </c>
+      <c r="K31" s="3">
+        <v>3.9919525384902899E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>96</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2.2915853187441802E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>9.53608483541756E-4</v>
+      </c>
+      <c r="E32" s="9">
+        <v>3.0880551785230598E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.77378354221582E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.55908847227692E-3</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3.9485294371843303E-2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3.3969853073358501E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.9975043833255698E-3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>4.4693447649478898E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3">
+        <v>24</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1.6250062733888598E-2</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5.4900307441130205E-4</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2.34308149665594E-2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.9246743991970999E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8.0495985457673604E-4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2.8371814638376201E-2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3.0981000512838301E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1.89365062396973E-3</v>
+      </c>
+      <c r="K33" s="3">
+        <v>4.35160957276821E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>48</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1.7871698364615399E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>6.4205413218587604E-4</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2.5338787585496899E-2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.2252824157476401E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.0910090059041901E-3</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3.3030424267053597E-2</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3.6837778985500301E-2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2.3147999309003301E-3</v>
+      </c>
+      <c r="K34" s="3">
+        <v>4.8112366348504999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>96</v>
+      </c>
+      <c r="C35" s="7">
         <v>2.0298028364777499E-2</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D35" s="8">
         <v>8.1362412311136701E-4</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E35" s="9">
         <v>2.85240970551967E-2</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F35" s="2">
         <v>2.5904456153512001E-2</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G35" s="1">
         <v>1.4699215535074401E-3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H35" s="3">
         <v>3.8339555263519197E-2</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I35" s="2">
         <v>3.9149027317762299E-2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J35" s="1">
         <v>2.5933887809514999E-3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K35" s="3">
         <v>5.0925325602293001E-2</v>
       </c>
     </row>

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17321C43-296E-414B-8FD2-6FDFC92CF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5EA498-F4CB-4169-B1FD-77A3E192871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1460" windowWidth="25600" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2350" windowWidth="25600" windowHeight="11090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>pred_len</t>
   </si>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>load_168</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +99,14 @@
   </si>
   <si>
     <t>solar_168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bi-GRU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,6 +343,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,9 +353,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -633,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -661,36 +665,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="22" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="24"/>
+      <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
@@ -1291,6 +1295,105 @@
         <v>0.200206458568573</v>
       </c>
     </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.130949437618255</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3.1894195824861499E-2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.178589463233947</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.201942443847656</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.8046748638153007E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.26085773110389698</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.18756277859210899</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5.8832272887229899E-2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.242553651332855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.136193811893463</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3.3979825675487497E-2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.18433617055416099</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.21978922188281999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7.7623896300792694E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.27861064672469998</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.183893263339996</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5.7227019220590501E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.239221692085266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>96</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.13881157338619199</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3.5383198410272598E-2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.188104227185249</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.232135489583015</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8.5827887058258001E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.29296398162841703</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.16891115903854301</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.9438402056694003E-2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.22234748303890201</v>
+      </c>
+    </row>
     <row r="15" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>9</v>
@@ -1833,7 +1936,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3">
         <v>24</v>
@@ -1902,7 +2005,7 @@
       <c r="B26" s="3">
         <v>96</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="22">
         <v>4.0421377867460202E-2</v>
       </c>
       <c r="D26" s="8">
@@ -1932,7 +2035,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3">
         <v>24</v>
@@ -2031,7 +2134,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3">
         <v>24</v>
@@ -2130,7 +2233,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3">
         <v>24</v>

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5EA498-F4CB-4169-B1FD-77A3E192871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2658427B-DED9-457B-9DB0-287F00B98070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2350" windowWidth="25600" windowHeight="11090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,12 +147,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -278,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,30 +304,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -331,21 +319,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,6 +329,75 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,66 +680,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="U33" sqref="U33:U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.58203125" style="1"/>
     <col min="2" max="2" width="8.58203125" style="3"/>
-    <col min="3" max="3" width="8.6640625" style="2"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="8.6640625" style="3"/>
-    <col min="6" max="6" width="8.6640625" style="2"/>
-    <col min="7" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="8" width="8.6640625" style="3"/>
-    <col min="9" max="9" width="8.6640625" style="2"/>
-    <col min="10" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="8.6640625" style="3"/>
-    <col min="12" max="14" width="8.6640625" style="1"/>
-    <col min="15" max="15" width="8.6640625" style="2"/>
-    <col min="16" max="16" width="8.6640625" style="1"/>
-    <col min="17" max="17" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="3" customWidth="1"/>
     <col min="18" max="18" width="8.6640625" style="2"/>
-    <col min="19" max="19" width="8.6640625" style="1"/>
+    <col min="19" max="19" width="8.6640625" style="16"/>
     <col min="20" max="20" width="8.6640625" style="3"/>
-    <col min="21" max="16384" width="8.6640625" style="1"/>
+    <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
@@ -727,13 +774,13 @@
       <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -762,537 +809,537 @@
       <c r="B3" s="3">
         <v>24</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="28">
         <v>0.11655319482088</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="31">
         <v>2.7306107804179101E-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="32">
         <v>0.16524559259414601</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="21">
         <v>0.202014476060867</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="27">
         <v>6.8504951894283295E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="23">
         <v>0.26173451542854298</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="21">
         <v>0.13348093628883301</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="27">
         <v>3.3567667007446199E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="23">
         <v>0.18321481347084001</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="21">
+        <v>0.163824021816253</v>
+      </c>
+      <c r="M3" s="27">
+        <v>4.4865254312753601E-2</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0.211814194917678</v>
+      </c>
+      <c r="O3" s="21">
+        <v>0.16376949846744501</v>
+      </c>
+      <c r="P3" s="27">
+        <v>4.39804159104824E-2</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>0.20971508324146201</v>
+      </c>
+      <c r="R3" s="21">
         <v>0.15677812695503199</v>
       </c>
-      <c r="M3" s="1">
+      <c r="S3" s="22">
         <v>3.99565286934375E-2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="T3" s="23">
         <v>0.19989129900932301</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.163824021816253</v>
-      </c>
-      <c r="P3" s="1">
-        <v>4.4865254312753601E-2</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0.211814194917678</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.16376949846744501</v>
-      </c>
-      <c r="S3" s="1">
-        <v>4.39804159104824E-2</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0.20971508324146201</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>48</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="28">
         <v>0.1230104342103</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="31">
         <v>2.9524529352784101E-2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="32">
         <v>0.171827033162117</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="21">
         <v>0.22177517414093001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="27">
         <v>7.7530011534690801E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="23">
         <v>0.27844211459159801</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="21">
         <v>0.13597610592842099</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="27">
         <v>3.4134138375520699E-2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="23">
         <v>0.18475426733493799</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="21">
+        <v>0.15892267227172799</v>
+      </c>
+      <c r="M4" s="27">
+        <v>4.3297417461872101E-2</v>
+      </c>
+      <c r="N4" s="23">
+        <v>0.20808032155036901</v>
+      </c>
+      <c r="O4" s="21">
+        <v>0.15985773503780301</v>
+      </c>
+      <c r="P4" s="27">
+        <v>4.2661797255277599E-2</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0.20654731988906799</v>
+      </c>
+      <c r="R4" s="21">
         <v>0.15172319114208199</v>
       </c>
-      <c r="M4" s="1">
+      <c r="S4" s="22">
         <v>3.8385242223739603E-2</v>
       </c>
-      <c r="N4" s="1">
+      <c r="T4" s="23">
         <v>0.195921525359153</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.15892267227172799</v>
-      </c>
-      <c r="P4" s="1">
-        <v>4.3297417461872101E-2</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0.20808032155036901</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.15985773503780301</v>
-      </c>
-      <c r="S4" s="1">
-        <v>4.2661797255277599E-2</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0.20654731988906799</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>96</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="28">
         <v>0.13076274096965701</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="31">
         <v>3.2509464770555399E-2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="32">
         <v>0.18030381202697701</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="21">
         <v>0.23652617633342701</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="27">
         <v>8.7130449712276403E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="23">
         <v>0.29517868161201399</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="21">
         <v>0.13767200708389199</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="27">
         <v>3.4882064908742898E-2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="23">
         <v>0.18676741421222601</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="21">
+        <v>0.151401281356811</v>
+      </c>
+      <c r="M5" s="27">
+        <v>4.0427424013614599E-2</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0.201065719127655</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0.153957739472389</v>
+      </c>
+      <c r="P5" s="27">
+        <v>4.0712758898734998E-2</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>0.201774030923843</v>
+      </c>
+      <c r="R5" s="21">
         <v>0.147674515843391</v>
       </c>
-      <c r="M5" s="1">
+      <c r="S5" s="22">
         <v>3.7153638899326297E-2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="T5" s="23">
         <v>0.19275279343128199</v>
       </c>
-      <c r="O5" s="2">
-        <v>0.151401281356811</v>
-      </c>
-      <c r="P5" s="1">
-        <v>4.0427424013614599E-2</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0.201065719127655</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.153957739472389</v>
-      </c>
-      <c r="S5" s="1">
-        <v>4.0712758898734998E-2</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0.201774030923843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>24</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="30">
         <v>0.12985345721244801</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="33">
         <v>3.1856678426265703E-2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="34">
         <v>0.17848439514636899</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="18">
         <v>0.20443807542324</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="19">
         <v>6.9060698151588398E-2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="20">
         <v>0.26279401779174799</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="18">
         <v>0.17077532410621599</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="19">
         <v>4.9491636455059003E-2</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="20">
         <v>0.22246715426444999</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="18">
+        <v>0.16256271302700001</v>
+      </c>
+      <c r="M6" s="19">
+        <v>4.3951865285634897E-2</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0.20964699983596799</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.16619838774204199</v>
+      </c>
+      <c r="P6" s="19">
+        <v>4.4709768146276398E-2</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>0.21144685149192799</v>
+      </c>
+      <c r="R6" s="18">
         <v>0.15755447745323101</v>
       </c>
-      <c r="M6" s="10">
+      <c r="S6" s="19">
         <v>4.0192168205976403E-2</v>
       </c>
-      <c r="N6" s="10">
+      <c r="T6" s="20">
         <v>0.20047985017299599</v>
-      </c>
-      <c r="O6" s="15">
-        <v>0.16256271302700001</v>
-      </c>
-      <c r="P6" s="10">
-        <v>4.3951865285634897E-2</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0.20964699983596799</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0.16619838774204199</v>
-      </c>
-      <c r="S6" s="10">
-        <v>4.4709768146276398E-2</v>
-      </c>
-      <c r="T6" s="11">
-        <v>0.21144685149192799</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>48</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="28">
         <v>0.12899044156074499</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="31">
         <v>3.2135039567947297E-2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="32">
         <v>0.17926248908042899</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="21">
         <v>0.21912920475006101</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="27">
         <v>7.8270062804222107E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="23">
         <v>0.27976787090301503</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="21">
         <v>0.15825793147087</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="27">
         <v>4.3394986540079103E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="23">
         <v>0.20831462740898099</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="21">
+        <v>0.157863289117813</v>
+      </c>
+      <c r="M7" s="27">
+        <v>4.2571835219860001E-2</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0.206329435110092</v>
+      </c>
+      <c r="O7" s="21">
+        <v>0.16095720231533001</v>
+      </c>
+      <c r="P7" s="27">
+        <v>4.2570840567350297E-2</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>0.20632702112197801</v>
+      </c>
+      <c r="R7" s="21">
         <v>0.15225131809711401</v>
       </c>
-      <c r="M7" s="1">
+      <c r="S7" s="22">
         <v>3.85371856391429E-2</v>
       </c>
-      <c r="N7" s="1">
+      <c r="T7" s="23">
         <v>0.19630891084671001</v>
       </c>
-      <c r="O7" s="2">
-        <v>0.157863289117813</v>
-      </c>
-      <c r="P7" s="1">
-        <v>4.2571835219860001E-2</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0.206329435110092</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.16095720231533001</v>
-      </c>
-      <c r="S7" s="1">
-        <v>4.2570840567350297E-2</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0.20632702112197801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17">
+    </row>
+    <row r="8" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
         <v>96</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="29">
         <v>0.13227391242980899</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="36">
         <v>3.3048331737518297E-2</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="37">
         <v>0.18179200589656799</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="24">
         <v>0.23416173458099299</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="25">
         <v>8.7962813675403595E-2</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="26">
         <v>0.29658526182174599</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="24">
         <v>0.15027090907096799</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="25">
         <v>4.0399566292762701E-2</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="26">
         <v>0.200996428728103</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="24">
+        <v>0.15309450030326799</v>
+      </c>
+      <c r="M8" s="25">
+        <v>4.0794283151626497E-2</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0.20197594165801999</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0.15383370220661099</v>
+      </c>
+      <c r="P8" s="25">
+        <v>4.0202669799327802E-2</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>0.200506031513214</v>
+      </c>
+      <c r="R8" s="24">
         <v>0.14790876209735801</v>
       </c>
-      <c r="M8" s="16">
+      <c r="S8" s="25">
         <v>3.7213187664747203E-2</v>
       </c>
-      <c r="N8" s="16">
+      <c r="T8" s="26">
         <v>0.192907199263572</v>
       </c>
-      <c r="O8" s="21">
-        <v>0.15309450030326799</v>
-      </c>
-      <c r="P8" s="16">
-        <v>4.0794283151626497E-2</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>0.20197594165801999</v>
-      </c>
-      <c r="R8" s="21">
-        <v>0.15383370220661099</v>
-      </c>
-      <c r="S8" s="16">
-        <v>4.0202669799327802E-2</v>
-      </c>
-      <c r="T8" s="17">
-        <v>0.200506031513214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>24</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="30">
         <v>0.12915480136871299</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="33">
         <v>3.2010942697524997E-2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="34">
         <v>0.17891602218151001</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="18">
         <v>0.203885868191719</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="19">
         <v>6.9328829646110507E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="20">
         <v>0.26330369710922202</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="18">
         <v>0.18455560505390101</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="19">
         <v>5.7595796883106197E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="20">
         <v>0.23999124765396099</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="18">
+        <v>0.16513808071613301</v>
+      </c>
+      <c r="M9" s="19">
+        <v>4.4891852885484598E-2</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0.21187697350978801</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0.168903052806854</v>
+      </c>
+      <c r="P9" s="19">
+        <v>4.57280687987804E-2</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0.21384122967720001</v>
+      </c>
+      <c r="R9" s="18">
         <v>0.15776526927947901</v>
       </c>
-      <c r="M9" s="1">
+      <c r="S9" s="19">
         <v>4.0313247591256998E-2</v>
       </c>
-      <c r="N9" s="1">
+      <c r="T9" s="20">
         <v>0.20078159868717099</v>
       </c>
-      <c r="O9" s="2">
-        <v>0.16513808071613301</v>
-      </c>
-      <c r="P9" s="1">
-        <v>4.4891852885484598E-2</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0.21187697350978801</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.168903052806854</v>
-      </c>
-      <c r="S9" s="1">
-        <v>4.57280687987804E-2</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0.21384122967720001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>48</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="28">
         <v>0.13329496979713401</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="35">
         <v>3.3311016857623998E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="32">
         <v>0.182513058185577</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="21">
         <v>0.22185930609703</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="22">
         <v>7.90583491325378E-2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="23">
         <v>0.28117316961288402</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="21">
         <v>0.16482038795948001</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="22">
         <v>4.7113642096519401E-2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="23">
         <v>0.21705676615238101</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="21">
+        <v>0.158912077546119</v>
+      </c>
+      <c r="M10" s="22">
+        <v>4.2616147547960198E-2</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0.206436783075332</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0.16071681678295099</v>
+      </c>
+      <c r="P10" s="22">
+        <v>4.2665764689445398E-2</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0.206556931138038</v>
+      </c>
+      <c r="R10" s="21">
         <v>0.15282611548900599</v>
       </c>
-      <c r="M10" s="1">
+      <c r="S10" s="22">
         <v>3.86902578175067E-2</v>
       </c>
-      <c r="N10" s="1">
+      <c r="T10" s="23">
         <v>0.196698397397995</v>
       </c>
-      <c r="O10" s="2">
-        <v>0.158912077546119</v>
-      </c>
-      <c r="P10" s="1">
-        <v>4.2616147547960198E-2</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0.206436783075332</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.16071681678295099</v>
-      </c>
-      <c r="S10" s="1">
-        <v>4.2665764689445398E-2</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0.206556931138038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+    </row>
+    <row r="11" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
         <v>96</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="29">
         <v>0.13535465300083099</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="36">
         <v>3.4015025943517602E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="37">
         <v>0.184431627392768</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="24">
         <v>0.23007251322269401</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="25">
         <v>8.5419759154319694E-2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="26">
         <v>0.29226657748222301</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="24">
         <v>0.15771870315074901</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="25">
         <v>4.3763827532529803E-2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="26">
         <v>0.209198057651519</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="24">
+        <v>0.15312035381793901</v>
+      </c>
+      <c r="M11" s="25">
+        <v>4.0647096931934301E-2</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0.20161125063896099</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0.153701081871986</v>
+      </c>
+      <c r="P11" s="25">
+        <v>4.00826260447502E-2</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>0.200206458568573</v>
+      </c>
+      <c r="R11" s="24">
         <v>0.148010268807411</v>
       </c>
-      <c r="M11" s="1">
+      <c r="S11" s="25">
         <v>3.7264931946992798E-2</v>
       </c>
-      <c r="N11" s="1">
+      <c r="T11" s="26">
         <v>0.19304126501083299</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.15312035381793901</v>
-      </c>
-      <c r="P11" s="1">
-        <v>4.0647096931934301E-2</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0.20161125063896099</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0.153701081871986</v>
-      </c>
-      <c r="S11" s="1">
-        <v>4.00826260447502E-2</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0.200206458568573</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -1302,934 +1349,1132 @@
       <c r="B12" s="3">
         <v>24</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="28">
         <v>0.130949437618255</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="31">
         <v>3.1894195824861499E-2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="32">
         <v>0.178589463233947</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="21">
         <v>0.201942443847656</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="27">
         <v>6.8046748638153007E-2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="23">
         <v>0.26085773110389698</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="21">
         <v>0.18756277859210899</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="27">
         <v>5.8832272887229899E-2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="23">
         <v>0.242553651332855</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.16466160118579801</v>
+      </c>
+      <c r="M12" s="27">
+        <v>4.4695284217595999E-2</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0.211412593722343</v>
+      </c>
+      <c r="O12" s="21">
+        <v>0.169041022658348</v>
+      </c>
+      <c r="P12" s="27">
+        <v>4.5631375163793501E-2</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0.21361501514911599</v>
+      </c>
+      <c r="R12" s="21">
+        <v>0.15496428310871099</v>
+      </c>
+      <c r="S12" s="22">
+        <v>3.9230443537235198E-2</v>
+      </c>
+      <c r="T12" s="23">
+        <v>0.198066771030426</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>48</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="28">
         <v>0.136193811893463</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="31">
         <v>3.3979825675487497E-2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="32">
         <v>0.18433617055416099</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="21">
         <v>0.21978922188281999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="27">
         <v>7.7623896300792694E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="23">
         <v>0.27861064672469998</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="21">
         <v>0.183893263339996</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="27">
         <v>5.7227019220590501E-2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="23">
         <v>0.239221692085266</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.15940743684768599</v>
+      </c>
+      <c r="M13" s="27">
+        <v>4.30626571178436E-2</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0.207515433430671</v>
+      </c>
+      <c r="O13" s="21">
+        <v>0.16200520098209301</v>
+      </c>
+      <c r="P13" s="27">
+        <v>4.3062441051006303E-2</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>0.20751491189002899</v>
+      </c>
+      <c r="R13" s="21">
+        <v>0.151910841464996</v>
+      </c>
+      <c r="S13" s="22">
+        <v>3.8210764527320799E-2</v>
+      </c>
+      <c r="T13" s="23">
+        <v>0.19547574222087799</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>96</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="28">
         <v>0.13881157338619199</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="31">
         <v>3.5383198410272598E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="32">
         <v>0.188104227185249</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="21">
         <v>0.232135489583015</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="27">
         <v>8.5827887058258001E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="23">
         <v>0.29296398162841703</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="21">
         <v>0.16891115903854301</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="27">
         <v>4.9438402056694003E-2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="23">
         <v>0.22234748303890201</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="L14" s="21">
+        <v>0.154224619269371</v>
+      </c>
+      <c r="M14" s="27">
+        <v>4.09804731607437E-2</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0.202436342835426</v>
+      </c>
+      <c r="O14" s="21">
+        <v>0.15538440644741</v>
+      </c>
+      <c r="P14" s="27">
+        <v>4.0743727236986098E-2</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.20185075700283001</v>
+      </c>
+      <c r="R14" s="21">
+        <v>0.15036503970623</v>
+      </c>
+      <c r="S14" s="22">
+        <v>3.7762589752674103E-2</v>
+      </c>
+      <c r="T14" s="23">
+        <v>0.19432598352432201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>24</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="18">
         <v>3.7347428500652299E-2</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="33">
         <v>6.1462405137717698E-3</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="34">
         <v>7.8397959470748901E-2</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="18">
         <v>4.4458683580160099E-2</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="19">
         <v>7.7513619326054998E-3</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="20">
         <v>8.8041819632053306E-2</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="30">
         <v>3.68955098092556E-2</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="19">
         <v>6.1781909316778096E-3</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="20">
         <v>7.8601472079753806E-2</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="18">
+        <v>4.7947742044925599E-2</v>
+      </c>
+      <c r="M15" s="19">
+        <v>7.6508256606757597E-3</v>
+      </c>
+      <c r="N15" s="20">
+        <v>8.7468996644019997E-2</v>
+      </c>
+      <c r="O15" s="18">
+        <v>4.90371137857437E-2</v>
+      </c>
+      <c r="P15" s="19">
+        <v>7.5658359564840698E-3</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>8.6981810629367801E-2</v>
+      </c>
+      <c r="R15" s="18">
         <v>5.18201999366283E-2</v>
       </c>
-      <c r="M15" s="10">
+      <c r="S15" s="19">
         <v>8.1555917859077402E-3</v>
       </c>
-      <c r="N15" s="10">
+      <c r="T15" s="20">
         <v>9.0308316051959894E-2</v>
-      </c>
-      <c r="O15" s="15">
-        <v>4.7947742044925599E-2</v>
-      </c>
-      <c r="P15" s="10">
-        <v>7.6508256606757597E-3</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>8.7468996644019997E-2</v>
-      </c>
-      <c r="R15" s="15">
-        <v>4.90371137857437E-2</v>
-      </c>
-      <c r="S15" s="10">
-        <v>7.5658359564840698E-3</v>
-      </c>
-      <c r="T15" s="11">
-        <v>8.6981810629367801E-2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>48</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="21">
         <v>3.8360789418220499E-2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="31">
         <v>6.1233453452587102E-3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="32">
         <v>7.8251808881759602E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="21">
         <v>4.6694740653037997E-2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="27">
         <v>7.8838635236024805E-3</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="23">
         <v>8.8791124522686005E-2</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="28">
         <v>3.7596881389617899E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="27">
         <v>6.4240023493766698E-3</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="23">
         <v>8.0149874091148293E-2</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="21">
+        <v>4.5987743884325E-2</v>
+      </c>
+      <c r="M16" s="27">
+        <v>7.3866262100636898E-3</v>
+      </c>
+      <c r="N16" s="23">
+        <v>8.5945487022399902E-2</v>
+      </c>
+      <c r="O16" s="21">
+        <v>4.7287322580814299E-2</v>
+      </c>
+      <c r="P16" s="27">
+        <v>7.38787557929754E-3</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>8.5952751338481903E-2</v>
+      </c>
+      <c r="R16" s="21">
         <v>5.1356635987758602E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="S16" s="22">
         <v>8.0977994948625495E-3</v>
       </c>
-      <c r="N16" s="1">
+      <c r="T16" s="23">
         <v>8.9987777173519107E-2</v>
       </c>
-      <c r="O16" s="2">
-        <v>4.5987743884325E-2</v>
-      </c>
-      <c r="P16" s="1">
-        <v>7.3866262100636898E-3</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>8.5945487022399902E-2</v>
-      </c>
-      <c r="R16" s="2">
-        <v>4.7287322580814299E-2</v>
-      </c>
-      <c r="S16" s="1">
-        <v>7.38787557929754E-3</v>
-      </c>
-      <c r="T16" s="3">
-        <v>8.5952751338481903E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17">
+    </row>
+    <row r="17" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
         <v>96</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="24">
         <v>3.8529902696609497E-2</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="36">
         <v>6.0955644585192204E-3</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="37">
         <v>7.8074097633361803E-2</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="24">
         <v>4.9092873930931001E-2</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="25">
         <v>8.2127749919891305E-3</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="26">
         <v>9.0624362230300903E-2</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="29">
         <v>3.8448102772235801E-2</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="25">
         <v>6.6068046726286403E-3</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="26">
         <v>8.1282250583171803E-2</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="24">
+        <v>4.4125515967607498E-2</v>
+      </c>
+      <c r="M17" s="25">
+        <v>7.0246085524559004E-3</v>
+      </c>
+      <c r="N17" s="26">
+        <v>8.3812937140464699E-2</v>
+      </c>
+      <c r="O17" s="24">
+        <v>4.57446053624153E-2</v>
+      </c>
+      <c r="P17" s="25">
+        <v>7.1201869286596697E-3</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>8.4381200373172704E-2</v>
+      </c>
+      <c r="R17" s="24">
         <v>5.0785269588231999E-2</v>
       </c>
-      <c r="M17" s="16">
+      <c r="S17" s="25">
         <v>8.0195972695946693E-3</v>
       </c>
-      <c r="N17" s="16">
+      <c r="T17" s="26">
         <v>8.9552201330661704E-2</v>
       </c>
-      <c r="O17" s="21">
-        <v>4.4125515967607498E-2</v>
-      </c>
-      <c r="P17" s="16">
-        <v>7.0246085524559004E-3</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>8.3812937140464699E-2</v>
-      </c>
-      <c r="R17" s="21">
-        <v>4.57446053624153E-2</v>
-      </c>
-      <c r="S17" s="16">
-        <v>7.1201869286596697E-3</v>
-      </c>
-      <c r="T17" s="17">
-        <v>8.4381200373172704E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    </row>
+    <row r="18" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>24</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="18">
         <v>3.8187548518180799E-2</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="33">
         <v>6.1322455294430204E-3</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="34">
         <v>7.8308656811714103E-2</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="18">
         <v>4.2492784559726701E-2</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="19">
         <v>6.8082213401794399E-3</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="20">
         <v>8.2511946558952304E-2</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="30">
         <v>3.7510160356759997E-2</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="19">
         <v>6.46507740020751E-3</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="20">
         <v>8.0405704677104894E-2</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="18">
+        <v>4.9438372254371601E-2</v>
+      </c>
+      <c r="M18" s="19">
+        <v>7.7601405791938296E-3</v>
+      </c>
+      <c r="N18" s="20">
+        <v>8.8091656565666199E-2</v>
+      </c>
+      <c r="O18" s="18">
+        <v>4.9452017992734902E-2</v>
+      </c>
+      <c r="P18" s="19">
+        <v>7.7620293013751498E-3</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>8.8102377951145103E-2</v>
+      </c>
+      <c r="R18" s="18">
         <v>5.1643028855323701E-2</v>
       </c>
-      <c r="M18" s="10">
+      <c r="S18" s="19">
         <v>8.1372568383812904E-3</v>
       </c>
-      <c r="N18" s="10">
+      <c r="T18" s="20">
         <v>9.0206742286682101E-2</v>
-      </c>
-      <c r="O18" s="15">
-        <v>4.9438372254371601E-2</v>
-      </c>
-      <c r="P18" s="10">
-        <v>7.7601405791938296E-3</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>8.8091656565666199E-2</v>
-      </c>
-      <c r="R18" s="15">
-        <v>4.9452017992734902E-2</v>
-      </c>
-      <c r="S18" s="10">
-        <v>7.7620293013751498E-3</v>
-      </c>
-      <c r="T18" s="11">
-        <v>8.8102377951145103E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>48</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="21">
         <v>3.9353840053081499E-2</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="31">
         <v>6.1575532890856197E-3</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="32">
         <v>7.8470081090927096E-2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="21">
         <v>4.4396448880434002E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="27">
         <v>7.1852221153676501E-3</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="23">
         <v>8.4765687584877E-2</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="28">
         <v>3.8291092962026499E-2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="27">
         <v>6.6923238337039904E-3</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="23">
         <v>8.1806622445583302E-2</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="21">
+        <v>4.7425031661987298E-2</v>
+      </c>
+      <c r="M19" s="27">
+        <v>7.5800567865371704E-3</v>
+      </c>
+      <c r="N19" s="23">
+        <v>8.7063521146774195E-2</v>
+      </c>
+      <c r="O19" s="21">
+        <v>4.8135336488485302E-2</v>
+      </c>
+      <c r="P19" s="27">
+        <v>7.7000716701149897E-3</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>8.7750054895877797E-2</v>
+      </c>
+      <c r="R19" s="21">
         <v>5.0998926162719699E-2</v>
       </c>
-      <c r="M19" s="1">
+      <c r="S19" s="22">
         <v>8.0503951758146199E-3</v>
       </c>
-      <c r="N19" s="1">
+      <c r="T19" s="23">
         <v>8.9723996818065602E-2</v>
       </c>
-      <c r="O19" s="2">
-        <v>4.7425031661987298E-2</v>
-      </c>
-      <c r="P19" s="1">
-        <v>7.5800567865371704E-3</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>8.7063521146774195E-2</v>
-      </c>
-      <c r="R19" s="2">
-        <v>4.8135336488485302E-2</v>
-      </c>
-      <c r="S19" s="1">
-        <v>7.7000716701149897E-3</v>
-      </c>
-      <c r="T19" s="3">
-        <v>8.7750054895877797E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17">
+    </row>
+    <row r="20" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
         <v>96</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="29">
         <v>3.94344069063663E-2</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="36">
         <v>6.1644776724278901E-3</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="37">
         <v>7.8514188528060899E-2</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="24">
         <v>4.6247314661741201E-2</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="25">
         <v>7.4398065917193803E-3</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="26">
         <v>8.6254313588142395E-2</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="24">
         <v>3.9509188383817603E-2</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="25">
         <v>7.0123644545674298E-3</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="26">
         <v>8.3739861845970098E-2</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="24">
+        <v>4.55546006560325E-2</v>
+      </c>
+      <c r="M20" s="25">
+        <v>7.4555436149239497E-3</v>
+      </c>
+      <c r="N20" s="26">
+        <v>8.6345486342906896E-2</v>
+      </c>
+      <c r="O20" s="24">
+        <v>4.6273984014987897E-2</v>
+      </c>
+      <c r="P20" s="25">
+        <v>7.4034263379871802E-3</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>8.6043164134025504E-2</v>
+      </c>
+      <c r="R20" s="24">
         <v>5.06439954042434E-2</v>
       </c>
-      <c r="M20" s="16">
+      <c r="S20" s="25">
         <v>7.9884631559252704E-3</v>
       </c>
-      <c r="N20" s="16">
+      <c r="T20" s="26">
         <v>8.9378200471401201E-2</v>
       </c>
-      <c r="O20" s="21">
-        <v>4.55546006560325E-2</v>
-      </c>
-      <c r="P20" s="16">
-        <v>7.4555436149239497E-3</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>8.6345486342906896E-2</v>
-      </c>
-      <c r="R20" s="21">
-        <v>4.6273984014987897E-2</v>
-      </c>
-      <c r="S20" s="16">
-        <v>7.4034263379871802E-3</v>
-      </c>
-      <c r="T20" s="17">
-        <v>8.6043164134025504E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="8">
         <v>24</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="30">
         <v>3.85042950510978E-2</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="33">
         <v>6.3458806835114904E-3</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="34">
         <v>7.9661034047603593E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="18">
         <v>4.2442336678504902E-2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="19">
         <v>6.8028019741177498E-3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="20">
         <v>8.2479096949100494E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="18">
         <v>3.9801962673664003E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="19">
         <v>6.87693152576684E-3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="20">
         <v>8.2927264273166601E-2</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="18">
+        <v>4.9195680767297703E-2</v>
+      </c>
+      <c r="M21" s="19">
+        <v>7.8065479174256299E-3</v>
+      </c>
+      <c r="N21" s="20">
+        <v>8.8354669511318207E-2</v>
+      </c>
+      <c r="O21" s="18">
+        <v>4.9252975732087999E-2</v>
+      </c>
+      <c r="P21" s="19">
+        <v>7.7243843115866097E-3</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>8.7888479232788003E-2</v>
+      </c>
+      <c r="R21" s="18">
         <v>5.2170556038617998E-2</v>
       </c>
-      <c r="M21" s="1">
+      <c r="S21" s="19">
         <v>8.1855570897459897E-3</v>
       </c>
-      <c r="N21" s="1">
+      <c r="T21" s="20">
         <v>9.04740691184997E-2</v>
       </c>
-      <c r="O21" s="2">
-        <v>4.9195680767297703E-2</v>
-      </c>
-      <c r="P21" s="1">
-        <v>7.8065479174256299E-3</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>8.8354669511318207E-2</v>
-      </c>
-      <c r="R21" s="2">
-        <v>4.9252975732087999E-2</v>
-      </c>
-      <c r="S21" s="1">
-        <v>7.7243843115866097E-3</v>
-      </c>
-      <c r="T21" s="3">
-        <v>8.7888479232788003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>48</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="21">
         <v>3.9179753512143999E-2</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="35">
         <v>6.1110127717256503E-3</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="32">
         <v>7.8172966837882996E-2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="21">
         <v>4.3873600661754601E-2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="22">
         <v>6.9068404845893296E-3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="23">
         <v>8.3107404410838998E-2</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="28">
         <v>3.8689862936735098E-2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="22">
         <v>6.6957203671336096E-3</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="23">
         <v>8.1827379763126304E-2</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="21">
+        <v>4.6525280922651201E-2</v>
+      </c>
+      <c r="M22" s="22">
+        <v>7.4986526742577501E-3</v>
+      </c>
+      <c r="N22" s="23">
+        <v>8.6594760417938205E-2</v>
+      </c>
+      <c r="O22" s="21">
+        <v>4.7143250703811597E-2</v>
+      </c>
+      <c r="P22" s="22">
+        <v>7.4215270578861202E-3</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>8.6148284375667503E-2</v>
+      </c>
+      <c r="R22" s="21">
         <v>5.0971109420061098E-2</v>
       </c>
-      <c r="M22" s="1">
+      <c r="S22" s="22">
         <v>8.0313272774219496E-3</v>
       </c>
-      <c r="N22" s="1">
+      <c r="T22" s="23">
         <v>8.9617669582366902E-2</v>
       </c>
-      <c r="O22" s="2">
-        <v>4.6525280922651201E-2</v>
-      </c>
-      <c r="P22" s="1">
-        <v>7.4986526742577501E-3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>8.6594760417938205E-2</v>
-      </c>
-      <c r="R22" s="2">
-        <v>4.7143250703811597E-2</v>
-      </c>
-      <c r="S22" s="1">
-        <v>7.4215270578861202E-3</v>
-      </c>
-      <c r="T22" s="3">
-        <v>8.6148284375667503E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+    </row>
+    <row r="23" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11">
         <v>96</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="29">
         <v>3.9633352309465401E-2</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="36">
         <v>6.0280994512140699E-3</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="37">
         <v>7.7640838921070099E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="24">
         <v>4.5343682169914197E-2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="25">
         <v>7.3205428197979901E-3</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="26">
         <v>8.5560172796249306E-2</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="24">
         <v>4.0182903409004198E-2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="25">
         <v>7.27424398064613E-3</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="26">
         <v>8.5289180278778007E-2</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="24">
+        <v>4.5925471931695903E-2</v>
+      </c>
+      <c r="M23" s="25">
+        <v>7.4203237891197196E-3</v>
+      </c>
+      <c r="N23" s="26">
+        <v>8.6141303181648199E-2</v>
+      </c>
+      <c r="O23" s="24">
+        <v>4.5890841633081401E-2</v>
+      </c>
+      <c r="P23" s="25">
+        <v>7.3257205076515597E-3</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>8.55904221534729E-2</v>
+      </c>
+      <c r="R23" s="24">
         <v>5.0425298511981902E-2</v>
       </c>
-      <c r="M23" s="1">
+      <c r="S23" s="25">
         <v>7.9505397006869299E-3</v>
       </c>
-      <c r="N23" s="1">
+      <c r="T23" s="26">
         <v>8.9165799319744096E-2</v>
       </c>
-      <c r="O23" s="2">
-        <v>4.5925471931695903E-2</v>
-      </c>
-      <c r="P23" s="1">
-        <v>7.4203237891197196E-3</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>8.6141303181648199E-2</v>
-      </c>
-      <c r="R23" s="2">
-        <v>4.5890841633081401E-2</v>
-      </c>
-      <c r="S23" s="1">
-        <v>7.3257205076515597E-3</v>
-      </c>
-      <c r="T23" s="3">
-        <v>8.55904221534729E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="8">
         <v>24</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="30">
         <v>3.8539212197065298E-2</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="33">
         <v>5.9217507950961503E-3</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="34">
         <v>7.69529119133949E-2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="18">
         <v>4.1554320603609002E-2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="19">
         <v>6.6463216207921496E-3</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="20">
         <v>8.1524975597858401E-2</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="18">
         <v>4.0074173361062997E-2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="19">
         <v>6.7737619392573799E-3</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="20">
         <v>8.23028683662414E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L24" s="18">
+        <v>4.98756021261215E-2</v>
+      </c>
+      <c r="M24" s="19">
+        <v>8.1985350698232599E-3</v>
+      </c>
+      <c r="N24" s="20">
+        <v>9.0545758605003301E-2</v>
+      </c>
+      <c r="O24" s="18">
+        <v>5.0679896026849698E-2</v>
+      </c>
+      <c r="P24" s="19">
+        <v>8.1660132855176908E-3</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>9.0365998446941306E-2</v>
+      </c>
+      <c r="R24" s="18">
+        <v>5.1665645092725698E-2</v>
+      </c>
+      <c r="S24" s="19">
+        <v>8.3811627700924804E-3</v>
+      </c>
+      <c r="T24" s="20">
+        <v>9.1548688709735801E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>48</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="28">
         <v>3.9741411805152803E-2</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="35">
         <v>6.0138301923870997E-3</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="32">
         <v>7.7548891305923406E-2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="21">
         <v>4.24987412989139E-2</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="22">
         <v>6.7748315632343197E-3</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="23">
         <v>8.2309365272521903E-2</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="21">
         <v>4.0847703814506503E-2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="22">
         <v>7.2374762967228803E-3</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="23">
         <v>8.50733593106269E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+      <c r="L25" s="21">
+        <v>4.7411084175109801E-2</v>
+      </c>
+      <c r="M25" s="22">
+        <v>7.7752089127898199E-3</v>
+      </c>
+      <c r="N25" s="23">
+        <v>8.8177144527435303E-2</v>
+      </c>
+      <c r="O25" s="21">
+        <v>4.7839812934398603E-2</v>
+      </c>
+      <c r="P25" s="22">
+        <v>7.6861619018018202E-3</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>8.7670758366584695E-2</v>
+      </c>
+      <c r="R25" s="21">
+        <v>5.1097150892019202E-2</v>
+      </c>
+      <c r="S25" s="22">
+        <v>8.2502933219075203E-3</v>
+      </c>
+      <c r="T25" s="23">
+        <v>9.0831123292446095E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
         <v>96</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="38">
         <v>4.0421377867460202E-2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="36">
         <v>6.0362918302416801E-3</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="37">
         <v>7.7693574130535098E-2</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="24">
         <v>4.4652700424194301E-2</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="25">
         <v>7.1868333034217297E-3</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="26">
         <v>8.4775194525718606E-2</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="29">
         <v>3.9737433195114101E-2</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="25">
         <v>6.8243094719946298E-3</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="26">
         <v>8.2609377801418304E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="L26" s="24">
+        <v>4.7340419143438298E-2</v>
+      </c>
+      <c r="M26" s="25">
+        <v>7.8585175797343202E-3</v>
+      </c>
+      <c r="N26" s="26">
+        <v>8.8648281991481698E-2</v>
+      </c>
+      <c r="O26" s="24">
+        <v>4.6708479523658697E-2</v>
+      </c>
+      <c r="P26" s="25">
+        <v>7.6028052717447203E-3</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>8.7194070219993494E-2</v>
+      </c>
+      <c r="R26" s="24">
+        <v>4.9877233803272199E-2</v>
+      </c>
+      <c r="S26" s="25">
+        <v>8.0335261300206098E-3</v>
+      </c>
+      <c r="T26" s="26">
+        <v>8.9629940688609994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="8">
         <v>24</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="30">
         <v>1.8416857346892301E-2</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="33">
         <v>6.4510153606534004E-4</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="34">
         <v>2.5398848578333799E-2</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="18">
         <v>2.11142171174287E-2</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="19">
         <v>9.4132317462936E-4</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="20">
         <v>3.0680989846587101E-2</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="18">
         <v>2.3338882252573901E-2</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="19">
         <v>9.8802149295806798E-4</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="20">
         <v>3.1432807445526102E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L27" s="9"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="9"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>48</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="28">
         <v>2.3212268948554899E-2</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="35">
         <v>9.6889137057587504E-4</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="32">
         <v>3.1127020716667099E-2</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="21">
         <v>2.5058504194021201E-2</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="22">
         <v>1.3069738633930601E-3</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="23">
         <v>3.6152094602584797E-2</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="21">
         <v>2.81117670238018E-2</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="22">
         <v>1.3360022567212499E-3</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="23">
         <v>3.65513637661933E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+      <c r="L28" s="2"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="2"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="2"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
         <v>96</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="29">
         <v>2.6290317997336301E-2</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="36">
         <v>1.2118930462747799E-3</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="37">
         <v>3.4812252968549701E-2</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="24">
         <v>3.0459787696599901E-2</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="25">
         <v>1.8887546611949799E-3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="26">
         <v>4.3459806591272299E-2</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="24">
         <v>3.1587589532136903E-2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="25">
         <v>1.68255530297756E-3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="26">
         <v>4.1018962860107401E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="L29" s="12"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12"/>
+      <c r="T29" s="11"/>
+    </row>
+    <row r="30" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="8">
         <v>24</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="30">
         <v>1.8019666895270299E-2</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="33">
         <v>6.1920157168060498E-4</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="34">
         <v>2.4883762001991199E-2</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="18">
         <v>2.0719474181532801E-2</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="19">
         <v>8.8842952391132702E-4</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="20">
         <v>2.98065356910228E-2</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="18">
         <v>2.7454975992441101E-2</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="19">
         <v>1.3994163600727901E-3</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="20">
         <v>3.7408772855997002E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L30" s="9"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="9"/>
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>48</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="28">
         <v>2.1260784938931399E-2</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="35">
         <v>8.1665714969858495E-4</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="32">
         <v>2.8577214106917301E-2</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="21">
         <v>2.4438584223389601E-2</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="22">
         <v>1.21174147352576E-3</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="23">
         <v>3.4810077399015399E-2</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="21">
         <v>3.0486978590488399E-2</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="22">
         <v>1.5935684787109401E-3</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="23">
         <v>3.9919525384902899E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="3">
+      <c r="L31" s="2"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="2"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="2"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="11">
         <v>96</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="29">
         <v>2.2915853187441802E-2</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="36">
         <v>9.53608483541756E-4</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="37">
         <v>3.0880551785230598E-2</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="24">
         <v>2.77378354221582E-2</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="25">
         <v>1.55908847227692E-3</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="26">
         <v>3.9485294371843303E-2</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="24">
         <v>3.3969853073358501E-2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="25">
         <v>1.9975043833255698E-3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="26">
         <v>4.4693447649478898E-2</v>
       </c>
+      <c r="L32" s="12"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12"/>
+      <c r="T32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -2238,31 +2483,31 @@
       <c r="B33" s="3">
         <v>24</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="28">
         <v>1.6250062733888598E-2</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="31">
         <v>5.4900307441130205E-4</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="32">
         <v>2.34308149665594E-2</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="21">
         <v>1.9246743991970999E-2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="27">
         <v>8.0495985457673604E-4</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="23">
         <v>2.8371814638376201E-2</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="21">
         <v>3.0981000512838301E-2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="27">
         <v>1.89365062396973E-3</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="23">
         <v>4.35160957276821E-2</v>
       </c>
     </row>
@@ -2270,31 +2515,31 @@
       <c r="B34" s="3">
         <v>48</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="28">
         <v>1.7871698364615399E-2</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="31">
         <v>6.4205413218587604E-4</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="32">
         <v>2.5338787585496899E-2</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="21">
         <v>2.2252824157476401E-2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="27">
         <v>1.0910090059041901E-3</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="23">
         <v>3.3030424267053597E-2</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="21">
         <v>3.6837778985500301E-2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="27">
         <v>2.3147999309003301E-3</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="23">
         <v>4.8112366348504999E-2</v>
       </c>
     </row>
@@ -2302,42 +2547,42 @@
       <c r="B35" s="3">
         <v>96</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="28">
         <v>2.0298028364777499E-2</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="31">
         <v>8.1362412311136701E-4</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="32">
         <v>2.85240970551967E-2</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="21">
         <v>2.5904456153512001E-2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="27">
         <v>1.4699215535074401E-3</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="23">
         <v>3.8339555263519197E-2</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="21">
         <v>3.9149027317762299E-2</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="27">
         <v>2.5933887809514999E-3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="23">
         <v>5.0925325602293001E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="R1:T1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED641102-0FDF-48C8-8584-DCADA88F8701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D65BC4-0F74-4B7F-9D2B-EA81CC99B5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3230" yWindow="4960" windowWidth="25600" windowHeight="8320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,92 +344,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -442,6 +373,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -726,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -735,57 +692,55 @@
     <col min="1" max="1" width="8.58203125" style="1"/>
     <col min="2" max="2" width="8.58203125" style="3"/>
     <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="23" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.6640625" style="3" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="23"/>
-    <col min="19" max="19" width="8.6640625" style="1"/>
+    <col min="18" max="19" width="8.6640625" style="1"/>
     <col min="20" max="20" width="8.6640625" style="3"/>
     <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="12" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="12" t="s">
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="12" t="s">
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="14"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
@@ -846,208 +801,202 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="30" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:23" s="19" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="20">
         <v>24</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="21">
         <v>0.11655319482088</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="22">
         <v>2.7306107804179101E-2</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="22">
         <v>0.16524559259414601</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="23">
         <v>0.202014476060867</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="19">
         <v>6.8504951894283295E-2</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="20">
         <v>0.26173451542854298</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="23">
         <v>0.13348093628883301</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="19">
         <v>3.3567667007446199E-2</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="20">
         <v>0.18321481347084001</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="23">
         <v>0.163824021816253</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="19">
         <v>4.4865254312753601E-2</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="20">
         <v>0.211814194917678</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="23">
         <v>0.16376949846744501</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="19">
         <v>4.39804159104824E-2</v>
       </c>
-      <c r="Q3" s="36">
+      <c r="Q3" s="20">
         <v>0.20971508324146201</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="19">
         <v>0.15677812695503199</v>
       </c>
-      <c r="S3" s="35">
+      <c r="S3" s="19">
         <v>3.99565286934375E-2</v>
       </c>
-      <c r="T3" s="36">
+      <c r="T3" s="20">
         <v>0.19989129900932301</v>
       </c>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-    </row>
-    <row r="4" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>48</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>0.1230104342103</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="16">
         <v>2.9524529352784101E-2</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="16">
         <v>0.171827033162117</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="2">
         <v>0.22177517414093001</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="1">
         <v>7.7530011534690801E-2</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="3">
         <v>0.27844211459159801</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="2">
         <v>0.13597610592842099</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="1">
         <v>3.4134138375520699E-2</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="3">
         <v>0.18475426733493799</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="2">
         <v>0.15892267227172799</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="1">
         <v>4.3297417461872101E-2</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="3">
         <v>0.20808032155036901</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="2">
         <v>0.15985773503780301</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="1">
         <v>4.2661797255277599E-2</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="3">
         <v>0.20654731988906799</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="1">
         <v>0.15172319114208199</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="1">
         <v>3.8385242223739603E-2</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="3">
         <v>0.195921525359153</v>
       </c>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-    </row>
-    <row r="5" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>96</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>0.13076274096965701</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="16">
         <v>3.2509464770555399E-2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="16">
         <v>0.18030381202697701</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="2">
         <v>0.23652617633342701</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="1">
         <v>8.7130449712276403E-2</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="3">
         <v>0.29517868161201399</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="2">
         <v>0.13767200708389199</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="1">
         <v>3.4882064908742898E-2</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="3">
         <v>0.18676741421222601</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="2">
         <v>0.151401281356811</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="1">
         <v>4.0427424013614599E-2</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="3">
         <v>0.201065719127655</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="2">
         <v>0.153957739472389</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="1">
         <v>4.0712758898734998E-2</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="3">
         <v>0.201774030923843</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="1">
         <v>0.147674515843391</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="1">
         <v>3.7153638899326297E-2</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="3">
         <v>0.19275279343128199</v>
       </c>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="26">
         <f>AVERAGE(C3:C5)</f>
         <v>0.12344212333361233</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="27">
         <f t="shared" ref="D6:T6" si="0">AVERAGE(D3:D5)</f>
         <v>2.9780033975839532E-2</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>0.17245881259441334</v>
       </c>
@@ -1111,203 +1060,209 @@
         <f t="shared" si="0"/>
         <v>0.196188539266586</v>
       </c>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-    </row>
-    <row r="7" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>24</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>0.12985345721244801</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="16">
         <v>3.1856678426265703E-2</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="16">
         <v>0.17848439514636899</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="2">
         <v>0.20443807542324</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="1">
         <v>6.9060698151588398E-2</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="3">
         <v>0.26279401779174799</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="2">
         <v>0.17077532410621599</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="1">
         <v>4.9491636455059003E-2</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="3">
         <v>0.22246715426444999</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="2">
         <v>0.16256271302700001</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="1">
         <v>4.3951865285634897E-2</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="3">
         <v>0.20964699983596799</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="2">
         <v>0.16619838774204199</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="1">
         <v>4.4709768146276398E-2</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="3">
         <v>0.21144685149192799</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="1">
         <v>0.15755447745323101</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="1">
         <v>4.0192168205976403E-2</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="3">
         <v>0.20047985017299599</v>
       </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>48</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>0.12899044156074499</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="16">
         <v>3.2135039567947297E-2</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="16">
         <v>0.17926248908042899</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="2">
         <v>0.21912920475006101</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="1">
         <v>7.8270062804222107E-2</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="3">
         <v>0.27976787090301503</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="2">
         <v>0.15825793147087</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="1">
         <v>4.3394986540079103E-2</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="3">
         <v>0.20831462740898099</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="2">
         <v>0.157863289117813</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="1">
         <v>4.2571835219860001E-2</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="3">
         <v>0.206329435110092</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="2">
         <v>0.16095720231533001</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="1">
         <v>4.2570840567350297E-2</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="3">
         <v>0.20632702112197801</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="1">
         <v>0.15225131809711401</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="1">
         <v>3.85371856391429E-2</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="3">
         <v>0.19630891084671001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>96</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>0.13227391242980899</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="16">
         <v>3.3048331737518297E-2</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="16">
         <v>0.18179200589656799</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="2">
         <v>0.23416173458099299</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="1">
         <v>8.7962813675403595E-2</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="3">
         <v>0.29658526182174599</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="2">
         <v>0.15027090907096799</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="1">
         <v>4.0399566292762701E-2</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="3">
         <v>0.200996428728103</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="2">
         <v>0.15309450030326799</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="1">
         <v>4.0794283151626497E-2</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="3">
         <v>0.20197594165801999</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="2">
         <v>0.15383370220661099</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="1">
         <v>4.0202669799327802E-2</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="3">
         <v>0.200506031513214</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="1">
         <v>0.14790876209735801</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S9" s="1">
         <v>3.7213187664747203E-2</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="3">
         <v>0.192907199263572</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="12">
         <f>AVERAGE(C7:C9)</f>
         <v>0.13037260373433401</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="16">
         <f t="shared" ref="D10:T10" si="1">AVERAGE(D7:D9)</f>
         <v>3.2346683243910428E-2</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="16">
         <f t="shared" si="1"/>
         <v>0.17984629670778865</v>
       </c>
@@ -1315,7 +1270,7 @@
         <f t="shared" si="1"/>
         <v>0.21924300491809801</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>7.8431191543738024E-2</v>
       </c>
@@ -1327,7 +1282,7 @@
         <f t="shared" si="1"/>
         <v>0.15976805488268464</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>4.4428729762633602E-2</v>
       </c>
@@ -1339,7 +1294,7 @@
         <f t="shared" si="1"/>
         <v>0.15784016748269367</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>4.2439327885707138E-2</v>
       </c>
@@ -1351,7 +1306,7 @@
         <f t="shared" si="1"/>
         <v>0.16032976408799435</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="1">
         <f t="shared" si="1"/>
         <v>4.2494426170984832E-2</v>
       </c>
@@ -1359,11 +1314,11 @@
         <f t="shared" si="1"/>
         <v>0.20609330137570667</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="1">
         <f t="shared" si="1"/>
         <v>0.15257151921590104</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="1">
         <f t="shared" si="1"/>
         <v>3.8647513836622176E-2</v>
       </c>
@@ -1371,9 +1326,6 @@
         <f t="shared" si="1"/>
         <v>0.19656532009442598</v>
       </c>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
     </row>
     <row r="11" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -1382,201 +1334,195 @@
       <c r="B11" s="8">
         <v>24</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="13">
         <v>0.130949437618255</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="14">
         <v>3.1894195824861499E-2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="14">
         <v>0.178589463233947</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="15">
         <v>0.201942443847656</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="7">
         <v>6.8046748638153007E-2</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="8">
         <v>0.26085773110389698</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="15">
         <v>0.18756277859210899</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="7">
         <v>5.8832272887229899E-2</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="8">
         <v>0.242553651332855</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="15">
         <v>0.16466160118579801</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="7">
         <v>4.4695284217595999E-2</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="8">
         <v>0.211412593722343</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="15">
         <v>0.169041022658348</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="7">
         <v>4.5631375163793501E-2</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="8">
         <v>0.21361501514911599</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="7">
         <v>0.15496428310871099</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="7">
         <v>3.9230443537235198E-2</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="8">
         <v>0.198066771030426</v>
       </c>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-    </row>
-    <row r="12" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>48</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>0.136193811893463</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="16">
         <v>3.3979825675487497E-2</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="16">
         <v>0.18433617055416099</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="2">
         <v>0.21978922188281999</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="1">
         <v>7.7623896300792694E-2</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="3">
         <v>0.27861064672469998</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="2">
         <v>0.183893263339996</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="1">
         <v>5.7227019220590501E-2</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="3">
         <v>0.239221692085266</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="2">
         <v>0.15940743684768599</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="1">
         <v>4.30626571178436E-2</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="3">
         <v>0.207515433430671</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="2">
         <v>0.16200520098209301</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="1">
         <v>4.3062441051006303E-2</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="3">
         <v>0.20751491189002899</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="1">
         <v>0.151910841464996</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S12" s="1">
         <v>3.8210764527320799E-2</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="3">
         <v>0.19547574222087799</v>
       </c>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-    </row>
-    <row r="13" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>96</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>0.13881157338619199</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="16">
         <v>3.5383198410272598E-2</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="16">
         <v>0.188104227185249</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="2">
         <v>0.232135489583015</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="1">
         <v>8.5827887058258001E-2</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="3">
         <v>0.29296398162841703</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="2">
         <v>0.16891115903854301</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="1">
         <v>4.9438402056694003E-2</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="3">
         <v>0.22234748303890201</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="2">
         <v>0.154224619269371</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="1">
         <v>4.09804731607437E-2</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="3">
         <v>0.202436342835426</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="2">
         <v>0.15538440644741</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="1">
         <v>4.0743727236986098E-2</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="3">
         <v>0.20185075700283001</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="1">
         <v>0.15036503970623</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S13" s="1">
         <v>3.7762589752674103E-2</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="3">
         <v>0.19432598352432201</v>
       </c>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-    </row>
-    <row r="14" spans="1:23" s="23" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="12">
         <f>AVERAGE(C11:C13)</f>
         <v>0.13531827429930332</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="16">
         <f t="shared" ref="D14:T14" si="2">AVERAGE(D11:D13)</f>
         <v>3.3752406636873865E-2</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="16">
         <f t="shared" si="2"/>
         <v>0.18367662032445234</v>
       </c>
@@ -1584,7 +1530,7 @@
         <f t="shared" si="2"/>
         <v>0.21795571843783032</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>7.7166177332401234E-2</v>
       </c>
@@ -1596,7 +1542,7 @@
         <f t="shared" si="2"/>
         <v>0.18012240032354934</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="1">
         <f t="shared" si="2"/>
         <v>5.5165898054838132E-2</v>
       </c>
@@ -1608,7 +1554,7 @@
         <f t="shared" si="2"/>
         <v>0.15943121910095168</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="1">
         <f t="shared" si="2"/>
         <v>4.2912804832061092E-2</v>
       </c>
@@ -1620,7 +1566,7 @@
         <f t="shared" si="2"/>
         <v>0.16214354336261702</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="1">
         <f t="shared" si="2"/>
         <v>4.3145847817261967E-2</v>
       </c>
@@ -1628,11 +1574,11 @@
         <f t="shared" si="2"/>
         <v>0.20766022801399164</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="1">
         <f t="shared" si="2"/>
         <v>0.15241338809331234</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="1">
         <f t="shared" si="2"/>
         <v>3.8401265939076702E-2</v>
       </c>
@@ -1640,192 +1586,189 @@
         <f t="shared" si="2"/>
         <v>0.19595616559187534</v>
       </c>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-    </row>
-    <row r="15" spans="1:23" s="30" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+    </row>
+    <row r="15" spans="1:23" s="19" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="20">
         <v>24</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="23">
         <v>3.7347428500652299E-2</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="22">
         <v>6.1462405137717698E-3</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="22">
         <v>7.8397959470748901E-2</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="23">
         <v>4.4458683580160099E-2</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="19">
         <v>7.7513619326054998E-3</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="20">
         <v>8.8041819632053306E-2</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="21">
         <v>3.68955098092556E-2</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="19">
         <v>6.1781909316778096E-3</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="20">
         <v>7.8601472079753806E-2</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="23">
         <v>4.7947742044925599E-2</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="19">
         <v>7.6508256606757597E-3</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="20">
         <v>8.7468996644019997E-2</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="23">
         <v>4.90371137857437E-2</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="19">
         <v>7.5658359564840698E-3</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="20">
         <v>8.6981810629367801E-2</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="19">
         <v>5.18201999366283E-2</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15" s="19">
         <v>8.1555917859077402E-3</v>
       </c>
-      <c r="T15" s="36">
+      <c r="T15" s="20">
         <v>9.0308316051959894E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>48</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="2">
         <v>3.8360789418220499E-2</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="16">
         <v>6.1233453452587102E-3</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="16">
         <v>7.8251808881759602E-2</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="2">
         <v>4.6694740653037997E-2</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="1">
         <v>7.8838635236024805E-3</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="3">
         <v>8.8791124522686005E-2</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="12">
         <v>3.7596881389617899E-2</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="1">
         <v>6.4240023493766698E-3</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="3">
         <v>8.0149874091148293E-2</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="2">
         <v>4.5987743884325E-2</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="1">
         <v>7.3866262100636898E-3</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="3">
         <v>8.5945487022399902E-2</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="2">
         <v>4.7287322580814299E-2</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="1">
         <v>7.38787557929754E-3</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="3">
         <v>8.5952751338481903E-2</v>
       </c>
-      <c r="R16" s="25">
+      <c r="R16" s="1">
         <v>5.1356635987758602E-2</v>
       </c>
-      <c r="S16" s="25">
+      <c r="S16" s="1">
         <v>8.0977994948625495E-3</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="3">
         <v>8.9987777173519107E-2</v>
       </c>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-    </row>
-    <row r="17" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>96</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="2">
         <v>3.8529902696609497E-2</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="16">
         <v>6.0955644585192204E-3</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="16">
         <v>7.8074097633361803E-2</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="2">
         <v>4.9092873930931001E-2</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="1">
         <v>8.2127749919891305E-3</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="3">
         <v>9.0624362230300903E-2</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="12">
         <v>3.8448102772235801E-2</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="1">
         <v>6.6068046726286403E-3</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="3">
         <v>8.1282250583171803E-2</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="2">
         <v>4.4125515967607498E-2</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="1">
         <v>7.0246085524559004E-3</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="3">
         <v>8.3812937140464699E-2</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="2">
         <v>4.57446053624153E-2</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="1">
         <v>7.1201869286596697E-3</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="3">
         <v>8.4381200373172704E-2</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="1">
         <v>5.0785269588231999E-2</v>
       </c>
-      <c r="S17" s="25">
+      <c r="S17" s="1">
         <v>8.0195972695946693E-3</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="3">
         <v>8.9552201330661704E-2</v>
       </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -1835,11 +1778,11 @@
         <f>AVERAGE(C15:C17)</f>
         <v>3.8079373538494103E-2</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="16">
         <f t="shared" ref="D18:T18" si="3">AVERAGE(D15:D17)</f>
         <v>6.1217167725165665E-3</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="16">
         <f t="shared" si="3"/>
         <v>7.8241288661956773E-2</v>
       </c>
@@ -1847,7 +1790,7 @@
         <f t="shared" si="3"/>
         <v>4.6748766054709699E-2</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="1">
         <f t="shared" si="3"/>
         <v>7.9493334827323708E-3</v>
       </c>
@@ -1855,11 +1798,11 @@
         <f t="shared" si="3"/>
         <v>8.9152435461680071E-2</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="12">
         <f t="shared" si="3"/>
         <v>3.7646831323703098E-2</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="1">
         <f t="shared" si="3"/>
         <v>6.4029993178943735E-3</v>
       </c>
@@ -1871,7 +1814,7 @@
         <f t="shared" si="3"/>
         <v>4.6020333965619366E-2</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="1">
         <f t="shared" si="3"/>
         <v>7.3540201410651164E-3</v>
       </c>
@@ -1883,7 +1826,7 @@
         <f t="shared" si="3"/>
         <v>4.7356347242991093E-2</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="1">
         <f t="shared" si="3"/>
         <v>7.3579661548137595E-3</v>
       </c>
@@ -1891,11 +1834,11 @@
         <f t="shared" si="3"/>
         <v>8.5771920780340793E-2</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="1">
         <f t="shared" si="3"/>
         <v>5.1320701837539638E-2</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="1">
         <f t="shared" si="3"/>
         <v>8.0909961834549852E-3</v>
       </c>
@@ -1903,9 +1846,9 @@
         <f t="shared" si="3"/>
         <v>8.9949431518713582E-2</v>
       </c>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
     </row>
     <row r="19" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -1914,181 +1857,181 @@
       <c r="B19" s="8">
         <v>24</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="15">
         <v>3.8187548518180799E-2</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="14">
         <v>6.1322455294430204E-3</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="14">
         <v>7.8308656811714103E-2</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="15">
         <v>4.2492784559726701E-2</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="7">
         <v>6.8082213401794399E-3</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="8">
         <v>8.2511946558952304E-2</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="13">
         <v>3.7510160356759997E-2</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="7">
         <v>6.46507740020751E-3</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="8">
         <v>8.0405704677104894E-2</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="15">
         <v>4.9438372254371601E-2</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="7">
         <v>7.7601405791938296E-3</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="8">
         <v>8.8091656565666199E-2</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="15">
         <v>4.9452017992734902E-2</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="7">
         <v>7.7620293013751498E-3</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="8">
         <v>8.8102377951145103E-2</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="7">
         <v>5.1643028855323701E-2</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="7">
         <v>8.1372568383812904E-3</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="8">
         <v>9.0206742286682101E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>48</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="2">
         <v>3.9353840053081499E-2</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="16">
         <v>6.1575532890856197E-3</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="16">
         <v>7.8470081090927096E-2</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="2">
         <v>4.4396448880434002E-2</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="1">
         <v>7.1852221153676501E-3</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="3">
         <v>8.4765687584877E-2</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="12">
         <v>3.8291092962026499E-2</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="1">
         <v>6.6923238337039904E-3</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="3">
         <v>8.1806622445583302E-2</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="2">
         <v>4.7425031661987298E-2</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="1">
         <v>7.5800567865371704E-3</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="3">
         <v>8.7063521146774195E-2</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="2">
         <v>4.8135336488485302E-2</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="1">
         <v>7.7000716701149897E-3</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="3">
         <v>8.7750054895877797E-2</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="1">
         <v>5.0998926162719699E-2</v>
       </c>
-      <c r="S20" s="25">
+      <c r="S20" s="1">
         <v>8.0503951758146199E-3</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="3">
         <v>8.9723996818065602E-2</v>
       </c>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-    </row>
-    <row r="21" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>96</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>3.94344069063663E-2</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="16">
         <v>6.1644776724278901E-3</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="16">
         <v>7.8514188528060899E-2</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="2">
         <v>4.6247314661741201E-2</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="1">
         <v>7.4398065917193803E-3</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="3">
         <v>8.6254313588142395E-2</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="2">
         <v>3.9509188383817603E-2</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="1">
         <v>7.0123644545674298E-3</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="3">
         <v>8.3739861845970098E-2</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="2">
         <v>4.55546006560325E-2</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="1">
         <v>7.4555436149239497E-3</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="3">
         <v>8.6345486342906896E-2</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="2">
         <v>4.6273984014987897E-2</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21" s="1">
         <v>7.4034263379871802E-3</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="3">
         <v>8.6043164134025504E-2</v>
       </c>
-      <c r="R21" s="25">
+      <c r="R21" s="1">
         <v>5.06439954042434E-2</v>
       </c>
-      <c r="S21" s="25">
+      <c r="S21" s="1">
         <v>7.9884631559252704E-3</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="3">
         <v>8.9378200471401201E-2</v>
       </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
@@ -2098,11 +2041,11 @@
         <f>AVERAGE(C19:C21)</f>
         <v>3.8991931825876201E-2</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="16">
         <f t="shared" ref="D22:T22" si="4">AVERAGE(D19:D21)</f>
         <v>6.1514254969855103E-3</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="16">
         <f t="shared" si="4"/>
         <v>7.8430975476900699E-2</v>
       </c>
@@ -2110,7 +2053,7 @@
         <f t="shared" si="4"/>
         <v>4.4378849367300632E-2</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="1">
         <f t="shared" si="4"/>
         <v>7.1444166824221568E-3</v>
       </c>
@@ -2118,11 +2061,11 @@
         <f t="shared" si="4"/>
         <v>8.4510649243990557E-2</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="12">
         <f t="shared" si="4"/>
         <v>3.8436813900868033E-2</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="1">
         <f t="shared" si="4"/>
         <v>6.7232552294929767E-3</v>
       </c>
@@ -2134,7 +2077,7 @@
         <f t="shared" si="4"/>
         <v>4.7472668190797131E-2</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="1">
         <f t="shared" si="4"/>
         <v>7.5985803268849841E-3</v>
       </c>
@@ -2146,7 +2089,7 @@
         <f t="shared" si="4"/>
         <v>4.7953779498736034E-2</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="1">
         <f t="shared" si="4"/>
         <v>7.6218424364924396E-3</v>
       </c>
@@ -2154,11 +2097,11 @@
         <f t="shared" si="4"/>
         <v>8.7298532327016135E-2</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="1">
         <f t="shared" si="4"/>
         <v>5.1095316807428938E-2</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="1">
         <f t="shared" si="4"/>
         <v>8.0587050567070603E-3</v>
       </c>
@@ -2166,9 +2109,9 @@
         <f t="shared" si="4"/>
         <v>8.9769646525382982E-2</v>
       </c>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
     </row>
     <row r="23" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -2177,192 +2120,198 @@
       <c r="B23" s="8">
         <v>24</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="13">
         <v>3.8539212197065298E-2</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="14">
         <v>5.9217507950961503E-3</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="14">
         <v>7.69529119133949E-2</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="15">
         <v>4.1554320603609002E-2</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="7">
         <v>6.6463216207921496E-3</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="8">
         <v>8.1524975597858401E-2</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="15">
         <v>4.0074173361062997E-2</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="7">
         <v>6.7737619392573799E-3</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="8">
         <v>8.23028683662414E-2</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="15">
         <v>4.98756021261215E-2</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="7">
         <v>8.1985350698232599E-3</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="8">
         <v>9.0545758605003301E-2</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="15">
         <v>5.0679896026849698E-2</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="7">
         <v>8.1660132855176908E-3</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="8">
         <v>9.0365998446941306E-2</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="7">
         <v>5.1665645092725698E-2</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="7">
         <v>8.3811627700924804E-3</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="8">
         <v>9.1548688709735801E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>48</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>3.9741411805152803E-2</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="16">
         <v>6.0138301923870997E-3</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="16">
         <v>7.7548891305923406E-2</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="2">
         <v>4.24987412989139E-2</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="1">
         <v>6.7748315632343197E-3</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="3">
         <v>8.2309365272521903E-2</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="2">
         <v>4.0847703814506503E-2</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="1">
         <v>7.2374762967228803E-3</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="3">
         <v>8.50733593106269E-2</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="2">
         <v>4.7411084175109801E-2</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="1">
         <v>7.7752089127898199E-3</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="3">
         <v>8.8177144527435303E-2</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="2">
         <v>4.7839812934398603E-2</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P24" s="1">
         <v>7.6861619018018202E-3</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="3">
         <v>8.7670758366584695E-2</v>
       </c>
-      <c r="R24" s="25">
+      <c r="R24" s="1">
         <v>5.1097150892019202E-2</v>
       </c>
-      <c r="S24" s="25">
+      <c r="S24" s="1">
         <v>8.2502933219075203E-3</v>
       </c>
-      <c r="T24" s="17">
+      <c r="T24" s="3">
         <v>9.0831123292446095E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>96</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="18">
         <v>4.0421377867460202E-2</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="16">
         <v>6.0362918302416801E-3</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="16">
         <v>7.7693574130535098E-2</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="2">
         <v>4.4652700424194301E-2</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="1">
         <v>7.1868333034217297E-3</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="3">
         <v>8.4775194525718606E-2</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="12">
         <v>3.9737433195114101E-2</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="1">
         <v>6.8243094719946298E-3</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="3">
         <v>8.2609377801418304E-2</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="2">
         <v>4.7340419143438298E-2</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="1">
         <v>7.8585175797343202E-3</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="3">
         <v>8.8648281991481698E-2</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="2">
         <v>4.6708479523658697E-2</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25" s="1">
         <v>7.6028052717447203E-3</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="3">
         <v>8.7194070219993494E-2</v>
       </c>
-      <c r="R25" s="25">
+      <c r="R25" s="1">
         <v>4.9877233803272199E-2</v>
       </c>
-      <c r="S25" s="25">
+      <c r="S25" s="1">
         <v>8.0335261300206098E-3</v>
       </c>
-      <c r="T25" s="17">
+      <c r="T25" s="3">
         <v>8.9629940688609994E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" s="23" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="12">
         <f>AVERAGE(C23:C25)</f>
         <v>3.9567333956559432E-2</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="16">
         <f t="shared" ref="D26:T26" si="5">AVERAGE(D23:D25)</f>
         <v>5.9906242725749764E-3</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="16">
         <f t="shared" si="5"/>
         <v>7.7398459116617802E-2</v>
       </c>
@@ -2370,7 +2319,7 @@
         <f t="shared" si="5"/>
         <v>4.2901920775572401E-2</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="1">
         <f t="shared" si="5"/>
         <v>6.8693288291493994E-3</v>
       </c>
@@ -2382,7 +2331,7 @@
         <f t="shared" si="5"/>
         <v>4.0219770123561205E-2</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="1">
         <f t="shared" si="5"/>
         <v>6.9451825693249633E-3</v>
       </c>
@@ -2394,7 +2343,7 @@
         <f t="shared" si="5"/>
         <v>4.8209035148223202E-2</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="1">
         <f t="shared" si="5"/>
         <v>7.9440871874491333E-3</v>
       </c>
@@ -2406,7 +2355,7 @@
         <f t="shared" si="5"/>
         <v>4.8409396161635664E-2</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="1">
         <f t="shared" si="5"/>
         <v>7.8183268196880765E-3</v>
       </c>
@@ -2414,11 +2363,11 @@
         <f t="shared" si="5"/>
         <v>8.8410275677839822E-2</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="1">
         <f t="shared" si="5"/>
         <v>5.0880009929339033E-2</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="1">
         <f t="shared" si="5"/>
         <v>8.2216607406735368E-3</v>
       </c>
@@ -2426,203 +2375,206 @@
         <f t="shared" si="5"/>
         <v>9.0669917563597283E-2</v>
       </c>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-    </row>
-    <row r="27" spans="1:23" s="30" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+    </row>
+    <row r="27" spans="1:23" s="19" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="20">
         <v>24</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="21">
         <v>1.8416857346892301E-2</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="22">
         <v>6.4510153606534004E-4</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="22">
         <v>2.5398848578333799E-2</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="23">
         <v>2.11142171174287E-2</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="19">
         <v>9.4132317462936E-4</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="20">
         <v>3.0680989846587101E-2</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="23">
         <v>2.3338882252573901E-2</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="19">
         <v>9.8802149295806798E-4</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="20">
         <v>3.1432807445526102E-2</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="23">
         <v>2.74052619934082E-2</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="19">
         <v>1.41742418054491E-3</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="20">
         <v>3.76486927270889E-2</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="23">
         <v>2.6944862678647E-2</v>
       </c>
-      <c r="P27" s="35">
+      <c r="P27" s="19">
         <v>1.32843921892344E-3</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="20">
         <v>3.6447759717702803E-2</v>
       </c>
-      <c r="R27" s="35">
+      <c r="R27" s="19">
         <v>5.4791767150163602E-2</v>
       </c>
-      <c r="S27" s="35">
+      <c r="S27" s="19">
         <v>4.6536275185644601E-3</v>
       </c>
-      <c r="T27" s="36">
+      <c r="T27" s="20">
         <v>6.8217501044273293E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>48</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>2.3212268948554899E-2</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="16">
         <v>9.6889137057587504E-4</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="16">
         <v>3.1127020716667099E-2</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="2">
         <v>2.5058504194021201E-2</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="1">
         <v>1.3069738633930601E-3</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="3">
         <v>3.6152094602584797E-2</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="2">
         <v>2.81117670238018E-2</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="1">
         <v>1.3360022567212499E-3</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="3">
         <v>3.65513637661933E-2</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="2">
         <v>3.5597883164882597E-2</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="1">
         <v>2.1940781734883699E-3</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="3">
         <v>4.6840988099575001E-2</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28" s="2">
         <v>3.4072682261466897E-2</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="1">
         <v>2.0071724429726601E-3</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="3">
         <v>4.4801477342844002E-2</v>
       </c>
-      <c r="R28" s="25">
+      <c r="R28" s="1">
         <v>5.4474037140607799E-2</v>
       </c>
-      <c r="S28" s="25">
+      <c r="S28" s="1">
         <v>4.6042064204811998E-3</v>
       </c>
-      <c r="T28" s="17">
+      <c r="T28" s="3">
         <v>6.7854300141334506E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>96</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>2.6290317997336301E-2</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="16">
         <v>1.2118930462747799E-3</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="16">
         <v>3.4812252968549701E-2</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="2">
         <v>3.0459787696599901E-2</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="1">
         <v>1.8887546611949799E-3</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="3">
         <v>4.3459806591272299E-2</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="2">
         <v>3.1587589532136903E-2</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="1">
         <v>1.68255530297756E-3</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="3">
         <v>4.1018962860107401E-2</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="2">
         <v>4.4260453432798302E-2</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="1">
         <v>3.08123487047851E-3</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="3">
         <v>5.5508870631456299E-2</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="2">
         <v>4.1334372013807297E-2</v>
       </c>
-      <c r="P29" s="25">
+      <c r="P29" s="1">
         <v>2.73172324523329E-3</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="3">
         <v>5.2265889942645999E-2</v>
       </c>
-      <c r="R29" s="25">
+      <c r="R29" s="1">
         <v>5.4836038500070503E-2</v>
       </c>
-      <c r="S29" s="25">
+      <c r="S29" s="1">
         <v>4.6678399667143796E-3</v>
       </c>
-      <c r="T29" s="17">
+      <c r="T29" s="3">
         <v>6.8321593105792999E-2</v>
       </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="12">
         <f>AVERAGE(C27:C29)</f>
         <v>2.2639814764261166E-2</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="16">
         <f t="shared" ref="D30:T30" si="6">AVERAGE(D27:D29)</f>
         <v>9.4196198430533163E-4</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="16">
         <f t="shared" si="6"/>
         <v>3.0446040754516863E-2</v>
       </c>
@@ -2630,7 +2582,7 @@
         <f t="shared" si="6"/>
         <v>2.5544169669349932E-2</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="1">
         <f t="shared" si="6"/>
         <v>1.3790172330724667E-3</v>
       </c>
@@ -2642,7 +2594,7 @@
         <f t="shared" si="6"/>
         <v>2.7679412936170867E-2</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="1">
         <f t="shared" si="6"/>
         <v>1.335526350885626E-3</v>
       </c>
@@ -2654,7 +2606,7 @@
         <f t="shared" si="6"/>
         <v>3.5754532863696363E-2</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="1">
         <f t="shared" si="6"/>
         <v>2.2309124081705965E-3</v>
       </c>
@@ -2666,7 +2618,7 @@
         <f t="shared" si="6"/>
         <v>3.4117305651307064E-2</v>
       </c>
-      <c r="P30" s="23">
+      <c r="P30" s="1">
         <f t="shared" si="6"/>
         <v>2.02244496904313E-3</v>
       </c>
@@ -2674,11 +2626,11 @@
         <f t="shared" si="6"/>
         <v>4.4505042334397595E-2</v>
       </c>
-      <c r="R30" s="23">
+      <c r="R30" s="1">
         <f t="shared" si="6"/>
         <v>5.4700614263613966E-2</v>
       </c>
-      <c r="S30" s="23">
+      <c r="S30" s="1">
         <f t="shared" si="6"/>
         <v>4.6418913019200128E-3</v>
       </c>
@@ -2686,9 +2638,9 @@
         <f t="shared" si="6"/>
         <v>6.8131131430466937E-2</v>
       </c>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
     </row>
     <row r="31" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -2697,192 +2649,198 @@
       <c r="B31" s="8">
         <v>24</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="13">
         <v>1.8019666895270299E-2</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="14">
         <v>6.1920157168060498E-4</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="14">
         <v>2.4883762001991199E-2</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="15">
         <v>2.0719474181532801E-2</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="7">
         <v>8.8842952391132702E-4</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="8">
         <v>2.98065356910228E-2</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="15">
         <v>2.7454975992441101E-2</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="7">
         <v>1.3994163600727901E-3</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="8">
         <v>3.7408772855997002E-2</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="15">
         <v>2.8542634099721902E-2</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="7">
         <v>1.5132091939449299E-3</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="8">
         <v>3.8899987936019897E-2</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="15">
         <v>3.29397842288017E-2</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="7">
         <v>1.85607082676142E-3</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="Q31" s="8">
         <v>4.30821403861045E-2</v>
       </c>
-      <c r="R31" s="21">
+      <c r="R31" s="7">
         <v>5.5152699351310702E-2</v>
       </c>
-      <c r="S31" s="21">
+      <c r="S31" s="7">
         <v>4.7566783614456602E-3</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31" s="8">
         <v>6.8968676030635806E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>48</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>2.1260784938931399E-2</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="16">
         <v>8.1665714969858495E-4</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="16">
         <v>2.8577214106917301E-2</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="2">
         <v>2.4438584223389601E-2</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="1">
         <v>1.21174147352576E-3</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="3">
         <v>3.4810077399015399E-2</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="2">
         <v>3.0486978590488399E-2</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="1">
         <v>1.5935684787109401E-3</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="3">
         <v>3.9919525384902899E-2</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="2">
         <v>3.4601699560880599E-2</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M32" s="1">
         <v>2.0514612551778499E-3</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="3">
         <v>4.5293059200048398E-2</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="2">
         <v>3.4835692495107602E-2</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="1">
         <v>2.0807839464396199E-3</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="3">
         <v>4.5615609735250397E-2</v>
       </c>
-      <c r="R32" s="25">
+      <c r="R32" s="1">
         <v>5.4841052740812302E-2</v>
       </c>
-      <c r="S32" s="25">
+      <c r="S32" s="1">
         <v>4.6700257807970004E-3</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32" s="3">
         <v>6.8337589502334595E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>96</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>2.2915853187441802E-2</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="16">
         <v>9.53608483541756E-4</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="16">
         <v>3.0880551785230598E-2</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="2">
         <v>2.77378354221582E-2</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="1">
         <v>1.55908847227692E-3</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="3">
         <v>3.9485294371843303E-2</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="2">
         <v>3.3969853073358501E-2</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="1">
         <v>1.9975043833255698E-3</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="3">
         <v>4.4693447649478898E-2</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="2">
         <v>3.4306317567825297E-2</v>
       </c>
-      <c r="M33" s="25">
+      <c r="M33" s="1">
         <v>1.9933863077312699E-3</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="3">
         <v>4.4647354632616001E-2</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="2">
         <v>3.3930748701095498E-2</v>
       </c>
-      <c r="P33" s="25">
+      <c r="P33" s="1">
         <v>1.9693835638463402E-3</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="3">
         <v>4.43777367472648E-2</v>
       </c>
-      <c r="R33" s="25">
+      <c r="R33" s="1">
         <v>5.4132193326949997E-2</v>
       </c>
-      <c r="S33" s="25">
+      <c r="S33" s="1">
         <v>4.6463194303214498E-3</v>
       </c>
-      <c r="T33" s="17">
+      <c r="T33" s="3">
         <v>6.81639164686203E-2</v>
       </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="12">
         <f>AVERAGE(C31:C33)</f>
         <v>2.0732101673881165E-2</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="16">
         <f t="shared" ref="D34:T34" si="7">AVERAGE(D31:D33)</f>
         <v>7.9648906830698198E-4</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="16">
         <f t="shared" si="7"/>
         <v>2.8113842631379699E-2</v>
       </c>
@@ -2890,7 +2848,7 @@
         <f t="shared" si="7"/>
         <v>2.4298631275693535E-2</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="1">
         <f t="shared" si="7"/>
         <v>1.2197531565713356E-3</v>
       </c>
@@ -2902,7 +2860,7 @@
         <f t="shared" si="7"/>
         <v>3.0637269218762669E-2</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="1">
         <f t="shared" si="7"/>
         <v>1.6634964073697668E-3</v>
       </c>
@@ -2914,7 +2872,7 @@
         <f t="shared" si="7"/>
         <v>3.2483550409475932E-2</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="1">
         <f t="shared" si="7"/>
         <v>1.8526855856180165E-3</v>
       </c>
@@ -2926,7 +2884,7 @@
         <f t="shared" si="7"/>
         <v>3.3902075141668264E-2</v>
       </c>
-      <c r="P34" s="23">
+      <c r="P34" s="1">
         <f t="shared" si="7"/>
         <v>1.9687461123491265E-3</v>
       </c>
@@ -2934,11 +2892,11 @@
         <f t="shared" si="7"/>
         <v>4.435849562287323E-2</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="1">
         <f t="shared" si="7"/>
         <v>5.4708648473024334E-2</v>
       </c>
-      <c r="S34" s="23">
+      <c r="S34" s="1">
         <f t="shared" si="7"/>
         <v>4.6910078575213695E-3</v>
       </c>
@@ -2946,9 +2904,9 @@
         <f t="shared" si="7"/>
         <v>6.84900606671969E-2</v>
       </c>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
     </row>
     <row r="35" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -2957,201 +2915,195 @@
       <c r="B35" s="8">
         <v>24</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="13">
         <v>1.6250062733888598E-2</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="14">
         <v>5.4900307441130205E-4</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="14">
         <v>2.34308149665594E-2</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="15">
         <v>1.9246743991970999E-2</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="7">
         <v>8.0495985457673604E-4</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="8">
         <v>2.8371814638376201E-2</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="15">
         <v>3.0981000512838301E-2</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="7">
         <v>1.89365062396973E-3</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="8">
         <v>4.35160957276821E-2</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="15">
         <v>2.76194047182798E-2</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="7">
         <v>1.44916668068617E-3</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="8">
         <v>3.8067921996116597E-2</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="15">
         <v>3.05411294102668E-2</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="7">
         <v>1.7285165376961201E-3</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q35" s="8">
         <v>4.1575431823730399E-2</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35" s="7">
         <v>5.46482466161251E-2</v>
       </c>
-      <c r="S35" s="21">
+      <c r="S35" s="7">
         <v>4.6263323165476296E-3</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="8">
         <v>6.8017147481441498E-2</v>
       </c>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-    </row>
-    <row r="36" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>48</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="12">
         <v>1.7871698364615399E-2</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="16">
         <v>6.4205413218587604E-4</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="16">
         <v>2.5338787585496899E-2</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="2">
         <v>2.2252824157476401E-2</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="1">
         <v>1.0910090059041901E-3</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="3">
         <v>3.3030424267053597E-2</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="2">
         <v>3.6837778985500301E-2</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="1">
         <v>2.3147999309003301E-3</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="3">
         <v>4.8112366348504999E-2</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="2">
         <v>3.00317388027906E-2</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="1">
         <v>1.67759286705404E-3</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="3">
         <v>4.0958426892757402E-2</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="2">
         <v>3.1203459948301301E-2</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P36" s="1">
         <v>1.7932006157934601E-3</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="3">
         <v>4.2346198111772503E-2</v>
       </c>
-      <c r="R36" s="25">
+      <c r="R36" s="1">
         <v>5.4662760347127901E-2</v>
       </c>
-      <c r="S36" s="25">
+      <c r="S36" s="1">
         <v>4.6385661698877803E-3</v>
       </c>
-      <c r="T36" s="17">
+      <c r="T36" s="3">
         <v>6.8107016384601496E-2</v>
       </c>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-    </row>
-    <row r="37" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>96</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="12">
         <v>2.0298028364777499E-2</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="16">
         <v>8.1362412311136701E-4</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="16">
         <v>2.85240970551967E-2</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="2">
         <v>2.5904456153512001E-2</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="1">
         <v>1.4699215535074401E-3</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="3">
         <v>3.8339555263519197E-2</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="2">
         <v>3.9149027317762299E-2</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="1">
         <v>2.5933887809514999E-3</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="3">
         <v>5.0925325602293001E-2</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="2">
         <v>3.0639862641692099E-2</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="1">
         <v>1.7223977483808901E-3</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="3">
         <v>4.1501779109239502E-2</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O37" s="2">
         <v>3.1140852719545298E-2</v>
       </c>
-      <c r="P37" s="25">
+      <c r="P37" s="1">
         <v>1.77700875792652E-3</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="Q37" s="3">
         <v>4.2154580354690503E-2</v>
       </c>
-      <c r="R37" s="25">
+      <c r="R37" s="1">
         <v>5.43775707483291E-2</v>
       </c>
-      <c r="S37" s="25">
+      <c r="S37" s="1">
         <v>4.6094353310763801E-3</v>
       </c>
-      <c r="T37" s="17">
+      <c r="T37" s="3">
         <v>6.7892819643020602E-2</v>
       </c>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-    </row>
-    <row r="38" spans="1:23" s="23" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="12">
         <f>AVERAGE(C35:C37)</f>
         <v>1.8139929821093831E-2</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="16">
         <f t="shared" ref="D38:T38" si="8">AVERAGE(D35:D37)</f>
         <v>6.682271099028484E-4</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="16">
         <f t="shared" si="8"/>
         <v>2.5764566535750998E-2</v>
       </c>
@@ -3159,7 +3111,7 @@
         <f t="shared" si="8"/>
         <v>2.2468008100986467E-2</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="1">
         <f t="shared" si="8"/>
         <v>1.1219634713294554E-3</v>
       </c>
@@ -3171,7 +3123,7 @@
         <f t="shared" si="8"/>
         <v>3.5655935605366972E-2</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="1">
         <f t="shared" si="8"/>
         <v>2.2672797786071866E-3</v>
       </c>
@@ -3183,7 +3135,7 @@
         <f t="shared" si="8"/>
         <v>2.9430335387587502E-2</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="1">
         <f t="shared" si="8"/>
         <v>1.6163857653736999E-3</v>
       </c>
@@ -3195,7 +3147,7 @@
         <f t="shared" si="8"/>
         <v>3.0961814026037801E-2</v>
       </c>
-      <c r="P38" s="23">
+      <c r="P38" s="1">
         <f t="shared" si="8"/>
         <v>1.7662419704720335E-3</v>
       </c>
@@ -3203,11 +3155,11 @@
         <f t="shared" si="8"/>
         <v>4.2025403430064466E-2</v>
       </c>
-      <c r="R38" s="23">
+      <c r="R38" s="1">
         <f t="shared" si="8"/>
         <v>5.4562859237194034E-2</v>
       </c>
-      <c r="S38" s="23">
+      <c r="S38" s="1">
         <f t="shared" si="8"/>
         <v>4.6247779391705964E-3</v>
       </c>
@@ -3215,72 +3167,69 @@
         <f t="shared" si="8"/>
         <v>6.8005661169687856E-2</v>
       </c>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-    </row>
-    <row r="39" spans="1:23" s="30" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
+    </row>
+    <row r="39" spans="1:23" s="19" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46">
+      <c r="B39" s="29"/>
+      <c r="C39" s="21">
         <v>28</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="22">
         <v>36</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="22">
         <v>36</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="23">
         <v>0</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="19">
         <v>0</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="20">
         <v>0</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="23">
         <v>8</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="19">
         <v>0</v>
       </c>
-      <c r="K39" s="31">
+      <c r="K39" s="20">
         <v>0</v>
       </c>
-      <c r="L39" s="43">
+      <c r="L39" s="23">
         <v>0</v>
       </c>
-      <c r="M39" s="30">
+      <c r="M39" s="19">
         <v>0</v>
       </c>
-      <c r="N39" s="31">
+      <c r="N39" s="20">
         <v>0</v>
       </c>
-      <c r="O39" s="43">
+      <c r="O39" s="23">
         <v>0</v>
       </c>
-      <c r="P39" s="30">
+      <c r="P39" s="19">
         <v>0</v>
       </c>
-      <c r="Q39" s="31">
+      <c r="Q39" s="20">
         <v>0</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="19">
         <v>0</v>
       </c>
-      <c r="S39" s="30">
+      <c r="S39" s="19">
         <v>0</v>
       </c>
-      <c r="T39" s="31">
+      <c r="T39" s="20">
         <v>0</v>
       </c>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D65BC4-0F74-4B7F-9D2B-EA81CC99B5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2D572D-7197-4BE5-8638-52C5FE6BA70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3230" yWindow="4960" windowWidth="25600" windowHeight="8320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="25600" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,6 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,28 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,12 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,6 +375,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
@@ -711,36 +750,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="30" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="30" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="30" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="30" t="s">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="32"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="23"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
@@ -801,127 +840,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="19" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:23" s="12" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="13">
         <v>24</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="24">
         <v>0.11655319482088</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="25">
         <v>2.7306107804179101E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="25">
         <v>0.16524559259414601</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="26">
         <v>0.202014476060867</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="27">
         <v>6.8504951894283295E-2</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="28">
         <v>0.26173451542854298</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="26">
         <v>0.13348093628883301</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="27">
         <v>3.3567667007446199E-2</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="28">
         <v>0.18321481347084001</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="26">
         <v>0.163824021816253</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="27">
         <v>4.4865254312753601E-2</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="28">
         <v>0.211814194917678</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="26">
         <v>0.16376949846744501</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="27">
         <v>4.39804159104824E-2</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3" s="28">
         <v>0.20971508324146201</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="27">
         <v>0.15677812695503199</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="27">
         <v>3.99565286934375E-2</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="28">
         <v>0.19989129900932301</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>48</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="29">
         <v>0.1230104342103</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="30">
         <v>2.9524529352784101E-2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="30">
         <v>0.171827033162117</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="31">
         <v>0.22177517414093001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="32">
         <v>7.7530011534690801E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="33">
         <v>0.27844211459159801</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="31">
         <v>0.13597610592842099</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="32">
         <v>3.4134138375520699E-2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="33">
         <v>0.18475426733493799</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="31">
         <v>0.15892267227172799</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="32">
         <v>4.3297417461872101E-2</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="33">
         <v>0.20808032155036901</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="31">
         <v>0.15985773503780301</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="32">
         <v>4.2661797255277599E-2</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="33">
         <v>0.20654731988906799</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="32">
         <v>0.15172319114208199</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="32">
         <v>3.8385242223739603E-2</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="33">
         <v>0.195921525359153</v>
       </c>
     </row>
@@ -929,58 +968,58 @@
       <c r="B5" s="3">
         <v>96</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="29">
         <v>0.13076274096965701</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="30">
         <v>3.2509464770555399E-2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="30">
         <v>0.18030381202697701</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="31">
         <v>0.23652617633342701</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="32">
         <v>8.7130449712276403E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="33">
         <v>0.29517868161201399</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="31">
         <v>0.13767200708389199</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="32">
         <v>3.4882064908742898E-2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="33">
         <v>0.18676741421222601</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="31">
         <v>0.151401281356811</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="32">
         <v>4.0427424013614599E-2</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="33">
         <v>0.201065719127655</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="31">
         <v>0.153957739472389</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="32">
         <v>4.0712758898734998E-2</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="33">
         <v>0.201774030923843</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="32">
         <v>0.147674515843391</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="32">
         <v>3.7153638899326297E-2</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="33">
         <v>0.19275279343128199</v>
       </c>
     </row>
@@ -988,81 +1027,81 @@
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="34">
         <f>AVERAGE(C3:C5)</f>
         <v>0.12344212333361233</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="35">
         <f t="shared" ref="D6:T6" si="0">AVERAGE(D3:D5)</f>
         <v>2.9780033975839532E-2</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="35">
         <f t="shared" si="0"/>
         <v>0.17245881259441334</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="36">
         <f t="shared" si="0"/>
         <v>0.22010527551174133</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="37">
         <f t="shared" si="0"/>
         <v>7.7721804380416828E-2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="38">
         <f t="shared" si="0"/>
         <v>0.27845177054405162</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="36">
         <f t="shared" si="0"/>
         <v>0.13570968310038198</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="37">
         <f t="shared" si="0"/>
         <v>3.4194623430569927E-2</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="38">
         <f t="shared" si="0"/>
         <v>0.18491216500600136</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="36">
         <f t="shared" si="0"/>
         <v>0.15804932514826397</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="37">
         <f t="shared" si="0"/>
         <v>4.2863365262746762E-2</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="38">
         <f t="shared" si="0"/>
         <v>0.20698674519856733</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="36">
         <f t="shared" si="0"/>
         <v>0.15919499099254567</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="37">
         <f t="shared" si="0"/>
         <v>4.2451657354831668E-2</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="38">
         <f t="shared" si="0"/>
         <v>0.20601214468479098</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="37">
         <f t="shared" si="0"/>
         <v>0.15205861131350165</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="37">
         <f t="shared" si="0"/>
         <v>3.8498469938834469E-2</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="38">
         <f t="shared" si="0"/>
         <v>0.196188539266586</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1071,58 +1110,58 @@
       <c r="B7" s="3">
         <v>24</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="29">
         <v>0.12985345721244801</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="30">
         <v>3.1856678426265703E-2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="30">
         <v>0.17848439514636899</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="31">
         <v>0.20443807542324</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="32">
         <v>6.9060698151588398E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="33">
         <v>0.26279401779174799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="31">
         <v>0.17077532410621599</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="32">
         <v>4.9491636455059003E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="33">
         <v>0.22246715426444999</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="31">
         <v>0.16256271302700001</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="32">
         <v>4.3951865285634897E-2</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="33">
         <v>0.20964699983596799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="31">
         <v>0.16619838774204199</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="32">
         <v>4.4709768146276398E-2</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="33">
         <v>0.21144685149192799</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="32">
         <v>0.15755447745323101</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="32">
         <v>4.0192168205976403E-2</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="33">
         <v>0.20047985017299599</v>
       </c>
       <c r="U7" s="1"/>
@@ -1133,58 +1172,58 @@
       <c r="B8" s="3">
         <v>48</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="29">
         <v>0.12899044156074499</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="30">
         <v>3.2135039567947297E-2</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="30">
         <v>0.17926248908042899</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="31">
         <v>0.21912920475006101</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="32">
         <v>7.8270062804222107E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="33">
         <v>0.27976787090301503</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="31">
         <v>0.15825793147087</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="32">
         <v>4.3394986540079103E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="33">
         <v>0.20831462740898099</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="31">
         <v>0.157863289117813</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="32">
         <v>4.2571835219860001E-2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="33">
         <v>0.206329435110092</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="31">
         <v>0.16095720231533001</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="32">
         <v>4.2570840567350297E-2</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="33">
         <v>0.20632702112197801</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="32">
         <v>0.15225131809711401</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="32">
         <v>3.85371856391429E-2</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="33">
         <v>0.19630891084671001</v>
       </c>
     </row>
@@ -1192,58 +1231,58 @@
       <c r="B9" s="3">
         <v>96</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="29">
         <v>0.13227391242980899</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="30">
         <v>3.3048331737518297E-2</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="30">
         <v>0.18179200589656799</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="31">
         <v>0.23416173458099299</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="32">
         <v>8.7962813675403595E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="33">
         <v>0.29658526182174599</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="31">
         <v>0.15027090907096799</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="32">
         <v>4.0399566292762701E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="33">
         <v>0.200996428728103</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="31">
         <v>0.15309450030326799</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="32">
         <v>4.0794283151626497E-2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="33">
         <v>0.20197594165801999</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="31">
         <v>0.15383370220661099</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="32">
         <v>4.0202669799327802E-2</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="33">
         <v>0.200506031513214</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="32">
         <v>0.14790876209735801</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="32">
         <v>3.7213187664747203E-2</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="33">
         <v>0.192907199263572</v>
       </c>
       <c r="U9" s="1"/>
@@ -1254,75 +1293,75 @@
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="29">
         <f>AVERAGE(C7:C9)</f>
         <v>0.13037260373433401</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="30">
         <f t="shared" ref="D10:T10" si="1">AVERAGE(D7:D9)</f>
         <v>3.2346683243910428E-2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="30">
         <f t="shared" si="1"/>
         <v>0.17984629670778865</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="31">
         <f t="shared" si="1"/>
         <v>0.21924300491809801</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="32">
         <f t="shared" si="1"/>
         <v>7.8431191543738024E-2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="33">
         <f t="shared" si="1"/>
         <v>0.27971571683883628</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="31">
         <f t="shared" si="1"/>
         <v>0.15976805488268464</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="32">
         <f t="shared" si="1"/>
         <v>4.4428729762633602E-2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="33">
         <f t="shared" si="1"/>
         <v>0.2105927368005113</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="31">
         <f t="shared" si="1"/>
         <v>0.15784016748269367</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="32">
         <f t="shared" si="1"/>
         <v>4.2439327885707138E-2</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="33">
         <f t="shared" si="1"/>
         <v>0.20598412553469334</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="31">
         <f t="shared" si="1"/>
         <v>0.16032976408799435</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="32">
         <f t="shared" si="1"/>
         <v>4.2494426170984832E-2</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="33">
         <f t="shared" si="1"/>
         <v>0.20609330137570667</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="32">
         <f t="shared" si="1"/>
         <v>0.15257151921590104</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="32">
         <f t="shared" si="1"/>
         <v>3.8647513836622176E-2</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="33">
         <f t="shared" si="1"/>
         <v>0.19656532009442598</v>
       </c>
@@ -1334,120 +1373,120 @@
       <c r="B11" s="8">
         <v>24</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="39">
         <v>0.130949437618255</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="40">
         <v>3.1894195824861499E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="40">
         <v>0.178589463233947</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="41">
         <v>0.201942443847656</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="42">
         <v>6.8046748638153007E-2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="43">
         <v>0.26085773110389698</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="41">
         <v>0.18756277859210899</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="42">
         <v>5.8832272887229899E-2</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="43">
         <v>0.242553651332855</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="41">
         <v>0.16466160118579801</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="42">
         <v>4.4695284217595999E-2</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="43">
         <v>0.211412593722343</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="41">
         <v>0.169041022658348</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="42">
         <v>4.5631375163793501E-2</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="43">
         <v>0.21361501514911599</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="42">
         <v>0.15496428310871099</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="42">
         <v>3.9230443537235198E-2</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="43">
         <v>0.198066771030426</v>
       </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>48</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="29">
         <v>0.136193811893463</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="30">
         <v>3.3979825675487497E-2</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="30">
         <v>0.18433617055416099</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="31">
         <v>0.21978922188281999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="32">
         <v>7.7623896300792694E-2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="33">
         <v>0.27861064672469998</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="31">
         <v>0.183893263339996</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="32">
         <v>5.7227019220590501E-2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="33">
         <v>0.239221692085266</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="31">
         <v>0.15940743684768599</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="32">
         <v>4.30626571178436E-2</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="33">
         <v>0.207515433430671</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="31">
         <v>0.16200520098209301</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="32">
         <v>4.3062441051006303E-2</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="33">
         <v>0.20751491189002899</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="32">
         <v>0.151910841464996</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="32">
         <v>3.8210764527320799E-2</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="33">
         <v>0.19547574222087799</v>
       </c>
     </row>
@@ -1455,58 +1494,58 @@
       <c r="B13" s="3">
         <v>96</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="29">
         <v>0.13881157338619199</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="30">
         <v>3.5383198410272598E-2</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="30">
         <v>0.188104227185249</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="31">
         <v>0.232135489583015</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="32">
         <v>8.5827887058258001E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="33">
         <v>0.29296398162841703</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="31">
         <v>0.16891115903854301</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="32">
         <v>4.9438402056694003E-2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="33">
         <v>0.22234748303890201</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="31">
         <v>0.154224619269371</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="32">
         <v>4.09804731607437E-2</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="33">
         <v>0.202436342835426</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="31">
         <v>0.15538440644741</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="32">
         <v>4.0743727236986098E-2</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="33">
         <v>0.20185075700283001</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="32">
         <v>0.15036503970623</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="32">
         <v>3.7762589752674103E-2</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="33">
         <v>0.19432598352432201</v>
       </c>
     </row>
@@ -1514,138 +1553,138 @@
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="29">
         <f>AVERAGE(C11:C13)</f>
         <v>0.13531827429930332</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="30">
         <f t="shared" ref="D14:T14" si="2">AVERAGE(D11:D13)</f>
         <v>3.3752406636873865E-2</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="30">
         <f t="shared" si="2"/>
         <v>0.18367662032445234</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="31">
         <f t="shared" si="2"/>
         <v>0.21795571843783032</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="32">
         <f t="shared" si="2"/>
         <v>7.7166177332401234E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="33">
         <f t="shared" si="2"/>
         <v>0.27747745315233802</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="31">
         <f t="shared" si="2"/>
         <v>0.18012240032354934</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="32">
         <f t="shared" si="2"/>
         <v>5.5165898054838132E-2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="33">
         <f t="shared" si="2"/>
         <v>0.23470760881900765</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="31">
         <f t="shared" si="2"/>
         <v>0.15943121910095168</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="32">
         <f t="shared" si="2"/>
         <v>4.2912804832061092E-2</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="33">
         <f t="shared" si="2"/>
         <v>0.20712145666281334</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="31">
         <f t="shared" si="2"/>
         <v>0.16214354336261702</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="32">
         <f t="shared" si="2"/>
         <v>4.3145847817261967E-2</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="33">
         <f t="shared" si="2"/>
         <v>0.20766022801399164</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="32">
         <f t="shared" si="2"/>
         <v>0.15241338809331234</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="32">
         <f t="shared" si="2"/>
         <v>3.8401265939076702E-2</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="33">
         <f t="shared" si="2"/>
         <v>0.19595616559187534</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="19" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:23" s="12" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="13">
         <v>24</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="26">
         <v>3.7347428500652299E-2</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="25">
         <v>6.1462405137717698E-3</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="25">
         <v>7.8397959470748901E-2</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="26">
         <v>4.4458683580160099E-2</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="27">
         <v>7.7513619326054998E-3</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="28">
         <v>8.8041819632053306E-2</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="24">
         <v>3.68955098092556E-2</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="27">
         <v>6.1781909316778096E-3</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="28">
         <v>7.8601472079753806E-2</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="26">
         <v>4.7947742044925599E-2</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="27">
         <v>7.6508256606757597E-3</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="28">
         <v>8.7468996644019997E-2</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="26">
         <v>4.90371137857437E-2</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="27">
         <v>7.5658359564840698E-3</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="28">
         <v>8.6981810629367801E-2</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="27">
         <v>5.18201999366283E-2</v>
       </c>
-      <c r="S15" s="19">
+      <c r="S15" s="27">
         <v>8.1555917859077402E-3</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="28">
         <v>9.0308316051959894E-2</v>
       </c>
     </row>
@@ -1653,58 +1692,58 @@
       <c r="B16" s="3">
         <v>48</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="31">
         <v>3.8360789418220499E-2</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="30">
         <v>6.1233453452587102E-3</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="30">
         <v>7.8251808881759602E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="31">
         <v>4.6694740653037997E-2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="32">
         <v>7.8838635236024805E-3</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="33">
         <v>8.8791124522686005E-2</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="29">
         <v>3.7596881389617899E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="32">
         <v>6.4240023493766698E-3</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="33">
         <v>8.0149874091148293E-2</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="31">
         <v>4.5987743884325E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="32">
         <v>7.3866262100636898E-3</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="33">
         <v>8.5945487022399902E-2</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="31">
         <v>4.7287322580814299E-2</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="32">
         <v>7.38787557929754E-3</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="33">
         <v>8.5952751338481903E-2</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="32">
         <v>5.1356635987758602E-2</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="32">
         <v>8.0977994948625495E-3</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="33">
         <v>8.9987777173519107E-2</v>
       </c>
     </row>
@@ -1712,58 +1751,58 @@
       <c r="B17" s="3">
         <v>96</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="31">
         <v>3.8529902696609497E-2</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="30">
         <v>6.0955644585192204E-3</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="30">
         <v>7.8074097633361803E-2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="31">
         <v>4.9092873930931001E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="32">
         <v>8.2127749919891305E-3</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="33">
         <v>9.0624362230300903E-2</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="29">
         <v>3.8448102772235801E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="32">
         <v>6.6068046726286403E-3</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="33">
         <v>8.1282250583171803E-2</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="31">
         <v>4.4125515967607498E-2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="32">
         <v>7.0246085524559004E-3</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="33">
         <v>8.3812937140464699E-2</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="31">
         <v>4.57446053624153E-2</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="32">
         <v>7.1201869286596697E-3</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="33">
         <v>8.4381200373172704E-2</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="32">
         <v>5.0785269588231999E-2</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="32">
         <v>8.0195972695946693E-3</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="33">
         <v>8.9552201330661704E-2</v>
       </c>
       <c r="U17" s="1"/>
@@ -1774,81 +1813,81 @@
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="31">
         <f>AVERAGE(C15:C17)</f>
         <v>3.8079373538494103E-2</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="30">
         <f t="shared" ref="D18:T18" si="3">AVERAGE(D15:D17)</f>
         <v>6.1217167725165665E-3</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="30">
         <f t="shared" si="3"/>
         <v>7.8241288661956773E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="31">
         <f t="shared" si="3"/>
         <v>4.6748766054709699E-2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="32">
         <f t="shared" si="3"/>
         <v>7.9493334827323708E-3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="33">
         <f t="shared" si="3"/>
         <v>8.9152435461680071E-2</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="29">
         <f t="shared" si="3"/>
         <v>3.7646831323703098E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="32">
         <f t="shared" si="3"/>
         <v>6.4029993178943735E-3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="33">
         <f t="shared" si="3"/>
         <v>8.001119891802462E-2</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="31">
         <f t="shared" si="3"/>
         <v>4.6020333965619366E-2</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="32">
         <f t="shared" si="3"/>
         <v>7.3540201410651164E-3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="33">
         <f t="shared" si="3"/>
         <v>8.5742473602294866E-2</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="31">
         <f t="shared" si="3"/>
         <v>4.7356347242991093E-2</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="32">
         <f t="shared" si="3"/>
         <v>7.3579661548137595E-3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="33">
         <f t="shared" si="3"/>
         <v>8.5771920780340793E-2</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="32">
         <f t="shared" si="3"/>
         <v>5.1320701837539638E-2</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="32">
         <f t="shared" si="3"/>
         <v>8.0909961834549852E-3</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="33">
         <f t="shared" si="3"/>
         <v>8.9949431518713582E-2</v>
       </c>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -1857,58 +1896,58 @@
       <c r="B19" s="8">
         <v>24</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="41">
         <v>3.8187548518180799E-2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="40">
         <v>6.1322455294430204E-3</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="40">
         <v>7.8308656811714103E-2</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="41">
         <v>4.2492784559726701E-2</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="42">
         <v>6.8082213401794399E-3</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="43">
         <v>8.2511946558952304E-2</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="39">
         <v>3.7510160356759997E-2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="42">
         <v>6.46507740020751E-3</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="43">
         <v>8.0405704677104894E-2</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="41">
         <v>4.9438372254371601E-2</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="42">
         <v>7.7601405791938296E-3</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="43">
         <v>8.8091656565666199E-2</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="41">
         <v>4.9452017992734902E-2</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="42">
         <v>7.7620293013751498E-3</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="43">
         <v>8.8102377951145103E-2</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="42">
         <v>5.1643028855323701E-2</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="42">
         <v>8.1372568383812904E-3</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="43">
         <v>9.0206742286682101E-2</v>
       </c>
     </row>
@@ -1916,58 +1955,58 @@
       <c r="B20" s="3">
         <v>48</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="31">
         <v>3.9353840053081499E-2</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="30">
         <v>6.1575532890856197E-3</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="30">
         <v>7.8470081090927096E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="31">
         <v>4.4396448880434002E-2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="32">
         <v>7.1852221153676501E-3</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="33">
         <v>8.4765687584877E-2</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="29">
         <v>3.8291092962026499E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="32">
         <v>6.6923238337039904E-3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="33">
         <v>8.1806622445583302E-2</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="31">
         <v>4.7425031661987298E-2</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="32">
         <v>7.5800567865371704E-3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="33">
         <v>8.7063521146774195E-2</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="31">
         <v>4.8135336488485302E-2</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="32">
         <v>7.7000716701149897E-3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="33">
         <v>8.7750054895877797E-2</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="32">
         <v>5.0998926162719699E-2</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="32">
         <v>8.0503951758146199E-3</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="33">
         <v>8.9723996818065602E-2</v>
       </c>
     </row>
@@ -1975,58 +2014,58 @@
       <c r="B21" s="3">
         <v>96</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="29">
         <v>3.94344069063663E-2</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="30">
         <v>6.1644776724278901E-3</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="30">
         <v>7.8514188528060899E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="31">
         <v>4.6247314661741201E-2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="32">
         <v>7.4398065917193803E-3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="33">
         <v>8.6254313588142395E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="31">
         <v>3.9509188383817603E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="32">
         <v>7.0123644545674298E-3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="33">
         <v>8.3739861845970098E-2</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="31">
         <v>4.55546006560325E-2</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="32">
         <v>7.4555436149239497E-3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="33">
         <v>8.6345486342906896E-2</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="31">
         <v>4.6273984014987897E-2</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="32">
         <v>7.4034263379871802E-3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="33">
         <v>8.6043164134025504E-2</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="32">
         <v>5.06439954042434E-2</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="32">
         <v>7.9884631559252704E-3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="33">
         <v>8.9378200471401201E-2</v>
       </c>
       <c r="U21" s="1"/>
@@ -2037,81 +2076,81 @@
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="31">
         <f>AVERAGE(C19:C21)</f>
         <v>3.8991931825876201E-2</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="30">
         <f t="shared" ref="D22:T22" si="4">AVERAGE(D19:D21)</f>
         <v>6.1514254969855103E-3</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="30">
         <f t="shared" si="4"/>
         <v>7.8430975476900699E-2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="31">
         <f t="shared" si="4"/>
         <v>4.4378849367300632E-2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="32">
         <f t="shared" si="4"/>
         <v>7.1444166824221568E-3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="33">
         <f t="shared" si="4"/>
         <v>8.4510649243990557E-2</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="29">
         <f t="shared" si="4"/>
         <v>3.8436813900868033E-2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="32">
         <f t="shared" si="4"/>
         <v>6.7232552294929767E-3</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="33">
         <f t="shared" si="4"/>
         <v>8.1984062989552756E-2</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="31">
         <f t="shared" si="4"/>
         <v>4.7472668190797131E-2</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="32">
         <f t="shared" si="4"/>
         <v>7.5985803268849841E-3</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="33">
         <f t="shared" si="4"/>
         <v>8.7166888018449087E-2</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="31">
         <f t="shared" si="4"/>
         <v>4.7953779498736034E-2</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="32">
         <f t="shared" si="4"/>
         <v>7.6218424364924396E-3</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="33">
         <f t="shared" si="4"/>
         <v>8.7298532327016135E-2</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="32">
         <f t="shared" si="4"/>
         <v>5.1095316807428938E-2</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="32">
         <f t="shared" si="4"/>
         <v>8.0587050567070603E-3</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="33">
         <f t="shared" si="4"/>
         <v>8.9769646525382982E-2</v>
       </c>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
     </row>
     <row r="23" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -2120,58 +2159,58 @@
       <c r="B23" s="8">
         <v>24</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="39">
         <v>3.8539212197065298E-2</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="40">
         <v>5.9217507950961503E-3</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="40">
         <v>7.69529119133949E-2</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="41">
         <v>4.1554320603609002E-2</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="42">
         <v>6.6463216207921496E-3</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="43">
         <v>8.1524975597858401E-2</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="41">
         <v>4.0074173361062997E-2</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="42">
         <v>6.7737619392573799E-3</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="43">
         <v>8.23028683662414E-2</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="41">
         <v>4.98756021261215E-2</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="42">
         <v>8.1985350698232599E-3</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="43">
         <v>9.0545758605003301E-2</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="41">
         <v>5.0679896026849698E-2</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="42">
         <v>8.1660132855176908E-3</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="43">
         <v>9.0365998446941306E-2</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="42">
         <v>5.1665645092725698E-2</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="42">
         <v>8.3811627700924804E-3</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="43">
         <v>9.1548688709735801E-2</v>
       </c>
     </row>
@@ -2179,58 +2218,58 @@
       <c r="B24" s="3">
         <v>48</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="29">
         <v>3.9741411805152803E-2</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="30">
         <v>6.0138301923870997E-3</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="30">
         <v>7.7548891305923406E-2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="31">
         <v>4.24987412989139E-2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="32">
         <v>6.7748315632343197E-3</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="33">
         <v>8.2309365272521903E-2</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="31">
         <v>4.0847703814506503E-2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="32">
         <v>7.2374762967228803E-3</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="33">
         <v>8.50733593106269E-2</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="31">
         <v>4.7411084175109801E-2</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="32">
         <v>7.7752089127898199E-3</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="33">
         <v>8.8177144527435303E-2</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="31">
         <v>4.7839812934398603E-2</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="32">
         <v>7.6861619018018202E-3</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="33">
         <v>8.7670758366584695E-2</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="32">
         <v>5.1097150892019202E-2</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="32">
         <v>8.2502933219075203E-3</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="33">
         <v>9.0831123292446095E-2</v>
       </c>
       <c r="U24" s="1"/>
@@ -2241,58 +2280,58 @@
       <c r="B25" s="3">
         <v>96</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="44">
         <v>4.0421377867460202E-2</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="30">
         <v>6.0362918302416801E-3</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="30">
         <v>7.7693574130535098E-2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="31">
         <v>4.4652700424194301E-2</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="32">
         <v>7.1868333034217297E-3</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="33">
         <v>8.4775194525718606E-2</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="29">
         <v>3.9737433195114101E-2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="32">
         <v>6.8243094719946298E-3</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="33">
         <v>8.2609377801418304E-2</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="31">
         <v>4.7340419143438298E-2</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="32">
         <v>7.8585175797343202E-3</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="33">
         <v>8.8648281991481698E-2</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="31">
         <v>4.6708479523658697E-2</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="32">
         <v>7.6028052717447203E-3</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="33">
         <v>8.7194070219993494E-2</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="32">
         <v>4.9877233803272199E-2</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="32">
         <v>8.0335261300206098E-3</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="33">
         <v>8.9629940688609994E-2</v>
       </c>
       <c r="U25" s="1"/>
@@ -2303,138 +2342,138 @@
       <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="29">
         <f>AVERAGE(C23:C25)</f>
         <v>3.9567333956559432E-2</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="30">
         <f t="shared" ref="D26:T26" si="5">AVERAGE(D23:D25)</f>
         <v>5.9906242725749764E-3</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="30">
         <f t="shared" si="5"/>
         <v>7.7398459116617802E-2</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="31">
         <f t="shared" si="5"/>
         <v>4.2901920775572401E-2</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="32">
         <f t="shared" si="5"/>
         <v>6.8693288291493994E-3</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="33">
         <f t="shared" si="5"/>
         <v>8.2869845132032965E-2</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="31">
         <f t="shared" si="5"/>
         <v>4.0219770123561205E-2</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="32">
         <f t="shared" si="5"/>
         <v>6.9451825693249633E-3</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="33">
         <f t="shared" si="5"/>
         <v>8.3328535159428868E-2</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="31">
         <f t="shared" si="5"/>
         <v>4.8209035148223202E-2</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="32">
         <f t="shared" si="5"/>
         <v>7.9440871874491333E-3</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="33">
         <f t="shared" si="5"/>
         <v>8.912372837464011E-2</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="31">
         <f t="shared" si="5"/>
         <v>4.8409396161635664E-2</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="32">
         <f t="shared" si="5"/>
         <v>7.8183268196880765E-3</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="33">
         <f t="shared" si="5"/>
         <v>8.8410275677839822E-2</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="32">
         <f t="shared" si="5"/>
         <v>5.0880009929339033E-2</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="32">
         <f t="shared" si="5"/>
         <v>8.2216607406735368E-3</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="33">
         <f t="shared" si="5"/>
         <v>9.0669917563597283E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="19" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:23" s="12" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="13">
         <v>24</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="24">
         <v>1.8416857346892301E-2</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="25">
         <v>6.4510153606534004E-4</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="25">
         <v>2.5398848578333799E-2</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="26">
         <v>2.11142171174287E-2</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="27">
         <v>9.4132317462936E-4</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="28">
         <v>3.0680989846587101E-2</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="26">
         <v>2.3338882252573901E-2</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="27">
         <v>9.8802149295806798E-4</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="28">
         <v>3.1432807445526102E-2</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="26">
         <v>2.74052619934082E-2</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="27">
         <v>1.41742418054491E-3</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N27" s="28">
         <v>3.76486927270889E-2</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="26">
         <v>2.6944862678647E-2</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="27">
         <v>1.32843921892344E-3</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="Q27" s="28">
         <v>3.6447759717702803E-2</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R27" s="27">
         <v>5.4791767150163602E-2</v>
       </c>
-      <c r="S27" s="19">
+      <c r="S27" s="27">
         <v>4.6536275185644601E-3</v>
       </c>
-      <c r="T27" s="20">
+      <c r="T27" s="28">
         <v>6.8217501044273293E-2</v>
       </c>
     </row>
@@ -2442,58 +2481,58 @@
       <c r="B28" s="3">
         <v>48</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="29">
         <v>2.3212268948554899E-2</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="30">
         <v>9.6889137057587504E-4</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="30">
         <v>3.1127020716667099E-2</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="31">
         <v>2.5058504194021201E-2</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="32">
         <v>1.3069738633930601E-3</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="33">
         <v>3.6152094602584797E-2</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="31">
         <v>2.81117670238018E-2</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="32">
         <v>1.3360022567212499E-3</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="33">
         <v>3.65513637661933E-2</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="31">
         <v>3.5597883164882597E-2</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="32">
         <v>2.1940781734883699E-3</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="33">
         <v>4.6840988099575001E-2</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="31">
         <v>3.4072682261466897E-2</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="32">
         <v>2.0071724429726601E-3</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="33">
         <v>4.4801477342844002E-2</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="32">
         <v>5.4474037140607799E-2</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="32">
         <v>4.6042064204811998E-3</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="33">
         <v>6.7854300141334506E-2</v>
       </c>
       <c r="U28" s="1"/>
@@ -2504,58 +2543,58 @@
       <c r="B29" s="3">
         <v>96</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="29">
         <v>2.6290317997336301E-2</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="30">
         <v>1.2118930462747799E-3</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="30">
         <v>3.4812252968549701E-2</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="31">
         <v>3.0459787696599901E-2</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="32">
         <v>1.8887546611949799E-3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="33">
         <v>4.3459806591272299E-2</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="31">
         <v>3.1587589532136903E-2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="32">
         <v>1.68255530297756E-3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="33">
         <v>4.1018962860107401E-2</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="31">
         <v>4.4260453432798302E-2</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="32">
         <v>3.08123487047851E-3</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="33">
         <v>5.5508870631456299E-2</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="31">
         <v>4.1334372013807297E-2</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="32">
         <v>2.73172324523329E-3</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="33">
         <v>5.2265889942645999E-2</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="32">
         <v>5.4836038500070503E-2</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="32">
         <v>4.6678399667143796E-3</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="33">
         <v>6.8321593105792999E-2</v>
       </c>
       <c r="U29" s="1"/>
@@ -2566,81 +2605,81 @@
       <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="29">
         <f>AVERAGE(C27:C29)</f>
         <v>2.2639814764261166E-2</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="30">
         <f t="shared" ref="D30:T30" si="6">AVERAGE(D27:D29)</f>
         <v>9.4196198430533163E-4</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="30">
         <f t="shared" si="6"/>
         <v>3.0446040754516863E-2</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="31">
         <f t="shared" si="6"/>
         <v>2.5544169669349932E-2</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="32">
         <f t="shared" si="6"/>
         <v>1.3790172330724667E-3</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="33">
         <f t="shared" si="6"/>
         <v>3.6764297013481398E-2</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="31">
         <f t="shared" si="6"/>
         <v>2.7679412936170867E-2</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="32">
         <f t="shared" si="6"/>
         <v>1.335526350885626E-3</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="33">
         <f t="shared" si="6"/>
         <v>3.6334378023942265E-2</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="31">
         <f t="shared" si="6"/>
         <v>3.5754532863696363E-2</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="32">
         <f t="shared" si="6"/>
         <v>2.2309124081705965E-3</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="33">
         <f t="shared" si="6"/>
         <v>4.6666183819373402E-2</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="31">
         <f t="shared" si="6"/>
         <v>3.4117305651307064E-2</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="32">
         <f t="shared" si="6"/>
         <v>2.02244496904313E-3</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="33">
         <f t="shared" si="6"/>
         <v>4.4505042334397595E-2</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="32">
         <f t="shared" si="6"/>
         <v>5.4700614263613966E-2</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="32">
         <f t="shared" si="6"/>
         <v>4.6418913019200128E-3</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="33">
         <f t="shared" si="6"/>
         <v>6.8131131430466937E-2</v>
       </c>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
     </row>
     <row r="31" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -2649,58 +2688,58 @@
       <c r="B31" s="8">
         <v>24</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="39">
         <v>1.8019666895270299E-2</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="40">
         <v>6.1920157168060498E-4</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="40">
         <v>2.4883762001991199E-2</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="41">
         <v>2.0719474181532801E-2</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="42">
         <v>8.8842952391132702E-4</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="43">
         <v>2.98065356910228E-2</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="41">
         <v>2.7454975992441101E-2</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="42">
         <v>1.3994163600727901E-3</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="43">
         <v>3.7408772855997002E-2</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="41">
         <v>2.8542634099721902E-2</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="42">
         <v>1.5132091939449299E-3</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="43">
         <v>3.8899987936019897E-2</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="41">
         <v>3.29397842288017E-2</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="42">
         <v>1.85607082676142E-3</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="43">
         <v>4.30821403861045E-2</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="42">
         <v>5.5152699351310702E-2</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="42">
         <v>4.7566783614456602E-3</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T31" s="43">
         <v>6.8968676030635806E-2</v>
       </c>
     </row>
@@ -2708,58 +2747,58 @@
       <c r="B32" s="3">
         <v>48</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="29">
         <v>2.1260784938931399E-2</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="30">
         <v>8.1665714969858495E-4</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="30">
         <v>2.8577214106917301E-2</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="31">
         <v>2.4438584223389601E-2</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="32">
         <v>1.21174147352576E-3</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="33">
         <v>3.4810077399015399E-2</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="31">
         <v>3.0486978590488399E-2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="32">
         <v>1.5935684787109401E-3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="33">
         <v>3.9919525384902899E-2</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="31">
         <v>3.4601699560880599E-2</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="32">
         <v>2.0514612551778499E-3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="33">
         <v>4.5293059200048398E-2</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="31">
         <v>3.4835692495107602E-2</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="32">
         <v>2.0807839464396199E-3</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="33">
         <v>4.5615609735250397E-2</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="32">
         <v>5.4841052740812302E-2</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="32">
         <v>4.6700257807970004E-3</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="33">
         <v>6.8337589502334595E-2</v>
       </c>
       <c r="U32" s="1"/>
@@ -2770,58 +2809,58 @@
       <c r="B33" s="3">
         <v>96</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="29">
         <v>2.2915853187441802E-2</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="30">
         <v>9.53608483541756E-4</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="30">
         <v>3.0880551785230598E-2</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="31">
         <v>2.77378354221582E-2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="32">
         <v>1.55908847227692E-3</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="33">
         <v>3.9485294371843303E-2</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="31">
         <v>3.3969853073358501E-2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="32">
         <v>1.9975043833255698E-3</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="33">
         <v>4.4693447649478898E-2</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="31">
         <v>3.4306317567825297E-2</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="32">
         <v>1.9933863077312699E-3</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="33">
         <v>4.4647354632616001E-2</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="31">
         <v>3.3930748701095498E-2</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="32">
         <v>1.9693835638463402E-3</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="33">
         <v>4.43777367472648E-2</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33" s="32">
         <v>5.4132193326949997E-2</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33" s="32">
         <v>4.6463194303214498E-3</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="33">
         <v>6.81639164686203E-2</v>
       </c>
       <c r="U33" s="1"/>
@@ -2832,81 +2871,81 @@
       <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="29">
         <f>AVERAGE(C31:C33)</f>
         <v>2.0732101673881165E-2</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="30">
         <f t="shared" ref="D34:T34" si="7">AVERAGE(D31:D33)</f>
         <v>7.9648906830698198E-4</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="30">
         <f t="shared" si="7"/>
         <v>2.8113842631379699E-2</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="31">
         <f t="shared" si="7"/>
         <v>2.4298631275693535E-2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="32">
         <f t="shared" si="7"/>
         <v>1.2197531565713356E-3</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="33">
         <f t="shared" si="7"/>
         <v>3.4700635820627164E-2</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="31">
         <f t="shared" si="7"/>
         <v>3.0637269218762669E-2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="32">
         <f t="shared" si="7"/>
         <v>1.6634964073697668E-3</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="33">
         <f t="shared" si="7"/>
         <v>4.0673915296792935E-2</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="31">
         <f t="shared" si="7"/>
         <v>3.2483550409475932E-2</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="32">
         <f t="shared" si="7"/>
         <v>1.8526855856180165E-3</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="33">
         <f t="shared" si="7"/>
         <v>4.2946800589561428E-2</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="31">
         <f t="shared" si="7"/>
         <v>3.3902075141668264E-2</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="32">
         <f t="shared" si="7"/>
         <v>1.9687461123491265E-3</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="33">
         <f t="shared" si="7"/>
         <v>4.435849562287323E-2</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="32">
         <f t="shared" si="7"/>
         <v>5.4708648473024334E-2</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="32">
         <f t="shared" si="7"/>
         <v>4.6910078575213695E-3</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34" s="33">
         <f t="shared" si="7"/>
         <v>6.84900606671969E-2</v>
       </c>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
     </row>
     <row r="35" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -2915,120 +2954,120 @@
       <c r="B35" s="8">
         <v>24</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="39">
         <v>1.6250062733888598E-2</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="40">
         <v>5.4900307441130205E-4</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="40">
         <v>2.34308149665594E-2</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="41">
         <v>1.9246743991970999E-2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="42">
         <v>8.0495985457673604E-4</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="43">
         <v>2.8371814638376201E-2</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="41">
         <v>3.0981000512838301E-2</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="42">
         <v>1.89365062396973E-3</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="43">
         <v>4.35160957276821E-2</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="41">
         <v>2.76194047182798E-2</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="42">
         <v>1.44916668068617E-3</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="43">
         <v>3.8067921996116597E-2</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O35" s="41">
         <v>3.05411294102668E-2</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="42">
         <v>1.7285165376961201E-3</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="43">
         <v>4.1575431823730399E-2</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="42">
         <v>5.46482466161251E-2</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="42">
         <v>4.6263323165476296E-3</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T35" s="43">
         <v>6.8017147481441498E-2</v>
       </c>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>48</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="29">
         <v>1.7871698364615399E-2</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="30">
         <v>6.4205413218587604E-4</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="30">
         <v>2.5338787585496899E-2</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="31">
         <v>2.2252824157476401E-2</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="32">
         <v>1.0910090059041901E-3</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="33">
         <v>3.3030424267053597E-2</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="31">
         <v>3.6837778985500301E-2</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="32">
         <v>2.3147999309003301E-3</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="33">
         <v>4.8112366348504999E-2</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="31">
         <v>3.00317388027906E-2</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="32">
         <v>1.67759286705404E-3</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="33">
         <v>4.0958426892757402E-2</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="31">
         <v>3.1203459948301301E-2</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="32">
         <v>1.7932006157934601E-3</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="33">
         <v>4.2346198111772503E-2</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36" s="32">
         <v>5.4662760347127901E-2</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36" s="32">
         <v>4.6385661698877803E-3</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T36" s="33">
         <v>6.8107016384601496E-2</v>
       </c>
     </row>
@@ -3036,58 +3075,58 @@
       <c r="B37" s="3">
         <v>96</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="29">
         <v>2.0298028364777499E-2</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="30">
         <v>8.1362412311136701E-4</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="30">
         <v>2.85240970551967E-2</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="31">
         <v>2.5904456153512001E-2</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="32">
         <v>1.4699215535074401E-3</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="33">
         <v>3.8339555263519197E-2</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="31">
         <v>3.9149027317762299E-2</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="32">
         <v>2.5933887809514999E-3</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="33">
         <v>5.0925325602293001E-2</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="31">
         <v>3.0639862641692099E-2</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="32">
         <v>1.7223977483808901E-3</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="33">
         <v>4.1501779109239502E-2</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="31">
         <v>3.1140852719545298E-2</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="32">
         <v>1.77700875792652E-3</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="33">
         <v>4.2154580354690503E-2</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="32">
         <v>5.43775707483291E-2</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37" s="32">
         <v>4.6094353310763801E-3</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37" s="33">
         <v>6.7892819643020602E-2</v>
       </c>
     </row>
@@ -3095,141 +3134,141 @@
       <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="29">
         <f>AVERAGE(C35:C37)</f>
         <v>1.8139929821093831E-2</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="30">
         <f t="shared" ref="D38:T38" si="8">AVERAGE(D35:D37)</f>
         <v>6.682271099028484E-4</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="30">
         <f t="shared" si="8"/>
         <v>2.5764566535750998E-2</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="31">
         <f t="shared" si="8"/>
         <v>2.2468008100986467E-2</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="32">
         <f t="shared" si="8"/>
         <v>1.1219634713294554E-3</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="33">
         <f t="shared" si="8"/>
         <v>3.3247264722982998E-2</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="31">
         <f t="shared" si="8"/>
         <v>3.5655935605366972E-2</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="32">
         <f t="shared" si="8"/>
         <v>2.2672797786071866E-3</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="33">
         <f t="shared" si="8"/>
         <v>4.7517929226160029E-2</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="31">
         <f t="shared" si="8"/>
         <v>2.9430335387587502E-2</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="32">
         <f t="shared" si="8"/>
         <v>1.6163857653736999E-3</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="33">
         <f t="shared" si="8"/>
         <v>4.0176042666037831E-2</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="31">
         <f t="shared" si="8"/>
         <v>3.0961814026037801E-2</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="32">
         <f t="shared" si="8"/>
         <v>1.7662419704720335E-3</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="33">
         <f t="shared" si="8"/>
         <v>4.2025403430064466E-2</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="32">
         <f t="shared" si="8"/>
         <v>5.4562859237194034E-2</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="32">
         <f t="shared" si="8"/>
         <v>4.6247779391705964E-3</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="33">
         <f t="shared" si="8"/>
         <v>6.8005661169687856E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="19" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+    <row r="39" spans="1:23" s="12" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="21">
+      <c r="B39" s="20"/>
+      <c r="C39" s="14">
         <v>28</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="15">
         <v>36</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="15">
         <v>36</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="16">
         <v>0</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="12">
         <v>0</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="13">
         <v>0</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="16">
         <v>8</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="12">
         <v>0</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="13">
         <v>0</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="16">
         <v>0</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="12">
         <v>0</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="13">
         <v>0</v>
       </c>
-      <c r="O39" s="23">
+      <c r="O39" s="16">
         <v>0</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P39" s="12">
         <v>0</v>
       </c>
-      <c r="Q39" s="20">
+      <c r="Q39" s="13">
         <v>0</v>
       </c>
-      <c r="R39" s="19">
+      <c r="R39" s="12">
         <v>0</v>
       </c>
-      <c r="S39" s="19">
+      <c r="S39" s="12">
         <v>0</v>
       </c>
-      <c r="T39" s="20">
+      <c r="T39" s="13">
         <v>0</v>
       </c>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2D572D-7197-4BE5-8638-52C5FE6BA70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03606B68-835E-4244-8349-7F09FD1B7EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="25600" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>pred_len</t>
   </si>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>1st Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-LSTM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,7 +348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,8 +363,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,69 +439,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -720,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -738,48 +739,55 @@
     <col min="9" max="9" width="8.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" style="1"/>
+    <col min="14" max="14" width="8.6640625" style="3"/>
     <col min="15" max="15" width="8.6640625" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.6640625" style="3" customWidth="1"/>
-    <col min="18" max="19" width="8.6640625" style="1"/>
-    <col min="20" max="20" width="8.6640625" style="3"/>
-    <col min="24" max="16384" width="8.6640625" style="1"/>
+    <col min="18" max="18" width="8.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="3" customWidth="1"/>
+    <col min="21" max="22" width="8.6640625" style="1"/>
+    <col min="23" max="23" width="8.6640625" style="3"/>
+    <col min="27" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="21" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="21" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="23"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="41"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
@@ -812,7 +820,7 @@
       <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -830,7 +838,7 @@
       <c r="Q2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="S2" s="4" t="s">
@@ -839,128 +847,152 @@
       <c r="T2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="12" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="U2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>24</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="16">
         <v>0.11655319482088</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="17">
         <v>2.7306107804179101E-2</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="17">
         <v>0.16524559259414601</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="18">
         <v>0.202014476060867</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="19">
         <v>6.8504951894283295E-2</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="20">
         <v>0.26173451542854298</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="18">
         <v>0.13348093628883301</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="19">
         <v>3.3567667007446199E-2</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="20">
         <v>0.18321481347084001</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="19">
+        <v>0.15511791408061901</v>
+      </c>
+      <c r="M3" s="19">
+        <v>4.1122056543827001E-2</v>
+      </c>
+      <c r="N3" s="20">
+        <v>0.202785745263099</v>
+      </c>
+      <c r="O3" s="18">
         <v>0.163824021816253</v>
       </c>
-      <c r="M3" s="27">
+      <c r="P3" s="19">
         <v>4.4865254312753601E-2</v>
       </c>
-      <c r="N3" s="28">
+      <c r="Q3" s="20">
         <v>0.211814194917678</v>
       </c>
-      <c r="O3" s="26">
+      <c r="R3" s="18">
         <v>0.16376949846744501</v>
       </c>
-      <c r="P3" s="27">
+      <c r="S3" s="19">
         <v>4.39804159104824E-2</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="T3" s="20">
         <v>0.20971508324146201</v>
       </c>
-      <c r="R3" s="27">
+      <c r="U3" s="19">
         <v>0.15677812695503199</v>
       </c>
-      <c r="S3" s="27">
+      <c r="V3" s="19">
         <v>3.99565286934375E-2</v>
       </c>
-      <c r="T3" s="28">
+      <c r="W3" s="20">
         <v>0.19989129900932301</v>
       </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>48</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="21">
         <v>0.1230104342103</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="22">
         <v>2.9524529352784101E-2</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="22">
         <v>0.171827033162117</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="23">
         <v>0.22177517414093001</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="24">
         <v>7.7530011534690801E-2</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="25">
         <v>0.27844211459159801</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="23">
         <v>0.13597610592842099</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="24">
         <v>3.4134138375520699E-2</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="25">
         <v>0.18475426733493799</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="24">
+        <v>0.15430873632431</v>
+      </c>
+      <c r="M4" s="24">
+        <v>4.1020154953002902E-2</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0.20253433287143699</v>
+      </c>
+      <c r="O4" s="23">
         <v>0.15892267227172799</v>
       </c>
-      <c r="M4" s="32">
+      <c r="P4" s="24">
         <v>4.3297417461872101E-2</v>
       </c>
-      <c r="N4" s="33">
+      <c r="Q4" s="25">
         <v>0.20808032155036901</v>
       </c>
-      <c r="O4" s="31">
+      <c r="R4" s="23">
         <v>0.15985773503780301</v>
       </c>
-      <c r="P4" s="32">
+      <c r="S4" s="24">
         <v>4.2661797255277599E-2</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="T4" s="25">
         <v>0.20654731988906799</v>
       </c>
-      <c r="R4" s="32">
+      <c r="U4" s="24">
         <v>0.15172319114208199</v>
       </c>
-      <c r="S4" s="32">
+      <c r="V4" s="24">
         <v>3.8385242223739603E-2</v>
       </c>
-      <c r="T4" s="33">
+      <c r="W4" s="25">
         <v>0.195921525359153</v>
       </c>
     </row>
@@ -968,58 +1000,67 @@
       <c r="B5" s="3">
         <v>96</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="21">
         <v>0.13076274096965701</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="22">
         <v>3.2509464770555399E-2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="22">
         <v>0.18030381202697701</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="23">
         <v>0.23652617633342701</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="24">
         <v>8.7130449712276403E-2</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="25">
         <v>0.29517868161201399</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="23">
         <v>0.13767200708389199</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="24">
         <v>3.4882064908742898E-2</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="25">
         <v>0.18676741421222601</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="24">
+        <v>0.14993523061275399</v>
+      </c>
+      <c r="M5" s="24">
+        <v>3.9731353521346997E-2</v>
+      </c>
+      <c r="N5" s="25">
+        <v>0.19932724535465199</v>
+      </c>
+      <c r="O5" s="23">
         <v>0.151401281356811</v>
       </c>
-      <c r="M5" s="32">
+      <c r="P5" s="24">
         <v>4.0427424013614599E-2</v>
       </c>
-      <c r="N5" s="33">
+      <c r="Q5" s="25">
         <v>0.201065719127655</v>
       </c>
-      <c r="O5" s="31">
+      <c r="R5" s="23">
         <v>0.153957739472389</v>
       </c>
-      <c r="P5" s="32">
+      <c r="S5" s="24">
         <v>4.0712758898734998E-2</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="T5" s="25">
         <v>0.201774030923843</v>
       </c>
-      <c r="R5" s="32">
+      <c r="U5" s="24">
         <v>0.147674515843391</v>
       </c>
-      <c r="S5" s="32">
+      <c r="V5" s="24">
         <v>3.7153638899326297E-2</v>
       </c>
-      <c r="T5" s="33">
+      <c r="W5" s="25">
         <v>0.19275279343128199</v>
       </c>
     </row>
@@ -1027,81 +1068,90 @@
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="26">
         <f>AVERAGE(C3:C5)</f>
         <v>0.12344212333361233</v>
       </c>
-      <c r="D6" s="35">
-        <f t="shared" ref="D6:T6" si="0">AVERAGE(D3:D5)</f>
+      <c r="D6" s="27">
+        <f t="shared" ref="D6:W6" si="0">AVERAGE(D3:D5)</f>
         <v>2.9780033975839532E-2</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>0.17245881259441334</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>0.22010527551174133</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="29">
         <f t="shared" si="0"/>
         <v>7.7721804380416828E-2</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="30">
         <f t="shared" si="0"/>
         <v>0.27845177054405162</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="28">
         <f t="shared" si="0"/>
         <v>0.13570968310038198</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="29">
         <f t="shared" si="0"/>
         <v>3.4194623430569927E-2</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="30">
         <f t="shared" si="0"/>
         <v>0.18491216500600136</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="28">
+        <f t="shared" si="0"/>
+        <v>0.15312062700589432</v>
+      </c>
+      <c r="M6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.0624521672725629E-2</v>
+      </c>
+      <c r="N6" s="30">
+        <f t="shared" si="0"/>
+        <v>0.20154910782972932</v>
+      </c>
+      <c r="O6" s="28">
         <f t="shared" si="0"/>
         <v>0.15804932514826397</v>
       </c>
-      <c r="M6" s="37">
+      <c r="P6" s="29">
         <f t="shared" si="0"/>
         <v>4.2863365262746762E-2</v>
       </c>
-      <c r="N6" s="38">
+      <c r="Q6" s="30">
         <f t="shared" si="0"/>
         <v>0.20698674519856733</v>
       </c>
-      <c r="O6" s="36">
+      <c r="R6" s="28">
         <f t="shared" si="0"/>
         <v>0.15919499099254567</v>
       </c>
-      <c r="P6" s="37">
+      <c r="S6" s="29">
         <f t="shared" si="0"/>
         <v>4.2451657354831668E-2</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="T6" s="30">
         <f t="shared" si="0"/>
         <v>0.20601214468479098</v>
       </c>
-      <c r="R6" s="37">
+      <c r="U6" s="29">
         <f t="shared" si="0"/>
         <v>0.15205861131350165</v>
       </c>
-      <c r="S6" s="37">
+      <c r="V6" s="29">
         <f t="shared" si="0"/>
         <v>3.8498469938834469E-2</v>
       </c>
-      <c r="T6" s="38">
+      <c r="W6" s="30">
         <f t="shared" si="0"/>
         <v>0.196188539266586</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1110,120 +1160,135 @@
       <c r="B7" s="3">
         <v>24</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="21">
         <v>0.12985345721244801</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="22">
         <v>3.1856678426265703E-2</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="22">
         <v>0.17848439514636899</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="23">
         <v>0.20443807542324</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="24">
         <v>6.9060698151588398E-2</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="25">
         <v>0.26279401779174799</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="23">
         <v>0.17077532410621599</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="24">
         <v>4.9491636455059003E-2</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="25">
         <v>0.22246715426444999</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="24">
+        <v>0.15834918618202201</v>
+      </c>
+      <c r="M7" s="24">
+        <v>4.2223915457725497E-2</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0.205484583973884</v>
+      </c>
+      <c r="O7" s="23">
         <v>0.16256271302700001</v>
       </c>
-      <c r="M7" s="32">
+      <c r="P7" s="24">
         <v>4.3951865285634897E-2</v>
       </c>
-      <c r="N7" s="33">
+      <c r="Q7" s="25">
         <v>0.20964699983596799</v>
       </c>
-      <c r="O7" s="31">
+      <c r="R7" s="23">
         <v>0.16619838774204199</v>
       </c>
-      <c r="P7" s="32">
+      <c r="S7" s="24">
         <v>4.4709768146276398E-2</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="T7" s="25">
         <v>0.21144685149192799</v>
       </c>
-      <c r="R7" s="32">
+      <c r="U7" s="24">
         <v>0.15755447745323101</v>
       </c>
-      <c r="S7" s="32">
+      <c r="V7" s="24">
         <v>4.0192168205976403E-2</v>
       </c>
-      <c r="T7" s="33">
+      <c r="W7" s="25">
         <v>0.20047985017299599</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>48</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="21">
         <v>0.12899044156074499</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="22">
         <v>3.2135039567947297E-2</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="22">
         <v>0.17926248908042899</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="23">
         <v>0.21912920475006101</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="24">
         <v>7.8270062804222107E-2</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="25">
         <v>0.27976787090301503</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="23">
         <v>0.15825793147087</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="24">
         <v>4.3394986540079103E-2</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="25">
         <v>0.20831462740898099</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="24">
+        <v>0.15224267542362199</v>
+      </c>
+      <c r="M8" s="24">
+        <v>4.0489707142114598E-2</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0.201220542192459</v>
+      </c>
+      <c r="O8" s="23">
         <v>0.157863289117813</v>
       </c>
-      <c r="M8" s="32">
+      <c r="P8" s="24">
         <v>4.2571835219860001E-2</v>
       </c>
-      <c r="N8" s="33">
+      <c r="Q8" s="25">
         <v>0.206329435110092</v>
       </c>
-      <c r="O8" s="31">
+      <c r="R8" s="23">
         <v>0.16095720231533001</v>
       </c>
-      <c r="P8" s="32">
+      <c r="S8" s="24">
         <v>4.2570840567350297E-2</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="T8" s="25">
         <v>0.20632702112197801</v>
       </c>
-      <c r="R8" s="32">
+      <c r="U8" s="24">
         <v>0.15225131809711401</v>
       </c>
-      <c r="S8" s="32">
+      <c r="V8" s="24">
         <v>3.85371856391429E-2</v>
       </c>
-      <c r="T8" s="33">
+      <c r="W8" s="25">
         <v>0.19630891084671001</v>
       </c>
     </row>
@@ -1231,137 +1296,155 @@
       <c r="B9" s="3">
         <v>96</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="21">
         <v>0.13227391242980899</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="22">
         <v>3.3048331737518297E-2</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="22">
         <v>0.18179200589656799</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="23">
         <v>0.23416173458099299</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="24">
         <v>8.7962813675403595E-2</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="25">
         <v>0.29658526182174599</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="23">
         <v>0.15027090907096799</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="24">
         <v>4.0399566292762701E-2</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="25">
         <v>0.200996428728103</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="24">
+        <v>0.14812970161437899</v>
+      </c>
+      <c r="M9" s="24">
+        <v>3.9279781281947999E-2</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0.19819127023220001</v>
+      </c>
+      <c r="O9" s="23">
         <v>0.15309450030326799</v>
       </c>
-      <c r="M9" s="32">
+      <c r="P9" s="24">
         <v>4.0794283151626497E-2</v>
       </c>
-      <c r="N9" s="33">
+      <c r="Q9" s="25">
         <v>0.20197594165801999</v>
       </c>
-      <c r="O9" s="31">
+      <c r="R9" s="23">
         <v>0.15383370220661099</v>
       </c>
-      <c r="P9" s="32">
+      <c r="S9" s="24">
         <v>4.0202669799327802E-2</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="T9" s="25">
         <v>0.200506031513214</v>
       </c>
-      <c r="R9" s="32">
+      <c r="U9" s="24">
         <v>0.14790876209735801</v>
       </c>
-      <c r="S9" s="32">
+      <c r="V9" s="24">
         <v>3.7213187664747203E-2</v>
       </c>
-      <c r="T9" s="33">
+      <c r="W9" s="25">
         <v>0.192907199263572</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="21">
         <f>AVERAGE(C7:C9)</f>
         <v>0.13037260373433401</v>
       </c>
-      <c r="D10" s="30">
-        <f t="shared" ref="D10:T10" si="1">AVERAGE(D7:D9)</f>
+      <c r="D10" s="22">
+        <f t="shared" ref="D10:W10" si="1">AVERAGE(D7:D9)</f>
         <v>3.2346683243910428E-2</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="22">
         <f t="shared" si="1"/>
         <v>0.17984629670778865</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="23">
         <f t="shared" si="1"/>
         <v>0.21924300491809801</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="24">
         <f t="shared" si="1"/>
         <v>7.8431191543738024E-2</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="25">
         <f t="shared" si="1"/>
         <v>0.27971571683883628</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="23">
         <f t="shared" si="1"/>
         <v>0.15976805488268464</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="24">
         <f t="shared" si="1"/>
         <v>4.4428729762633602E-2</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="25">
         <f t="shared" si="1"/>
         <v>0.2105927368005113</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="23">
+        <f t="shared" si="1"/>
+        <v>0.15290718774000767</v>
+      </c>
+      <c r="M10" s="24">
+        <f t="shared" si="1"/>
+        <v>4.0664467960596029E-2</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" si="1"/>
+        <v>0.20163213213284767</v>
+      </c>
+      <c r="O10" s="23">
         <f t="shared" si="1"/>
         <v>0.15784016748269367</v>
       </c>
-      <c r="M10" s="32">
+      <c r="P10" s="24">
         <f t="shared" si="1"/>
         <v>4.2439327885707138E-2</v>
       </c>
-      <c r="N10" s="33">
+      <c r="Q10" s="25">
         <f t="shared" si="1"/>
         <v>0.20598412553469334</v>
       </c>
-      <c r="O10" s="31">
+      <c r="R10" s="23">
         <f t="shared" si="1"/>
         <v>0.16032976408799435</v>
       </c>
-      <c r="P10" s="32">
+      <c r="S10" s="24">
         <f t="shared" si="1"/>
         <v>4.2494426170984832E-2</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="T10" s="25">
         <f t="shared" si="1"/>
         <v>0.20609330137570667</v>
       </c>
-      <c r="R10" s="32">
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
         <v>0.15257151921590104</v>
       </c>
-      <c r="S10" s="32">
+      <c r="V10" s="24">
         <f t="shared" si="1"/>
         <v>3.8647513836622176E-2</v>
       </c>
-      <c r="T10" s="33">
+      <c r="W10" s="25">
         <f t="shared" si="1"/>
         <v>0.19656532009442598</v>
       </c>
@@ -1373,120 +1456,135 @@
       <c r="B11" s="8">
         <v>24</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="31">
         <v>0.130949437618255</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="32">
         <v>3.1894195824861499E-2</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="32">
         <v>0.178589463233947</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="33">
         <v>0.201942443847656</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="34">
         <v>6.8046748638153007E-2</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="35">
         <v>0.26085773110389698</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="33">
         <v>0.18756277859210899</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="34">
         <v>5.8832272887229899E-2</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="35">
         <v>0.242553651332855</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="34">
+        <v>0.15527106821537001</v>
+      </c>
+      <c r="M11" s="34">
+        <v>4.10184636712074E-2</v>
+      </c>
+      <c r="N11" s="35">
+        <v>0.20253016054630199</v>
+      </c>
+      <c r="O11" s="33">
         <v>0.16466160118579801</v>
       </c>
-      <c r="M11" s="42">
+      <c r="P11" s="34">
         <v>4.4695284217595999E-2</v>
       </c>
-      <c r="N11" s="43">
+      <c r="Q11" s="35">
         <v>0.211412593722343</v>
       </c>
-      <c r="O11" s="41">
+      <c r="R11" s="33">
         <v>0.169041022658348</v>
       </c>
-      <c r="P11" s="42">
+      <c r="S11" s="34">
         <v>4.5631375163793501E-2</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="T11" s="35">
         <v>0.21361501514911599</v>
       </c>
-      <c r="R11" s="42">
+      <c r="U11" s="34">
         <v>0.15496428310871099</v>
       </c>
-      <c r="S11" s="42">
+      <c r="V11" s="34">
         <v>3.9230443537235198E-2</v>
       </c>
-      <c r="T11" s="43">
+      <c r="W11" s="35">
         <v>0.198066771030426</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>48</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="21">
         <v>0.136193811893463</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="22">
         <v>3.3979825675487497E-2</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="22">
         <v>0.18433617055416099</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="23">
         <v>0.21978922188281999</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="24">
         <v>7.7623896300792694E-2</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="25">
         <v>0.27861064672469998</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="23">
         <v>0.183893263339996</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="24">
         <v>5.7227019220590501E-2</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="25">
         <v>0.239221692085266</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="24">
+        <v>0.15187393128871901</v>
+      </c>
+      <c r="M12" s="24">
+        <v>4.0099553763866397E-2</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0.200248733162879</v>
+      </c>
+      <c r="O12" s="23">
         <v>0.15940743684768599</v>
       </c>
-      <c r="M12" s="32">
+      <c r="P12" s="24">
         <v>4.30626571178436E-2</v>
       </c>
-      <c r="N12" s="33">
+      <c r="Q12" s="25">
         <v>0.207515433430671</v>
       </c>
-      <c r="O12" s="31">
+      <c r="R12" s="23">
         <v>0.16200520098209301</v>
       </c>
-      <c r="P12" s="32">
+      <c r="S12" s="24">
         <v>4.3062441051006303E-2</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="T12" s="25">
         <v>0.20751491189002899</v>
       </c>
-      <c r="R12" s="32">
+      <c r="U12" s="24">
         <v>0.151910841464996</v>
       </c>
-      <c r="S12" s="32">
+      <c r="V12" s="24">
         <v>3.8210764527320799E-2</v>
       </c>
-      <c r="T12" s="33">
+      <c r="W12" s="25">
         <v>0.19547574222087799</v>
       </c>
     </row>
@@ -1494,58 +1592,67 @@
       <c r="B13" s="3">
         <v>96</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="21">
         <v>0.13881157338619199</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="22">
         <v>3.5383198410272598E-2</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="22">
         <v>0.188104227185249</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="23">
         <v>0.232135489583015</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="24">
         <v>8.5827887058258001E-2</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="25">
         <v>0.29296398162841703</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="23">
         <v>0.16891115903854301</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="24">
         <v>4.9438402056694003E-2</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="25">
         <v>0.22234748303890201</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="24">
+        <v>0.154373198747634</v>
+      </c>
+      <c r="M13" s="24">
+        <v>4.1778936982154798E-2</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0.20439895987510601</v>
+      </c>
+      <c r="O13" s="23">
         <v>0.154224619269371</v>
       </c>
-      <c r="M13" s="32">
+      <c r="P13" s="24">
         <v>4.09804731607437E-2</v>
       </c>
-      <c r="N13" s="33">
+      <c r="Q13" s="25">
         <v>0.202436342835426</v>
       </c>
-      <c r="O13" s="31">
+      <c r="R13" s="23">
         <v>0.15538440644741</v>
       </c>
-      <c r="P13" s="32">
+      <c r="S13" s="24">
         <v>4.0743727236986098E-2</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="T13" s="25">
         <v>0.20185075700283001</v>
       </c>
-      <c r="R13" s="32">
+      <c r="U13" s="24">
         <v>0.15036503970623</v>
       </c>
-      <c r="S13" s="32">
+      <c r="V13" s="24">
         <v>3.7762589752674103E-2</v>
       </c>
-      <c r="T13" s="33">
+      <c r="W13" s="25">
         <v>0.19432598352432201</v>
       </c>
     </row>
@@ -1553,138 +1660,159 @@
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="21">
         <f>AVERAGE(C11:C13)</f>
         <v>0.13531827429930332</v>
       </c>
-      <c r="D14" s="30">
-        <f t="shared" ref="D14:T14" si="2">AVERAGE(D11:D13)</f>
+      <c r="D14" s="22">
+        <f t="shared" ref="D14:W14" si="2">AVERAGE(D11:D13)</f>
         <v>3.3752406636873865E-2</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="22">
         <f t="shared" si="2"/>
         <v>0.18367662032445234</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="23">
         <f t="shared" si="2"/>
         <v>0.21795571843783032</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="24">
         <f t="shared" si="2"/>
         <v>7.7166177332401234E-2</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="25">
         <f t="shared" si="2"/>
         <v>0.27747745315233802</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="23">
         <f t="shared" si="2"/>
         <v>0.18012240032354934</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="24">
         <f t="shared" si="2"/>
         <v>5.5165898054838132E-2</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="25">
         <f t="shared" si="2"/>
         <v>0.23470760881900765</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="23">
+        <f t="shared" si="2"/>
+        <v>0.15383939941724101</v>
+      </c>
+      <c r="M14" s="24">
+        <f t="shared" si="2"/>
+        <v>4.0965651472409527E-2</v>
+      </c>
+      <c r="N14" s="25">
+        <f t="shared" si="2"/>
+        <v>0.20239261786142901</v>
+      </c>
+      <c r="O14" s="23">
         <f t="shared" si="2"/>
         <v>0.15943121910095168</v>
       </c>
-      <c r="M14" s="32">
+      <c r="P14" s="24">
         <f t="shared" si="2"/>
         <v>4.2912804832061092E-2</v>
       </c>
-      <c r="N14" s="33">
+      <c r="Q14" s="25">
         <f t="shared" si="2"/>
         <v>0.20712145666281334</v>
       </c>
-      <c r="O14" s="31">
+      <c r="R14" s="23">
         <f t="shared" si="2"/>
         <v>0.16214354336261702</v>
       </c>
-      <c r="P14" s="32">
+      <c r="S14" s="24">
         <f t="shared" si="2"/>
         <v>4.3145847817261967E-2</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="T14" s="25">
         <f t="shared" si="2"/>
         <v>0.20766022801399164</v>
       </c>
-      <c r="R14" s="32">
+      <c r="U14" s="24">
         <f t="shared" si="2"/>
         <v>0.15241338809331234</v>
       </c>
-      <c r="S14" s="32">
+      <c r="V14" s="24">
         <f t="shared" si="2"/>
         <v>3.8401265939076702E-2</v>
       </c>
-      <c r="T14" s="33">
+      <c r="W14" s="25">
         <f t="shared" si="2"/>
         <v>0.19595616559187534</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="12" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:23" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="18">
         <v>3.7347428500652299E-2</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="17">
         <v>6.1462405137717698E-3</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="17">
         <v>7.8397959470748901E-2</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="18">
         <v>4.4458683580160099E-2</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="19">
         <v>7.7513619326054998E-3</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="20">
         <v>8.8041819632053306E-2</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="16">
         <v>3.68955098092556E-2</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="19">
         <v>6.1781909316778096E-3</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="20">
         <v>7.8601472079753806E-2</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="19">
+        <v>4.1543889790773302E-2</v>
+      </c>
+      <c r="M15" s="19">
+        <v>6.6226902417838504E-3</v>
+      </c>
+      <c r="N15" s="20">
+        <v>8.1379912793636294E-2</v>
+      </c>
+      <c r="O15" s="18">
         <v>4.7947742044925599E-2</v>
       </c>
-      <c r="M15" s="27">
+      <c r="P15" s="19">
         <v>7.6508256606757597E-3</v>
       </c>
-      <c r="N15" s="28">
+      <c r="Q15" s="20">
         <v>8.7468996644019997E-2</v>
       </c>
-      <c r="O15" s="26">
+      <c r="R15" s="18">
         <v>4.90371137857437E-2</v>
       </c>
-      <c r="P15" s="27">
+      <c r="S15" s="19">
         <v>7.5658359564840698E-3</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="T15" s="20">
         <v>8.6981810629367801E-2</v>
       </c>
-      <c r="R15" s="27">
+      <c r="U15" s="19">
         <v>5.18201999366283E-2</v>
       </c>
-      <c r="S15" s="27">
+      <c r="V15" s="19">
         <v>8.1555917859077402E-3</v>
       </c>
-      <c r="T15" s="28">
+      <c r="W15" s="20">
         <v>9.0308316051959894E-2</v>
       </c>
     </row>
@@ -1692,58 +1820,67 @@
       <c r="B16" s="3">
         <v>48</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="23">
         <v>3.8360789418220499E-2</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="22">
         <v>6.1233453452587102E-3</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="22">
         <v>7.8251808881759602E-2</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="23">
         <v>4.6694740653037997E-2</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="24">
         <v>7.8838635236024805E-3</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="25">
         <v>8.8791124522686005E-2</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="21">
         <v>3.7596881389617899E-2</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="24">
         <v>6.4240023493766698E-3</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="25">
         <v>8.0149874091148293E-2</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="24">
+        <v>4.4508002698421402E-2</v>
+      </c>
+      <c r="M16" s="24">
+        <v>7.39588029682636E-3</v>
+      </c>
+      <c r="N16" s="25">
+        <v>8.59993025660514E-2</v>
+      </c>
+      <c r="O16" s="23">
         <v>4.5987743884325E-2</v>
       </c>
-      <c r="M16" s="32">
+      <c r="P16" s="24">
         <v>7.3866262100636898E-3</v>
       </c>
-      <c r="N16" s="33">
+      <c r="Q16" s="25">
         <v>8.5945487022399902E-2</v>
       </c>
-      <c r="O16" s="31">
+      <c r="R16" s="23">
         <v>4.7287322580814299E-2</v>
       </c>
-      <c r="P16" s="32">
+      <c r="S16" s="24">
         <v>7.38787557929754E-3</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="T16" s="25">
         <v>8.5952751338481903E-2</v>
       </c>
-      <c r="R16" s="32">
+      <c r="U16" s="24">
         <v>5.1356635987758602E-2</v>
       </c>
-      <c r="S16" s="32">
+      <c r="V16" s="24">
         <v>8.0977994948625495E-3</v>
       </c>
-      <c r="T16" s="33">
+      <c r="W16" s="25">
         <v>8.9987777173519107E-2</v>
       </c>
     </row>
@@ -1751,143 +1888,158 @@
       <c r="B17" s="3">
         <v>96</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="23">
         <v>3.8529902696609497E-2</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="22">
         <v>6.0955644585192204E-3</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="22">
         <v>7.8074097633361803E-2</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="23">
         <v>4.9092873930931001E-2</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="24">
         <v>8.2127749919891305E-3</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="25">
         <v>9.0624362230300903E-2</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="21">
         <v>3.8448102772235801E-2</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="24">
         <v>6.6068046726286403E-3</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="25">
         <v>8.1282250583171803E-2</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="24">
+        <v>4.4087845832109403E-2</v>
+      </c>
+      <c r="M17" s="24">
+        <v>7.1707363240420801E-3</v>
+      </c>
+      <c r="N17" s="25">
+        <v>8.4680199623107896E-2</v>
+      </c>
+      <c r="O17" s="23">
         <v>4.4125515967607498E-2</v>
       </c>
-      <c r="M17" s="32">
+      <c r="P17" s="24">
         <v>7.0246085524559004E-3</v>
       </c>
-      <c r="N17" s="33">
+      <c r="Q17" s="25">
         <v>8.3812937140464699E-2</v>
       </c>
-      <c r="O17" s="31">
+      <c r="R17" s="23">
         <v>4.57446053624153E-2</v>
       </c>
-      <c r="P17" s="32">
+      <c r="S17" s="24">
         <v>7.1201869286596697E-3</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="T17" s="25">
         <v>8.4381200373172704E-2</v>
       </c>
-      <c r="R17" s="32">
+      <c r="U17" s="24">
         <v>5.0785269588231999E-2</v>
       </c>
-      <c r="S17" s="32">
+      <c r="V17" s="24">
         <v>8.0195972695946693E-3</v>
       </c>
-      <c r="T17" s="33">
+      <c r="W17" s="25">
         <v>8.9552201330661704E-2</v>
       </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="23">
         <f>AVERAGE(C15:C17)</f>
         <v>3.8079373538494103E-2</v>
       </c>
-      <c r="D18" s="30">
-        <f t="shared" ref="D18:T18" si="3">AVERAGE(D15:D17)</f>
+      <c r="D18" s="22">
+        <f t="shared" ref="D18:W18" si="3">AVERAGE(D15:D17)</f>
         <v>6.1217167725165665E-3</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="22">
         <f t="shared" si="3"/>
         <v>7.8241288661956773E-2</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="23">
         <f t="shared" si="3"/>
         <v>4.6748766054709699E-2</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="24">
         <f t="shared" si="3"/>
         <v>7.9493334827323708E-3</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="25">
         <f t="shared" si="3"/>
         <v>8.9152435461680071E-2</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="21">
         <f t="shared" si="3"/>
         <v>3.7646831323703098E-2</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="24">
         <f t="shared" si="3"/>
         <v>6.4029993178943735E-3</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="25">
         <f t="shared" si="3"/>
         <v>8.001119891802462E-2</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="36">
+        <f t="shared" si="3"/>
+        <v>4.3379912773768035E-2</v>
+      </c>
+      <c r="M18" s="24">
+        <f t="shared" si="3"/>
+        <v>7.0631022875507626E-3</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" si="3"/>
+        <v>8.4019804994265201E-2</v>
+      </c>
+      <c r="O18" s="23">
         <f t="shared" si="3"/>
         <v>4.6020333965619366E-2</v>
       </c>
-      <c r="M18" s="32">
+      <c r="P18" s="24">
         <f t="shared" si="3"/>
         <v>7.3540201410651164E-3</v>
       </c>
-      <c r="N18" s="33">
+      <c r="Q18" s="25">
         <f t="shared" si="3"/>
         <v>8.5742473602294866E-2</v>
       </c>
-      <c r="O18" s="31">
+      <c r="R18" s="23">
         <f t="shared" si="3"/>
         <v>4.7356347242991093E-2</v>
       </c>
-      <c r="P18" s="32">
+      <c r="S18" s="24">
         <f t="shared" si="3"/>
         <v>7.3579661548137595E-3</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="T18" s="25">
         <f t="shared" si="3"/>
         <v>8.5771920780340793E-2</v>
       </c>
-      <c r="R18" s="32">
+      <c r="U18" s="24">
         <f t="shared" si="3"/>
         <v>5.1320701837539638E-2</v>
       </c>
-      <c r="S18" s="32">
+      <c r="V18" s="24">
         <f t="shared" si="3"/>
         <v>8.0909961834549852E-3</v>
       </c>
-      <c r="T18" s="33">
+      <c r="W18" s="25">
         <f t="shared" si="3"/>
         <v>8.9949431518713582E-2</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -1896,58 +2048,67 @@
       <c r="B19" s="8">
         <v>24</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="33">
         <v>3.8187548518180799E-2</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="32">
         <v>6.1322455294430204E-3</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="32">
         <v>7.8308656811714103E-2</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="33">
         <v>4.2492784559726701E-2</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="34">
         <v>6.8082213401794399E-3</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="35">
         <v>8.2511946558952304E-2</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="31">
         <v>3.7510160356759997E-2</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="34">
         <v>6.46507740020751E-3</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="35">
         <v>8.0405704677104894E-2</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="34">
+        <v>4.2370334267616203E-2</v>
+      </c>
+      <c r="M19" s="34">
+        <v>6.85028778389096E-3</v>
+      </c>
+      <c r="N19" s="35">
+        <v>8.2766465842723805E-2</v>
+      </c>
+      <c r="O19" s="33">
         <v>4.9438372254371601E-2</v>
       </c>
-      <c r="M19" s="42">
+      <c r="P19" s="34">
         <v>7.7601405791938296E-3</v>
       </c>
-      <c r="N19" s="43">
+      <c r="Q19" s="35">
         <v>8.8091656565666199E-2</v>
       </c>
-      <c r="O19" s="41">
+      <c r="R19" s="33">
         <v>4.9452017992734902E-2</v>
       </c>
-      <c r="P19" s="42">
+      <c r="S19" s="34">
         <v>7.7620293013751498E-3</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="T19" s="35">
         <v>8.8102377951145103E-2</v>
       </c>
-      <c r="R19" s="42">
+      <c r="U19" s="34">
         <v>5.1643028855323701E-2</v>
       </c>
-      <c r="S19" s="42">
+      <c r="V19" s="34">
         <v>8.1372568383812904E-3</v>
       </c>
-      <c r="T19" s="43">
+      <c r="W19" s="35">
         <v>9.0206742286682101E-2</v>
       </c>
     </row>
@@ -1955,58 +2116,67 @@
       <c r="B20" s="3">
         <v>48</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="23">
         <v>3.9353840053081499E-2</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="22">
         <v>6.1575532890856197E-3</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="22">
         <v>7.8470081090927096E-2</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="23">
         <v>4.4396448880434002E-2</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="24">
         <v>7.1852221153676501E-3</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="25">
         <v>8.4765687584877E-2</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="21">
         <v>3.8291092962026499E-2</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="24">
         <v>6.6923238337039904E-3</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="25">
         <v>8.1806622445583302E-2</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="24">
+        <v>4.1556332260370199E-2</v>
+      </c>
+      <c r="M20" s="24">
+        <v>6.9735189899802199E-3</v>
+      </c>
+      <c r="N20" s="25">
+        <v>8.3507597446441595E-2</v>
+      </c>
+      <c r="O20" s="23">
         <v>4.7425031661987298E-2</v>
       </c>
-      <c r="M20" s="32">
+      <c r="P20" s="24">
         <v>7.5800567865371704E-3</v>
       </c>
-      <c r="N20" s="33">
+      <c r="Q20" s="25">
         <v>8.7063521146774195E-2</v>
       </c>
-      <c r="O20" s="31">
+      <c r="R20" s="23">
         <v>4.8135336488485302E-2</v>
       </c>
-      <c r="P20" s="32">
+      <c r="S20" s="24">
         <v>7.7000716701149897E-3</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="T20" s="25">
         <v>8.7750054895877797E-2</v>
       </c>
-      <c r="R20" s="32">
+      <c r="U20" s="24">
         <v>5.0998926162719699E-2</v>
       </c>
-      <c r="S20" s="32">
+      <c r="V20" s="24">
         <v>8.0503951758146199E-3</v>
       </c>
-      <c r="T20" s="33">
+      <c r="W20" s="25">
         <v>8.9723996818065602E-2</v>
       </c>
     </row>
@@ -2014,143 +2184,158 @@
       <c r="B21" s="3">
         <v>96</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="21">
         <v>3.94344069063663E-2</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="22">
         <v>6.1644776724278901E-3</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="22">
         <v>7.8514188528060899E-2</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="23">
         <v>4.6247314661741201E-2</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="24">
         <v>7.4398065917193803E-3</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="25">
         <v>8.6254313588142395E-2</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="23">
         <v>3.9509188383817603E-2</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="24">
         <v>7.0123644545674298E-3</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="25">
         <v>8.3739861845970098E-2</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="24">
+        <v>4.1434403508901499E-2</v>
+      </c>
+      <c r="M21" s="24">
+        <v>6.9542876444756898E-3</v>
+      </c>
+      <c r="N21" s="25">
+        <v>8.3392374217510196E-2</v>
+      </c>
+      <c r="O21" s="23">
         <v>4.55546006560325E-2</v>
       </c>
-      <c r="M21" s="32">
+      <c r="P21" s="24">
         <v>7.4555436149239497E-3</v>
       </c>
-      <c r="N21" s="33">
+      <c r="Q21" s="25">
         <v>8.6345486342906896E-2</v>
       </c>
-      <c r="O21" s="31">
+      <c r="R21" s="23">
         <v>4.6273984014987897E-2</v>
       </c>
-      <c r="P21" s="32">
+      <c r="S21" s="24">
         <v>7.4034263379871802E-3</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="T21" s="25">
         <v>8.6043164134025504E-2</v>
       </c>
-      <c r="R21" s="32">
+      <c r="U21" s="24">
         <v>5.06439954042434E-2</v>
       </c>
-      <c r="S21" s="32">
+      <c r="V21" s="24">
         <v>7.9884631559252704E-3</v>
       </c>
-      <c r="T21" s="33">
+      <c r="W21" s="25">
         <v>8.9378200471401201E-2</v>
       </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="23">
         <f>AVERAGE(C19:C21)</f>
         <v>3.8991931825876201E-2</v>
       </c>
-      <c r="D22" s="30">
-        <f t="shared" ref="D22:T22" si="4">AVERAGE(D19:D21)</f>
+      <c r="D22" s="22">
+        <f t="shared" ref="D22:W22" si="4">AVERAGE(D19:D21)</f>
         <v>6.1514254969855103E-3</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="22">
         <f t="shared" si="4"/>
         <v>7.8430975476900699E-2</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="23">
         <f t="shared" si="4"/>
         <v>4.4378849367300632E-2</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="24">
         <f t="shared" si="4"/>
         <v>7.1444166824221568E-3</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="25">
         <f t="shared" si="4"/>
         <v>8.4510649243990557E-2</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="21">
         <f t="shared" si="4"/>
         <v>3.8436813900868033E-2</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="24">
         <f t="shared" si="4"/>
         <v>6.7232552294929767E-3</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="25">
         <f t="shared" si="4"/>
         <v>8.1984062989552756E-2</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="36">
+        <f t="shared" si="4"/>
+        <v>4.1787023345629302E-2</v>
+      </c>
+      <c r="M22" s="24">
+        <f t="shared" si="4"/>
+        <v>6.926031472782289E-3</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" si="4"/>
+        <v>8.3222145835558523E-2</v>
+      </c>
+      <c r="O22" s="23">
         <f t="shared" si="4"/>
         <v>4.7472668190797131E-2</v>
       </c>
-      <c r="M22" s="32">
+      <c r="P22" s="24">
         <f t="shared" si="4"/>
         <v>7.5985803268849841E-3</v>
       </c>
-      <c r="N22" s="33">
+      <c r="Q22" s="25">
         <f t="shared" si="4"/>
         <v>8.7166888018449087E-2</v>
       </c>
-      <c r="O22" s="31">
+      <c r="R22" s="23">
         <f t="shared" si="4"/>
         <v>4.7953779498736034E-2</v>
       </c>
-      <c r="P22" s="32">
+      <c r="S22" s="24">
         <f t="shared" si="4"/>
         <v>7.6218424364924396E-3</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="T22" s="25">
         <f t="shared" si="4"/>
         <v>8.7298532327016135E-2</v>
       </c>
-      <c r="R22" s="32">
+      <c r="U22" s="24">
         <f t="shared" si="4"/>
         <v>5.1095316807428938E-2</v>
       </c>
-      <c r="S22" s="32">
+      <c r="V22" s="24">
         <f t="shared" si="4"/>
         <v>8.0587050567070603E-3</v>
       </c>
-      <c r="T22" s="33">
+      <c r="W22" s="25">
         <f t="shared" si="4"/>
         <v>8.9769646525382982E-2</v>
       </c>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
     </row>
     <row r="23" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -2159,58 +2344,67 @@
       <c r="B23" s="8">
         <v>24</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="31">
         <v>3.8539212197065298E-2</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="32">
         <v>5.9217507950961503E-3</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="32">
         <v>7.69529119133949E-2</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="33">
         <v>4.1554320603609002E-2</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="34">
         <v>6.6463216207921496E-3</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="35">
         <v>8.1524975597858401E-2</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="33">
         <v>4.0074173361062997E-2</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="34">
         <v>6.7737619392573799E-3</v>
       </c>
-      <c r="K23" s="43">
+      <c r="K23" s="35">
         <v>8.23028683662414E-2</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="34">
+        <v>4.1565839201211902E-2</v>
+      </c>
+      <c r="M23" s="34">
+        <v>6.7392480559646997E-3</v>
+      </c>
+      <c r="N23" s="35">
+        <v>8.2092925906181294E-2</v>
+      </c>
+      <c r="O23" s="33">
         <v>4.98756021261215E-2</v>
       </c>
-      <c r="M23" s="42">
+      <c r="P23" s="34">
         <v>8.1985350698232599E-3</v>
       </c>
-      <c r="N23" s="43">
+      <c r="Q23" s="35">
         <v>9.0545758605003301E-2</v>
       </c>
-      <c r="O23" s="41">
+      <c r="R23" s="33">
         <v>5.0679896026849698E-2</v>
       </c>
-      <c r="P23" s="42">
+      <c r="S23" s="34">
         <v>8.1660132855176908E-3</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="T23" s="35">
         <v>9.0365998446941306E-2</v>
       </c>
-      <c r="R23" s="42">
+      <c r="U23" s="34">
         <v>5.1665645092725698E-2</v>
       </c>
-      <c r="S23" s="42">
+      <c r="V23" s="34">
         <v>8.3811627700924804E-3</v>
       </c>
-      <c r="T23" s="43">
+      <c r="W23" s="35">
         <v>9.1548688709735801E-2</v>
       </c>
     </row>
@@ -2218,262 +2412,295 @@
       <c r="B24" s="3">
         <v>48</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="21">
         <v>3.9741411805152803E-2</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="22">
         <v>6.0138301923870997E-3</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="22">
         <v>7.7548891305923406E-2</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="23">
         <v>4.24987412989139E-2</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="24">
         <v>6.7748315632343197E-3</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="25">
         <v>8.2309365272521903E-2</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="23">
         <v>4.0847703814506503E-2</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="24">
         <v>7.2374762967228803E-3</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="25">
         <v>8.50733593106269E-2</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="24">
+        <v>4.0397323668002999E-2</v>
+      </c>
+      <c r="M24" s="24">
+        <v>6.6857053898274899E-3</v>
+      </c>
+      <c r="N24" s="25">
+        <v>8.1766165792942005E-2</v>
+      </c>
+      <c r="O24" s="23">
         <v>4.7411084175109801E-2</v>
       </c>
-      <c r="M24" s="32">
+      <c r="P24" s="24">
         <v>7.7752089127898199E-3</v>
       </c>
-      <c r="N24" s="33">
+      <c r="Q24" s="25">
         <v>8.8177144527435303E-2</v>
       </c>
-      <c r="O24" s="31">
+      <c r="R24" s="23">
         <v>4.7839812934398603E-2</v>
       </c>
-      <c r="P24" s="32">
+      <c r="S24" s="24">
         <v>7.6861619018018202E-3</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="T24" s="25">
         <v>8.7670758366584695E-2</v>
       </c>
-      <c r="R24" s="32">
+      <c r="U24" s="24">
         <v>5.1097150892019202E-2</v>
       </c>
-      <c r="S24" s="32">
+      <c r="V24" s="24">
         <v>8.2502933219075203E-3</v>
       </c>
-      <c r="T24" s="33">
+      <c r="W24" s="25">
         <v>9.0831123292446095E-2</v>
       </c>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>96</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="36">
         <v>4.0421377867460202E-2</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="22">
         <v>6.0362918302416801E-3</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="22">
         <v>7.7693574130535098E-2</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="23">
         <v>4.4652700424194301E-2</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="24">
         <v>7.1868333034217297E-3</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="25">
         <v>8.4775194525718606E-2</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="21">
         <v>3.9737433195114101E-2</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="24">
         <v>6.8243094719946298E-3</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="25">
         <v>8.2609377801418304E-2</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="24">
+        <v>3.9824444800615297E-2</v>
+      </c>
+      <c r="M25" s="24">
+        <v>6.5666642040014198E-3</v>
+      </c>
+      <c r="N25" s="25">
+        <v>8.1034958362579304E-2</v>
+      </c>
+      <c r="O25" s="23">
         <v>4.7340419143438298E-2</v>
       </c>
-      <c r="M25" s="32">
+      <c r="P25" s="24">
         <v>7.8585175797343202E-3</v>
       </c>
-      <c r="N25" s="33">
+      <c r="Q25" s="25">
         <v>8.8648281991481698E-2</v>
       </c>
-      <c r="O25" s="31">
+      <c r="R25" s="23">
         <v>4.6708479523658697E-2</v>
       </c>
-      <c r="P25" s="32">
+      <c r="S25" s="24">
         <v>7.6028052717447203E-3</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="T25" s="25">
         <v>8.7194070219993494E-2</v>
       </c>
-      <c r="R25" s="32">
+      <c r="U25" s="24">
         <v>4.9877233803272199E-2</v>
       </c>
-      <c r="S25" s="32">
+      <c r="V25" s="24">
         <v>8.0335261300206098E-3</v>
       </c>
-      <c r="T25" s="33">
+      <c r="W25" s="25">
         <v>8.9629940688609994E-2</v>
       </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="21">
         <f>AVERAGE(C23:C25)</f>
         <v>3.9567333956559432E-2</v>
       </c>
-      <c r="D26" s="30">
-        <f t="shared" ref="D26:T26" si="5">AVERAGE(D23:D25)</f>
+      <c r="D26" s="22">
+        <f t="shared" ref="D26:W26" si="5">AVERAGE(D23:D25)</f>
         <v>5.9906242725749764E-3</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="22">
         <f t="shared" si="5"/>
         <v>7.7398459116617802E-2</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="23">
         <f t="shared" si="5"/>
         <v>4.2901920775572401E-2</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="24">
         <f t="shared" si="5"/>
         <v>6.8693288291493994E-3</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="25">
         <f t="shared" si="5"/>
         <v>8.2869845132032965E-2</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="23">
         <f t="shared" si="5"/>
         <v>4.0219770123561205E-2</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="24">
         <f t="shared" si="5"/>
         <v>6.9451825693249633E-3</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="25">
         <f t="shared" si="5"/>
         <v>8.3328535159428868E-2</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="23">
+        <f t="shared" si="5"/>
+        <v>4.059586922327673E-2</v>
+      </c>
+      <c r="M26" s="24">
+        <f t="shared" si="5"/>
+        <v>6.6638725499312034E-3</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="5"/>
+        <v>8.1631350020567539E-2</v>
+      </c>
+      <c r="O26" s="23">
         <f t="shared" si="5"/>
         <v>4.8209035148223202E-2</v>
       </c>
-      <c r="M26" s="32">
+      <c r="P26" s="24">
         <f t="shared" si="5"/>
         <v>7.9440871874491333E-3</v>
       </c>
-      <c r="N26" s="33">
+      <c r="Q26" s="25">
         <f t="shared" si="5"/>
         <v>8.912372837464011E-2</v>
       </c>
-      <c r="O26" s="31">
+      <c r="R26" s="23">
         <f t="shared" si="5"/>
         <v>4.8409396161635664E-2</v>
       </c>
-      <c r="P26" s="32">
+      <c r="S26" s="24">
         <f t="shared" si="5"/>
         <v>7.8183268196880765E-3</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="T26" s="25">
         <f t="shared" si="5"/>
         <v>8.8410275677839822E-2</v>
       </c>
-      <c r="R26" s="32">
+      <c r="U26" s="24">
         <f t="shared" si="5"/>
         <v>5.0880009929339033E-2</v>
       </c>
-      <c r="S26" s="32">
+      <c r="V26" s="24">
         <f t="shared" si="5"/>
         <v>8.2216607406735368E-3</v>
       </c>
-      <c r="T26" s="33">
+      <c r="W26" s="25">
         <f t="shared" si="5"/>
         <v>9.0669917563597283E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="12" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:23" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>24</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="16">
         <v>1.8416857346892301E-2</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="17">
         <v>6.4510153606534004E-4</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="17">
         <v>2.5398848578333799E-2</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="18">
         <v>2.11142171174287E-2</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="19">
         <v>9.4132317462936E-4</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="20">
         <v>3.0680989846587101E-2</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="18">
         <v>2.3338882252573901E-2</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="19">
         <v>9.8802149295806798E-4</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="20">
         <v>3.1432807445526102E-2</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="19">
+        <v>2.5605255737900699E-2</v>
+      </c>
+      <c r="M27" s="19">
+        <v>1.22557219583541E-3</v>
+      </c>
+      <c r="N27" s="20">
+        <v>3.5008173435926403E-2</v>
+      </c>
+      <c r="O27" s="18">
         <v>2.74052619934082E-2</v>
       </c>
-      <c r="M27" s="27">
+      <c r="P27" s="19">
         <v>1.41742418054491E-3</v>
       </c>
-      <c r="N27" s="28">
+      <c r="Q27" s="20">
         <v>3.76486927270889E-2</v>
       </c>
-      <c r="O27" s="26">
+      <c r="R27" s="18">
         <v>2.6944862678647E-2</v>
       </c>
-      <c r="P27" s="27">
+      <c r="S27" s="19">
         <v>1.32843921892344E-3</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="T27" s="20">
         <v>3.6447759717702803E-2</v>
       </c>
-      <c r="R27" s="27">
+      <c r="U27" s="19">
         <v>5.4791767150163602E-2</v>
       </c>
-      <c r="S27" s="27">
+      <c r="V27" s="19">
         <v>4.6536275185644601E-3</v>
       </c>
-      <c r="T27" s="28">
+      <c r="W27" s="20">
         <v>6.8217501044273293E-2</v>
       </c>
     </row>
@@ -2481,205 +2708,226 @@
       <c r="B28" s="3">
         <v>48</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="21">
         <v>2.3212268948554899E-2</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="22">
         <v>9.6889137057587504E-4</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="22">
         <v>3.1127020716667099E-2</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="23">
         <v>2.5058504194021201E-2</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="24">
         <v>1.3069738633930601E-3</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="25">
         <v>3.6152094602584797E-2</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="23">
         <v>2.81117670238018E-2</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="24">
         <v>1.3360022567212499E-3</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="25">
         <v>3.65513637661933E-2</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="24">
+        <v>3.2716028392314897E-2</v>
+      </c>
+      <c r="M28" s="24">
+        <v>1.89718592446297E-3</v>
+      </c>
+      <c r="N28" s="25">
+        <v>4.3556697666645001E-2</v>
+      </c>
+      <c r="O28" s="23">
         <v>3.5597883164882597E-2</v>
       </c>
-      <c r="M28" s="32">
+      <c r="P28" s="24">
         <v>2.1940781734883699E-3</v>
       </c>
-      <c r="N28" s="33">
+      <c r="Q28" s="25">
         <v>4.6840988099575001E-2</v>
       </c>
-      <c r="O28" s="31">
+      <c r="R28" s="23">
         <v>3.4072682261466897E-2</v>
       </c>
-      <c r="P28" s="32">
+      <c r="S28" s="24">
         <v>2.0071724429726601E-3</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="T28" s="25">
         <v>4.4801477342844002E-2</v>
       </c>
-      <c r="R28" s="32">
+      <c r="U28" s="24">
         <v>5.4474037140607799E-2</v>
       </c>
-      <c r="S28" s="32">
+      <c r="V28" s="24">
         <v>4.6042064204811998E-3</v>
       </c>
-      <c r="T28" s="33">
+      <c r="W28" s="25">
         <v>6.7854300141334506E-2</v>
       </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>96</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="21">
         <v>2.6290317997336301E-2</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="22">
         <v>1.2118930462747799E-3</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="22">
         <v>3.4812252968549701E-2</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="23">
         <v>3.0459787696599901E-2</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="24">
         <v>1.8887546611949799E-3</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="25">
         <v>4.3459806591272299E-2</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="23">
         <v>3.1587589532136903E-2</v>
       </c>
-      <c r="J29" s="32">
+      <c r="J29" s="24">
         <v>1.68255530297756E-3</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="25">
         <v>4.1018962860107401E-2</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="24">
+        <v>4.1500676423311199E-2</v>
+      </c>
+      <c r="M29" s="24">
+        <v>2.8052863199263798E-3</v>
+      </c>
+      <c r="N29" s="25">
+        <v>5.29649518430233E-2</v>
+      </c>
+      <c r="O29" s="23">
         <v>4.4260453432798302E-2</v>
       </c>
-      <c r="M29" s="32">
+      <c r="P29" s="24">
         <v>3.08123487047851E-3</v>
       </c>
-      <c r="N29" s="33">
+      <c r="Q29" s="25">
         <v>5.5508870631456299E-2</v>
       </c>
-      <c r="O29" s="31">
+      <c r="R29" s="23">
         <v>4.1334372013807297E-2</v>
       </c>
-      <c r="P29" s="32">
+      <c r="S29" s="24">
         <v>2.73172324523329E-3</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="T29" s="25">
         <v>5.2265889942645999E-2</v>
       </c>
-      <c r="R29" s="32">
+      <c r="U29" s="24">
         <v>5.4836038500070503E-2</v>
       </c>
-      <c r="S29" s="32">
+      <c r="V29" s="24">
         <v>4.6678399667143796E-3</v>
       </c>
-      <c r="T29" s="33">
+      <c r="W29" s="25">
         <v>6.8321593105792999E-2</v>
       </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="21">
         <f>AVERAGE(C27:C29)</f>
         <v>2.2639814764261166E-2</v>
       </c>
-      <c r="D30" s="30">
-        <f t="shared" ref="D30:T30" si="6">AVERAGE(D27:D29)</f>
+      <c r="D30" s="22">
+        <f t="shared" ref="D30:W30" si="6">AVERAGE(D27:D29)</f>
         <v>9.4196198430533163E-4</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="22">
         <f t="shared" si="6"/>
         <v>3.0446040754516863E-2</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="23">
         <f t="shared" si="6"/>
         <v>2.5544169669349932E-2</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="24">
         <f t="shared" si="6"/>
         <v>1.3790172330724667E-3</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="25">
         <f t="shared" si="6"/>
         <v>3.6764297013481398E-2</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="23">
         <f t="shared" si="6"/>
         <v>2.7679412936170867E-2</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="24">
         <f t="shared" si="6"/>
         <v>1.335526350885626E-3</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="25">
         <f t="shared" si="6"/>
         <v>3.6334378023942265E-2</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="23">
+        <f t="shared" si="6"/>
+        <v>3.3273986851175601E-2</v>
+      </c>
+      <c r="M30" s="24">
+        <f t="shared" si="6"/>
+        <v>1.9760148134082534E-3</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="6"/>
+        <v>4.3843274315198237E-2</v>
+      </c>
+      <c r="O30" s="23">
         <f t="shared" si="6"/>
         <v>3.5754532863696363E-2</v>
       </c>
-      <c r="M30" s="32">
+      <c r="P30" s="24">
         <f t="shared" si="6"/>
         <v>2.2309124081705965E-3</v>
       </c>
-      <c r="N30" s="33">
+      <c r="Q30" s="25">
         <f t="shared" si="6"/>
         <v>4.6666183819373402E-2</v>
       </c>
-      <c r="O30" s="31">
+      <c r="R30" s="23">
         <f t="shared" si="6"/>
         <v>3.4117305651307064E-2</v>
       </c>
-      <c r="P30" s="32">
+      <c r="S30" s="24">
         <f t="shared" si="6"/>
         <v>2.02244496904313E-3</v>
       </c>
-      <c r="Q30" s="33">
+      <c r="T30" s="25">
         <f t="shared" si="6"/>
         <v>4.4505042334397595E-2</v>
       </c>
-      <c r="R30" s="32">
+      <c r="U30" s="24">
         <f t="shared" si="6"/>
         <v>5.4700614263613966E-2</v>
       </c>
-      <c r="S30" s="32">
+      <c r="V30" s="24">
         <f t="shared" si="6"/>
         <v>4.6418913019200128E-3</v>
       </c>
-      <c r="T30" s="33">
+      <c r="W30" s="25">
         <f t="shared" si="6"/>
         <v>6.8131131430466937E-2</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
     </row>
     <row r="31" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -2688,58 +2936,67 @@
       <c r="B31" s="8">
         <v>24</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="31">
         <v>1.8019666895270299E-2</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="32">
         <v>6.1920157168060498E-4</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="32">
         <v>2.4883762001991199E-2</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="33">
         <v>2.0719474181532801E-2</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="34">
         <v>8.8842952391132702E-4</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="35">
         <v>2.98065356910228E-2</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="33">
         <v>2.7454975992441101E-2</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="34">
         <v>1.3994163600727901E-3</v>
       </c>
-      <c r="K31" s="43">
+      <c r="K31" s="35">
         <v>3.7408772855997002E-2</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="34">
+        <v>2.9086217284202499E-2</v>
+      </c>
+      <c r="M31" s="34">
+        <v>1.48269662167876E-3</v>
+      </c>
+      <c r="N31" s="35">
+        <v>3.85058000683784E-2</v>
+      </c>
+      <c r="O31" s="33">
         <v>2.8542634099721902E-2</v>
       </c>
-      <c r="M31" s="42">
+      <c r="P31" s="34">
         <v>1.5132091939449299E-3</v>
       </c>
-      <c r="N31" s="43">
+      <c r="Q31" s="35">
         <v>3.8899987936019897E-2</v>
       </c>
-      <c r="O31" s="41">
+      <c r="R31" s="33">
         <v>3.29397842288017E-2</v>
       </c>
-      <c r="P31" s="42">
+      <c r="S31" s="34">
         <v>1.85607082676142E-3</v>
       </c>
-      <c r="Q31" s="43">
+      <c r="T31" s="35">
         <v>4.30821403861045E-2</v>
       </c>
-      <c r="R31" s="42">
+      <c r="U31" s="34">
         <v>5.5152699351310702E-2</v>
       </c>
-      <c r="S31" s="42">
+      <c r="V31" s="34">
         <v>4.7566783614456602E-3</v>
       </c>
-      <c r="T31" s="43">
+      <c r="W31" s="35">
         <v>6.8968676030635806E-2</v>
       </c>
     </row>
@@ -2747,205 +3004,226 @@
       <c r="B32" s="3">
         <v>48</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="21">
         <v>2.1260784938931399E-2</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="22">
         <v>8.1665714969858495E-4</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="22">
         <v>2.8577214106917301E-2</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="23">
         <v>2.4438584223389601E-2</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="24">
         <v>1.21174147352576E-3</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="25">
         <v>3.4810077399015399E-2</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="23">
         <v>3.0486978590488399E-2</v>
       </c>
-      <c r="J32" s="32">
+      <c r="J32" s="24">
         <v>1.5935684787109401E-3</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="25">
         <v>3.9919525384902899E-2</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="24">
+        <v>3.1997852027416201E-2</v>
+      </c>
+      <c r="M32" s="24">
+        <v>1.77669490221887E-3</v>
+      </c>
+      <c r="N32" s="25">
+        <v>4.2150858789682298E-2</v>
+      </c>
+      <c r="O32" s="23">
         <v>3.4601699560880599E-2</v>
       </c>
-      <c r="M32" s="32">
+      <c r="P32" s="24">
         <v>2.0514612551778499E-3</v>
       </c>
-      <c r="N32" s="33">
+      <c r="Q32" s="25">
         <v>4.5293059200048398E-2</v>
       </c>
-      <c r="O32" s="31">
+      <c r="R32" s="23">
         <v>3.4835692495107602E-2</v>
       </c>
-      <c r="P32" s="32">
+      <c r="S32" s="24">
         <v>2.0807839464396199E-3</v>
       </c>
-      <c r="Q32" s="33">
+      <c r="T32" s="25">
         <v>4.5615609735250397E-2</v>
       </c>
-      <c r="R32" s="32">
+      <c r="U32" s="24">
         <v>5.4841052740812302E-2</v>
       </c>
-      <c r="S32" s="32">
+      <c r="V32" s="24">
         <v>4.6700257807970004E-3</v>
       </c>
-      <c r="T32" s="33">
+      <c r="W32" s="25">
         <v>6.8337589502334595E-2</v>
       </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>96</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="21">
         <v>2.2915853187441802E-2</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="22">
         <v>9.53608483541756E-4</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="22">
         <v>3.0880551785230598E-2</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="23">
         <v>2.77378354221582E-2</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="24">
         <v>1.55908847227692E-3</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="25">
         <v>3.9485294371843303E-2</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="23">
         <v>3.3969853073358501E-2</v>
       </c>
-      <c r="J33" s="32">
+      <c r="J33" s="24">
         <v>1.9975043833255698E-3</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="25">
         <v>4.4693447649478898E-2</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="24">
+        <v>3.2821148633956902E-2</v>
+      </c>
+      <c r="M33" s="24">
+        <v>1.83317868504673E-3</v>
+      </c>
+      <c r="N33" s="25">
+        <v>4.2815636843442903E-2</v>
+      </c>
+      <c r="O33" s="23">
         <v>3.4306317567825297E-2</v>
       </c>
-      <c r="M33" s="32">
+      <c r="P33" s="24">
         <v>1.9933863077312699E-3</v>
       </c>
-      <c r="N33" s="33">
+      <c r="Q33" s="25">
         <v>4.4647354632616001E-2</v>
       </c>
-      <c r="O33" s="31">
+      <c r="R33" s="23">
         <v>3.3930748701095498E-2</v>
       </c>
-      <c r="P33" s="32">
+      <c r="S33" s="24">
         <v>1.9693835638463402E-3</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="T33" s="25">
         <v>4.43777367472648E-2</v>
       </c>
-      <c r="R33" s="32">
+      <c r="U33" s="24">
         <v>5.4132193326949997E-2</v>
       </c>
-      <c r="S33" s="32">
+      <c r="V33" s="24">
         <v>4.6463194303214498E-3</v>
       </c>
-      <c r="T33" s="33">
+      <c r="W33" s="25">
         <v>6.81639164686203E-2</v>
       </c>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="21">
         <f>AVERAGE(C31:C33)</f>
         <v>2.0732101673881165E-2</v>
       </c>
-      <c r="D34" s="30">
-        <f t="shared" ref="D34:T34" si="7">AVERAGE(D31:D33)</f>
+      <c r="D34" s="22">
+        <f t="shared" ref="D34:W34" si="7">AVERAGE(D31:D33)</f>
         <v>7.9648906830698198E-4</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="22">
         <f t="shared" si="7"/>
         <v>2.8113842631379699E-2</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="23">
         <f t="shared" si="7"/>
         <v>2.4298631275693535E-2</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="24">
         <f t="shared" si="7"/>
         <v>1.2197531565713356E-3</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="25">
         <f t="shared" si="7"/>
         <v>3.4700635820627164E-2</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="23">
         <f t="shared" si="7"/>
         <v>3.0637269218762669E-2</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J34" s="24">
         <f t="shared" si="7"/>
         <v>1.6634964073697668E-3</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="25">
         <f t="shared" si="7"/>
         <v>4.0673915296792935E-2</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="23">
+        <f t="shared" si="7"/>
+        <v>3.1301739315191868E-2</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="7"/>
+        <v>1.6975234029814534E-3</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="7"/>
+        <v>4.1157431900501203E-2</v>
+      </c>
+      <c r="O34" s="23">
         <f t="shared" si="7"/>
         <v>3.2483550409475932E-2</v>
       </c>
-      <c r="M34" s="32">
+      <c r="P34" s="24">
         <f t="shared" si="7"/>
         <v>1.8526855856180165E-3</v>
       </c>
-      <c r="N34" s="33">
+      <c r="Q34" s="25">
         <f t="shared" si="7"/>
         <v>4.2946800589561428E-2</v>
       </c>
-      <c r="O34" s="31">
+      <c r="R34" s="23">
         <f t="shared" si="7"/>
         <v>3.3902075141668264E-2</v>
       </c>
-      <c r="P34" s="32">
+      <c r="S34" s="24">
         <f t="shared" si="7"/>
         <v>1.9687461123491265E-3</v>
       </c>
-      <c r="Q34" s="33">
+      <c r="T34" s="25">
         <f t="shared" si="7"/>
         <v>4.435849562287323E-2</v>
       </c>
-      <c r="R34" s="32">
+      <c r="U34" s="24">
         <f t="shared" si="7"/>
         <v>5.4708648473024334E-2</v>
       </c>
-      <c r="S34" s="32">
+      <c r="V34" s="24">
         <f t="shared" si="7"/>
         <v>4.6910078575213695E-3</v>
       </c>
-      <c r="T34" s="33">
+      <c r="W34" s="25">
         <f t="shared" si="7"/>
         <v>6.84900606671969E-2</v>
       </c>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
     </row>
     <row r="35" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -2954,120 +3232,135 @@
       <c r="B35" s="8">
         <v>24</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="31">
         <v>1.6250062733888598E-2</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="32">
         <v>5.4900307441130205E-4</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="32">
         <v>2.34308149665594E-2</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="33">
         <v>1.9246743991970999E-2</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="34">
         <v>8.0495985457673604E-4</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="35">
         <v>2.8371814638376201E-2</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="33">
         <v>3.0981000512838301E-2</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="34">
         <v>1.89365062396973E-3</v>
       </c>
-      <c r="K35" s="43">
+      <c r="K35" s="35">
         <v>4.35160957276821E-2</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="34">
+        <v>2.5565933436155298E-2</v>
+      </c>
+      <c r="M35" s="34">
+        <v>1.2436721008270901E-3</v>
+      </c>
+      <c r="N35" s="35">
+        <v>3.5265736281871699E-2</v>
+      </c>
+      <c r="O35" s="33">
         <v>2.76194047182798E-2</v>
       </c>
-      <c r="M35" s="42">
+      <c r="P35" s="34">
         <v>1.44916668068617E-3</v>
       </c>
-      <c r="N35" s="43">
+      <c r="Q35" s="35">
         <v>3.8067921996116597E-2</v>
       </c>
-      <c r="O35" s="41">
+      <c r="R35" s="33">
         <v>3.05411294102668E-2</v>
       </c>
-      <c r="P35" s="42">
+      <c r="S35" s="34">
         <v>1.7285165376961201E-3</v>
       </c>
-      <c r="Q35" s="43">
+      <c r="T35" s="35">
         <v>4.1575431823730399E-2</v>
       </c>
-      <c r="R35" s="42">
+      <c r="U35" s="34">
         <v>5.46482466161251E-2</v>
       </c>
-      <c r="S35" s="42">
+      <c r="V35" s="34">
         <v>4.6263323165476296E-3</v>
       </c>
-      <c r="T35" s="43">
+      <c r="W35" s="35">
         <v>6.8017147481441498E-2</v>
       </c>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>48</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="21">
         <v>1.7871698364615399E-2</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="22">
         <v>6.4205413218587604E-4</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="22">
         <v>2.5338787585496899E-2</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="23">
         <v>2.2252824157476401E-2</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="24">
         <v>1.0910090059041901E-3</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="25">
         <v>3.3030424267053597E-2</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="23">
         <v>3.6837778985500301E-2</v>
       </c>
-      <c r="J36" s="32">
+      <c r="J36" s="24">
         <v>2.3147999309003301E-3</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="25">
         <v>4.8112366348504999E-2</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="24">
+        <v>2.8368292376398999E-2</v>
+      </c>
+      <c r="M36" s="24">
+        <v>1.5513825928792301E-3</v>
+      </c>
+      <c r="N36" s="25">
+        <v>3.93875949084758E-2</v>
+      </c>
+      <c r="O36" s="23">
         <v>3.00317388027906E-2</v>
       </c>
-      <c r="M36" s="32">
+      <c r="P36" s="24">
         <v>1.67759286705404E-3</v>
       </c>
-      <c r="N36" s="33">
+      <c r="Q36" s="25">
         <v>4.0958426892757402E-2</v>
       </c>
-      <c r="O36" s="31">
+      <c r="R36" s="23">
         <v>3.1203459948301301E-2</v>
       </c>
-      <c r="P36" s="32">
+      <c r="S36" s="24">
         <v>1.7932006157934601E-3</v>
       </c>
-      <c r="Q36" s="33">
+      <c r="T36" s="25">
         <v>4.2346198111772503E-2</v>
       </c>
-      <c r="R36" s="32">
+      <c r="U36" s="24">
         <v>5.4662760347127901E-2</v>
       </c>
-      <c r="S36" s="32">
+      <c r="V36" s="24">
         <v>4.6385661698877803E-3</v>
       </c>
-      <c r="T36" s="33">
+      <c r="W36" s="25">
         <v>6.8107016384601496E-2</v>
       </c>
     </row>
@@ -3075,58 +3368,67 @@
       <c r="B37" s="3">
         <v>96</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="21">
         <v>2.0298028364777499E-2</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="22">
         <v>8.1362412311136701E-4</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="22">
         <v>2.85240970551967E-2</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="23">
         <v>2.5904456153512001E-2</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="24">
         <v>1.4699215535074401E-3</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="25">
         <v>3.8339555263519197E-2</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I37" s="23">
         <v>3.9149027317762299E-2</v>
       </c>
-      <c r="J37" s="32">
+      <c r="J37" s="24">
         <v>2.5933887809514999E-3</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="25">
         <v>5.0925325602293001E-2</v>
       </c>
-      <c r="L37" s="31">
+      <c r="L37" s="24">
+        <v>2.7957629412412598E-2</v>
+      </c>
+      <c r="M37" s="24">
+        <v>1.51982810348272E-3</v>
+      </c>
+      <c r="N37" s="25">
+        <v>3.8984972983598702E-2</v>
+      </c>
+      <c r="O37" s="23">
         <v>3.0639862641692099E-2</v>
       </c>
-      <c r="M37" s="32">
+      <c r="P37" s="24">
         <v>1.7223977483808901E-3</v>
       </c>
-      <c r="N37" s="33">
+      <c r="Q37" s="25">
         <v>4.1501779109239502E-2</v>
       </c>
-      <c r="O37" s="31">
+      <c r="R37" s="23">
         <v>3.1140852719545298E-2</v>
       </c>
-      <c r="P37" s="32">
+      <c r="S37" s="24">
         <v>1.77700875792652E-3</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="T37" s="25">
         <v>4.2154580354690503E-2</v>
       </c>
-      <c r="R37" s="32">
+      <c r="U37" s="24">
         <v>5.43775707483291E-2</v>
       </c>
-      <c r="S37" s="32">
+      <c r="V37" s="24">
         <v>4.6094353310763801E-3</v>
       </c>
-      <c r="T37" s="33">
+      <c r="W37" s="25">
         <v>6.7892819643020602E-2</v>
       </c>
     </row>
@@ -3134,151 +3436,170 @@
       <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="21">
         <f>AVERAGE(C35:C37)</f>
         <v>1.8139929821093831E-2</v>
       </c>
-      <c r="D38" s="30">
-        <f t="shared" ref="D38:T38" si="8">AVERAGE(D35:D37)</f>
+      <c r="D38" s="22">
+        <f t="shared" ref="D38:W38" si="8">AVERAGE(D35:D37)</f>
         <v>6.682271099028484E-4</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="22">
         <f t="shared" si="8"/>
         <v>2.5764566535750998E-2</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="23">
         <f t="shared" si="8"/>
         <v>2.2468008100986467E-2</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="24">
         <f t="shared" si="8"/>
         <v>1.1219634713294554E-3</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="25">
         <f t="shared" si="8"/>
         <v>3.3247264722982998E-2</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="23">
         <f t="shared" si="8"/>
         <v>3.5655935605366972E-2</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="24">
         <f t="shared" si="8"/>
         <v>2.2672797786071866E-3</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="25">
         <f t="shared" si="8"/>
         <v>4.7517929226160029E-2</v>
       </c>
-      <c r="L38" s="31">
+      <c r="L38" s="23">
+        <f t="shared" si="8"/>
+        <v>2.7297285074988964E-2</v>
+      </c>
+      <c r="M38" s="24">
+        <f t="shared" si="8"/>
+        <v>1.4382942657296801E-3</v>
+      </c>
+      <c r="N38" s="25">
+        <f t="shared" si="8"/>
+        <v>3.787943472464874E-2</v>
+      </c>
+      <c r="O38" s="23">
         <f t="shared" si="8"/>
         <v>2.9430335387587502E-2</v>
       </c>
-      <c r="M38" s="32">
+      <c r="P38" s="24">
         <f t="shared" si="8"/>
         <v>1.6163857653736999E-3</v>
       </c>
-      <c r="N38" s="33">
+      <c r="Q38" s="25">
         <f t="shared" si="8"/>
         <v>4.0176042666037831E-2</v>
       </c>
-      <c r="O38" s="31">
+      <c r="R38" s="23">
         <f t="shared" si="8"/>
         <v>3.0961814026037801E-2</v>
       </c>
-      <c r="P38" s="32">
+      <c r="S38" s="24">
         <f t="shared" si="8"/>
         <v>1.7662419704720335E-3</v>
       </c>
-      <c r="Q38" s="33">
+      <c r="T38" s="25">
         <f t="shared" si="8"/>
         <v>4.2025403430064466E-2</v>
       </c>
-      <c r="R38" s="32">
+      <c r="U38" s="24">
         <f t="shared" si="8"/>
         <v>5.4562859237194034E-2</v>
       </c>
-      <c r="S38" s="32">
+      <c r="V38" s="24">
         <f t="shared" si="8"/>
         <v>4.6247779391705964E-3</v>
       </c>
-      <c r="T38" s="33">
+      <c r="W38" s="25">
         <f t="shared" si="8"/>
         <v>6.8005661169687856E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="12" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:23" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="14">
+      <c r="B39" s="38"/>
+      <c r="C39" s="13">
         <v>28</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>36</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="14">
         <v>36</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="15">
         <v>0</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>0</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <v>0</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="15">
         <v>8</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="11">
         <v>0</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="12">
         <v>0</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L39" s="11">
         <v>0</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="11">
         <v>0</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="12">
         <v>0</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O39" s="15">
         <v>0</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="11">
         <v>0</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="12">
         <v>0</v>
       </c>
-      <c r="R39" s="12">
+      <c r="R39" s="15">
         <v>0</v>
       </c>
-      <c r="S39" s="12">
+      <c r="S39" s="11">
         <v>0</v>
       </c>
-      <c r="T39" s="13">
+      <c r="T39" s="12">
         <v>0</v>
       </c>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
+      <c r="U39" s="11">
+        <v>0</v>
+      </c>
+      <c r="V39" s="11">
+        <v>0</v>
+      </c>
+      <c r="W39" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03606B68-835E-4244-8349-7F09FD1B7EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B11EAC5-71E1-4670-AFDE-A59F42963EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>pred_len</t>
   </si>
@@ -113,6 +113,14 @@
     <t>CNN-LSTM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>STGCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +159,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,130 +332,259 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,2884 +866,3347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD32" sqref="AC32:AD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.58203125" style="1"/>
-    <col min="2" max="2" width="8.58203125" style="3"/>
-    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.58203125" style="2"/>
+    <col min="3" max="3" width="8.6640625" style="38" customWidth="1"/>
     <col min="4" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="38" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="38" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" style="1"/>
-    <col min="14" max="14" width="8.6640625" style="3"/>
-    <col min="15" max="15" width="8.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="1"/>
+    <col min="17" max="17" width="8.6640625" style="2"/>
+    <col min="18" max="18" width="8.6640625" style="38" customWidth="1"/>
     <col min="19" max="19" width="8.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="3" customWidth="1"/>
-    <col min="21" max="22" width="8.6640625" style="1"/>
-    <col min="23" max="23" width="8.6640625" style="3"/>
-    <col min="27" max="16384" width="8.6640625" style="1"/>
+    <col min="20" max="20" width="8.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" style="38" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" style="2" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="1"/>
+    <col min="26" max="26" width="8.6640625" style="2"/>
+    <col min="27" max="29" width="8.6640625" style="6"/>
+    <col min="30" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C1" s="39" t="s">
+    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="39" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="39" t="s">
+      <c r="V1" s="4"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="41"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:29" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="X2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:29" s="50" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="51">
         <v>24</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="52">
         <v>0.11655319482088</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="53">
         <v>2.7306107804179101E-2</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="53">
         <v>0.16524559259414601</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="54">
         <v>0.202014476060867</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="55">
         <v>6.8504951894283295E-2</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="56">
         <v>0.26173451542854298</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="54">
         <v>0.13348093628883301</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="57">
         <v>3.3567667007446199E-2</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="58">
         <v>0.18321481347084001</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="57">
+        <v>0.13337261974811501</v>
+      </c>
+      <c r="M3" s="55">
+        <v>3.3607568591833101E-2</v>
+      </c>
+      <c r="N3" s="56">
+        <v>0.18332366645336101</v>
+      </c>
+      <c r="O3" s="55">
         <v>0.15511791408061901</v>
       </c>
-      <c r="M3" s="19">
+      <c r="P3" s="55">
         <v>4.1122056543827001E-2</v>
       </c>
-      <c r="N3" s="20">
+      <c r="Q3" s="56">
         <v>0.202785745263099</v>
       </c>
-      <c r="O3" s="18">
+      <c r="R3" s="54">
         <v>0.163824021816253</v>
       </c>
-      <c r="P3" s="19">
+      <c r="S3" s="55">
         <v>4.4865254312753601E-2</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="T3" s="56">
         <v>0.211814194917678</v>
       </c>
-      <c r="R3" s="18">
+      <c r="U3" s="54">
         <v>0.16376949846744501</v>
       </c>
-      <c r="S3" s="19">
+      <c r="V3" s="55">
         <v>4.39804159104824E-2</v>
       </c>
-      <c r="T3" s="20">
+      <c r="W3" s="56">
         <v>0.20971508324146201</v>
       </c>
-      <c r="U3" s="19">
+      <c r="X3" s="55">
         <v>0.15677812695503199</v>
       </c>
-      <c r="V3" s="19">
+      <c r="Y3" s="55">
         <v>3.99565286934375E-2</v>
       </c>
-      <c r="W3" s="20">
+      <c r="Z3" s="56">
         <v>0.19989129900932301</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+    <row r="4" spans="1:29" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="60">
         <v>48</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="61">
         <v>0.1230104342103</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="62">
         <v>2.9524529352784101E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="62">
         <v>0.171827033162117</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="63">
         <v>0.22177517414093001</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="64">
         <v>7.7530011534690801E-2</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="65">
         <v>0.27844211459159801</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="63">
         <v>0.13597610592842099</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="64">
         <v>3.4134138375520699E-2</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="65">
         <v>0.18475426733493799</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="66">
+        <v>0.132761254906654</v>
+      </c>
+      <c r="M4" s="66">
+        <v>3.3610224723815897E-2</v>
+      </c>
+      <c r="N4" s="67">
+        <v>0.183330923318862</v>
+      </c>
+      <c r="O4" s="64">
         <v>0.15430873632431</v>
       </c>
-      <c r="M4" s="24">
+      <c r="P4" s="64">
         <v>4.1020154953002902E-2</v>
       </c>
-      <c r="N4" s="25">
+      <c r="Q4" s="65">
         <v>0.20253433287143699</v>
       </c>
-      <c r="O4" s="23">
+      <c r="R4" s="63">
         <v>0.15892267227172799</v>
       </c>
-      <c r="P4" s="24">
+      <c r="S4" s="64">
         <v>4.3297417461872101E-2</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="T4" s="65">
         <v>0.20808032155036901</v>
       </c>
-      <c r="R4" s="23">
+      <c r="U4" s="63">
         <v>0.15985773503780301</v>
       </c>
-      <c r="S4" s="24">
+      <c r="V4" s="64">
         <v>4.2661797255277599E-2</v>
       </c>
-      <c r="T4" s="25">
+      <c r="W4" s="65">
         <v>0.20654731988906799</v>
       </c>
-      <c r="U4" s="24">
+      <c r="X4" s="64">
         <v>0.15172319114208199</v>
       </c>
-      <c r="V4" s="24">
+      <c r="Y4" s="64">
         <v>3.8385242223739603E-2</v>
       </c>
-      <c r="W4" s="25">
+      <c r="Z4" s="65">
         <v>0.195921525359153</v>
       </c>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+    <row r="5" spans="1:29" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="60">
         <v>96</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="61">
         <v>0.13076274096965701</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="62">
         <v>3.2509464770555399E-2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="62">
         <v>0.18030381202697701</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="63">
         <v>0.23652617633342701</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="64">
         <v>8.7130449712276403E-2</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="65">
         <v>0.29517868161201399</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="63">
         <v>0.13767200708389199</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="64">
         <v>3.4882064908742898E-2</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="65">
         <v>0.18676741421222601</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="66">
+        <v>0.13278937339782701</v>
+      </c>
+      <c r="M5" s="66">
+        <v>3.35497744381427E-2</v>
+      </c>
+      <c r="N5" s="67">
+        <v>0.18316598236560799</v>
+      </c>
+      <c r="O5" s="64">
         <v>0.14993523061275399</v>
       </c>
-      <c r="M5" s="24">
+      <c r="P5" s="64">
         <v>3.9731353521346997E-2</v>
       </c>
-      <c r="N5" s="25">
+      <c r="Q5" s="65">
         <v>0.19932724535465199</v>
       </c>
-      <c r="O5" s="23">
+      <c r="R5" s="63">
         <v>0.151401281356811</v>
       </c>
-      <c r="P5" s="24">
+      <c r="S5" s="64">
         <v>4.0427424013614599E-2</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="T5" s="65">
         <v>0.201065719127655</v>
       </c>
-      <c r="R5" s="23">
+      <c r="U5" s="63">
         <v>0.153957739472389</v>
       </c>
-      <c r="S5" s="24">
+      <c r="V5" s="64">
         <v>4.0712758898734998E-2</v>
       </c>
-      <c r="T5" s="25">
+      <c r="W5" s="65">
         <v>0.201774030923843</v>
       </c>
-      <c r="U5" s="24">
+      <c r="X5" s="64">
         <v>0.147674515843391</v>
       </c>
-      <c r="V5" s="24">
+      <c r="Y5" s="64">
         <v>3.7153638899326297E-2</v>
       </c>
-      <c r="W5" s="25">
+      <c r="Z5" s="65">
         <v>0.19275279343128199</v>
       </c>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:29" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="71">
         <f>AVERAGE(C3:C5)</f>
         <v>0.12344212333361233</v>
       </c>
-      <c r="D6" s="27">
-        <f t="shared" ref="D6:W6" si="0">AVERAGE(D3:D5)</f>
+      <c r="D6" s="72">
+        <f t="shared" ref="D6:Z6" si="0">AVERAGE(D3:D5)</f>
         <v>2.9780033975839532E-2</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="72">
         <f t="shared" si="0"/>
         <v>0.17245881259441334</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="73">
         <f t="shared" si="0"/>
         <v>0.22010527551174133</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="74">
         <f t="shared" si="0"/>
         <v>7.7721804380416828E-2</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="75">
         <f t="shared" si="0"/>
         <v>0.27845177054405162</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="73">
         <f t="shared" si="0"/>
         <v>0.13570968310038198</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="74">
         <f t="shared" si="0"/>
         <v>3.4194623430569927E-2</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="75">
         <f t="shared" si="0"/>
         <v>0.18491216500600136</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="76">
+        <f t="shared" si="0"/>
+        <v>0.13297441601753202</v>
+      </c>
+      <c r="M6" s="77">
+        <f t="shared" si="0"/>
+        <v>3.3589189251263897E-2</v>
+      </c>
+      <c r="N6" s="78">
+        <f t="shared" si="0"/>
+        <v>0.18327352404594366</v>
+      </c>
+      <c r="O6" s="74">
         <f t="shared" si="0"/>
         <v>0.15312062700589432</v>
       </c>
-      <c r="M6" s="29">
+      <c r="P6" s="74">
         <f t="shared" si="0"/>
         <v>4.0624521672725629E-2</v>
       </c>
-      <c r="N6" s="30">
+      <c r="Q6" s="75">
         <f t="shared" si="0"/>
         <v>0.20154910782972932</v>
       </c>
-      <c r="O6" s="28">
+      <c r="R6" s="73">
         <f t="shared" si="0"/>
         <v>0.15804932514826397</v>
       </c>
-      <c r="P6" s="29">
+      <c r="S6" s="74">
         <f t="shared" si="0"/>
         <v>4.2863365262746762E-2</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="T6" s="75">
         <f t="shared" si="0"/>
         <v>0.20698674519856733</v>
       </c>
-      <c r="R6" s="28">
+      <c r="U6" s="73">
         <f t="shared" si="0"/>
         <v>0.15919499099254567</v>
       </c>
-      <c r="S6" s="29">
+      <c r="V6" s="74">
         <f t="shared" si="0"/>
         <v>4.2451657354831668E-2</v>
       </c>
-      <c r="T6" s="30">
+      <c r="W6" s="75">
         <f t="shared" si="0"/>
         <v>0.20601214468479098</v>
       </c>
-      <c r="U6" s="29">
+      <c r="X6" s="74">
         <f t="shared" si="0"/>
         <v>0.15205861131350165</v>
       </c>
-      <c r="V6" s="29">
+      <c r="Y6" s="74">
         <f t="shared" si="0"/>
         <v>3.8498469938834469E-2</v>
       </c>
-      <c r="W6" s="30">
+      <c r="Z6" s="75">
         <f t="shared" si="0"/>
         <v>0.196188539266586</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>24</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>0.12985345721244801</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>3.1856678426265703E-2</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>0.17848439514636899</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="20">
         <v>0.20443807542324</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>6.9060698151588398E-2</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>0.26279401779174799</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="20">
         <v>0.17077532410621599</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="21">
         <v>4.9491636455059003E-2</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <v>0.22246715426444999</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="21">
+        <v>0.16054780781269001</v>
+      </c>
+      <c r="M7" s="21">
+        <v>4.5430481433868401E-2</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0.21314427256584101</v>
+      </c>
+      <c r="O7" s="21">
         <v>0.15834918618202201</v>
       </c>
-      <c r="M7" s="24">
+      <c r="P7" s="21">
         <v>4.2223915457725497E-2</v>
       </c>
-      <c r="N7" s="25">
+      <c r="Q7" s="22">
         <v>0.205484583973884</v>
       </c>
-      <c r="O7" s="23">
+      <c r="R7" s="20">
         <v>0.16256271302700001</v>
       </c>
-      <c r="P7" s="24">
+      <c r="S7" s="21">
         <v>4.3951865285634897E-2</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="T7" s="22">
         <v>0.20964699983596799</v>
       </c>
-      <c r="R7" s="23">
+      <c r="U7" s="20">
         <v>0.16619838774204199</v>
       </c>
-      <c r="S7" s="24">
+      <c r="V7" s="21">
         <v>4.4709768146276398E-2</v>
       </c>
-      <c r="T7" s="25">
+      <c r="W7" s="22">
         <v>0.21144685149192799</v>
       </c>
-      <c r="U7" s="24">
+      <c r="X7" s="40">
         <v>0.15755447745323101</v>
       </c>
-      <c r="V7" s="24">
+      <c r="Y7" s="40">
         <v>4.0192168205976403E-2</v>
       </c>
-      <c r="W7" s="25">
+      <c r="Z7" s="41">
         <v>0.20047985017299599</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+    <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
         <v>48</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>0.12899044156074499</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>3.2135039567947297E-2</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.17926248908042899</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <v>0.21912920475006101</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="21">
         <v>7.8270062804222107E-2</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="22">
         <v>0.27976787090301503</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <v>0.15825793147087</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="21">
         <v>4.3394986540079103E-2</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="22">
         <v>0.20831462740898099</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="21">
+        <v>0.15951450169086401</v>
+      </c>
+      <c r="M8" s="21">
+        <v>4.4718708842992699E-2</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0.21146798133850001</v>
+      </c>
+      <c r="O8" s="40">
         <v>0.15224267542362199</v>
       </c>
-      <c r="M8" s="24">
+      <c r="P8" s="21">
         <v>4.0489707142114598E-2</v>
       </c>
-      <c r="N8" s="25">
+      <c r="Q8" s="22">
         <v>0.201220542192459</v>
       </c>
-      <c r="O8" s="23">
+      <c r="R8" s="20">
         <v>0.157863289117813</v>
       </c>
-      <c r="P8" s="24">
+      <c r="S8" s="21">
         <v>4.2571835219860001E-2</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="T8" s="22">
         <v>0.206329435110092</v>
       </c>
-      <c r="R8" s="23">
+      <c r="U8" s="20">
         <v>0.16095720231533001</v>
       </c>
-      <c r="S8" s="24">
+      <c r="V8" s="21">
         <v>4.2570840567350297E-2</v>
       </c>
-      <c r="T8" s="25">
+      <c r="W8" s="22">
         <v>0.20632702112197801</v>
       </c>
-      <c r="U8" s="24">
+      <c r="X8" s="21">
         <v>0.15225131809711401</v>
       </c>
-      <c r="V8" s="24">
+      <c r="Y8" s="40">
         <v>3.85371856391429E-2</v>
       </c>
-      <c r="W8" s="25">
+      <c r="Z8" s="41">
         <v>0.19630891084671001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+    <row r="9" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
         <v>96</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>0.13227391242980899</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>3.3048331737518297E-2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0.18179200589656799</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="20">
         <v>0.23416173458099299</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="21">
         <v>8.7962813675403595E-2</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="22">
         <v>0.29658526182174599</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="20">
         <v>0.15027090907096799</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="21">
         <v>4.0399566292762701E-2</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="22">
         <v>0.200996428728103</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="21">
+        <v>0.15916676819324399</v>
+      </c>
+      <c r="M9" s="21">
+        <v>4.45296987891197E-2</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0.211020618677139</v>
+      </c>
+      <c r="O9" s="21">
         <v>0.14812970161437899</v>
       </c>
-      <c r="M9" s="24">
+      <c r="P9" s="21">
         <v>3.9279781281947999E-2</v>
       </c>
-      <c r="N9" s="25">
+      <c r="Q9" s="22">
         <v>0.19819127023220001</v>
       </c>
-      <c r="O9" s="23">
+      <c r="R9" s="20">
         <v>0.15309450030326799</v>
       </c>
-      <c r="P9" s="24">
+      <c r="S9" s="21">
         <v>4.0794283151626497E-2</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="T9" s="22">
         <v>0.20197594165801999</v>
       </c>
-      <c r="R9" s="23">
+      <c r="U9" s="20">
         <v>0.15383370220661099</v>
       </c>
-      <c r="S9" s="24">
+      <c r="V9" s="21">
         <v>4.0202669799327802E-2</v>
       </c>
-      <c r="T9" s="25">
+      <c r="W9" s="22">
         <v>0.200506031513214</v>
       </c>
-      <c r="U9" s="24">
+      <c r="X9" s="40">
         <v>0.14790876209735801</v>
       </c>
-      <c r="V9" s="24">
+      <c r="Y9" s="40">
         <v>3.7213187664747203E-2</v>
       </c>
-      <c r="W9" s="25">
+      <c r="Z9" s="41">
         <v>0.192907199263572</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <f>AVERAGE(C7:C9)</f>
         <v>0.13037260373433401</v>
       </c>
-      <c r="D10" s="22">
-        <f t="shared" ref="D10:W10" si="1">AVERAGE(D7:D9)</f>
+      <c r="D10" s="19">
+        <f t="shared" ref="D10:Z10" si="1">AVERAGE(D7:D9)</f>
         <v>3.2346683243910428E-2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <f t="shared" si="1"/>
         <v>0.17984629670778865</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <f t="shared" si="1"/>
         <v>0.21924300491809801</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <f t="shared" si="1"/>
         <v>7.8431191543738024E-2</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="22">
         <f t="shared" si="1"/>
         <v>0.27971571683883628</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="20">
         <f t="shared" si="1"/>
         <v>0.15976805488268464</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="21">
         <f t="shared" si="1"/>
         <v>4.4428729762633602E-2</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="22">
         <f t="shared" si="1"/>
         <v>0.2105927368005113</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="21">
+        <f t="shared" si="1"/>
+        <v>0.15974302589893266</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="1"/>
+        <v>4.4892963021993602E-2</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="1"/>
+        <v>0.21187762419382664</v>
+      </c>
+      <c r="O10" s="21">
         <f t="shared" si="1"/>
         <v>0.15290718774000767</v>
       </c>
-      <c r="M10" s="24">
+      <c r="P10" s="21">
         <f t="shared" si="1"/>
         <v>4.0664467960596029E-2</v>
       </c>
-      <c r="N10" s="25">
+      <c r="Q10" s="22">
         <f t="shared" si="1"/>
         <v>0.20163213213284767</v>
       </c>
-      <c r="O10" s="23">
+      <c r="R10" s="20">
         <f t="shared" si="1"/>
         <v>0.15784016748269367</v>
       </c>
-      <c r="P10" s="24">
+      <c r="S10" s="21">
         <f t="shared" si="1"/>
         <v>4.2439327885707138E-2</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="T10" s="22">
         <f t="shared" si="1"/>
         <v>0.20598412553469334</v>
       </c>
-      <c r="R10" s="23">
+      <c r="U10" s="20">
         <f t="shared" si="1"/>
         <v>0.16032976408799435</v>
       </c>
-      <c r="S10" s="24">
+      <c r="V10" s="21">
         <f t="shared" si="1"/>
         <v>4.2494426170984832E-2</v>
       </c>
-      <c r="T10" s="25">
+      <c r="W10" s="22">
         <f t="shared" si="1"/>
         <v>0.20609330137570667</v>
       </c>
-      <c r="U10" s="24">
+      <c r="X10" s="40">
         <f t="shared" si="1"/>
         <v>0.15257151921590104</v>
       </c>
-      <c r="V10" s="24">
+      <c r="Y10" s="40">
         <f t="shared" si="1"/>
         <v>3.8647513836622176E-2</v>
       </c>
-      <c r="W10" s="25">
+      <c r="Z10" s="41">
         <f t="shared" si="1"/>
         <v>0.19656532009442598</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:29" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="25">
         <v>24</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="26">
         <v>0.130949437618255</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="27">
         <v>3.1894195824861499E-2</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="27">
         <v>0.178589463233947</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="28">
         <v>0.201942443847656</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="29">
         <v>6.8046748638153007E-2</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="30">
         <v>0.26085773110389698</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="28">
         <v>0.18756277859210899</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="29">
         <v>5.8832272887229899E-2</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="30">
         <v>0.242553651332855</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="29">
+        <v>0.16941155493259399</v>
+      </c>
+      <c r="M11" s="29">
+        <v>4.8735149204730897E-2</v>
+      </c>
+      <c r="N11" s="30">
+        <v>0.22076039016246701</v>
+      </c>
+      <c r="O11" s="43">
         <v>0.15527106821537001</v>
       </c>
-      <c r="M11" s="34">
+      <c r="P11" s="29">
         <v>4.10184636712074E-2</v>
       </c>
-      <c r="N11" s="35">
+      <c r="Q11" s="30">
         <v>0.20253016054630199</v>
       </c>
-      <c r="O11" s="33">
+      <c r="R11" s="28">
         <v>0.16466160118579801</v>
       </c>
-      <c r="P11" s="34">
+      <c r="S11" s="29">
         <v>4.4695284217595999E-2</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="T11" s="30">
         <v>0.211412593722343</v>
       </c>
-      <c r="R11" s="33">
+      <c r="U11" s="28">
         <v>0.169041022658348</v>
       </c>
-      <c r="S11" s="34">
+      <c r="V11" s="29">
         <v>4.5631375163793501E-2</v>
       </c>
-      <c r="T11" s="35">
+      <c r="W11" s="30">
         <v>0.21361501514911599</v>
       </c>
-      <c r="U11" s="34">
+      <c r="X11" s="42">
         <v>0.15496428310871099</v>
       </c>
-      <c r="V11" s="34">
+      <c r="Y11" s="42">
         <v>3.9230443537235198E-2</v>
       </c>
-      <c r="W11" s="35">
+      <c r="Z11" s="44">
         <v>0.198066771030426</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+    <row r="12" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>48</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>0.136193811893463</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>3.3979825675487497E-2</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>0.18433617055416099</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <v>0.21978922188281999</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="21">
         <v>7.7623896300792694E-2</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="22">
         <v>0.27861064672469998</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <v>0.183893263339996</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="21">
         <v>5.7227019220590501E-2</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="22">
         <v>0.239221692085266</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="21">
+        <v>0.158502787351608</v>
+      </c>
+      <c r="M12" s="21">
+        <v>4.3679788708686801E-2</v>
+      </c>
+      <c r="N12" s="22">
+        <v>0.20899710059165899</v>
+      </c>
+      <c r="O12" s="40">
         <v>0.15187393128871901</v>
       </c>
-      <c r="M12" s="24">
+      <c r="P12" s="21">
         <v>4.0099553763866397E-2</v>
       </c>
-      <c r="N12" s="25">
+      <c r="Q12" s="22">
         <v>0.200248733162879</v>
       </c>
-      <c r="O12" s="23">
+      <c r="R12" s="20">
         <v>0.15940743684768599</v>
       </c>
-      <c r="P12" s="24">
+      <c r="S12" s="21">
         <v>4.30626571178436E-2</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="T12" s="22">
         <v>0.207515433430671</v>
       </c>
-      <c r="R12" s="23">
+      <c r="U12" s="20">
         <v>0.16200520098209301</v>
       </c>
-      <c r="S12" s="24">
+      <c r="V12" s="21">
         <v>4.3062441051006303E-2</v>
       </c>
-      <c r="T12" s="25">
+      <c r="W12" s="22">
         <v>0.20751491189002899</v>
       </c>
-      <c r="U12" s="24">
+      <c r="X12" s="21">
         <v>0.151910841464996</v>
       </c>
-      <c r="V12" s="24">
+      <c r="Y12" s="40">
         <v>3.8210764527320799E-2</v>
       </c>
-      <c r="W12" s="25">
+      <c r="Z12" s="41">
         <v>0.19547574222087799</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+    <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>96</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>0.13881157338619199</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>3.5383198410272598E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>0.188104227185249</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="20">
         <v>0.232135489583015</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="21">
         <v>8.5827887058258001E-2</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="22">
         <v>0.29296398162841703</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="20">
         <v>0.16891115903854301</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="21">
         <v>4.9438402056694003E-2</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="22">
         <v>0.22234748303890201</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="21">
+        <v>0.186489403247833</v>
+      </c>
+      <c r="M13" s="21">
+        <v>5.8163248002529103E-2</v>
+      </c>
+      <c r="N13" s="22">
+        <v>0.24117058515548701</v>
+      </c>
+      <c r="O13" s="21">
         <v>0.154373198747634</v>
       </c>
-      <c r="M13" s="24">
+      <c r="P13" s="21">
         <v>4.1778936982154798E-2</v>
       </c>
-      <c r="N13" s="25">
+      <c r="Q13" s="22">
         <v>0.20439895987510601</v>
       </c>
-      <c r="O13" s="23">
+      <c r="R13" s="20">
         <v>0.154224619269371</v>
       </c>
-      <c r="P13" s="24">
+      <c r="S13" s="21">
         <v>4.09804731607437E-2</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="T13" s="22">
         <v>0.202436342835426</v>
       </c>
-      <c r="R13" s="23">
+      <c r="U13" s="20">
         <v>0.15538440644741</v>
       </c>
-      <c r="S13" s="24">
+      <c r="V13" s="21">
         <v>4.0743727236986098E-2</v>
       </c>
-      <c r="T13" s="25">
+      <c r="W13" s="22">
         <v>0.20185075700283001</v>
       </c>
-      <c r="U13" s="24">
+      <c r="X13" s="40">
         <v>0.15036503970623</v>
       </c>
-      <c r="V13" s="24">
+      <c r="Y13" s="40">
         <v>3.7762589752674103E-2</v>
       </c>
-      <c r="W13" s="25">
+      <c r="Z13" s="41">
         <v>0.19432598352432201</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <f>AVERAGE(C11:C13)</f>
         <v>0.13531827429930332</v>
       </c>
-      <c r="D14" s="22">
-        <f t="shared" ref="D14:W14" si="2">AVERAGE(D11:D13)</f>
+      <c r="D14" s="19">
+        <f t="shared" ref="D14:Z14" si="2">AVERAGE(D11:D13)</f>
         <v>3.3752406636873865E-2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <f t="shared" si="2"/>
         <v>0.18367662032445234</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="20">
         <f t="shared" si="2"/>
         <v>0.21795571843783032</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="21">
         <f t="shared" si="2"/>
         <v>7.7166177332401234E-2</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="22">
         <f t="shared" si="2"/>
         <v>0.27747745315233802</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="20">
         <f t="shared" si="2"/>
         <v>0.18012240032354934</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="21">
         <f t="shared" si="2"/>
         <v>5.5165898054838132E-2</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="22">
         <f t="shared" si="2"/>
         <v>0.23470760881900765</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="21">
+        <f t="shared" si="2"/>
+        <v>0.17146791517734503</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" si="2"/>
+        <v>5.0192728638648931E-2</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" si="2"/>
+        <v>0.22364269196987099</v>
+      </c>
+      <c r="O14" s="21">
         <f t="shared" si="2"/>
         <v>0.15383939941724101</v>
       </c>
-      <c r="M14" s="24">
+      <c r="P14" s="21">
         <f t="shared" si="2"/>
         <v>4.0965651472409527E-2</v>
       </c>
-      <c r="N14" s="25">
+      <c r="Q14" s="22">
         <f t="shared" si="2"/>
         <v>0.20239261786142901</v>
       </c>
-      <c r="O14" s="23">
+      <c r="R14" s="20">
         <f t="shared" si="2"/>
         <v>0.15943121910095168</v>
       </c>
-      <c r="P14" s="24">
+      <c r="S14" s="21">
         <f t="shared" si="2"/>
         <v>4.2912804832061092E-2</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="T14" s="22">
         <f t="shared" si="2"/>
         <v>0.20712145666281334</v>
       </c>
-      <c r="R14" s="23">
+      <c r="U14" s="20">
         <f t="shared" si="2"/>
         <v>0.16214354336261702</v>
       </c>
-      <c r="S14" s="24">
+      <c r="V14" s="21">
         <f t="shared" si="2"/>
         <v>4.3145847817261967E-2</v>
       </c>
-      <c r="T14" s="25">
+      <c r="W14" s="22">
         <f t="shared" si="2"/>
         <v>0.20766022801399164</v>
       </c>
-      <c r="U14" s="24">
+      <c r="X14" s="40">
         <f t="shared" si="2"/>
         <v>0.15241338809331234</v>
       </c>
-      <c r="V14" s="24">
+      <c r="Y14" s="40">
         <f t="shared" si="2"/>
         <v>3.8401265939076702E-2</v>
       </c>
-      <c r="W14" s="25">
+      <c r="Z14" s="41">
         <f t="shared" si="2"/>
         <v>0.19595616559187534</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:29" s="10" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>24</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="45">
         <v>3.7347428500652299E-2</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="13">
         <v>6.1462405137717698E-3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>7.8397959470748901E-2</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="14">
         <v>4.4458683580160099E-2</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="15">
         <v>7.7513619326054998E-3</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="16">
         <v>8.8041819632053306E-2</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="12">
         <v>3.68955098092556E-2</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <v>6.1781909316778096E-3</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="39">
         <v>7.8601472079753806E-2</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="15">
+        <v>3.9099428802728597E-2</v>
+      </c>
+      <c r="M15" s="15">
+        <v>6.5733734518289497E-3</v>
+      </c>
+      <c r="N15" s="16">
+        <v>8.1076346337795202E-2</v>
+      </c>
+      <c r="O15" s="15">
         <v>4.1543889790773302E-2</v>
       </c>
-      <c r="M15" s="19">
+      <c r="P15" s="15">
         <v>6.6226902417838504E-3</v>
       </c>
-      <c r="N15" s="20">
+      <c r="Q15" s="16">
         <v>8.1379912793636294E-2</v>
       </c>
-      <c r="O15" s="18">
+      <c r="R15" s="14">
         <v>4.7947742044925599E-2</v>
       </c>
-      <c r="P15" s="19">
+      <c r="S15" s="15">
         <v>7.6508256606757597E-3</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="T15" s="16">
         <v>8.7468996644019997E-2</v>
       </c>
-      <c r="R15" s="18">
+      <c r="U15" s="14">
         <v>4.90371137857437E-2</v>
       </c>
-      <c r="S15" s="19">
+      <c r="V15" s="15">
         <v>7.5658359564840698E-3</v>
       </c>
-      <c r="T15" s="20">
+      <c r="W15" s="16">
         <v>8.6981810629367801E-2</v>
       </c>
-      <c r="U15" s="19">
+      <c r="X15" s="15">
         <v>5.18201999366283E-2</v>
       </c>
-      <c r="V15" s="19">
+      <c r="Y15" s="15">
         <v>8.1555917859077402E-3</v>
       </c>
-      <c r="W15" s="20">
+      <c r="Z15" s="16">
         <v>9.0308316051959894E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+    <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
         <v>48</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="46">
         <v>3.8360789418220499E-2</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>6.1233453452587102E-3</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>7.8251808881759602E-2</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="20">
         <v>4.6694740653037997E-2</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="21">
         <v>7.8838635236024805E-3</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="22">
         <v>8.8791124522686005E-2</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="18">
         <v>3.7596881389617899E-2</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="40">
         <v>6.4240023493766698E-3</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="41">
         <v>8.0149874091148293E-2</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="21">
+        <v>4.2317461222410202E-2</v>
+      </c>
+      <c r="M16" s="21">
+        <v>7.0214057341217899E-3</v>
+      </c>
+      <c r="N16" s="22">
+        <v>8.3793826401233604E-2</v>
+      </c>
+      <c r="O16" s="21">
         <v>4.4508002698421402E-2</v>
       </c>
-      <c r="M16" s="24">
+      <c r="P16" s="21">
         <v>7.39588029682636E-3</v>
       </c>
-      <c r="N16" s="25">
+      <c r="Q16" s="22">
         <v>8.59993025660514E-2</v>
       </c>
-      <c r="O16" s="23">
+      <c r="R16" s="20">
         <v>4.5987743884325E-2</v>
       </c>
-      <c r="P16" s="24">
+      <c r="S16" s="21">
         <v>7.3866262100636898E-3</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="T16" s="22">
         <v>8.5945487022399902E-2</v>
       </c>
-      <c r="R16" s="23">
+      <c r="U16" s="20">
         <v>4.7287322580814299E-2</v>
       </c>
-      <c r="S16" s="24">
+      <c r="V16" s="21">
         <v>7.38787557929754E-3</v>
       </c>
-      <c r="T16" s="25">
+      <c r="W16" s="22">
         <v>8.5952751338481903E-2</v>
       </c>
-      <c r="U16" s="24">
+      <c r="X16" s="21">
         <v>5.1356635987758602E-2</v>
       </c>
-      <c r="V16" s="24">
+      <c r="Y16" s="21">
         <v>8.0977994948625495E-3</v>
       </c>
-      <c r="W16" s="25">
+      <c r="Z16" s="22">
         <v>8.9987777173519107E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+    <row r="17" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
         <v>96</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="46">
         <v>3.8529902696609497E-2</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <v>6.0955644585192204E-3</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <v>7.8074097633361803E-2</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="20">
         <v>4.9092873930931001E-2</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="21">
         <v>8.2127749919891305E-3</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="22">
         <v>9.0624362230300903E-2</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="18">
         <v>3.8448102772235801E-2</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="40">
         <v>6.6068046726286403E-3</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="41">
         <v>8.1282250583171803E-2</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="21">
+        <v>4.1674233973026199E-2</v>
+      </c>
+      <c r="M17" s="21">
+        <v>6.8868943490087899E-3</v>
+      </c>
+      <c r="N17" s="22">
+        <v>8.2987315952777793E-2</v>
+      </c>
+      <c r="O17" s="21">
         <v>4.4087845832109403E-2</v>
       </c>
-      <c r="M17" s="24">
+      <c r="P17" s="21">
         <v>7.1707363240420801E-3</v>
       </c>
-      <c r="N17" s="25">
+      <c r="Q17" s="22">
         <v>8.4680199623107896E-2</v>
       </c>
-      <c r="O17" s="23">
+      <c r="R17" s="20">
         <v>4.4125515967607498E-2</v>
       </c>
-      <c r="P17" s="24">
+      <c r="S17" s="21">
         <v>7.0246085524559004E-3</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="T17" s="22">
         <v>8.3812937140464699E-2</v>
       </c>
-      <c r="R17" s="23">
+      <c r="U17" s="20">
         <v>4.57446053624153E-2</v>
       </c>
-      <c r="S17" s="24">
+      <c r="V17" s="21">
         <v>7.1201869286596697E-3</v>
       </c>
-      <c r="T17" s="25">
+      <c r="W17" s="22">
         <v>8.4381200373172704E-2</v>
       </c>
-      <c r="U17" s="24">
+      <c r="X17" s="21">
         <v>5.0785269588231999E-2</v>
       </c>
-      <c r="V17" s="24">
+      <c r="Y17" s="21">
         <v>8.0195972695946693E-3</v>
       </c>
-      <c r="W17" s="25">
+      <c r="Z17" s="22">
         <v>8.9552201330661704E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:26" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="46">
         <f>AVERAGE(C15:C17)</f>
         <v>3.8079373538494103E-2</v>
       </c>
-      <c r="D18" s="22">
-        <f t="shared" ref="D18:W18" si="3">AVERAGE(D15:D17)</f>
+      <c r="D18" s="19">
+        <f t="shared" ref="D18:Z18" si="3">AVERAGE(D15:D17)</f>
         <v>6.1217167725165665E-3</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <f t="shared" si="3"/>
         <v>7.8241288661956773E-2</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="20">
         <f t="shared" si="3"/>
         <v>4.6748766054709699E-2</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="21">
         <f t="shared" si="3"/>
         <v>7.9493334827323708E-3</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="22">
         <f t="shared" si="3"/>
         <v>8.9152435461680071E-2</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="18">
         <f t="shared" si="3"/>
         <v>3.7646831323703098E-2</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="40">
         <f t="shared" si="3"/>
         <v>6.4029993178943735E-3</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="41">
         <f t="shared" si="3"/>
         <v>8.001119891802462E-2</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="31">
+        <f t="shared" si="3"/>
+        <v>4.1030374666054997E-2</v>
+      </c>
+      <c r="M18" s="21">
+        <f t="shared" si="3"/>
+        <v>6.8272245116531753E-3</v>
+      </c>
+      <c r="N18" s="22">
+        <f t="shared" si="3"/>
+        <v>8.261916289726888E-2</v>
+      </c>
+      <c r="O18" s="31">
         <f t="shared" si="3"/>
         <v>4.3379912773768035E-2</v>
       </c>
-      <c r="M18" s="24">
+      <c r="P18" s="21">
         <f t="shared" si="3"/>
         <v>7.0631022875507626E-3</v>
       </c>
-      <c r="N18" s="25">
+      <c r="Q18" s="22">
         <f t="shared" si="3"/>
         <v>8.4019804994265201E-2</v>
       </c>
-      <c r="O18" s="23">
+      <c r="R18" s="20">
         <f t="shared" si="3"/>
         <v>4.6020333965619366E-2</v>
       </c>
-      <c r="P18" s="24">
+      <c r="S18" s="21">
         <f t="shared" si="3"/>
         <v>7.3540201410651164E-3</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="T18" s="22">
         <f t="shared" si="3"/>
         <v>8.5742473602294866E-2</v>
       </c>
-      <c r="R18" s="23">
+      <c r="U18" s="20">
         <f t="shared" si="3"/>
         <v>4.7356347242991093E-2</v>
       </c>
-      <c r="S18" s="24">
+      <c r="V18" s="21">
         <f t="shared" si="3"/>
         <v>7.3579661548137595E-3</v>
       </c>
-      <c r="T18" s="25">
+      <c r="W18" s="22">
         <f t="shared" si="3"/>
         <v>8.5771920780340793E-2</v>
       </c>
-      <c r="U18" s="24">
+      <c r="X18" s="21">
         <f t="shared" si="3"/>
         <v>5.1320701837539638E-2</v>
       </c>
-      <c r="V18" s="24">
+      <c r="Y18" s="21">
         <f t="shared" si="3"/>
         <v>8.0909961834549852E-3</v>
       </c>
-      <c r="W18" s="25">
+      <c r="Z18" s="22">
         <f t="shared" si="3"/>
         <v>8.9949431518713582E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:26" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="25">
         <v>24</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="47">
         <v>3.8187548518180799E-2</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="27">
         <v>6.1322455294430204E-3</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="27">
         <v>7.8308656811714103E-2</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="28">
         <v>4.2492784559726701E-2</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="29">
         <v>6.8082213401794399E-3</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="30">
         <v>8.2511946558952304E-2</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="26">
         <v>3.7510160356759997E-2</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="42">
         <v>6.46507740020751E-3</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="44">
         <v>8.0405704677104894E-2</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="29">
+        <v>4.2236138135194702E-2</v>
+      </c>
+      <c r="M19" s="29">
+        <v>7.3867738246917699E-3</v>
+      </c>
+      <c r="N19" s="30">
+        <v>8.5946343839168493E-2</v>
+      </c>
+      <c r="O19" s="29">
         <v>4.2370334267616203E-2</v>
       </c>
-      <c r="M19" s="34">
+      <c r="P19" s="29">
         <v>6.85028778389096E-3</v>
       </c>
-      <c r="N19" s="35">
+      <c r="Q19" s="30">
         <v>8.2766465842723805E-2</v>
       </c>
-      <c r="O19" s="33">
+      <c r="R19" s="28">
         <v>4.9438372254371601E-2</v>
       </c>
-      <c r="P19" s="34">
+      <c r="S19" s="29">
         <v>7.7601405791938296E-3</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="T19" s="30">
         <v>8.8091656565666199E-2</v>
       </c>
-      <c r="R19" s="33">
+      <c r="U19" s="28">
         <v>4.9452017992734902E-2</v>
       </c>
-      <c r="S19" s="34">
+      <c r="V19" s="29">
         <v>7.7620293013751498E-3</v>
       </c>
-      <c r="T19" s="35">
+      <c r="W19" s="30">
         <v>8.8102377951145103E-2</v>
       </c>
-      <c r="U19" s="34">
+      <c r="X19" s="29">
         <v>5.1643028855323701E-2</v>
       </c>
-      <c r="V19" s="34">
+      <c r="Y19" s="29">
         <v>8.1372568383812904E-3</v>
       </c>
-      <c r="W19" s="35">
+      <c r="Z19" s="30">
         <v>9.0206742286682101E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+    <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
         <v>48</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="46">
         <v>3.9353840053081499E-2</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
         <v>6.1575532890856197E-3</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>7.8470081090927096E-2</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="20">
         <v>4.4396448880434002E-2</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="21">
         <v>7.1852221153676501E-3</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="22">
         <v>8.4765687584877E-2</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="18">
         <v>3.8291092962026499E-2</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="40">
         <v>6.6923238337039904E-3</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="41">
         <v>8.1806622445583302E-2</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="21">
+        <v>4.3292514979839297E-2</v>
+      </c>
+      <c r="M20" s="21">
+        <v>7.8374845907092094E-3</v>
+      </c>
+      <c r="N20" s="22">
+        <v>8.8529571890830994E-2</v>
+      </c>
+      <c r="O20" s="21">
         <v>4.1556332260370199E-2</v>
       </c>
-      <c r="M20" s="24">
+      <c r="P20" s="21">
         <v>6.9735189899802199E-3</v>
       </c>
-      <c r="N20" s="25">
+      <c r="Q20" s="22">
         <v>8.3507597446441595E-2</v>
       </c>
-      <c r="O20" s="23">
+      <c r="R20" s="20">
         <v>4.7425031661987298E-2</v>
       </c>
-      <c r="P20" s="24">
+      <c r="S20" s="21">
         <v>7.5800567865371704E-3</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="T20" s="22">
         <v>8.7063521146774195E-2</v>
       </c>
-      <c r="R20" s="23">
+      <c r="U20" s="20">
         <v>4.8135336488485302E-2</v>
       </c>
-      <c r="S20" s="24">
+      <c r="V20" s="21">
         <v>7.7000716701149897E-3</v>
       </c>
-      <c r="T20" s="25">
+      <c r="W20" s="22">
         <v>8.7750054895877797E-2</v>
       </c>
-      <c r="U20" s="24">
+      <c r="X20" s="21">
         <v>5.0998926162719699E-2</v>
       </c>
-      <c r="V20" s="24">
+      <c r="Y20" s="21">
         <v>8.0503951758146199E-3</v>
       </c>
-      <c r="W20" s="25">
+      <c r="Z20" s="22">
         <v>8.9723996818065602E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+    <row r="21" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
         <v>96</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="18">
         <v>3.94344069063663E-2</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <v>6.1644776724278901E-3</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>7.8514188528060899E-2</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="20">
         <v>4.6247314661741201E-2</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="21">
         <v>7.4398065917193803E-3</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="22">
         <v>8.6254313588142395E-2</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="46">
         <v>3.9509188383817603E-2</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="21">
         <v>7.0123644545674298E-3</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="22">
         <v>8.3739861845970098E-2</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="21">
+        <v>4.2471427470445598E-2</v>
+      </c>
+      <c r="M21" s="40">
+        <v>6.8122530356049503E-3</v>
+      </c>
+      <c r="N21" s="41">
+        <v>8.2536377012729603E-2</v>
+      </c>
+      <c r="O21" s="21">
         <v>4.1434403508901499E-2</v>
       </c>
-      <c r="M21" s="24">
+      <c r="P21" s="49">
         <v>6.9542876444756898E-3</v>
       </c>
-      <c r="N21" s="25">
+      <c r="Q21" s="48">
         <v>8.3392374217510196E-2</v>
       </c>
-      <c r="O21" s="23">
+      <c r="R21" s="20">
         <v>4.55546006560325E-2</v>
       </c>
-      <c r="P21" s="24">
+      <c r="S21" s="21">
         <v>7.4555436149239497E-3</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="T21" s="22">
         <v>8.6345486342906896E-2</v>
       </c>
-      <c r="R21" s="23">
+      <c r="U21" s="20">
         <v>4.6273984014987897E-2</v>
       </c>
-      <c r="S21" s="24">
+      <c r="V21" s="21">
         <v>7.4034263379871802E-3</v>
       </c>
-      <c r="T21" s="25">
+      <c r="W21" s="22">
         <v>8.6043164134025504E-2</v>
       </c>
-      <c r="U21" s="24">
+      <c r="X21" s="21">
         <v>5.06439954042434E-2</v>
       </c>
-      <c r="V21" s="24">
+      <c r="Y21" s="21">
         <v>7.9884631559252704E-3</v>
       </c>
-      <c r="W21" s="25">
+      <c r="Z21" s="22">
         <v>8.9378200471401201E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:26" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="46">
         <f>AVERAGE(C19:C21)</f>
         <v>3.8991931825876201E-2</v>
       </c>
-      <c r="D22" s="22">
-        <f t="shared" ref="D22:W22" si="4">AVERAGE(D19:D21)</f>
+      <c r="D22" s="19">
+        <f t="shared" ref="D22:Z22" si="4">AVERAGE(D19:D21)</f>
         <v>6.1514254969855103E-3</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="19">
         <f t="shared" si="4"/>
         <v>7.8430975476900699E-2</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="20">
         <f t="shared" si="4"/>
         <v>4.4378849367300632E-2</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="21">
         <f t="shared" si="4"/>
         <v>7.1444166824221568E-3</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="22">
         <f t="shared" si="4"/>
         <v>8.4510649243990557E-2</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="18">
         <f t="shared" si="4"/>
         <v>3.8436813900868033E-2</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="40">
         <f t="shared" si="4"/>
         <v>6.7232552294929767E-3</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="41">
         <f t="shared" si="4"/>
         <v>8.1984062989552756E-2</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="31">
+        <f t="shared" si="4"/>
+        <v>4.2666693528493199E-2</v>
+      </c>
+      <c r="M22" s="21">
+        <f t="shared" si="4"/>
+        <v>7.3455038170019762E-3</v>
+      </c>
+      <c r="N22" s="22">
+        <f t="shared" si="4"/>
+        <v>8.5670764247576359E-2</v>
+      </c>
+      <c r="O22" s="31">
         <f t="shared" si="4"/>
         <v>4.1787023345629302E-2</v>
       </c>
-      <c r="M22" s="24">
+      <c r="P22" s="21">
         <f t="shared" si="4"/>
         <v>6.926031472782289E-3</v>
       </c>
-      <c r="N22" s="25">
+      <c r="Q22" s="22">
         <f t="shared" si="4"/>
         <v>8.3222145835558523E-2</v>
       </c>
-      <c r="O22" s="23">
+      <c r="R22" s="20">
         <f t="shared" si="4"/>
         <v>4.7472668190797131E-2</v>
       </c>
-      <c r="P22" s="24">
+      <c r="S22" s="21">
         <f t="shared" si="4"/>
         <v>7.5985803268849841E-3</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="T22" s="22">
         <f t="shared" si="4"/>
         <v>8.7166888018449087E-2</v>
       </c>
-      <c r="R22" s="23">
+      <c r="U22" s="20">
         <f t="shared" si="4"/>
         <v>4.7953779498736034E-2</v>
       </c>
-      <c r="S22" s="24">
+      <c r="V22" s="21">
         <f t="shared" si="4"/>
         <v>7.6218424364924396E-3</v>
       </c>
-      <c r="T22" s="25">
+      <c r="W22" s="22">
         <f t="shared" si="4"/>
         <v>8.7298532327016135E-2</v>
       </c>
-      <c r="U22" s="24">
+      <c r="X22" s="21">
         <f t="shared" si="4"/>
         <v>5.1095316807428938E-2</v>
       </c>
-      <c r="V22" s="24">
+      <c r="Y22" s="21">
         <f t="shared" si="4"/>
         <v>8.0587050567070603E-3</v>
       </c>
-      <c r="W22" s="25">
+      <c r="Z22" s="22">
         <f t="shared" si="4"/>
         <v>8.9769646525382982E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:26" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="25">
         <v>24</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="26">
         <v>3.8539212197065298E-2</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="27">
         <v>5.9217507950961503E-3</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="27">
         <v>7.69529119133949E-2</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="28">
         <v>4.1554320603609002E-2</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="42">
         <v>6.6463216207921496E-3</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="44">
         <v>8.1524975597858401E-2</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="47">
         <v>4.0074173361062997E-2</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="29">
         <v>6.7737619392573799E-3</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="30">
         <v>8.23028683662414E-2</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="29">
+        <v>4.5360952615737901E-2</v>
+      </c>
+      <c r="M23" s="29">
+        <v>8.4649026393890294E-3</v>
+      </c>
+      <c r="N23" s="30">
+        <v>9.2004902660846696E-2</v>
+      </c>
+      <c r="O23" s="29">
         <v>4.1565839201211902E-2</v>
       </c>
-      <c r="M23" s="34">
+      <c r="P23" s="29">
         <v>6.7392480559646997E-3</v>
       </c>
-      <c r="N23" s="35">
+      <c r="Q23" s="30">
         <v>8.2092925906181294E-2</v>
       </c>
-      <c r="O23" s="33">
+      <c r="R23" s="28">
         <v>4.98756021261215E-2</v>
       </c>
-      <c r="P23" s="34">
+      <c r="S23" s="29">
         <v>8.1985350698232599E-3</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="T23" s="30">
         <v>9.0545758605003301E-2</v>
       </c>
-      <c r="R23" s="33">
+      <c r="U23" s="28">
         <v>5.0679896026849698E-2</v>
       </c>
-      <c r="S23" s="34">
+      <c r="V23" s="29">
         <v>8.1660132855176908E-3</v>
       </c>
-      <c r="T23" s="35">
+      <c r="W23" s="30">
         <v>9.0365998446941306E-2</v>
       </c>
-      <c r="U23" s="34">
+      <c r="X23" s="29">
         <v>5.1665645092725698E-2</v>
       </c>
-      <c r="V23" s="34">
+      <c r="Y23" s="29">
         <v>8.3811627700924804E-3</v>
       </c>
-      <c r="W23" s="35">
+      <c r="Z23" s="30">
         <v>9.1548688709735801E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+    <row r="24" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
         <v>48</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="18">
         <v>3.9741411805152803E-2</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="19">
         <v>6.0138301923870997E-3</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="19">
         <v>7.7548891305923406E-2</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="20">
         <v>4.24987412989139E-2</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="21">
         <v>6.7748315632343197E-3</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="22">
         <v>8.2309365272521903E-2</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="20">
         <v>4.0847703814506503E-2</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="21">
         <v>7.2374762967228803E-3</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="22">
         <v>8.50733593106269E-2</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="21">
+        <v>4.6098161488771397E-2</v>
+      </c>
+      <c r="M24" s="21">
+        <v>8.7631111964583397E-3</v>
+      </c>
+      <c r="N24" s="22">
+        <v>9.3611493706703103E-2</v>
+      </c>
+      <c r="O24" s="40">
         <v>4.0397323668002999E-2</v>
       </c>
-      <c r="M24" s="24">
+      <c r="P24" s="40">
         <v>6.6857053898274899E-3</v>
       </c>
-      <c r="N24" s="25">
+      <c r="Q24" s="41">
         <v>8.1766165792942005E-2</v>
       </c>
-      <c r="O24" s="23">
+      <c r="R24" s="20">
         <v>4.7411084175109801E-2</v>
       </c>
-      <c r="P24" s="24">
+      <c r="S24" s="21">
         <v>7.7752089127898199E-3</v>
       </c>
-      <c r="Q24" s="25">
+      <c r="T24" s="22">
         <v>8.8177144527435303E-2</v>
       </c>
-      <c r="R24" s="23">
+      <c r="U24" s="20">
         <v>4.7839812934398603E-2</v>
       </c>
-      <c r="S24" s="24">
+      <c r="V24" s="21">
         <v>7.6861619018018202E-3</v>
       </c>
-      <c r="T24" s="25">
+      <c r="W24" s="22">
         <v>8.7670758366584695E-2</v>
       </c>
-      <c r="U24" s="24">
+      <c r="X24" s="21">
         <v>5.1097150892019202E-2</v>
       </c>
-      <c r="V24" s="24">
+      <c r="Y24" s="21">
         <v>8.2502933219075203E-3</v>
       </c>
-      <c r="W24" s="25">
+      <c r="Z24" s="22">
         <v>9.0831123292446095E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+    <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
         <v>96</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="32">
         <v>4.0421377867460202E-2</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="19">
         <v>6.0362918302416801E-3</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="19">
         <v>7.7693574130535098E-2</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="20">
         <v>4.4652700424194301E-2</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="21">
         <v>7.1868333034217297E-3</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="22">
         <v>8.4775194525718606E-2</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="18">
         <v>3.9737433195114101E-2</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="21">
         <v>6.8243094719946298E-3</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="22">
         <v>8.2609377801418304E-2</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="21">
+        <v>4.6634521335363298E-2</v>
+      </c>
+      <c r="M25" s="21">
+        <v>8.8526224717497808E-3</v>
+      </c>
+      <c r="N25" s="22">
+        <v>9.4088375568389795E-2</v>
+      </c>
+      <c r="O25" s="40">
         <v>3.9824444800615297E-2</v>
       </c>
-      <c r="M25" s="24">
+      <c r="P25" s="40">
         <v>6.5666642040014198E-3</v>
       </c>
-      <c r="N25" s="25">
+      <c r="Q25" s="41">
         <v>8.1034958362579304E-2</v>
       </c>
-      <c r="O25" s="23">
+      <c r="R25" s="20">
         <v>4.7340419143438298E-2</v>
       </c>
-      <c r="P25" s="24">
+      <c r="S25" s="21">
         <v>7.8585175797343202E-3</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="T25" s="22">
         <v>8.8648281991481698E-2</v>
       </c>
-      <c r="R25" s="23">
+      <c r="U25" s="20">
         <v>4.6708479523658697E-2</v>
       </c>
-      <c r="S25" s="24">
+      <c r="V25" s="21">
         <v>7.6028052717447203E-3</v>
       </c>
-      <c r="T25" s="25">
+      <c r="W25" s="22">
         <v>8.7194070219993494E-2</v>
       </c>
-      <c r="U25" s="24">
+      <c r="X25" s="21">
         <v>4.9877233803272199E-2</v>
       </c>
-      <c r="V25" s="24">
+      <c r="Y25" s="21">
         <v>8.0335261300206098E-3</v>
       </c>
-      <c r="W25" s="25">
+      <c r="Z25" s="22">
         <v>8.9629940688609994E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="18">
         <f>AVERAGE(C23:C25)</f>
         <v>3.9567333956559432E-2</v>
       </c>
-      <c r="D26" s="22">
-        <f t="shared" ref="D26:W26" si="5">AVERAGE(D23:D25)</f>
+      <c r="D26" s="19">
+        <f t="shared" ref="D26:Z26" si="5">AVERAGE(D23:D25)</f>
         <v>5.9906242725749764E-3</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <f t="shared" si="5"/>
         <v>7.7398459116617802E-2</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="20">
         <f t="shared" si="5"/>
         <v>4.2901920775572401E-2</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="21">
         <f t="shared" si="5"/>
         <v>6.8693288291493994E-3</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>8.2869845132032965E-2</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="46">
         <f t="shared" si="5"/>
         <v>4.0219770123561205E-2</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="21">
         <f t="shared" si="5"/>
         <v>6.9451825693249633E-3</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="22">
         <f t="shared" si="5"/>
         <v>8.3328535159428868E-2</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="21">
+        <f>AVERAGE(L23:L25)</f>
+        <v>4.6031211813290868E-2</v>
+      </c>
+      <c r="M26" s="21">
         <f t="shared" si="5"/>
+        <v>8.6935454358657172E-3</v>
+      </c>
+      <c r="N26" s="22">
+        <f t="shared" si="5"/>
+        <v>9.3234923978646522E-2</v>
+      </c>
+      <c r="O26" s="21">
+        <f>AVERAGE(O23:O25)</f>
         <v>4.059586922327673E-2</v>
       </c>
-      <c r="M26" s="24">
+      <c r="P26" s="40">
         <f t="shared" si="5"/>
         <v>6.6638725499312034E-3</v>
       </c>
-      <c r="N26" s="25">
+      <c r="Q26" s="41">
         <f t="shared" si="5"/>
         <v>8.1631350020567539E-2</v>
       </c>
-      <c r="O26" s="23">
+      <c r="R26" s="20">
         <f t="shared" si="5"/>
         <v>4.8209035148223202E-2</v>
       </c>
-      <c r="P26" s="24">
+      <c r="S26" s="21">
         <f t="shared" si="5"/>
         <v>7.9440871874491333E-3</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="T26" s="22">
         <f t="shared" si="5"/>
         <v>8.912372837464011E-2</v>
       </c>
-      <c r="R26" s="23">
+      <c r="U26" s="20">
         <f t="shared" si="5"/>
         <v>4.8409396161635664E-2</v>
       </c>
-      <c r="S26" s="24">
+      <c r="V26" s="21">
         <f t="shared" si="5"/>
         <v>7.8183268196880765E-3</v>
       </c>
-      <c r="T26" s="25">
+      <c r="W26" s="22">
         <f t="shared" si="5"/>
         <v>8.8410275677839822E-2</v>
       </c>
-      <c r="U26" s="24">
+      <c r="X26" s="21">
         <f t="shared" si="5"/>
         <v>5.0880009929339033E-2</v>
       </c>
-      <c r="V26" s="24">
+      <c r="Y26" s="21">
         <f t="shared" si="5"/>
         <v>8.2216607406735368E-3</v>
       </c>
-      <c r="W26" s="25">
+      <c r="Z26" s="22">
         <f t="shared" si="5"/>
         <v>9.0669917563597283E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:26" s="10" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>24</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="12">
         <v>1.8416857346892301E-2</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="13">
         <v>6.4510153606534004E-4</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="13">
         <v>2.5398848578333799E-2</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="45">
         <v>2.11142171174287E-2</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="17">
         <v>9.4132317462936E-4</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="39">
         <v>3.0680989846587101E-2</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="14">
         <v>2.3338882252573901E-2</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="15">
         <v>9.8802149295806798E-4</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="16">
         <v>3.1432807445526102E-2</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="15">
+        <v>2.4790087714791201E-2</v>
+      </c>
+      <c r="M27" s="15">
+        <v>1.07024412136524E-3</v>
+      </c>
+      <c r="N27" s="16">
+        <v>3.2714586704969399E-2</v>
+      </c>
+      <c r="O27" s="15">
         <v>2.5605255737900699E-2</v>
       </c>
-      <c r="M27" s="19">
+      <c r="P27" s="15">
         <v>1.22557219583541E-3</v>
       </c>
-      <c r="N27" s="20">
+      <c r="Q27" s="16">
         <v>3.5008173435926403E-2</v>
       </c>
-      <c r="O27" s="18">
+      <c r="R27" s="14">
         <v>2.74052619934082E-2</v>
       </c>
-      <c r="P27" s="19">
+      <c r="S27" s="15">
         <v>1.41742418054491E-3</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="T27" s="16">
         <v>3.76486927270889E-2</v>
       </c>
-      <c r="R27" s="18">
+      <c r="U27" s="14">
         <v>2.6944862678647E-2</v>
       </c>
-      <c r="S27" s="19">
+      <c r="V27" s="15">
         <v>1.32843921892344E-3</v>
       </c>
-      <c r="T27" s="20">
+      <c r="W27" s="16">
         <v>3.6447759717702803E-2</v>
       </c>
-      <c r="U27" s="19">
+      <c r="X27" s="15">
         <v>5.4791767150163602E-2</v>
       </c>
-      <c r="V27" s="19">
+      <c r="Y27" s="15">
         <v>4.6536275185644601E-3</v>
       </c>
-      <c r="W27" s="20">
+      <c r="Z27" s="16">
         <v>6.8217501044273293E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+    <row r="28" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
         <v>48</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="18">
         <v>2.3212268948554899E-2</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="19">
         <v>9.6889137057587504E-4</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="19">
         <v>3.1127020716667099E-2</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="46">
         <v>2.5058504194021201E-2</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="40">
         <v>1.3069738633930601E-3</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="41">
         <v>3.6152094602584797E-2</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="20">
         <v>2.81117670238018E-2</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="21">
         <v>1.3360022567212499E-3</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="22">
         <v>3.65513637661933E-2</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="21">
+        <v>3.1471569091081598E-2</v>
+      </c>
+      <c r="M28" s="21">
+        <v>1.5868790214881301E-3</v>
+      </c>
+      <c r="N28" s="22">
+        <v>3.9835650473833001E-2</v>
+      </c>
+      <c r="O28" s="21">
         <v>3.2716028392314897E-2</v>
       </c>
-      <c r="M28" s="24">
+      <c r="P28" s="21">
         <v>1.89718592446297E-3</v>
       </c>
-      <c r="N28" s="25">
+      <c r="Q28" s="22">
         <v>4.3556697666645001E-2</v>
       </c>
-      <c r="O28" s="23">
+      <c r="R28" s="20">
         <v>3.5597883164882597E-2</v>
       </c>
-      <c r="P28" s="24">
+      <c r="S28" s="21">
         <v>2.1940781734883699E-3</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="T28" s="22">
         <v>4.6840988099575001E-2</v>
       </c>
-      <c r="R28" s="23">
+      <c r="U28" s="20">
         <v>3.4072682261466897E-2</v>
       </c>
-      <c r="S28" s="24">
+      <c r="V28" s="21">
         <v>2.0071724429726601E-3</v>
       </c>
-      <c r="T28" s="25">
+      <c r="W28" s="22">
         <v>4.4801477342844002E-2</v>
       </c>
-      <c r="U28" s="24">
+      <c r="X28" s="21">
         <v>5.4474037140607799E-2</v>
       </c>
-      <c r="V28" s="24">
+      <c r="Y28" s="21">
         <v>4.6042064204811998E-3</v>
       </c>
-      <c r="W28" s="25">
+      <c r="Z28" s="22">
         <v>6.7854300141334506E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+    <row r="29" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
         <v>96</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <v>2.6290317997336301E-2</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="19">
         <v>1.2118930462747799E-3</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="19">
         <v>3.4812252968549701E-2</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="46">
         <v>3.0459787696599901E-2</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="21">
         <v>1.8887546611949799E-3</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="22">
         <v>4.3459806591272299E-2</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="20">
         <v>3.1587589532136903E-2</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="40">
         <v>1.68255530297756E-3</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="41">
         <v>4.1018962860107401E-2</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="21">
+        <v>4.1950739920139299E-2</v>
+      </c>
+      <c r="M29" s="21">
+        <v>2.6651821099221702E-3</v>
+      </c>
+      <c r="N29" s="22">
+        <v>5.16254007816314E-2</v>
+      </c>
+      <c r="O29" s="21">
         <v>4.1500676423311199E-2</v>
       </c>
-      <c r="M29" s="24">
+      <c r="P29" s="21">
         <v>2.8052863199263798E-3</v>
       </c>
-      <c r="N29" s="25">
+      <c r="Q29" s="22">
         <v>5.29649518430233E-2</v>
       </c>
-      <c r="O29" s="23">
+      <c r="R29" s="20">
         <v>4.4260453432798302E-2</v>
       </c>
-      <c r="P29" s="24">
+      <c r="S29" s="21">
         <v>3.08123487047851E-3</v>
       </c>
-      <c r="Q29" s="25">
+      <c r="T29" s="22">
         <v>5.5508870631456299E-2</v>
       </c>
-      <c r="R29" s="23">
+      <c r="U29" s="20">
         <v>4.1334372013807297E-2</v>
       </c>
-      <c r="S29" s="24">
+      <c r="V29" s="21">
         <v>2.73172324523329E-3</v>
       </c>
-      <c r="T29" s="25">
+      <c r="W29" s="22">
         <v>5.2265889942645999E-2</v>
       </c>
-      <c r="U29" s="24">
+      <c r="X29" s="21">
         <v>5.4836038500070503E-2</v>
       </c>
-      <c r="V29" s="24">
+      <c r="Y29" s="21">
         <v>4.6678399667143796E-3</v>
       </c>
-      <c r="W29" s="25">
+      <c r="Z29" s="22">
         <v>6.8321593105792999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:26" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="18">
         <f>AVERAGE(C27:C29)</f>
         <v>2.2639814764261166E-2</v>
       </c>
-      <c r="D30" s="22">
-        <f t="shared" ref="D30:W30" si="6">AVERAGE(D27:D29)</f>
+      <c r="D30" s="19">
+        <f t="shared" ref="D30:Z30" si="6">AVERAGE(D27:D29)</f>
         <v>9.4196198430533163E-4</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="19">
         <f t="shared" si="6"/>
         <v>3.0446040754516863E-2</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="46">
         <f t="shared" si="6"/>
         <v>2.5544169669349932E-2</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="21">
         <f t="shared" si="6"/>
         <v>1.3790172330724667E-3</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="22">
         <f t="shared" si="6"/>
         <v>3.6764297013481398E-2</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="20">
         <f t="shared" si="6"/>
         <v>2.7679412936170867E-2</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="40">
         <f t="shared" si="6"/>
         <v>1.335526350885626E-3</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="41">
         <f t="shared" si="6"/>
         <v>3.6334378023942265E-2</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="21">
+        <f t="shared" si="6"/>
+        <v>3.2737465575337361E-2</v>
+      </c>
+      <c r="M30" s="21">
+        <f t="shared" si="6"/>
+        <v>1.77410175092518E-3</v>
+      </c>
+      <c r="N30" s="22">
+        <f t="shared" si="6"/>
+        <v>4.1391879320144605E-2</v>
+      </c>
+      <c r="O30" s="21">
         <f t="shared" si="6"/>
         <v>3.3273986851175601E-2</v>
       </c>
-      <c r="M30" s="24">
+      <c r="P30" s="21">
         <f t="shared" si="6"/>
         <v>1.9760148134082534E-3</v>
       </c>
-      <c r="N30" s="25">
+      <c r="Q30" s="22">
         <f t="shared" si="6"/>
         <v>4.3843274315198237E-2</v>
       </c>
-      <c r="O30" s="23">
+      <c r="R30" s="20">
         <f t="shared" si="6"/>
         <v>3.5754532863696363E-2</v>
       </c>
-      <c r="P30" s="24">
+      <c r="S30" s="21">
         <f t="shared" si="6"/>
         <v>2.2309124081705965E-3</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="T30" s="22">
         <f t="shared" si="6"/>
         <v>4.6666183819373402E-2</v>
       </c>
-      <c r="R30" s="23">
+      <c r="U30" s="20">
         <f t="shared" si="6"/>
         <v>3.4117305651307064E-2</v>
       </c>
-      <c r="S30" s="24">
+      <c r="V30" s="21">
         <f t="shared" si="6"/>
         <v>2.02244496904313E-3</v>
       </c>
-      <c r="T30" s="25">
+      <c r="W30" s="22">
         <f t="shared" si="6"/>
         <v>4.4505042334397595E-2</v>
       </c>
-      <c r="U30" s="24">
+      <c r="X30" s="21">
         <f t="shared" si="6"/>
         <v>5.4700614263613966E-2</v>
       </c>
-      <c r="V30" s="24">
+      <c r="Y30" s="21">
         <f t="shared" si="6"/>
         <v>4.6418913019200128E-3</v>
       </c>
-      <c r="W30" s="25">
+      <c r="Z30" s="22">
         <f t="shared" si="6"/>
         <v>6.8131131430466937E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:26" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="25">
         <v>24</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="26">
         <v>1.8019666895270299E-2</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="27">
         <v>6.1920157168060498E-4</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="27">
         <v>2.4883762001991199E-2</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="28">
         <v>2.0719474181532801E-2</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="29">
         <v>8.8842952391132702E-4</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="30">
         <v>2.98065356910228E-2</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="28">
         <v>2.7454975992441101E-2</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="29">
         <v>1.3994163600727901E-3</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="30">
         <v>3.7408772855997002E-2</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31" s="42">
+        <v>2.0698526874184602E-2</v>
+      </c>
+      <c r="M31" s="42">
+        <v>8.3325291052460605E-4</v>
+      </c>
+      <c r="N31" s="44">
+        <v>2.88661196827888E-2</v>
+      </c>
+      <c r="O31" s="29">
         <v>2.9086217284202499E-2</v>
       </c>
-      <c r="M31" s="34">
+      <c r="P31" s="29">
         <v>1.48269662167876E-3</v>
       </c>
-      <c r="N31" s="35">
+      <c r="Q31" s="30">
         <v>3.85058000683784E-2</v>
       </c>
-      <c r="O31" s="33">
+      <c r="R31" s="28">
         <v>2.8542634099721902E-2</v>
       </c>
-      <c r="P31" s="34">
+      <c r="S31" s="29">
         <v>1.5132091939449299E-3</v>
       </c>
-      <c r="Q31" s="35">
+      <c r="T31" s="30">
         <v>3.8899987936019897E-2</v>
       </c>
-      <c r="R31" s="33">
+      <c r="U31" s="28">
         <v>3.29397842288017E-2</v>
       </c>
-      <c r="S31" s="34">
+      <c r="V31" s="29">
         <v>1.85607082676142E-3</v>
       </c>
-      <c r="T31" s="35">
+      <c r="W31" s="30">
         <v>4.30821403861045E-2</v>
       </c>
-      <c r="U31" s="34">
+      <c r="X31" s="29">
         <v>5.5152699351310702E-2</v>
       </c>
-      <c r="V31" s="34">
+      <c r="Y31" s="29">
         <v>4.7566783614456602E-3</v>
       </c>
-      <c r="W31" s="35">
+      <c r="Z31" s="30">
         <v>6.8968676030635806E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="3">
+    <row r="32" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
         <v>48</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="18">
         <v>2.1260784938931399E-2</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="19">
         <v>8.1665714969858495E-4</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="19">
         <v>2.8577214106917301E-2</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="46">
         <v>2.4438584223389601E-2</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="40">
         <v>1.21174147352576E-3</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="41">
         <v>3.4810077399015399E-2</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="20">
         <v>3.0486978590488399E-2</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="21">
         <v>1.5935684787109401E-3</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="22">
         <v>3.9919525384902899E-2</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="21">
+        <v>2.5572633370757099E-2</v>
+      </c>
+      <c r="M32" s="21">
+        <v>1.2577014276757799E-3</v>
+      </c>
+      <c r="N32" s="22">
+        <v>3.5464085638523102E-2</v>
+      </c>
+      <c r="O32" s="21">
         <v>3.1997852027416201E-2</v>
       </c>
-      <c r="M32" s="24">
+      <c r="P32" s="21">
         <v>1.77669490221887E-3</v>
       </c>
-      <c r="N32" s="25">
+      <c r="Q32" s="22">
         <v>4.2150858789682298E-2</v>
       </c>
-      <c r="O32" s="23">
+      <c r="R32" s="20">
         <v>3.4601699560880599E-2</v>
       </c>
-      <c r="P32" s="24">
+      <c r="S32" s="21">
         <v>2.0514612551778499E-3</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="T32" s="22">
         <v>4.5293059200048398E-2</v>
       </c>
-      <c r="R32" s="23">
+      <c r="U32" s="20">
         <v>3.4835692495107602E-2</v>
       </c>
-      <c r="S32" s="24">
+      <c r="V32" s="21">
         <v>2.0807839464396199E-3</v>
       </c>
-      <c r="T32" s="25">
+      <c r="W32" s="22">
         <v>4.5615609735250397E-2</v>
       </c>
-      <c r="U32" s="24">
+      <c r="X32" s="21">
         <v>5.4841052740812302E-2</v>
       </c>
-      <c r="V32" s="24">
+      <c r="Y32" s="21">
         <v>4.6700257807970004E-3</v>
       </c>
-      <c r="W32" s="25">
+      <c r="Z32" s="22">
         <v>6.8337589502334595E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
+    <row r="33" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
         <v>96</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="18">
         <v>2.2915853187441802E-2</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="19">
         <v>9.53608483541756E-4</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="19">
         <v>3.0880551785230598E-2</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="46">
         <v>2.77378354221582E-2</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="40">
         <v>1.55908847227692E-3</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="41">
         <v>3.9485294371843303E-2</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="20">
         <v>3.3969853073358501E-2</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="21">
         <v>1.9975043833255698E-3</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="22">
         <v>4.4693447649478898E-2</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="21">
+        <v>3.2253276556730201E-2</v>
+      </c>
+      <c r="M33" s="21">
+        <v>1.79405172821134E-3</v>
+      </c>
+      <c r="N33" s="22">
+        <v>4.2356248944997697E-2</v>
+      </c>
+      <c r="O33" s="21">
         <v>3.2821148633956902E-2</v>
       </c>
-      <c r="M33" s="24">
+      <c r="P33" s="21">
         <v>1.83317868504673E-3</v>
       </c>
-      <c r="N33" s="25">
+      <c r="Q33" s="22">
         <v>4.2815636843442903E-2</v>
       </c>
-      <c r="O33" s="23">
+      <c r="R33" s="20">
         <v>3.4306317567825297E-2</v>
       </c>
-      <c r="P33" s="24">
+      <c r="S33" s="21">
         <v>1.9933863077312699E-3</v>
       </c>
-      <c r="Q33" s="25">
+      <c r="T33" s="22">
         <v>4.4647354632616001E-2</v>
       </c>
-      <c r="R33" s="23">
+      <c r="U33" s="20">
         <v>3.3930748701095498E-2</v>
       </c>
-      <c r="S33" s="24">
+      <c r="V33" s="21">
         <v>1.9693835638463402E-3</v>
       </c>
-      <c r="T33" s="25">
+      <c r="W33" s="22">
         <v>4.43777367472648E-2</v>
       </c>
-      <c r="U33" s="24">
+      <c r="X33" s="21">
         <v>5.4132193326949997E-2</v>
       </c>
-      <c r="V33" s="24">
+      <c r="Y33" s="21">
         <v>4.6463194303214498E-3</v>
       </c>
-      <c r="W33" s="25">
+      <c r="Z33" s="22">
         <v>6.81639164686203E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:26" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="18">
         <f>AVERAGE(C31:C33)</f>
         <v>2.0732101673881165E-2</v>
       </c>
-      <c r="D34" s="22">
-        <f t="shared" ref="D34:W34" si="7">AVERAGE(D31:D33)</f>
+      <c r="D34" s="19">
+        <f t="shared" ref="D34:Z34" si="7">AVERAGE(D31:D33)</f>
         <v>7.9648906830698198E-4</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="19">
         <f t="shared" si="7"/>
         <v>2.8113842631379699E-2</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="46">
         <f t="shared" si="7"/>
         <v>2.4298631275693535E-2</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="40">
         <f t="shared" si="7"/>
         <v>1.2197531565713356E-3</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="41">
         <f t="shared" si="7"/>
         <v>3.4700635820627164E-2</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="20">
         <f t="shared" si="7"/>
         <v>3.0637269218762669E-2</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="21">
         <f t="shared" si="7"/>
         <v>1.6634964073697668E-3</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="22">
         <f t="shared" si="7"/>
         <v>4.0673915296792935E-2</v>
       </c>
-      <c r="L34" s="23">
+      <c r="L34" s="21">
+        <f t="shared" si="7"/>
+        <v>2.6174812267223967E-2</v>
+      </c>
+      <c r="M34" s="21">
+        <f t="shared" si="7"/>
+        <v>1.2950020221372419E-3</v>
+      </c>
+      <c r="N34" s="22">
+        <f t="shared" si="7"/>
+        <v>3.55621514221032E-2</v>
+      </c>
+      <c r="O34" s="21">
         <f t="shared" si="7"/>
         <v>3.1301739315191868E-2</v>
       </c>
-      <c r="M34" s="24">
+      <c r="P34" s="21">
         <f t="shared" si="7"/>
         <v>1.6975234029814534E-3</v>
       </c>
-      <c r="N34" s="25">
+      <c r="Q34" s="22">
         <f t="shared" si="7"/>
         <v>4.1157431900501203E-2</v>
       </c>
-      <c r="O34" s="23">
+      <c r="R34" s="20">
         <f t="shared" si="7"/>
         <v>3.2483550409475932E-2</v>
       </c>
-      <c r="P34" s="24">
+      <c r="S34" s="21">
         <f t="shared" si="7"/>
         <v>1.8526855856180165E-3</v>
       </c>
-      <c r="Q34" s="25">
+      <c r="T34" s="22">
         <f t="shared" si="7"/>
         <v>4.2946800589561428E-2</v>
       </c>
-      <c r="R34" s="23">
+      <c r="U34" s="20">
         <f t="shared" si="7"/>
         <v>3.3902075141668264E-2</v>
       </c>
-      <c r="S34" s="24">
+      <c r="V34" s="21">
         <f t="shared" si="7"/>
         <v>1.9687461123491265E-3</v>
       </c>
-      <c r="T34" s="25">
+      <c r="W34" s="22">
         <f t="shared" si="7"/>
         <v>4.435849562287323E-2</v>
       </c>
-      <c r="U34" s="24">
+      <c r="X34" s="21">
         <f t="shared" si="7"/>
         <v>5.4708648473024334E-2</v>
       </c>
-      <c r="V34" s="24">
+      <c r="Y34" s="21">
         <f t="shared" si="7"/>
         <v>4.6910078575213695E-3</v>
       </c>
-      <c r="W34" s="25">
+      <c r="Z34" s="22">
         <f t="shared" si="7"/>
         <v>6.84900606671969E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:26" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="25">
         <v>24</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="26">
         <v>1.6250062733888598E-2</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="27">
         <v>5.4900307441130205E-4</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="27">
         <v>2.34308149665594E-2</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="47">
         <v>1.9246743991970999E-2</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="42">
         <v>8.0495985457673604E-4</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="44">
         <v>2.8371814638376201E-2</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="28">
         <v>3.0981000512838301E-2</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="29">
         <v>1.89365062396973E-3</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="30">
         <v>4.35160957276821E-2</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="29">
+        <v>2.33602579683065E-2</v>
+      </c>
+      <c r="M35" s="29">
+        <v>1.12964096479117E-3</v>
+      </c>
+      <c r="N35" s="30">
+        <v>3.3610131591558401E-2</v>
+      </c>
+      <c r="O35" s="29">
         <v>2.5565933436155298E-2</v>
       </c>
-      <c r="M35" s="34">
+      <c r="P35" s="29">
         <v>1.2436721008270901E-3</v>
       </c>
-      <c r="N35" s="35">
+      <c r="Q35" s="30">
         <v>3.5265736281871699E-2</v>
       </c>
-      <c r="O35" s="33">
+      <c r="R35" s="28">
         <v>2.76194047182798E-2</v>
       </c>
-      <c r="P35" s="34">
+      <c r="S35" s="29">
         <v>1.44916668068617E-3</v>
       </c>
-      <c r="Q35" s="35">
+      <c r="T35" s="30">
         <v>3.8067921996116597E-2</v>
       </c>
-      <c r="R35" s="33">
+      <c r="U35" s="28">
         <v>3.05411294102668E-2</v>
       </c>
-      <c r="S35" s="34">
+      <c r="V35" s="29">
         <v>1.7285165376961201E-3</v>
       </c>
-      <c r="T35" s="35">
+      <c r="W35" s="30">
         <v>4.1575431823730399E-2</v>
       </c>
-      <c r="U35" s="34">
+      <c r="X35" s="29">
         <v>5.46482466161251E-2</v>
       </c>
-      <c r="V35" s="34">
+      <c r="Y35" s="29">
         <v>4.6263323165476296E-3</v>
       </c>
-      <c r="W35" s="35">
+      <c r="Z35" s="30">
         <v>6.8017147481441498E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="3">
+    <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
         <v>48</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="18">
         <v>1.7871698364615399E-2</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="19">
         <v>6.4205413218587604E-4</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="19">
         <v>2.5338787585496899E-2</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="46">
         <v>2.2252824157476401E-2</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="40">
         <v>1.0910090059041901E-3</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="41">
         <v>3.3030424267053597E-2</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="20">
         <v>3.6837778985500301E-2</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="21">
         <v>2.3147999309003301E-3</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="22">
         <v>4.8112366348504999E-2</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="21">
+        <v>2.6491886004805499E-2</v>
+      </c>
+      <c r="M36" s="21">
+        <v>1.2834389926865599E-3</v>
+      </c>
+      <c r="N36" s="22">
+        <v>3.5825118422508198E-2</v>
+      </c>
+      <c r="O36" s="21">
         <v>2.8368292376398999E-2</v>
       </c>
-      <c r="M36" s="24">
+      <c r="P36" s="21">
         <v>1.5513825928792301E-3</v>
       </c>
-      <c r="N36" s="25">
+      <c r="Q36" s="22">
         <v>3.93875949084758E-2</v>
       </c>
-      <c r="O36" s="23">
+      <c r="R36" s="20">
         <v>3.00317388027906E-2</v>
       </c>
-      <c r="P36" s="24">
+      <c r="S36" s="21">
         <v>1.67759286705404E-3</v>
       </c>
-      <c r="Q36" s="25">
+      <c r="T36" s="22">
         <v>4.0958426892757402E-2</v>
       </c>
-      <c r="R36" s="23">
+      <c r="U36" s="20">
         <v>3.1203459948301301E-2</v>
       </c>
-      <c r="S36" s="24">
+      <c r="V36" s="21">
         <v>1.7932006157934601E-3</v>
       </c>
-      <c r="T36" s="25">
+      <c r="W36" s="22">
         <v>4.2346198111772503E-2</v>
       </c>
-      <c r="U36" s="24">
+      <c r="X36" s="21">
         <v>5.4662760347127901E-2</v>
       </c>
-      <c r="V36" s="24">
+      <c r="Y36" s="21">
         <v>4.6385661698877803E-3</v>
       </c>
-      <c r="W36" s="25">
+      <c r="Z36" s="22">
         <v>6.8107016384601496E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="3">
+    <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
         <v>96</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="18">
         <v>2.0298028364777499E-2</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="19">
         <v>8.1362412311136701E-4</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="19">
         <v>2.85240970551967E-2</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="46">
         <v>2.5904456153512001E-2</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="21">
         <v>1.4699215535074401E-3</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="22">
         <v>3.8339555263519197E-2</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="20">
         <v>3.9149027317762299E-2</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="21">
         <v>2.5933887809514999E-3</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K37" s="22">
         <v>5.0925325602293001E-2</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="21">
+        <v>2.8383335098624202E-2</v>
+      </c>
+      <c r="M37" s="40">
+        <v>1.44005438778549E-3</v>
+      </c>
+      <c r="N37" s="41">
+        <v>3.7948049604892703E-2</v>
+      </c>
+      <c r="O37" s="21">
         <v>2.7957629412412598E-2</v>
       </c>
-      <c r="M37" s="24">
+      <c r="P37" s="21">
         <v>1.51982810348272E-3</v>
       </c>
-      <c r="N37" s="25">
+      <c r="Q37" s="22">
         <v>3.8984972983598702E-2</v>
       </c>
-      <c r="O37" s="23">
+      <c r="R37" s="20">
         <v>3.0639862641692099E-2</v>
       </c>
-      <c r="P37" s="24">
+      <c r="S37" s="21">
         <v>1.7223977483808901E-3</v>
       </c>
-      <c r="Q37" s="25">
+      <c r="T37" s="22">
         <v>4.1501779109239502E-2</v>
       </c>
-      <c r="R37" s="23">
+      <c r="U37" s="20">
         <v>3.1140852719545298E-2</v>
       </c>
-      <c r="S37" s="24">
+      <c r="V37" s="21">
         <v>1.77700875792652E-3</v>
       </c>
-      <c r="T37" s="25">
+      <c r="W37" s="22">
         <v>4.2154580354690503E-2</v>
       </c>
-      <c r="U37" s="24">
+      <c r="X37" s="21">
         <v>5.43775707483291E-2</v>
       </c>
-      <c r="V37" s="24">
+      <c r="Y37" s="21">
         <v>4.6094353310763801E-3</v>
       </c>
-      <c r="W37" s="25">
+      <c r="Z37" s="22">
         <v>6.7892819643020602E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="18">
         <f>AVERAGE(C35:C37)</f>
         <v>1.8139929821093831E-2</v>
       </c>
-      <c r="D38" s="22">
-        <f t="shared" ref="D38:W38" si="8">AVERAGE(D35:D37)</f>
+      <c r="D38" s="19">
+        <f t="shared" ref="D38:Z38" si="8">AVERAGE(D35:D37)</f>
         <v>6.682271099028484E-4</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="19">
         <f t="shared" si="8"/>
         <v>2.5764566535750998E-2</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="46">
         <f t="shared" si="8"/>
         <v>2.2468008100986467E-2</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="40">
         <f t="shared" si="8"/>
         <v>1.1219634713294554E-3</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="41">
         <f t="shared" si="8"/>
         <v>3.3247264722982998E-2</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="20">
         <f t="shared" si="8"/>
         <v>3.5655935605366972E-2</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="21">
         <f t="shared" si="8"/>
         <v>2.2672797786071866E-3</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="22">
         <f t="shared" si="8"/>
         <v>4.7517929226160029E-2</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="21">
+        <f t="shared" si="8"/>
+        <v>2.6078493023912065E-2</v>
+      </c>
+      <c r="M38" s="21">
+        <f t="shared" si="8"/>
+        <v>1.28437811508774E-3</v>
+      </c>
+      <c r="N38" s="22">
+        <f t="shared" si="8"/>
+        <v>3.5794433206319767E-2</v>
+      </c>
+      <c r="O38" s="21">
         <f t="shared" si="8"/>
         <v>2.7297285074988964E-2</v>
       </c>
-      <c r="M38" s="24">
+      <c r="P38" s="21">
         <f t="shared" si="8"/>
         <v>1.4382942657296801E-3</v>
       </c>
-      <c r="N38" s="25">
+      <c r="Q38" s="22">
         <f t="shared" si="8"/>
         <v>3.787943472464874E-2</v>
       </c>
-      <c r="O38" s="23">
+      <c r="R38" s="20">
         <f t="shared" si="8"/>
         <v>2.9430335387587502E-2</v>
       </c>
-      <c r="P38" s="24">
+      <c r="S38" s="21">
         <f t="shared" si="8"/>
         <v>1.6163857653736999E-3</v>
       </c>
-      <c r="Q38" s="25">
+      <c r="T38" s="22">
         <f t="shared" si="8"/>
         <v>4.0176042666037831E-2</v>
       </c>
-      <c r="R38" s="23">
+      <c r="U38" s="20">
         <f t="shared" si="8"/>
         <v>3.0961814026037801E-2</v>
       </c>
-      <c r="S38" s="24">
+      <c r="V38" s="21">
         <f t="shared" si="8"/>
         <v>1.7662419704720335E-3</v>
       </c>
-      <c r="T38" s="25">
+      <c r="W38" s="22">
         <f t="shared" si="8"/>
         <v>4.2025403430064466E-2</v>
       </c>
-      <c r="U38" s="24">
+      <c r="X38" s="21">
         <f t="shared" si="8"/>
         <v>5.4562859237194034E-2</v>
       </c>
-      <c r="V38" s="24">
+      <c r="Y38" s="21">
         <f t="shared" si="8"/>
         <v>4.6247779391705964E-3</v>
       </c>
-      <c r="W38" s="25">
+      <c r="Z38" s="22">
         <f t="shared" si="8"/>
         <v>6.8005661169687856E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+    <row r="39" spans="1:26" s="10" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="13">
+      <c r="B39" s="34"/>
+      <c r="C39" s="35">
         <v>28</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="36">
         <v>36</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="36">
         <v>36</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="37">
         <v>0</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <v>0</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>0</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="37">
         <v>8</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="10">
         <v>0</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="11">
         <v>0</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="10">
         <v>0</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="10">
         <v>0</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="11">
         <v>0</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O39" s="10">
         <v>0</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="10">
         <v>0</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="11">
         <v>0</v>
       </c>
-      <c r="R39" s="15">
+      <c r="R39" s="37">
         <v>0</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S39" s="10">
         <v>0</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="11">
         <v>0</v>
       </c>
-      <c r="U39" s="11">
+      <c r="U39" s="37">
         <v>0</v>
       </c>
-      <c r="V39" s="11">
+      <c r="V39" s="10">
         <v>0</v>
       </c>
-      <c r="W39" s="12">
+      <c r="W39" s="11">
         <v>0</v>
+      </c>
+      <c r="X39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="82">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="79">
+        <v>11</v>
+      </c>
+      <c r="G40" s="83">
+        <v>9</v>
+      </c>
+      <c r="H40" s="84">
+        <v>9</v>
+      </c>
+      <c r="I40" s="38">
+        <v>3</v>
+      </c>
+      <c r="J40" s="80">
+        <v>10</v>
+      </c>
+      <c r="K40" s="81">
+        <v>10</v>
+      </c>
+      <c r="L40" s="1">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>6</v>
+      </c>
+      <c r="N40" s="2">
+        <v>6</v>
+      </c>
+      <c r="O40" s="1">
+        <v>4</v>
+      </c>
+      <c r="P40" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>3</v>
+      </c>
+      <c r="R40" s="38">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="38">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="L1:N1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="R1:T1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B11EAC5-71E1-4670-AFDE-A59F42963EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A8BEA7-0ED0-4BB3-B795-1C13964536CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>pred_len</t>
   </si>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>2nd Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,246 +348,177 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,1324 +801,1318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD32" sqref="AC32:AD32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.58203125" style="1"/>
     <col min="2" max="2" width="8.58203125" style="2"/>
-    <col min="3" max="3" width="8.6640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
     <col min="4" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="2" customWidth="1"/>
     <col min="12" max="13" width="8.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.6640625" style="2" customWidth="1"/>
     <col min="15" max="16" width="8.6640625" style="1"/>
     <col min="17" max="17" width="8.6640625" style="2"/>
-    <col min="18" max="18" width="8.6640625" style="38" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.6640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="8.6640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" style="38" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" style="3" customWidth="1"/>
     <col min="22" max="22" width="8.6640625" style="1" customWidth="1"/>
     <col min="23" max="23" width="8.6640625" style="2" customWidth="1"/>
     <col min="24" max="25" width="8.6640625" style="1"/>
     <col min="26" max="26" width="8.6640625" style="2"/>
-    <col min="27" max="29" width="8.6640625" style="6"/>
+    <col min="27" max="29" width="8.6640625" style="4"/>
     <col min="30" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="3" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="3" t="s">
+      <c r="S1" s="57"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="3" t="s">
+      <c r="V1" s="57"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="5"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="58"/>
     </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="50" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:26" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="9">
         <v>24</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="10">
         <v>0.11655319482088</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="11">
         <v>2.7306107804179101E-2</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="11">
         <v>0.16524559259414601</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="12">
         <v>0.202014476060867</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="13">
         <v>6.8504951894283295E-2</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="14">
         <v>0.26173451542854298</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="12">
         <v>0.13348093628883301</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="15">
         <v>3.3567667007446199E-2</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="34">
         <v>0.18321481347084001</v>
       </c>
-      <c r="L3" s="57">
+      <c r="L3" s="15">
         <v>0.13337261974811501</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3" s="13">
         <v>3.3607568591833101E-2</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="14">
         <v>0.18332366645336101</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3" s="13">
         <v>0.15511791408061901</v>
       </c>
-      <c r="P3" s="55">
+      <c r="P3" s="13">
         <v>4.1122056543827001E-2</v>
       </c>
-      <c r="Q3" s="56">
+      <c r="Q3" s="14">
         <v>0.202785745263099</v>
       </c>
-      <c r="R3" s="54">
+      <c r="R3" s="12">
         <v>0.163824021816253</v>
       </c>
-      <c r="S3" s="55">
+      <c r="S3" s="13">
         <v>4.4865254312753601E-2</v>
       </c>
-      <c r="T3" s="56">
+      <c r="T3" s="14">
         <v>0.211814194917678</v>
       </c>
-      <c r="U3" s="54">
+      <c r="U3" s="12">
         <v>0.16376949846744501</v>
       </c>
-      <c r="V3" s="55">
+      <c r="V3" s="13">
         <v>4.39804159104824E-2</v>
       </c>
-      <c r="W3" s="56">
+      <c r="W3" s="14">
         <v>0.20971508324146201</v>
       </c>
-      <c r="X3" s="55">
+      <c r="X3" s="13">
         <v>0.15677812695503199</v>
       </c>
-      <c r="Y3" s="55">
+      <c r="Y3" s="13">
         <v>3.99565286934375E-2</v>
       </c>
-      <c r="Z3" s="56">
+      <c r="Z3" s="14">
         <v>0.19989129900932301</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60">
+    <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>48</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="16">
         <v>0.1230104342103</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="17">
         <v>2.9524529352784101E-2</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="17">
         <v>0.171827033162117</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="18">
         <v>0.22177517414093001</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="19">
         <v>7.7530011534690801E-2</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="20">
         <v>0.27844211459159801</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="18">
         <v>0.13597610592842099</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="19">
         <v>3.4134138375520699E-2</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="20">
         <v>0.18475426733493799</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="35">
         <v>0.132761254906654</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="35">
         <v>3.3610224723815897E-2</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="36">
         <v>0.183330923318862</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="19">
         <v>0.15430873632431</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="19">
         <v>4.1020154953002902E-2</v>
       </c>
-      <c r="Q4" s="65">
+      <c r="Q4" s="20">
         <v>0.20253433287143699</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="18">
         <v>0.15892267227172799</v>
       </c>
-      <c r="S4" s="64">
+      <c r="S4" s="19">
         <v>4.3297417461872101E-2</v>
       </c>
-      <c r="T4" s="65">
+      <c r="T4" s="20">
         <v>0.20808032155036901</v>
       </c>
-      <c r="U4" s="63">
+      <c r="U4" s="18">
         <v>0.15985773503780301</v>
       </c>
-      <c r="V4" s="64">
+      <c r="V4" s="19">
         <v>4.2661797255277599E-2</v>
       </c>
-      <c r="W4" s="65">
+      <c r="W4" s="20">
         <v>0.20654731988906799</v>
       </c>
-      <c r="X4" s="64">
+      <c r="X4" s="19">
         <v>0.15172319114208199</v>
       </c>
-      <c r="Y4" s="64">
+      <c r="Y4" s="19">
         <v>3.8385242223739603E-2</v>
       </c>
-      <c r="Z4" s="65">
+      <c r="Z4" s="20">
         <v>0.195921525359153</v>
       </c>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
     </row>
-    <row r="5" spans="1:29" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="60">
+    <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>96</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="16">
         <v>0.13076274096965701</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="17">
         <v>3.2509464770555399E-2</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="17">
         <v>0.18030381202697701</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="18">
         <v>0.23652617633342701</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="19">
         <v>8.7130449712276403E-2</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="20">
         <v>0.29517868161201399</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="18">
         <v>0.13767200708389199</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="19">
         <v>3.4882064908742898E-2</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="20">
         <v>0.18676741421222601</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="35">
         <v>0.13278937339782701</v>
       </c>
-      <c r="M5" s="66">
+      <c r="M5" s="35">
         <v>3.35497744381427E-2</v>
       </c>
-      <c r="N5" s="67">
+      <c r="N5" s="36">
         <v>0.18316598236560799</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="19">
         <v>0.14993523061275399</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="19">
         <v>3.9731353521346997E-2</v>
       </c>
-      <c r="Q5" s="65">
+      <c r="Q5" s="20">
         <v>0.19932724535465199</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="18">
         <v>0.151401281356811</v>
       </c>
-      <c r="S5" s="64">
+      <c r="S5" s="19">
         <v>4.0427424013614599E-2</v>
       </c>
-      <c r="T5" s="65">
+      <c r="T5" s="20">
         <v>0.201065719127655</v>
       </c>
-      <c r="U5" s="63">
+      <c r="U5" s="18">
         <v>0.153957739472389</v>
       </c>
-      <c r="V5" s="64">
+      <c r="V5" s="19">
         <v>4.0712758898734998E-2</v>
       </c>
-      <c r="W5" s="65">
+      <c r="W5" s="20">
         <v>0.201774030923843</v>
       </c>
-      <c r="X5" s="64">
+      <c r="X5" s="19">
         <v>0.147674515843391</v>
       </c>
-      <c r="Y5" s="64">
+      <c r="Y5" s="19">
         <v>3.7153638899326297E-2</v>
       </c>
-      <c r="Z5" s="65">
+      <c r="Z5" s="20">
         <v>0.19275279343128199</v>
       </c>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="1:29" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
+    <row r="6" spans="1:26" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="43">
         <f>AVERAGE(C3:C5)</f>
         <v>0.12344212333361233</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="44">
         <f t="shared" ref="D6:Z6" si="0">AVERAGE(D3:D5)</f>
         <v>2.9780033975839532E-2</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="44">
         <f t="shared" si="0"/>
         <v>0.17245881259441334</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="45">
         <f t="shared" si="0"/>
         <v>0.22010527551174133</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="46">
         <f t="shared" si="0"/>
         <v>7.7721804380416828E-2</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="47">
         <f t="shared" si="0"/>
         <v>0.27845177054405162</v>
       </c>
-      <c r="I6" s="73">
+      <c r="I6" s="45">
         <f t="shared" si="0"/>
         <v>0.13570968310038198</v>
       </c>
-      <c r="J6" s="74">
+      <c r="J6" s="46">
         <f t="shared" si="0"/>
         <v>3.4194623430569927E-2</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="47">
         <f t="shared" si="0"/>
         <v>0.18491216500600136</v>
       </c>
-      <c r="L6" s="76">
+      <c r="L6" s="48">
         <f t="shared" si="0"/>
         <v>0.13297441601753202</v>
       </c>
-      <c r="M6" s="77">
+      <c r="M6" s="49">
         <f t="shared" si="0"/>
         <v>3.3589189251263897E-2</v>
       </c>
-      <c r="N6" s="78">
+      <c r="N6" s="50">
         <f t="shared" si="0"/>
         <v>0.18327352404594366</v>
       </c>
-      <c r="O6" s="74">
+      <c r="O6" s="46">
         <f t="shared" si="0"/>
         <v>0.15312062700589432</v>
       </c>
-      <c r="P6" s="74">
+      <c r="P6" s="46">
         <f t="shared" si="0"/>
         <v>4.0624521672725629E-2</v>
       </c>
-      <c r="Q6" s="75">
+      <c r="Q6" s="47">
         <f t="shared" si="0"/>
         <v>0.20154910782972932</v>
       </c>
-      <c r="R6" s="73">
+      <c r="R6" s="45">
         <f t="shared" si="0"/>
         <v>0.15804932514826397</v>
       </c>
-      <c r="S6" s="74">
+      <c r="S6" s="46">
         <f t="shared" si="0"/>
         <v>4.2863365262746762E-2</v>
       </c>
-      <c r="T6" s="75">
+      <c r="T6" s="47">
         <f t="shared" si="0"/>
         <v>0.20698674519856733</v>
       </c>
-      <c r="U6" s="73">
+      <c r="U6" s="45">
         <f t="shared" si="0"/>
         <v>0.15919499099254567</v>
       </c>
-      <c r="V6" s="74">
+      <c r="V6" s="46">
         <f t="shared" si="0"/>
         <v>4.2451657354831668E-2</v>
       </c>
-      <c r="W6" s="75">
+      <c r="W6" s="47">
         <f t="shared" si="0"/>
         <v>0.20601214468479098</v>
       </c>
-      <c r="X6" s="74">
+      <c r="X6" s="46">
         <f t="shared" si="0"/>
         <v>0.15205861131350165</v>
       </c>
-      <c r="Y6" s="74">
+      <c r="Y6" s="46">
         <f t="shared" si="0"/>
         <v>3.8498469938834469E-2</v>
       </c>
-      <c r="Z6" s="75">
+      <c r="Z6" s="47">
         <f t="shared" si="0"/>
         <v>0.196188539266586</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>24</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>0.12985345721244801</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>3.1856678426265703E-2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>0.17848439514636899</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>0.20443807542324</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>6.9060698151588398E-2</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="20">
         <v>0.26279401779174799</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>0.17077532410621599</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>4.9491636455059003E-2</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="20">
         <v>0.22246715426444999</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="19">
         <v>0.16054780781269001</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="19">
         <v>4.5430481433868401E-2</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="20">
         <v>0.21314427256584101</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="19">
         <v>0.15834918618202201</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="19">
         <v>4.2223915457725497E-2</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="20">
         <v>0.205484583973884</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="18">
         <v>0.16256271302700001</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="19">
         <v>4.3951865285634897E-2</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="20">
         <v>0.20964699983596799</v>
       </c>
-      <c r="U7" s="20">
+      <c r="U7" s="18">
         <v>0.16619838774204199</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="19">
         <v>4.4709768146276398E-2</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="20">
         <v>0.21144685149192799</v>
       </c>
-      <c r="X7" s="40">
+      <c r="X7" s="35">
         <v>0.15755447745323101</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="35">
         <v>4.0192168205976403E-2</v>
       </c>
-      <c r="Z7" s="41">
+      <c r="Z7" s="36">
         <v>0.20047985017299599</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>48</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>0.12899044156074499</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>3.2135039567947297E-2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>0.17926248908042899</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>0.21912920475006101</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>7.8270062804222107E-2</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <v>0.27976787090301503</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <v>0.15825793147087</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>4.3394986540079103E-2</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="20">
         <v>0.20831462740898099</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="19">
         <v>0.15951450169086401</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="19">
         <v>4.4718708842992699E-2</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <v>0.21146798133850001</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="35">
         <v>0.15224267542362199</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="19">
         <v>4.0489707142114598E-2</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="20">
         <v>0.201220542192459</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="18">
         <v>0.157863289117813</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="19">
         <v>4.2571835219860001E-2</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="20">
         <v>0.206329435110092</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="18">
         <v>0.16095720231533001</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="19">
         <v>4.2570840567350297E-2</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="20">
         <v>0.20632702112197801</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="19">
         <v>0.15225131809711401</v>
       </c>
-      <c r="Y8" s="40">
+      <c r="Y8" s="35">
         <v>3.85371856391429E-2</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="Z8" s="36">
         <v>0.19630891084671001</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>96</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>0.13227391242980899</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>3.3048331737518297E-2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>0.18179200589656799</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>0.23416173458099299</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>8.7962813675403595E-2</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="20">
         <v>0.29658526182174599</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <v>0.15027090907096799</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>4.0399566292762701E-2</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="20">
         <v>0.200996428728103</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="19">
         <v>0.15916676819324399</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="19">
         <v>4.45296987891197E-2</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <v>0.211020618677139</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="19">
         <v>0.14812970161437899</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="19">
         <v>3.9279781281947999E-2</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="20">
         <v>0.19819127023220001</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="18">
         <v>0.15309450030326799</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="19">
         <v>4.0794283151626497E-2</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="20">
         <v>0.20197594165801999</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="18">
         <v>0.15383370220661099</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="19">
         <v>4.0202669799327802E-2</v>
       </c>
-      <c r="W9" s="22">
+      <c r="W9" s="20">
         <v>0.200506031513214</v>
       </c>
-      <c r="X9" s="40">
+      <c r="X9" s="35">
         <v>0.14790876209735801</v>
       </c>
-      <c r="Y9" s="40">
+      <c r="Y9" s="35">
         <v>3.7213187664747203E-2</v>
       </c>
-      <c r="Z9" s="41">
+      <c r="Z9" s="36">
         <v>0.192907199263572</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <f>AVERAGE(C7:C9)</f>
         <v>0.13037260373433401</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <f t="shared" ref="D10:Z10" si="1">AVERAGE(D7:D9)</f>
         <v>3.2346683243910428E-2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <f t="shared" si="1"/>
         <v>0.17984629670778865</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <f t="shared" si="1"/>
         <v>0.21924300491809801</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <f t="shared" si="1"/>
         <v>7.8431191543738024E-2</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="20">
         <f t="shared" si="1"/>
         <v>0.27971571683883628</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <f t="shared" si="1"/>
         <v>0.15976805488268464</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <f t="shared" si="1"/>
         <v>4.4428729762633602E-2</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="20">
         <f t="shared" si="1"/>
         <v>0.2105927368005113</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="19">
         <f t="shared" si="1"/>
         <v>0.15974302589893266</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="19">
         <f t="shared" si="1"/>
         <v>4.4892963021993602E-2</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <f t="shared" si="1"/>
         <v>0.21187762419382664</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="19">
         <f t="shared" si="1"/>
         <v>0.15290718774000767</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="19">
         <f t="shared" si="1"/>
         <v>4.0664467960596029E-2</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="20">
         <f t="shared" si="1"/>
         <v>0.20163213213284767</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="18">
         <f t="shared" si="1"/>
         <v>0.15784016748269367</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="19">
         <f t="shared" si="1"/>
         <v>4.2439327885707138E-2</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="20">
         <f t="shared" si="1"/>
         <v>0.20598412553469334</v>
       </c>
-      <c r="U10" s="20">
+      <c r="U10" s="18">
         <f t="shared" si="1"/>
         <v>0.16032976408799435</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="19">
         <f t="shared" si="1"/>
         <v>4.2494426170984832E-2</v>
       </c>
-      <c r="W10" s="22">
+      <c r="W10" s="20">
         <f t="shared" si="1"/>
         <v>0.20609330137570667</v>
       </c>
-      <c r="X10" s="40">
+      <c r="X10" s="35">
         <f t="shared" si="1"/>
         <v>0.15257151921590104</v>
       </c>
-      <c r="Y10" s="40">
+      <c r="Y10" s="35">
         <f t="shared" si="1"/>
         <v>3.8647513836622176E-2</v>
       </c>
-      <c r="Z10" s="41">
+      <c r="Z10" s="36">
         <f t="shared" si="1"/>
         <v>0.19656532009442598</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>24</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>0.130949437618255</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>3.1894195824861499E-2</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>0.178589463233947</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="26">
         <v>0.201942443847656</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="27">
         <v>6.8046748638153007E-2</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="28">
         <v>0.26085773110389698</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="26">
         <v>0.18756277859210899</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="27">
         <v>5.8832272887229899E-2</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="28">
         <v>0.242553651332855</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="27">
         <v>0.16941155493259399</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="27">
         <v>4.8735149204730897E-2</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="28">
         <v>0.22076039016246701</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="27">
         <v>0.15527106821537001</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="27">
         <v>4.10184636712074E-2</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="28">
         <v>0.20253016054630199</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="26">
         <v>0.16466160118579801</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="27">
         <v>4.4695284217595999E-2</v>
       </c>
-      <c r="T11" s="30">
+      <c r="T11" s="28">
         <v>0.211412593722343</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="26">
         <v>0.169041022658348</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="27">
         <v>4.5631375163793501E-2</v>
       </c>
-      <c r="W11" s="30">
+      <c r="W11" s="28">
         <v>0.21361501514911599</v>
       </c>
-      <c r="X11" s="42">
+      <c r="X11" s="37">
         <v>0.15496428310871099</v>
       </c>
-      <c r="Y11" s="42">
+      <c r="Y11" s="37">
         <v>3.9230443537235198E-2</v>
       </c>
-      <c r="Z11" s="44">
+      <c r="Z11" s="38">
         <v>0.198066771030426</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>48</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>0.136193811893463</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>3.3979825675487497E-2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>0.18433617055416099</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>0.21978922188281999</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>7.7623896300792694E-2</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="20">
         <v>0.27861064672469998</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="18">
         <v>0.183893263339996</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="19">
         <v>5.7227019220590501E-2</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="20">
         <v>0.239221692085266</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="19">
         <v>0.158502787351608</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="19">
         <v>4.3679788708686801E-2</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <v>0.20899710059165899</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="35">
         <v>0.15187393128871901</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="19">
         <v>4.0099553763866397E-2</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="20">
         <v>0.200248733162879</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="18">
         <v>0.15940743684768599</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="19">
         <v>4.30626571178436E-2</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="20">
         <v>0.207515433430671</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="18">
         <v>0.16200520098209301</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="19">
         <v>4.3062441051006303E-2</v>
       </c>
-      <c r="W12" s="22">
+      <c r="W12" s="20">
         <v>0.20751491189002899</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="19">
         <v>0.151910841464996</v>
       </c>
-      <c r="Y12" s="40">
+      <c r="Y12" s="35">
         <v>3.8210764527320799E-2</v>
       </c>
-      <c r="Z12" s="41">
+      <c r="Z12" s="36">
         <v>0.19547574222087799</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>96</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>0.13881157338619199</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>3.5383198410272598E-2</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>0.188104227185249</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="18">
         <v>0.232135489583015</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>8.5827887058258001E-2</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="20">
         <v>0.29296398162841703</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="18">
         <v>0.16891115903854301</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="19">
         <v>4.9438402056694003E-2</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="20">
         <v>0.22234748303890201</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="19">
         <v>0.186489403247833</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="19">
         <v>5.8163248002529103E-2</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="20">
         <v>0.24117058515548701</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="19">
         <v>0.154373198747634</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="19">
         <v>4.1778936982154798E-2</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="20">
         <v>0.20439895987510601</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="18">
         <v>0.154224619269371</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="19">
         <v>4.09804731607437E-2</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="20">
         <v>0.202436342835426</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="18">
         <v>0.15538440644741</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="19">
         <v>4.0743727236986098E-2</v>
       </c>
-      <c r="W13" s="22">
+      <c r="W13" s="20">
         <v>0.20185075700283001</v>
       </c>
-      <c r="X13" s="40">
+      <c r="X13" s="35">
         <v>0.15036503970623</v>
       </c>
-      <c r="Y13" s="40">
+      <c r="Y13" s="35">
         <v>3.7762589752674103E-2</v>
       </c>
-      <c r="Z13" s="41">
+      <c r="Z13" s="36">
         <v>0.19432598352432201</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <f>AVERAGE(C11:C13)</f>
         <v>0.13531827429930332</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <f t="shared" ref="D14:Z14" si="2">AVERAGE(D11:D13)</f>
         <v>3.3752406636873865E-2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <f t="shared" si="2"/>
         <v>0.18367662032445234</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="18">
         <f t="shared" si="2"/>
         <v>0.21795571843783032</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <f t="shared" si="2"/>
         <v>7.7166177332401234E-2</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="20">
         <f t="shared" si="2"/>
         <v>0.27747745315233802</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <f t="shared" si="2"/>
         <v>0.18012240032354934</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <f t="shared" si="2"/>
         <v>5.5165898054838132E-2</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="20">
         <f t="shared" si="2"/>
         <v>0.23470760881900765</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="19">
         <f t="shared" si="2"/>
         <v>0.17146791517734503</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="19">
         <f t="shared" si="2"/>
         <v>5.0192728638648931E-2</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="20">
         <f t="shared" si="2"/>
         <v>0.22364269196987099</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="19">
         <f t="shared" si="2"/>
         <v>0.15383939941724101</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="19">
         <f t="shared" si="2"/>
         <v>4.0965651472409527E-2</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="20">
         <f t="shared" si="2"/>
         <v>0.20239261786142901</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="18">
         <f t="shared" si="2"/>
         <v>0.15943121910095168</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="19">
         <f t="shared" si="2"/>
         <v>4.2912804832061092E-2</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="20">
         <f t="shared" si="2"/>
         <v>0.20712145666281334</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="18">
         <f t="shared" si="2"/>
         <v>0.16214354336261702</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="19">
         <f t="shared" si="2"/>
         <v>4.3145847817261967E-2</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="20">
         <f t="shared" si="2"/>
         <v>0.20766022801399164</v>
       </c>
-      <c r="X14" s="40">
+      <c r="X14" s="35">
         <f t="shared" si="2"/>
         <v>0.15241338809331234</v>
       </c>
-      <c r="Y14" s="40">
+      <c r="Y14" s="35">
         <f t="shared" si="2"/>
         <v>3.8401265939076702E-2</v>
       </c>
-      <c r="Z14" s="41">
+      <c r="Z14" s="36">
         <f t="shared" si="2"/>
         <v>0.19595616559187534</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="10" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:26" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>24</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="39">
         <v>3.7347428500652299E-2</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>6.1462405137717698E-3</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>7.8397959470748901E-2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>4.4458683580160099E-2</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="13">
         <v>7.7513619326054998E-3</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="14">
         <v>8.8041819632053306E-2</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <v>3.68955098092556E-2</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <v>6.1781909316778096E-3</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="34">
         <v>7.8601472079753806E-2</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="13">
         <v>3.9099428802728597E-2</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="13">
         <v>6.5733734518289497E-3</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="14">
         <v>8.1076346337795202E-2</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="13">
         <v>4.1543889790773302E-2</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="13">
         <v>6.6226902417838504E-3</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="14">
         <v>8.1379912793636294E-2</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="12">
         <v>4.7947742044925599E-2</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="13">
         <v>7.6508256606757597E-3</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="14">
         <v>8.7468996644019997E-2</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="12">
         <v>4.90371137857437E-2</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="13">
         <v>7.5658359564840698E-3</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="14">
         <v>8.6981810629367801E-2</v>
       </c>
-      <c r="X15" s="15">
+      <c r="X15" s="13">
         <v>5.18201999366283E-2</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="Y15" s="13">
         <v>8.1555917859077402E-3</v>
       </c>
-      <c r="Z15" s="16">
+      <c r="Z15" s="14">
         <v>9.0308316051959894E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>48</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="40">
         <v>3.8360789418220499E-2</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>6.1233453452587102E-3</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>7.8251808881759602E-2</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="18">
         <v>4.6694740653037997E-2</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>7.8838635236024805E-3</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="20">
         <v>8.8791124522686005E-2</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="16">
         <v>3.7596881389617899E-2</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="35">
         <v>6.4240023493766698E-3</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="36">
         <v>8.0149874091148293E-2</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="19">
         <v>4.2317461222410202E-2</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="19">
         <v>7.0214057341217899E-3</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="20">
         <v>8.3793826401233604E-2</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="19">
         <v>4.4508002698421402E-2</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="19">
         <v>7.39588029682636E-3</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q16" s="20">
         <v>8.59993025660514E-2</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="18">
         <v>4.5987743884325E-2</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="19">
         <v>7.3866262100636898E-3</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="20">
         <v>8.5945487022399902E-2</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U16" s="18">
         <v>4.7287322580814299E-2</v>
       </c>
-      <c r="V16" s="21">
+      <c r="V16" s="19">
         <v>7.38787557929754E-3</v>
       </c>
-      <c r="W16" s="22">
+      <c r="W16" s="20">
         <v>8.5952751338481903E-2</v>
       </c>
-      <c r="X16" s="21">
+      <c r="X16" s="19">
         <v>5.1356635987758602E-2</v>
       </c>
-      <c r="Y16" s="21">
+      <c r="Y16" s="19">
         <v>8.0977994948625495E-3</v>
       </c>
-      <c r="Z16" s="22">
+      <c r="Z16" s="20">
         <v>8.9987777173519107E-2</v>
       </c>
     </row>
@@ -2191,257 +2120,257 @@
       <c r="B17" s="2">
         <v>96</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="40">
         <v>3.8529902696609497E-2</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>6.0955644585192204E-3</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>7.8074097633361803E-2</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>4.9092873930931001E-2</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>8.2127749919891305E-3</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="20">
         <v>9.0624362230300903E-2</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <v>3.8448102772235801E-2</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="35">
         <v>6.6068046726286403E-3</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="36">
         <v>8.1282250583171803E-2</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="19">
         <v>4.1674233973026199E-2</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="19">
         <v>6.8868943490087899E-3</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="20">
         <v>8.2987315952777793E-2</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="19">
         <v>4.4087845832109403E-2</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="19">
         <v>7.1707363240420801E-3</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="20">
         <v>8.4680199623107896E-2</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="18">
         <v>4.4125515967607498E-2</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="19">
         <v>7.0246085524559004E-3</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="20">
         <v>8.3812937140464699E-2</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="18">
         <v>4.57446053624153E-2</v>
       </c>
-      <c r="V17" s="21">
+      <c r="V17" s="19">
         <v>7.1201869286596697E-3</v>
       </c>
-      <c r="W17" s="22">
+      <c r="W17" s="20">
         <v>8.4381200373172704E-2</v>
       </c>
-      <c r="X17" s="21">
+      <c r="X17" s="19">
         <v>5.0785269588231999E-2</v>
       </c>
-      <c r="Y17" s="21">
+      <c r="Y17" s="19">
         <v>8.0195972695946693E-3</v>
       </c>
-      <c r="Z17" s="22">
+      <c r="Z17" s="20">
         <v>8.9552201330661704E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="40">
         <f>AVERAGE(C15:C17)</f>
         <v>3.8079373538494103E-2</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <f t="shared" ref="D18:Z18" si="3">AVERAGE(D15:D17)</f>
         <v>6.1217167725165665E-3</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <f t="shared" si="3"/>
         <v>7.8241288661956773E-2</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="18">
         <f t="shared" si="3"/>
         <v>4.6748766054709699E-2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="19">
         <f t="shared" si="3"/>
         <v>7.9493334827323708E-3</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="20">
         <f t="shared" si="3"/>
         <v>8.9152435461680071E-2</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <f t="shared" si="3"/>
         <v>3.7646831323703098E-2</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="35">
         <f t="shared" si="3"/>
         <v>6.4029993178943735E-3</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="36">
         <f t="shared" si="3"/>
         <v>8.001119891802462E-2</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="29">
         <f t="shared" si="3"/>
         <v>4.1030374666054997E-2</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="19">
         <f t="shared" si="3"/>
         <v>6.8272245116531753E-3</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="20">
         <f t="shared" si="3"/>
         <v>8.261916289726888E-2</v>
       </c>
-      <c r="O18" s="31">
+      <c r="O18" s="29">
         <f t="shared" si="3"/>
         <v>4.3379912773768035E-2</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="19">
         <f t="shared" si="3"/>
         <v>7.0631022875507626E-3</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="20">
         <f t="shared" si="3"/>
         <v>8.4019804994265201E-2</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="18">
         <f t="shared" si="3"/>
         <v>4.6020333965619366E-2</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="19">
         <f t="shared" si="3"/>
         <v>7.3540201410651164E-3</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="20">
         <f t="shared" si="3"/>
         <v>8.5742473602294866E-2</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="18">
         <f t="shared" si="3"/>
         <v>4.7356347242991093E-2</v>
       </c>
-      <c r="V18" s="21">
+      <c r="V18" s="19">
         <f t="shared" si="3"/>
         <v>7.3579661548137595E-3</v>
       </c>
-      <c r="W18" s="22">
+      <c r="W18" s="20">
         <f t="shared" si="3"/>
         <v>8.5771920780340793E-2</v>
       </c>
-      <c r="X18" s="21">
+      <c r="X18" s="19">
         <f t="shared" si="3"/>
         <v>5.1320701837539638E-2</v>
       </c>
-      <c r="Y18" s="21">
+      <c r="Y18" s="19">
         <f t="shared" si="3"/>
         <v>8.0909961834549852E-3</v>
       </c>
-      <c r="Z18" s="22">
+      <c r="Z18" s="20">
         <f t="shared" si="3"/>
         <v>8.9949431518713582E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="23">
         <v>24</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="41">
         <v>3.8187548518180799E-2</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="25">
         <v>6.1322455294430204E-3</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <v>7.8308656811714103E-2</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="26">
         <v>4.2492784559726701E-2</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="27">
         <v>6.8082213401794399E-3</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="28">
         <v>8.2511946558952304E-2</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <v>3.7510160356759997E-2</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="37">
         <v>6.46507740020751E-3</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="38">
         <v>8.0405704677104894E-2</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="27">
         <v>4.2236138135194702E-2</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="27">
         <v>7.3867738246917699E-3</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="28">
         <v>8.5946343839168493E-2</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="27">
         <v>4.2370334267616203E-2</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="27">
         <v>6.85028778389096E-3</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="28">
         <v>8.2766465842723805E-2</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="26">
         <v>4.9438372254371601E-2</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="27">
         <v>7.7601405791938296E-3</v>
       </c>
-      <c r="T19" s="30">
+      <c r="T19" s="28">
         <v>8.8091656565666199E-2</v>
       </c>
-      <c r="U19" s="28">
+      <c r="U19" s="26">
         <v>4.9452017992734902E-2</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19" s="27">
         <v>7.7620293013751498E-3</v>
       </c>
-      <c r="W19" s="30">
+      <c r="W19" s="28">
         <v>8.8102377951145103E-2</v>
       </c>
-      <c r="X19" s="29">
+      <c r="X19" s="27">
         <v>5.1643028855323701E-2</v>
       </c>
-      <c r="Y19" s="29">
+      <c r="Y19" s="27">
         <v>8.1372568383812904E-3</v>
       </c>
-      <c r="Z19" s="30">
+      <c r="Z19" s="28">
         <v>9.0206742286682101E-2</v>
       </c>
     </row>
@@ -2449,76 +2378,76 @@
       <c r="B20" s="2">
         <v>48</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="40">
         <v>3.9353840053081499E-2</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="17">
         <v>6.1575532890856197E-3</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <v>7.8470081090927096E-2</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="18">
         <v>4.4396448880434002E-2</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="19">
         <v>7.1852221153676501E-3</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="20">
         <v>8.4765687584877E-2</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="16">
         <v>3.8291092962026499E-2</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="35">
         <v>6.6923238337039904E-3</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="36">
         <v>8.1806622445583302E-2</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="19">
         <v>4.3292514979839297E-2</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="19">
         <v>7.8374845907092094E-3</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="20">
         <v>8.8529571890830994E-2</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="19">
         <v>4.1556332260370199E-2</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="19">
         <v>6.9735189899802199E-3</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="20">
         <v>8.3507597446441595E-2</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="18">
         <v>4.7425031661987298E-2</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20" s="19">
         <v>7.5800567865371704E-3</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="20">
         <v>8.7063521146774195E-2</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="18">
         <v>4.8135336488485302E-2</v>
       </c>
-      <c r="V20" s="21">
+      <c r="V20" s="19">
         <v>7.7000716701149897E-3</v>
       </c>
-      <c r="W20" s="22">
+      <c r="W20" s="20">
         <v>8.7750054895877797E-2</v>
       </c>
-      <c r="X20" s="21">
+      <c r="X20" s="19">
         <v>5.0998926162719699E-2</v>
       </c>
-      <c r="Y20" s="21">
+      <c r="Y20" s="19">
         <v>8.0503951758146199E-3</v>
       </c>
-      <c r="Z20" s="22">
+      <c r="Z20" s="20">
         <v>8.9723996818065602E-2</v>
       </c>
     </row>
@@ -2526,257 +2455,257 @@
       <c r="B21" s="2">
         <v>96</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>3.94344069063663E-2</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <v>6.1644776724278901E-3</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>7.8514188528060899E-2</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="18">
         <v>4.6247314661741201E-2</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="19">
         <v>7.4398065917193803E-3</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="20">
         <v>8.6254313588142395E-2</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="40">
         <v>3.9509188383817603E-2</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="19">
         <v>7.0123644545674298E-3</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="20">
         <v>8.3739861845970098E-2</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="19">
         <v>4.2471427470445598E-2</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="35">
         <v>6.8122530356049503E-3</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="36">
         <v>8.2536377012729603E-2</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="19">
         <v>4.1434403508901499E-2</v>
       </c>
-      <c r="P21" s="49">
+      <c r="P21" s="19">
         <v>6.9542876444756898E-3</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="Q21" s="20">
         <v>8.3392374217510196E-2</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="18">
         <v>4.55546006560325E-2</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="19">
         <v>7.4555436149239497E-3</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="20">
         <v>8.6345486342906896E-2</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="18">
         <v>4.6273984014987897E-2</v>
       </c>
-      <c r="V21" s="21">
+      <c r="V21" s="19">
         <v>7.4034263379871802E-3</v>
       </c>
-      <c r="W21" s="22">
+      <c r="W21" s="20">
         <v>8.6043164134025504E-2</v>
       </c>
-      <c r="X21" s="21">
+      <c r="X21" s="19">
         <v>5.06439954042434E-2</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Y21" s="19">
         <v>7.9884631559252704E-3</v>
       </c>
-      <c r="Z21" s="22">
+      <c r="Z21" s="20">
         <v>8.9378200471401201E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="40">
         <f>AVERAGE(C19:C21)</f>
         <v>3.8991931825876201E-2</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="17">
         <f t="shared" ref="D22:Z22" si="4">AVERAGE(D19:D21)</f>
         <v>6.1514254969855103E-3</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <f t="shared" si="4"/>
         <v>7.8430975476900699E-2</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="18">
         <f t="shared" si="4"/>
         <v>4.4378849367300632E-2</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="19">
         <f t="shared" si="4"/>
         <v>7.1444166824221568E-3</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="20">
         <f t="shared" si="4"/>
         <v>8.4510649243990557E-2</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="16">
         <f t="shared" si="4"/>
         <v>3.8436813900868033E-2</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="35">
         <f t="shared" si="4"/>
         <v>6.7232552294929767E-3</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="36">
         <f t="shared" si="4"/>
         <v>8.1984062989552756E-2</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="29">
         <f t="shared" si="4"/>
         <v>4.2666693528493199E-2</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="19">
         <f t="shared" si="4"/>
         <v>7.3455038170019762E-3</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="20">
         <f t="shared" si="4"/>
         <v>8.5670764247576359E-2</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="29">
         <f t="shared" si="4"/>
         <v>4.1787023345629302E-2</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="19">
         <f t="shared" si="4"/>
         <v>6.926031472782289E-3</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="20">
         <f t="shared" si="4"/>
         <v>8.3222145835558523E-2</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="18">
         <f t="shared" si="4"/>
         <v>4.7472668190797131E-2</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="19">
         <f t="shared" si="4"/>
         <v>7.5985803268849841E-3</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="20">
         <f t="shared" si="4"/>
         <v>8.7166888018449087E-2</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U22" s="18">
         <f t="shared" si="4"/>
         <v>4.7953779498736034E-2</v>
       </c>
-      <c r="V22" s="21">
+      <c r="V22" s="19">
         <f t="shared" si="4"/>
         <v>7.6218424364924396E-3</v>
       </c>
-      <c r="W22" s="22">
+      <c r="W22" s="20">
         <f t="shared" si="4"/>
         <v>8.7298532327016135E-2</v>
       </c>
-      <c r="X22" s="21">
+      <c r="X22" s="19">
         <f t="shared" si="4"/>
         <v>5.1095316807428938E-2</v>
       </c>
-      <c r="Y22" s="21">
+      <c r="Y22" s="19">
         <f t="shared" si="4"/>
         <v>8.0587050567070603E-3</v>
       </c>
-      <c r="Z22" s="22">
+      <c r="Z22" s="20">
         <f t="shared" si="4"/>
         <v>8.9769646525382982E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="23">
         <v>24</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>3.8539212197065298E-2</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>5.9217507950961503E-3</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>7.69529119133949E-2</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="26">
         <v>4.1554320603609002E-2</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="37">
         <v>6.6463216207921496E-3</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="38">
         <v>8.1524975597858401E-2</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="41">
         <v>4.0074173361062997E-2</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="27">
         <v>6.7737619392573799E-3</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="28">
         <v>8.23028683662414E-2</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="27">
         <v>4.5360952615737901E-2</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="27">
         <v>8.4649026393890294E-3</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="28">
         <v>9.2004902660846696E-2</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="27">
         <v>4.1565839201211902E-2</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="27">
         <v>6.7392480559646997E-3</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="Q23" s="28">
         <v>8.2092925906181294E-2</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="26">
         <v>4.98756021261215E-2</v>
       </c>
-      <c r="S23" s="29">
+      <c r="S23" s="27">
         <v>8.1985350698232599E-3</v>
       </c>
-      <c r="T23" s="30">
+      <c r="T23" s="28">
         <v>9.0545758605003301E-2</v>
       </c>
-      <c r="U23" s="28">
+      <c r="U23" s="26">
         <v>5.0679896026849698E-2</v>
       </c>
-      <c r="V23" s="29">
+      <c r="V23" s="27">
         <v>8.1660132855176908E-3</v>
       </c>
-      <c r="W23" s="30">
+      <c r="W23" s="28">
         <v>9.0365998446941306E-2</v>
       </c>
-      <c r="X23" s="29">
+      <c r="X23" s="27">
         <v>5.1665645092725698E-2</v>
       </c>
-      <c r="Y23" s="29">
+      <c r="Y23" s="27">
         <v>8.3811627700924804E-3</v>
       </c>
-      <c r="Z23" s="30">
+      <c r="Z23" s="28">
         <v>9.1548688709735801E-2</v>
       </c>
     </row>
@@ -2784,76 +2713,76 @@
       <c r="B24" s="2">
         <v>48</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <v>3.9741411805152803E-2</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="17">
         <v>6.0138301923870997E-3</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <v>7.7548891305923406E-2</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="18">
         <v>4.24987412989139E-2</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="19">
         <v>6.7748315632343197E-3</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="20">
         <v>8.2309365272521903E-2</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="18">
         <v>4.0847703814506503E-2</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="19">
         <v>7.2374762967228803E-3</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="20">
         <v>8.50733593106269E-2</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="19">
         <v>4.6098161488771397E-2</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="19">
         <v>8.7631111964583397E-3</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="20">
         <v>9.3611493706703103E-2</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="35">
         <v>4.0397323668002999E-2</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="35">
         <v>6.6857053898274899E-3</v>
       </c>
-      <c r="Q24" s="41">
+      <c r="Q24" s="36">
         <v>8.1766165792942005E-2</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="18">
         <v>4.7411084175109801E-2</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="19">
         <v>7.7752089127898199E-3</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="20">
         <v>8.8177144527435303E-2</v>
       </c>
-      <c r="U24" s="20">
+      <c r="U24" s="18">
         <v>4.7839812934398603E-2</v>
       </c>
-      <c r="V24" s="21">
+      <c r="V24" s="19">
         <v>7.6861619018018202E-3</v>
       </c>
-      <c r="W24" s="22">
+      <c r="W24" s="20">
         <v>8.7670758366584695E-2</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="19">
         <v>5.1097150892019202E-2</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y24" s="19">
         <v>8.2502933219075203E-3</v>
       </c>
-      <c r="Z24" s="22">
+      <c r="Z24" s="20">
         <v>9.0831123292446095E-2</v>
       </c>
     </row>
@@ -2861,76 +2790,76 @@
       <c r="B25" s="2">
         <v>96</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="30">
         <v>4.0421377867460202E-2</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="17">
         <v>6.0362918302416801E-3</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <v>7.7693574130535098E-2</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="18">
         <v>4.4652700424194301E-2</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="19">
         <v>7.1868333034217297E-3</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="20">
         <v>8.4775194525718606E-2</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="16">
         <v>3.9737433195114101E-2</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="19">
         <v>6.8243094719946298E-3</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="20">
         <v>8.2609377801418304E-2</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="19">
         <v>4.6634521335363298E-2</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="19">
         <v>8.8526224717497808E-3</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="20">
         <v>9.4088375568389795E-2</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="35">
         <v>3.9824444800615297E-2</v>
       </c>
-      <c r="P25" s="40">
+      <c r="P25" s="35">
         <v>6.5666642040014198E-3</v>
       </c>
-      <c r="Q25" s="41">
+      <c r="Q25" s="36">
         <v>8.1034958362579304E-2</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="18">
         <v>4.7340419143438298E-2</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25" s="19">
         <v>7.8585175797343202E-3</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="20">
         <v>8.8648281991481698E-2</v>
       </c>
-      <c r="U25" s="20">
+      <c r="U25" s="18">
         <v>4.6708479523658697E-2</v>
       </c>
-      <c r="V25" s="21">
+      <c r="V25" s="19">
         <v>7.6028052717447203E-3</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W25" s="20">
         <v>8.7194070219993494E-2</v>
       </c>
-      <c r="X25" s="21">
+      <c r="X25" s="19">
         <v>4.9877233803272199E-2</v>
       </c>
-      <c r="Y25" s="21">
+      <c r="Y25" s="19">
         <v>8.0335261300206098E-3</v>
       </c>
-      <c r="Z25" s="22">
+      <c r="Z25" s="20">
         <v>8.9629940688609994E-2</v>
       </c>
     </row>
@@ -2938,180 +2867,180 @@
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <f>AVERAGE(C23:C25)</f>
         <v>3.9567333956559432E-2</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="17">
         <f t="shared" ref="D26:Z26" si="5">AVERAGE(D23:D25)</f>
         <v>5.9906242725749764E-3</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="17">
         <f t="shared" si="5"/>
         <v>7.7398459116617802E-2</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="18">
         <f t="shared" si="5"/>
         <v>4.2901920775572401E-2</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="19">
         <f t="shared" si="5"/>
         <v>6.8693288291493994E-3</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="20">
         <f t="shared" si="5"/>
         <v>8.2869845132032965E-2</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="40">
         <f t="shared" si="5"/>
         <v>4.0219770123561205E-2</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="19">
         <f t="shared" si="5"/>
         <v>6.9451825693249633E-3</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="20">
         <f t="shared" si="5"/>
         <v>8.3328535159428868E-2</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="19">
         <f>AVERAGE(L23:L25)</f>
         <v>4.6031211813290868E-2</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="19">
         <f t="shared" si="5"/>
         <v>8.6935454358657172E-3</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="20">
         <f t="shared" si="5"/>
         <v>9.3234923978646522E-2</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="19">
         <f>AVERAGE(O23:O25)</f>
         <v>4.059586922327673E-2</v>
       </c>
-      <c r="P26" s="40">
+      <c r="P26" s="35">
         <f t="shared" si="5"/>
         <v>6.6638725499312034E-3</v>
       </c>
-      <c r="Q26" s="41">
+      <c r="Q26" s="36">
         <f t="shared" si="5"/>
         <v>8.1631350020567539E-2</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="18">
         <f t="shared" si="5"/>
         <v>4.8209035148223202E-2</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26" s="19">
         <f t="shared" si="5"/>
         <v>7.9440871874491333E-3</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="20">
         <f t="shared" si="5"/>
         <v>8.912372837464011E-2</v>
       </c>
-      <c r="U26" s="20">
+      <c r="U26" s="18">
         <f t="shared" si="5"/>
         <v>4.8409396161635664E-2</v>
       </c>
-      <c r="V26" s="21">
+      <c r="V26" s="19">
         <f t="shared" si="5"/>
         <v>7.8183268196880765E-3</v>
       </c>
-      <c r="W26" s="22">
+      <c r="W26" s="20">
         <f t="shared" si="5"/>
         <v>8.8410275677839822E-2</v>
       </c>
-      <c r="X26" s="21">
+      <c r="X26" s="19">
         <f t="shared" si="5"/>
         <v>5.0880009929339033E-2</v>
       </c>
-      <c r="Y26" s="21">
+      <c r="Y26" s="19">
         <f t="shared" si="5"/>
         <v>8.2216607406735368E-3</v>
       </c>
-      <c r="Z26" s="22">
+      <c r="Z26" s="20">
         <f t="shared" si="5"/>
         <v>9.0669917563597283E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="10" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:26" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>1.8416857346892301E-2</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="11">
         <v>6.4510153606534004E-4</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="11">
         <v>2.5398848578333799E-2</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="39">
         <v>2.11142171174287E-2</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="15">
         <v>9.4132317462936E-4</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="34">
         <v>3.0680989846587101E-2</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="12">
         <v>2.3338882252573901E-2</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="13">
         <v>9.8802149295806798E-4</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="14">
         <v>3.1432807445526102E-2</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="13">
         <v>2.4790087714791201E-2</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="13">
         <v>1.07024412136524E-3</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="14">
         <v>3.2714586704969399E-2</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="13">
         <v>2.5605255737900699E-2</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="13">
         <v>1.22557219583541E-3</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q27" s="14">
         <v>3.5008173435926403E-2</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="12">
         <v>2.74052619934082E-2</v>
       </c>
-      <c r="S27" s="15">
+      <c r="S27" s="13">
         <v>1.41742418054491E-3</v>
       </c>
-      <c r="T27" s="16">
+      <c r="T27" s="14">
         <v>3.76486927270889E-2</v>
       </c>
-      <c r="U27" s="14">
+      <c r="U27" s="12">
         <v>2.6944862678647E-2</v>
       </c>
-      <c r="V27" s="15">
+      <c r="V27" s="13">
         <v>1.32843921892344E-3</v>
       </c>
-      <c r="W27" s="16">
+      <c r="W27" s="14">
         <v>3.6447759717702803E-2</v>
       </c>
-      <c r="X27" s="15">
+      <c r="X27" s="13">
         <v>5.4791767150163602E-2</v>
       </c>
-      <c r="Y27" s="15">
+      <c r="Y27" s="13">
         <v>4.6536275185644601E-3</v>
       </c>
-      <c r="Z27" s="16">
+      <c r="Z27" s="14">
         <v>6.8217501044273293E-2</v>
       </c>
     </row>
@@ -3119,76 +3048,76 @@
       <c r="B28" s="2">
         <v>48</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="16">
         <v>2.3212268948554899E-2</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="17">
         <v>9.6889137057587504E-4</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <v>3.1127020716667099E-2</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="40">
         <v>2.5058504194021201E-2</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="35">
         <v>1.3069738633930601E-3</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="36">
         <v>3.6152094602584797E-2</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="18">
         <v>2.81117670238018E-2</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="19">
         <v>1.3360022567212499E-3</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="20">
         <v>3.65513637661933E-2</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="19">
         <v>3.1471569091081598E-2</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="19">
         <v>1.5868790214881301E-3</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="20">
         <v>3.9835650473833001E-2</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="19">
         <v>3.2716028392314897E-2</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P28" s="19">
         <v>1.89718592446297E-3</v>
       </c>
-      <c r="Q28" s="22">
+      <c r="Q28" s="20">
         <v>4.3556697666645001E-2</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="18">
         <v>3.5597883164882597E-2</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28" s="19">
         <v>2.1940781734883699E-3</v>
       </c>
-      <c r="T28" s="22">
+      <c r="T28" s="20">
         <v>4.6840988099575001E-2</v>
       </c>
-      <c r="U28" s="20">
+      <c r="U28" s="18">
         <v>3.4072682261466897E-2</v>
       </c>
-      <c r="V28" s="21">
+      <c r="V28" s="19">
         <v>2.0071724429726601E-3</v>
       </c>
-      <c r="W28" s="22">
+      <c r="W28" s="20">
         <v>4.4801477342844002E-2</v>
       </c>
-      <c r="X28" s="21">
+      <c r="X28" s="19">
         <v>5.4474037140607799E-2</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="Y28" s="19">
         <v>4.6042064204811998E-3</v>
       </c>
-      <c r="Z28" s="22">
+      <c r="Z28" s="20">
         <v>6.7854300141334506E-2</v>
       </c>
     </row>
@@ -3196,257 +3125,257 @@
       <c r="B29" s="2">
         <v>96</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <v>2.6290317997336301E-2</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="17">
         <v>1.2118930462747799E-3</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <v>3.4812252968549701E-2</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="40">
         <v>3.0459787696599901E-2</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="19">
         <v>1.8887546611949799E-3</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="20">
         <v>4.3459806591272299E-2</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="18">
         <v>3.1587589532136903E-2</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="35">
         <v>1.68255530297756E-3</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="36">
         <v>4.1018962860107401E-2</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="19">
         <v>4.1950739920139299E-2</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="19">
         <v>2.6651821099221702E-3</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="20">
         <v>5.16254007816314E-2</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="19">
         <v>4.1500676423311199E-2</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="19">
         <v>2.8052863199263798E-3</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="20">
         <v>5.29649518430233E-2</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="18">
         <v>4.4260453432798302E-2</v>
       </c>
-      <c r="S29" s="21">
+      <c r="S29" s="19">
         <v>3.08123487047851E-3</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="20">
         <v>5.5508870631456299E-2</v>
       </c>
-      <c r="U29" s="20">
+      <c r="U29" s="18">
         <v>4.1334372013807297E-2</v>
       </c>
-      <c r="V29" s="21">
+      <c r="V29" s="19">
         <v>2.73172324523329E-3</v>
       </c>
-      <c r="W29" s="22">
+      <c r="W29" s="20">
         <v>5.2265889942645999E-2</v>
       </c>
-      <c r="X29" s="21">
+      <c r="X29" s="19">
         <v>5.4836038500070503E-2</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="Y29" s="19">
         <v>4.6678399667143796E-3</v>
       </c>
-      <c r="Z29" s="22">
+      <c r="Z29" s="20">
         <v>6.8321593105792999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="16">
         <f>AVERAGE(C27:C29)</f>
         <v>2.2639814764261166E-2</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="17">
         <f t="shared" ref="D30:Z30" si="6">AVERAGE(D27:D29)</f>
         <v>9.4196198430533163E-4</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="17">
         <f t="shared" si="6"/>
         <v>3.0446040754516863E-2</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="40">
         <f t="shared" si="6"/>
         <v>2.5544169669349932E-2</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="19">
         <f t="shared" si="6"/>
         <v>1.3790172330724667E-3</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="20">
         <f t="shared" si="6"/>
         <v>3.6764297013481398E-2</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="18">
         <f t="shared" si="6"/>
         <v>2.7679412936170867E-2</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="35">
         <f t="shared" si="6"/>
         <v>1.335526350885626E-3</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="36">
         <f t="shared" si="6"/>
         <v>3.6334378023942265E-2</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="19">
         <f t="shared" si="6"/>
         <v>3.2737465575337361E-2</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="19">
         <f t="shared" si="6"/>
         <v>1.77410175092518E-3</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="20">
         <f t="shared" si="6"/>
         <v>4.1391879320144605E-2</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="19">
         <f t="shared" si="6"/>
         <v>3.3273986851175601E-2</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="19">
         <f t="shared" si="6"/>
         <v>1.9760148134082534E-3</v>
       </c>
-      <c r="Q30" s="22">
+      <c r="Q30" s="20">
         <f t="shared" si="6"/>
         <v>4.3843274315198237E-2</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="18">
         <f t="shared" si="6"/>
         <v>3.5754532863696363E-2</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30" s="19">
         <f t="shared" si="6"/>
         <v>2.2309124081705965E-3</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="20">
         <f t="shared" si="6"/>
         <v>4.6666183819373402E-2</v>
       </c>
-      <c r="U30" s="20">
+      <c r="U30" s="18">
         <f t="shared" si="6"/>
         <v>3.4117305651307064E-2</v>
       </c>
-      <c r="V30" s="21">
+      <c r="V30" s="19">
         <f t="shared" si="6"/>
         <v>2.02244496904313E-3</v>
       </c>
-      <c r="W30" s="22">
+      <c r="W30" s="20">
         <f t="shared" si="6"/>
         <v>4.4505042334397595E-2</v>
       </c>
-      <c r="X30" s="21">
+      <c r="X30" s="19">
         <f t="shared" si="6"/>
         <v>5.4700614263613966E-2</v>
       </c>
-      <c r="Y30" s="21">
+      <c r="Y30" s="19">
         <f t="shared" si="6"/>
         <v>4.6418913019200128E-3</v>
       </c>
-      <c r="Z30" s="22">
+      <c r="Z30" s="20">
         <f t="shared" si="6"/>
         <v>6.8131131430466937E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="23">
         <v>24</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="24">
         <v>1.8019666895270299E-2</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="25">
         <v>6.1920157168060498E-4</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="25">
         <v>2.4883762001991199E-2</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="26">
         <v>2.0719474181532801E-2</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="27">
         <v>8.8842952391132702E-4</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="28">
         <v>2.98065356910228E-2</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="26">
         <v>2.7454975992441101E-2</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="27">
         <v>1.3994163600727901E-3</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="28">
         <v>3.7408772855997002E-2</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="37">
         <v>2.0698526874184602E-2</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="37">
         <v>8.3325291052460605E-4</v>
       </c>
-      <c r="N31" s="44">
+      <c r="N31" s="38">
         <v>2.88661196827888E-2</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="27">
         <v>2.9086217284202499E-2</v>
       </c>
-      <c r="P31" s="29">
+      <c r="P31" s="27">
         <v>1.48269662167876E-3</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="28">
         <v>3.85058000683784E-2</v>
       </c>
-      <c r="R31" s="28">
+      <c r="R31" s="26">
         <v>2.8542634099721902E-2</v>
       </c>
-      <c r="S31" s="29">
+      <c r="S31" s="27">
         <v>1.5132091939449299E-3</v>
       </c>
-      <c r="T31" s="30">
+      <c r="T31" s="28">
         <v>3.8899987936019897E-2</v>
       </c>
-      <c r="U31" s="28">
+      <c r="U31" s="26">
         <v>3.29397842288017E-2</v>
       </c>
-      <c r="V31" s="29">
+      <c r="V31" s="27">
         <v>1.85607082676142E-3</v>
       </c>
-      <c r="W31" s="30">
+      <c r="W31" s="28">
         <v>4.30821403861045E-2</v>
       </c>
-      <c r="X31" s="29">
+      <c r="X31" s="27">
         <v>5.5152699351310702E-2</v>
       </c>
-      <c r="Y31" s="29">
+      <c r="Y31" s="27">
         <v>4.7566783614456602E-3</v>
       </c>
-      <c r="Z31" s="30">
+      <c r="Z31" s="28">
         <v>6.8968676030635806E-2</v>
       </c>
     </row>
@@ -3454,76 +3383,76 @@
       <c r="B32" s="2">
         <v>48</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="16">
         <v>2.1260784938931399E-2</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="17">
         <v>8.1665714969858495E-4</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="17">
         <v>2.8577214106917301E-2</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="40">
         <v>2.4438584223389601E-2</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="35">
         <v>1.21174147352576E-3</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="36">
         <v>3.4810077399015399E-2</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="18">
         <v>3.0486978590488399E-2</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="19">
         <v>1.5935684787109401E-3</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="20">
         <v>3.9919525384902899E-2</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="19">
         <v>2.5572633370757099E-2</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="19">
         <v>1.2577014276757799E-3</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="20">
         <v>3.5464085638523102E-2</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="19">
         <v>3.1997852027416201E-2</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="19">
         <v>1.77669490221887E-3</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32" s="20">
         <v>4.2150858789682298E-2</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="18">
         <v>3.4601699560880599E-2</v>
       </c>
-      <c r="S32" s="21">
+      <c r="S32" s="19">
         <v>2.0514612551778499E-3</v>
       </c>
-      <c r="T32" s="22">
+      <c r="T32" s="20">
         <v>4.5293059200048398E-2</v>
       </c>
-      <c r="U32" s="20">
+      <c r="U32" s="18">
         <v>3.4835692495107602E-2</v>
       </c>
-      <c r="V32" s="21">
+      <c r="V32" s="19">
         <v>2.0807839464396199E-3</v>
       </c>
-      <c r="W32" s="22">
+      <c r="W32" s="20">
         <v>4.5615609735250397E-2</v>
       </c>
-      <c r="X32" s="21">
+      <c r="X32" s="19">
         <v>5.4841052740812302E-2</v>
       </c>
-      <c r="Y32" s="21">
+      <c r="Y32" s="19">
         <v>4.6700257807970004E-3</v>
       </c>
-      <c r="Z32" s="22">
+      <c r="Z32" s="20">
         <v>6.8337589502334595E-2</v>
       </c>
     </row>
@@ -3531,257 +3460,257 @@
       <c r="B33" s="2">
         <v>96</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <v>2.2915853187441802E-2</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="17">
         <v>9.53608483541756E-4</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="17">
         <v>3.0880551785230598E-2</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="40">
         <v>2.77378354221582E-2</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="35">
         <v>1.55908847227692E-3</v>
       </c>
-      <c r="H33" s="41">
+      <c r="H33" s="36">
         <v>3.9485294371843303E-2</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="18">
         <v>3.3969853073358501E-2</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="19">
         <v>1.9975043833255698E-3</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="20">
         <v>4.4693447649478898E-2</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="19">
         <v>3.2253276556730201E-2</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="19">
         <v>1.79405172821134E-3</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="20">
         <v>4.2356248944997697E-2</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="19">
         <v>3.2821148633956902E-2</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P33" s="19">
         <v>1.83317868504673E-3</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q33" s="20">
         <v>4.2815636843442903E-2</v>
       </c>
-      <c r="R33" s="20">
+      <c r="R33" s="18">
         <v>3.4306317567825297E-2</v>
       </c>
-      <c r="S33" s="21">
+      <c r="S33" s="19">
         <v>1.9933863077312699E-3</v>
       </c>
-      <c r="T33" s="22">
+      <c r="T33" s="20">
         <v>4.4647354632616001E-2</v>
       </c>
-      <c r="U33" s="20">
+      <c r="U33" s="18">
         <v>3.3930748701095498E-2</v>
       </c>
-      <c r="V33" s="21">
+      <c r="V33" s="19">
         <v>1.9693835638463402E-3</v>
       </c>
-      <c r="W33" s="22">
+      <c r="W33" s="20">
         <v>4.43777367472648E-2</v>
       </c>
-      <c r="X33" s="21">
+      <c r="X33" s="19">
         <v>5.4132193326949997E-2</v>
       </c>
-      <c r="Y33" s="21">
+      <c r="Y33" s="19">
         <v>4.6463194303214498E-3</v>
       </c>
-      <c r="Z33" s="22">
+      <c r="Z33" s="20">
         <v>6.81639164686203E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="16">
         <f>AVERAGE(C31:C33)</f>
         <v>2.0732101673881165E-2</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <f t="shared" ref="D34:Z34" si="7">AVERAGE(D31:D33)</f>
         <v>7.9648906830698198E-4</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <f t="shared" si="7"/>
         <v>2.8113842631379699E-2</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="40">
         <f t="shared" si="7"/>
         <v>2.4298631275693535E-2</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="35">
         <f t="shared" si="7"/>
         <v>1.2197531565713356E-3</v>
       </c>
-      <c r="H34" s="41">
+      <c r="H34" s="36">
         <f t="shared" si="7"/>
         <v>3.4700635820627164E-2</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="18">
         <f t="shared" si="7"/>
         <v>3.0637269218762669E-2</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="19">
         <f t="shared" si="7"/>
         <v>1.6634964073697668E-3</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="20">
         <f t="shared" si="7"/>
         <v>4.0673915296792935E-2</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="19">
         <f t="shared" si="7"/>
         <v>2.6174812267223967E-2</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="19">
         <f t="shared" si="7"/>
         <v>1.2950020221372419E-3</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="20">
         <f t="shared" si="7"/>
         <v>3.55621514221032E-2</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="19">
         <f t="shared" si="7"/>
         <v>3.1301739315191868E-2</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="19">
         <f t="shared" si="7"/>
         <v>1.6975234029814534E-3</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="Q34" s="20">
         <f t="shared" si="7"/>
         <v>4.1157431900501203E-2</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="18">
         <f t="shared" si="7"/>
         <v>3.2483550409475932E-2</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="19">
         <f t="shared" si="7"/>
         <v>1.8526855856180165E-3</v>
       </c>
-      <c r="T34" s="22">
+      <c r="T34" s="20">
         <f t="shared" si="7"/>
         <v>4.2946800589561428E-2</v>
       </c>
-      <c r="U34" s="20">
+      <c r="U34" s="18">
         <f t="shared" si="7"/>
         <v>3.3902075141668264E-2</v>
       </c>
-      <c r="V34" s="21">
+      <c r="V34" s="19">
         <f t="shared" si="7"/>
         <v>1.9687461123491265E-3</v>
       </c>
-      <c r="W34" s="22">
+      <c r="W34" s="20">
         <f t="shared" si="7"/>
         <v>4.435849562287323E-2</v>
       </c>
-      <c r="X34" s="21">
+      <c r="X34" s="19">
         <f t="shared" si="7"/>
         <v>5.4708648473024334E-2</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y34" s="19">
         <f t="shared" si="7"/>
         <v>4.6910078575213695E-3</v>
       </c>
-      <c r="Z34" s="22">
+      <c r="Z34" s="20">
         <f t="shared" si="7"/>
         <v>6.84900606671969E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="23">
         <v>24</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="24">
         <v>1.6250062733888598E-2</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="25">
         <v>5.4900307441130205E-4</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="25">
         <v>2.34308149665594E-2</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="41">
         <v>1.9246743991970999E-2</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="37">
         <v>8.0495985457673604E-4</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="38">
         <v>2.8371814638376201E-2</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="26">
         <v>3.0981000512838301E-2</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="27">
         <v>1.89365062396973E-3</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="28">
         <v>4.35160957276821E-2</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="27">
         <v>2.33602579683065E-2</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="27">
         <v>1.12964096479117E-3</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="28">
         <v>3.3610131591558401E-2</v>
       </c>
-      <c r="O35" s="29">
+      <c r="O35" s="27">
         <v>2.5565933436155298E-2</v>
       </c>
-      <c r="P35" s="29">
+      <c r="P35" s="27">
         <v>1.2436721008270901E-3</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="Q35" s="28">
         <v>3.5265736281871699E-2</v>
       </c>
-      <c r="R35" s="28">
+      <c r="R35" s="26">
         <v>2.76194047182798E-2</v>
       </c>
-      <c r="S35" s="29">
+      <c r="S35" s="27">
         <v>1.44916668068617E-3</v>
       </c>
-      <c r="T35" s="30">
+      <c r="T35" s="28">
         <v>3.8067921996116597E-2</v>
       </c>
-      <c r="U35" s="28">
+      <c r="U35" s="26">
         <v>3.05411294102668E-2</v>
       </c>
-      <c r="V35" s="29">
+      <c r="V35" s="27">
         <v>1.7285165376961201E-3</v>
       </c>
-      <c r="W35" s="30">
+      <c r="W35" s="28">
         <v>4.1575431823730399E-2</v>
       </c>
-      <c r="X35" s="29">
+      <c r="X35" s="27">
         <v>5.46482466161251E-2</v>
       </c>
-      <c r="Y35" s="29">
+      <c r="Y35" s="27">
         <v>4.6263323165476296E-3</v>
       </c>
-      <c r="Z35" s="30">
+      <c r="Z35" s="28">
         <v>6.8017147481441498E-2</v>
       </c>
     </row>
@@ -3789,76 +3718,76 @@
       <c r="B36" s="2">
         <v>48</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="16">
         <v>1.7871698364615399E-2</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="17">
         <v>6.4205413218587604E-4</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="17">
         <v>2.5338787585496899E-2</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="40">
         <v>2.2252824157476401E-2</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="35">
         <v>1.0910090059041901E-3</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36" s="36">
         <v>3.3030424267053597E-2</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="18">
         <v>3.6837778985500301E-2</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="19">
         <v>2.3147999309003301E-3</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="20">
         <v>4.8112366348504999E-2</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="19">
         <v>2.6491886004805499E-2</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M36" s="19">
         <v>1.2834389926865599E-3</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="20">
         <v>3.5825118422508198E-2</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="19">
         <v>2.8368292376398999E-2</v>
       </c>
-      <c r="P36" s="21">
+      <c r="P36" s="19">
         <v>1.5513825928792301E-3</v>
       </c>
-      <c r="Q36" s="22">
+      <c r="Q36" s="20">
         <v>3.93875949084758E-2</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R36" s="18">
         <v>3.00317388027906E-2</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36" s="19">
         <v>1.67759286705404E-3</v>
       </c>
-      <c r="T36" s="22">
+      <c r="T36" s="20">
         <v>4.0958426892757402E-2</v>
       </c>
-      <c r="U36" s="20">
+      <c r="U36" s="18">
         <v>3.1203459948301301E-2</v>
       </c>
-      <c r="V36" s="21">
+      <c r="V36" s="19">
         <v>1.7932006157934601E-3</v>
       </c>
-      <c r="W36" s="22">
+      <c r="W36" s="20">
         <v>4.2346198111772503E-2</v>
       </c>
-      <c r="X36" s="21">
+      <c r="X36" s="19">
         <v>5.4662760347127901E-2</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y36" s="19">
         <v>4.6385661698877803E-3</v>
       </c>
-      <c r="Z36" s="22">
+      <c r="Z36" s="20">
         <v>6.8107016384601496E-2</v>
       </c>
     </row>
@@ -3866,76 +3795,76 @@
       <c r="B37" s="2">
         <v>96</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <v>2.0298028364777499E-2</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="17">
         <v>8.1362412311136701E-4</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="17">
         <v>2.85240970551967E-2</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="40">
         <v>2.5904456153512001E-2</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="19">
         <v>1.4699215535074401E-3</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="20">
         <v>3.8339555263519197E-2</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="18">
         <v>3.9149027317762299E-2</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="19">
         <v>2.5933887809514999E-3</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="20">
         <v>5.0925325602293001E-2</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="19">
         <v>2.8383335098624202E-2</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="35">
         <v>1.44005438778549E-3</v>
       </c>
-      <c r="N37" s="41">
+      <c r="N37" s="36">
         <v>3.7948049604892703E-2</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="19">
         <v>2.7957629412412598E-2</v>
       </c>
-      <c r="P37" s="21">
+      <c r="P37" s="19">
         <v>1.51982810348272E-3</v>
       </c>
-      <c r="Q37" s="22">
+      <c r="Q37" s="20">
         <v>3.8984972983598702E-2</v>
       </c>
-      <c r="R37" s="20">
+      <c r="R37" s="18">
         <v>3.0639862641692099E-2</v>
       </c>
-      <c r="S37" s="21">
+      <c r="S37" s="19">
         <v>1.7223977483808901E-3</v>
       </c>
-      <c r="T37" s="22">
+      <c r="T37" s="20">
         <v>4.1501779109239502E-2</v>
       </c>
-      <c r="U37" s="20">
+      <c r="U37" s="18">
         <v>3.1140852719545298E-2</v>
       </c>
-      <c r="V37" s="21">
+      <c r="V37" s="19">
         <v>1.77700875792652E-3</v>
       </c>
-      <c r="W37" s="22">
+      <c r="W37" s="20">
         <v>4.2154580354690503E-2</v>
       </c>
-      <c r="X37" s="21">
+      <c r="X37" s="19">
         <v>5.43775707483291E-2</v>
       </c>
-      <c r="Y37" s="21">
+      <c r="Y37" s="19">
         <v>4.6094353310763801E-3</v>
       </c>
-      <c r="Z37" s="22">
+      <c r="Z37" s="20">
         <v>6.7892819643020602E-2</v>
       </c>
     </row>
@@ -3943,187 +3872,187 @@
       <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <f>AVERAGE(C35:C37)</f>
         <v>1.8139929821093831E-2</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="17">
         <f t="shared" ref="D38:Z38" si="8">AVERAGE(D35:D37)</f>
         <v>6.682271099028484E-4</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="17">
         <f t="shared" si="8"/>
         <v>2.5764566535750998E-2</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="40">
         <f t="shared" si="8"/>
         <v>2.2468008100986467E-2</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="35">
         <f t="shared" si="8"/>
         <v>1.1219634713294554E-3</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="36">
         <f t="shared" si="8"/>
         <v>3.3247264722982998E-2</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="18">
         <f t="shared" si="8"/>
         <v>3.5655935605366972E-2</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="19">
         <f t="shared" si="8"/>
         <v>2.2672797786071866E-3</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="20">
         <f t="shared" si="8"/>
         <v>4.7517929226160029E-2</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="19">
         <f t="shared" si="8"/>
         <v>2.6078493023912065E-2</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="19">
         <f t="shared" si="8"/>
         <v>1.28437811508774E-3</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N38" s="20">
         <f t="shared" si="8"/>
         <v>3.5794433206319767E-2</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="19">
         <f t="shared" si="8"/>
         <v>2.7297285074988964E-2</v>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="19">
         <f t="shared" si="8"/>
         <v>1.4382942657296801E-3</v>
       </c>
-      <c r="Q38" s="22">
+      <c r="Q38" s="20">
         <f t="shared" si="8"/>
         <v>3.787943472464874E-2</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="18">
         <f t="shared" si="8"/>
         <v>2.9430335387587502E-2</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38" s="19">
         <f t="shared" si="8"/>
         <v>1.6163857653736999E-3</v>
       </c>
-      <c r="T38" s="22">
+      <c r="T38" s="20">
         <f t="shared" si="8"/>
         <v>4.0176042666037831E-2</v>
       </c>
-      <c r="U38" s="20">
+      <c r="U38" s="18">
         <f t="shared" si="8"/>
         <v>3.0961814026037801E-2</v>
       </c>
-      <c r="V38" s="21">
+      <c r="V38" s="19">
         <f t="shared" si="8"/>
         <v>1.7662419704720335E-3</v>
       </c>
-      <c r="W38" s="22">
+      <c r="W38" s="20">
         <f t="shared" si="8"/>
         <v>4.2025403430064466E-2</v>
       </c>
-      <c r="X38" s="21">
+      <c r="X38" s="19">
         <f t="shared" si="8"/>
         <v>5.4562859237194034E-2</v>
       </c>
-      <c r="Y38" s="21">
+      <c r="Y38" s="19">
         <f t="shared" si="8"/>
         <v>4.6247779391705964E-3</v>
       </c>
-      <c r="Z38" s="22">
+      <c r="Z38" s="20">
         <f t="shared" si="8"/>
         <v>6.8005661169687856E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="10" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+    <row r="39" spans="1:26" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35">
+      <c r="B39" s="60"/>
+      <c r="C39" s="31">
         <v>28</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="32">
         <v>36</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="32">
         <v>36</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="33">
         <v>0</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <v>0</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="9">
         <v>0</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="33">
         <v>8</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="8">
         <v>0</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="9">
         <v>0</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="8">
         <v>0</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M39" s="8">
         <v>0</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="9">
         <v>0</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="8">
         <v>0</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="8">
         <v>0</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q39" s="9">
         <v>0</v>
       </c>
-      <c r="R39" s="37">
+      <c r="R39" s="33">
         <v>0</v>
       </c>
-      <c r="S39" s="10">
+      <c r="S39" s="8">
         <v>0</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="9">
         <v>0</v>
       </c>
-      <c r="U39" s="37">
+      <c r="U39" s="33">
         <v>0</v>
       </c>
-      <c r="V39" s="10">
+      <c r="V39" s="8">
         <v>0</v>
       </c>
-      <c r="W39" s="11">
+      <c r="W39" s="9">
         <v>0</v>
       </c>
-      <c r="X39" s="10">
+      <c r="X39" s="8">
         <v>0</v>
       </c>
-      <c r="Y39" s="10">
+      <c r="Y39" s="8">
         <v>0</v>
       </c>
-      <c r="Z39" s="11">
+      <c r="Z39" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="82">
+      <c r="B40" s="58"/>
+      <c r="C40" s="54">
         <v>7</v>
       </c>
       <c r="D40" s="1">
@@ -4132,22 +4061,22 @@
       <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="79">
+      <c r="F40" s="51">
         <v>11</v>
       </c>
-      <c r="G40" s="83">
+      <c r="G40" s="55">
         <v>9</v>
       </c>
-      <c r="H40" s="84">
+      <c r="H40" s="56">
         <v>9</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40" s="3">
         <v>3</v>
       </c>
-      <c r="J40" s="80">
+      <c r="J40" s="52">
         <v>10</v>
       </c>
-      <c r="K40" s="81">
+      <c r="K40" s="53">
         <v>10</v>
       </c>
       <c r="L40" s="1">
@@ -4168,7 +4097,7 @@
       <c r="Q40" s="2">
         <v>3</v>
       </c>
-      <c r="R40" s="38">
+      <c r="R40" s="3">
         <v>0</v>
       </c>
       <c r="S40" s="1">
@@ -4177,7 +4106,7 @@
       <c r="T40" s="2">
         <v>0</v>
       </c>
-      <c r="U40" s="38">
+      <c r="U40" s="3">
         <v>0</v>
       </c>
       <c r="V40" s="1">
@@ -4196,18 +4125,97 @@
         <v>8</v>
       </c>
     </row>
+    <row r="41" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="51">
+        <v>35</v>
+      </c>
+      <c r="D41" s="52">
+        <v>36</v>
+      </c>
+      <c r="E41" s="52">
+        <v>36</v>
+      </c>
+      <c r="F41" s="3">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1">
+        <v>9</v>
+      </c>
+      <c r="H41" s="2">
+        <v>9</v>
+      </c>
+      <c r="I41" s="3">
+        <v>11</v>
+      </c>
+      <c r="J41" s="1">
+        <v>10</v>
+      </c>
+      <c r="K41" s="2">
+        <v>10</v>
+      </c>
+      <c r="L41" s="1">
+        <v>5</v>
+      </c>
+      <c r="M41" s="1">
+        <v>6</v>
+      </c>
+      <c r="N41" s="2">
+        <v>6</v>
+      </c>
+      <c r="O41" s="1">
+        <v>4</v>
+      </c>
+      <c r="P41" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/不同模型结果统计.xlsx
+++ b/不同模型结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A8BEA7-0ED0-4BB3-B795-1C13964536CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6973FD28-43E0-4468-AC60-31AA20661B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1490" windowWidth="20750" windowHeight="11650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
-  <si>
-    <t>pred_len</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>GTC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +120,18 @@
   </si>
   <si>
     <t>Total Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pred_len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -512,13 +521,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -836,127 +857,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="61" t="s">
-        <v>1</v>
+      <c r="A1" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59" t="s">
+        <v>0</v>
       </c>
       <c r="D1" s="57"/>
       <c r="E1" s="58"/>
-      <c r="F1" s="61" t="s">
-        <v>5</v>
+      <c r="F1" s="59" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="57"/>
       <c r="H1" s="58"/>
-      <c r="I1" s="61" t="s">
-        <v>6</v>
+      <c r="I1" s="59" t="s">
+        <v>5</v>
       </c>
       <c r="J1" s="57"/>
       <c r="K1" s="58"/>
-      <c r="L1" s="61" t="s">
-        <v>22</v>
+      <c r="L1" s="59" t="s">
+        <v>21</v>
       </c>
       <c r="M1" s="57"/>
       <c r="N1" s="58"/>
-      <c r="O1" s="61" t="s">
-        <v>21</v>
+      <c r="O1" s="59" t="s">
+        <v>20</v>
       </c>
       <c r="P1" s="57"/>
       <c r="Q1" s="58"/>
-      <c r="R1" s="61" t="s">
-        <v>12</v>
+      <c r="R1" s="59" t="s">
+        <v>11</v>
       </c>
       <c r="S1" s="57"/>
       <c r="T1" s="58"/>
-      <c r="U1" s="61" t="s">
-        <v>18</v>
+      <c r="U1" s="59" t="s">
+        <v>17</v>
       </c>
       <c r="V1" s="57"/>
       <c r="W1" s="58"/>
-      <c r="X1" s="61" t="s">
-        <v>7</v>
+      <c r="X1" s="59" t="s">
+        <v>6</v>
       </c>
       <c r="Y1" s="57"/>
       <c r="Z1" s="58"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" s="6" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="I2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="L2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="O2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="R2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="U2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="X2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
+      <c r="A3" s="60" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="9">
         <v>24</v>
@@ -1035,6 +1063,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
       <c r="B4" s="2">
         <v>48</v>
       </c>
@@ -1112,6 +1141,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62"/>
       <c r="B5" s="2">
         <v>96</v>
       </c>
@@ -1189,8 +1219,9 @@
       </c>
     </row>
     <row r="6" spans="1:26" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63"/>
       <c r="B6" s="42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="43">
         <f>AVERAGE(C3:C5)</f>
@@ -1290,8 +1321,8 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
+      <c r="A7" s="64" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>24</v>
@@ -1370,6 +1401,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57"/>
       <c r="B8" s="2">
         <v>48</v>
       </c>
@@ -1447,6 +1479,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="57"/>
       <c r="B9" s="2">
         <v>96</v>
       </c>
@@ -1524,8 +1557,9 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63"/>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="16">
         <f>AVERAGE(C7:C9)</f>
@@ -1625,8 +1659,8 @@
       </c>
     </row>
     <row r="11" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>17</v>
+      <c r="A11" s="64" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="23">
         <v>24</v>
@@ -1705,6 +1739,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="62"/>
       <c r="B12" s="2">
         <v>48</v>
       </c>
@@ -1782,6 +1817,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
       <c r="B13" s="2">
         <v>96</v>
       </c>
@@ -1859,8 +1895,9 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="16">
         <f>AVERAGE(C11:C13)</f>
@@ -1960,8 +1997,8 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
+      <c r="A15" s="60" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="9">
         <v>24</v>
@@ -2040,6 +2077,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62"/>
       <c r="B16" s="2">
         <v>48</v>
       </c>
@@ -2117,6 +2155,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="62"/>
       <c r="B17" s="2">
         <v>96</v>
       </c>
@@ -2194,8 +2233,9 @@
       </c>
     </row>
     <row r="18" spans="1:26" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63"/>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="40">
         <f>AVERAGE(C15:C17)</f>
@@ -2295,8 +2335,8 @@
       </c>
     </row>
     <row r="19" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>11</v>
+      <c r="A19" s="64" t="s">
+        <v>10</v>
       </c>
       <c r="B19" s="23">
         <v>24</v>
@@ -2375,6 +2415,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="62"/>
       <c r="B20" s="2">
         <v>48</v>
       </c>
@@ -2452,6 +2493,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62"/>
       <c r="B21" s="2">
         <v>96</v>
       </c>
@@ -2529,8 +2571,9 @@
       </c>
     </row>
     <row r="22" spans="1:26" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="40">
         <f>AVERAGE(C19:C21)</f>
@@ -2630,8 +2673,8 @@
       </c>
     </row>
     <row r="23" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>16</v>
+      <c r="A23" s="64" t="s">
+        <v>15</v>
       </c>
       <c r="B23" s="23">
         <v>24</v>
@@ -2710,6 +2753,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
       <c r="B24" s="2">
         <v>48</v>
       </c>
@@ -2787,6 +2831,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="62"/>
       <c r="B25" s="2">
         <v>96</v>
       </c>
@@ -2864,8 +2909,9 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="65"/>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="16">
         <f>AVERAGE(C23:C25)</f>
@@ -2965,8 +3011,8 @@
       </c>
     </row>
     <row r="27" spans="1:26" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>15</v>
+      <c r="A27" s="60" t="s">
+        <v>14</v>
       </c>
       <c r="B27" s="9">
         <v>24</v>
@@ -3045,6 +3091,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="62"/>
       <c r="B28" s="2">
         <v>48</v>
       </c>
@@ -3122,6 +3169,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="62"/>
       <c r="B29" s="2">
         <v>96</v>
       </c>
@@ -3199,8 +3247,9 @@
       </c>
     </row>
     <row r="30" spans="1:26" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="63"/>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="16">
         <f>AVERAGE(C27:C29)</f>
@@ -3300,8 +3349,8 @@
       </c>
     </row>
     <row r="31" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>14</v>
+      <c r="A31" s="64" t="s">
+        <v>13</v>
       </c>
       <c r="B31" s="23">
         <v>24</v>
@@ -3380,6 +3429,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="62"/>
       <c r="B32" s="2">
         <v>48</v>
       </c>
@@ -3457,6 +3507,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="62"/>
       <c r="B33" s="2">
         <v>96</v>
       </c>
@@ -3534,8 +3585,9 @@
       </c>
     </row>
     <row r="34" spans="1:26" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="63"/>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="16">
         <f>AVERAGE(C31:C33)</f>
@@ -3635,8 +3687,8 @@
       </c>
     </row>
     <row r="35" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>13</v>
+      <c r="A35" s="64" t="s">
+        <v>12</v>
       </c>
       <c r="B35" s="23">
         <v>24</v>
@@ -3715,6 +3767,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
       <c r="B36" s="2">
         <v>48</v>
       </c>
@@ -3792,6 +3845,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="62"/>
       <c r="B37" s="2">
         <v>96</v>
       </c>
@@ -3869,8 +3923,9 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="65"/>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="16">
         <f>AVERAGE(C35:C37)</f>
@@ -3970,10 +4025,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="60"/>
+      <c r="A39" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="61"/>
       <c r="C39" s="31">
         <v>28</v>
       </c>
@@ -4049,7 +4104,7 @@
     </row>
     <row r="40" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="58"/>
       <c r="C40" s="54">
@@ -4127,7 +4182,7 @@
     </row>
     <row r="41" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="58"/>
       <c r="C41" s="51">
@@ -4204,7 +4259,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="21">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="U1:W1"/>
@@ -4216,6 +4276,11 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
